--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,76 +19158,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H210">
         <v>1</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K210">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N210">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O210">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S210">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X210">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19235,7 +19235,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19247,76 +19247,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K211">
+        <v>2.1</v>
+      </c>
+      <c r="L211">
+        <v>3.4</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="N211">
         <v>1.75</v>
       </c>
-      <c r="L211">
-        <v>3.6</v>
-      </c>
-      <c r="M211">
-        <v>4</v>
-      </c>
-      <c r="N211">
-        <v>1.571</v>
-      </c>
       <c r="O211">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P211">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q211">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T211">
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -27601,7 +27601,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27613,76 +27613,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G305" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K305">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L305">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M305">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N305">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O305">
+        <v>4.2</v>
+      </c>
+      <c r="P305">
         <v>6.5</v>
       </c>
-      <c r="P305">
-        <v>12</v>
-      </c>
       <c r="Q305">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R305">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S305">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T305">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V305">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27690,7 +27690,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27702,76 +27702,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G306" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K306">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L306">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M306">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N306">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O306">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P306">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q306">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R306">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T306">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U306">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V306">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W306">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X306">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA306">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB306">
         <v>-1</v>
       </c>
       <c r="AC306">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,76 +29304,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G324" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I324">
         <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K324">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L324">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M324">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N324">
         <v>1.75</v>
       </c>
       <c r="O324">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P324">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q324">
         <v>-0.5</v>
       </c>
       <c r="R324">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S324">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T324">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U324">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA324">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC324">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,58 +29393,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G325" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H325">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I325">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J325" t="s">
         <v>51</v>
       </c>
       <c r="K325">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L325">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M325">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N325">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O325">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P325">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q325">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S325">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U325">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V325">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W325">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X325">
         <v>-1</v>
@@ -29453,16 +29453,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB325">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29482,76 +29482,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G326" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H326">
         <v>1</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J326" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K326">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L326">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M326">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N326">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O326">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P326">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q326">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S326">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T326">
+        <v>2.75</v>
+      </c>
+      <c r="U326">
+        <v>1.825</v>
+      </c>
+      <c r="V326">
+        <v>1.975</v>
+      </c>
+      <c r="W326">
+        <v>-1</v>
+      </c>
+      <c r="X326">
+        <v>-1</v>
+      </c>
+      <c r="Y326">
         <v>3</v>
       </c>
-      <c r="U326">
-        <v>1.875</v>
-      </c>
-      <c r="V326">
-        <v>1.925</v>
-      </c>
-      <c r="W326">
-        <v>0.25</v>
-      </c>
-      <c r="X326">
-        <v>-1</v>
-      </c>
-      <c r="Y326">
-        <v>-1</v>
-      </c>
       <c r="Z326">
         <v>-1</v>
       </c>
       <c r="AA326">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC326">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7384625</v>
+        <v>7384626</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,76 +30194,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F334" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G334" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I334">
         <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K334">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L334">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M334">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N334">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="O334">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P334">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q334">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R334">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S334">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T334">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U334">
+        <v>2</v>
+      </c>
+      <c r="V334">
         <v>1.8</v>
       </c>
-      <c r="V334">
-        <v>2</v>
-      </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X334">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA334">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC334">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30360,7 +30360,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7384626</v>
+        <v>7384625</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30372,76 +30372,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G336" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H336">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336">
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K336">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L336">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M336">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N336">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O336">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P336">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q336">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R336">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S336">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T336">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U336">
+        <v>1.8</v>
+      </c>
+      <c r="V336">
         <v>2</v>
       </c>
-      <c r="V336">
-        <v>1.8</v>
-      </c>
       <c r="W336">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X336">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA336">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB336">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -33324,31 +33324,31 @@
         <v>5.5</v>
       </c>
       <c r="N369">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="O369">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P369">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q369">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R369">
+        <v>2.025</v>
+      </c>
+      <c r="S369">
+        <v>1.825</v>
+      </c>
+      <c r="T369">
+        <v>2.75</v>
+      </c>
+      <c r="U369">
+        <v>2.05</v>
+      </c>
+      <c r="V369">
         <v>1.8</v>
-      </c>
-      <c r="S369">
-        <v>2.05</v>
-      </c>
-      <c r="T369">
-        <v>2.5</v>
-      </c>
-      <c r="U369">
-        <v>2</v>
-      </c>
-      <c r="V369">
-        <v>1.85</v>
       </c>
       <c r="W369">
         <v>0</v>
@@ -33398,31 +33398,31 @@
         <v>4.5</v>
       </c>
       <c r="N370">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O370">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P370">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q370">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R370">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S370">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T370">
         <v>2.5</v>
       </c>
       <c r="U370">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V370">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W370">
         <v>0</v>
@@ -33475,28 +33475,28 @@
         <v>1.533</v>
       </c>
       <c r="O371">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P371">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q371">
         <v>-1</v>
       </c>
       <c r="R371">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S371">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T371">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U371">
+        <v>2.05</v>
+      </c>
+      <c r="V371">
         <v>1.8</v>
-      </c>
-      <c r="V371">
-        <v>2.05</v>
       </c>
       <c r="W371">
         <v>0</v>
@@ -33546,31 +33546,31 @@
         <v>2</v>
       </c>
       <c r="N372">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O372">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P372">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q372">
         <v>0.75</v>
       </c>
       <c r="R372">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S372">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T372">
         <v>2.25</v>
       </c>
       <c r="U372">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V372">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W372">
         <v>0</v>
@@ -33626,25 +33626,25 @@
         <v>4</v>
       </c>
       <c r="P373">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q373">
         <v>-1.25</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S373">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T373">
         <v>2.5</v>
       </c>
       <c r="U373">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V373">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33694,31 +33694,31 @@
         <v>3.75</v>
       </c>
       <c r="N374">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O374">
         <v>3.6</v>
       </c>
       <c r="P374">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q374">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S374">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T374">
         <v>2.5</v>
       </c>
       <c r="U374">
+        <v>1.9</v>
+      </c>
+      <c r="V374">
         <v>1.95</v>
-      </c>
-      <c r="V374">
-        <v>1.9</v>
       </c>
       <c r="W374">
         <v>0</v>
@@ -33768,31 +33768,31 @@
         <v>3.5</v>
       </c>
       <c r="N375">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O375">
         <v>3.5</v>
       </c>
       <c r="P375">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q375">
         <v>-0.75</v>
       </c>
       <c r="R375">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S375">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T375">
         <v>2.5</v>
       </c>
       <c r="U375">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W375">
         <v>0</v>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC375"/>
+  <dimension ref="A1:AC372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,58 +29304,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G324" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I324">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J324" t="s">
         <v>51</v>
       </c>
       <c r="K324">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L324">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M324">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N324">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O324">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P324">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q324">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R324">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S324">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T324">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U324">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V324">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W324">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X324">
         <v>-1</v>
@@ -29364,16 +29364,16 @@
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB324">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC324">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,76 +29393,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G325" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H325">
         <v>1</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J325" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K325">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L325">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M325">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N325">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O325">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P325">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q325">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R325">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S325">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T325">
+        <v>2.75</v>
+      </c>
+      <c r="U325">
+        <v>1.825</v>
+      </c>
+      <c r="V325">
+        <v>1.975</v>
+      </c>
+      <c r="W325">
+        <v>-1</v>
+      </c>
+      <c r="X325">
+        <v>-1</v>
+      </c>
+      <c r="Y325">
         <v>3</v>
       </c>
-      <c r="U325">
-        <v>1.875</v>
-      </c>
-      <c r="V325">
-        <v>1.925</v>
-      </c>
-      <c r="W325">
-        <v>0.25</v>
-      </c>
-      <c r="X325">
-        <v>-1</v>
-      </c>
-      <c r="Y325">
-        <v>-1</v>
-      </c>
       <c r="Z325">
         <v>-1</v>
       </c>
       <c r="AA325">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC325">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29482,76 +29482,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G326" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I326">
         <v>2</v>
       </c>
       <c r="J326" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K326">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L326">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M326">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N326">
         <v>1.75</v>
       </c>
       <c r="O326">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P326">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q326">
         <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T326">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U326">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V326">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W326">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X326">
         <v>-1</v>
       </c>
       <c r="Y326">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA326">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB326">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC326">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -33297,7 +33297,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>7768161</v>
+        <v>7768163</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33306,49 +33306,49 @@
         <v>28</v>
       </c>
       <c r="E369" s="2">
-        <v>45339.70833333334</v>
+        <v>45340.66666666666</v>
       </c>
       <c r="F369" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G369" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K369">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="L369">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M369">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N369">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O369">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P369">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="Q369">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R369">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S369">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T369">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U369">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V369">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W369">
         <v>0</v>
@@ -33371,7 +33371,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7768167</v>
+        <v>7768164</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33380,49 +33380,49 @@
         <v>28</v>
       </c>
       <c r="E370" s="2">
-        <v>45339.83333333334</v>
+        <v>45340.79166666666</v>
       </c>
       <c r="F370" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G370" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K370">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L370">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M370">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N370">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O370">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P370">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q370">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R370">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S370">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T370">
         <v>2.5</v>
       </c>
       <c r="U370">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V370">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W370">
         <v>0</v>
@@ -33445,7 +33445,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7768162</v>
+        <v>7768165</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33454,49 +33454,49 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45339.91666666666</v>
+        <v>45340.89583333334</v>
       </c>
       <c r="F371" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G371" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K371">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L371">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M371">
+        <v>3.75</v>
+      </c>
+      <c r="N371">
+        <v>1.4</v>
+      </c>
+      <c r="O371">
         <v>4.75</v>
       </c>
-      <c r="N371">
-        <v>1.533</v>
-      </c>
-      <c r="O371">
-        <v>3.6</v>
-      </c>
       <c r="P371">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q371">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R371">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S371">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T371">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U371">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V371">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W371">
         <v>0</v>
@@ -33519,7 +33519,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7768163</v>
+        <v>7768166</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33528,34 +33528,34 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45340.66666666666</v>
+        <v>45341.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G372" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K372">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L372">
         <v>3.3</v>
       </c>
       <c r="M372">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N372">
+        <v>1.666</v>
+      </c>
+      <c r="O372">
+        <v>3.5</v>
+      </c>
+      <c r="P372">
         <v>4.75</v>
       </c>
-      <c r="O372">
-        <v>3.6</v>
-      </c>
-      <c r="P372">
-        <v>1.7</v>
-      </c>
       <c r="Q372">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R372">
         <v>1.925</v>
@@ -33564,13 +33564,13 @@
         <v>1.925</v>
       </c>
       <c r="T372">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
+        <v>2</v>
+      </c>
+      <c r="V372">
         <v>1.85</v>
-      </c>
-      <c r="V372">
-        <v>2</v>
       </c>
       <c r="W372">
         <v>0</v>
@@ -33585,228 +33585,6 @@
         <v>0</v>
       </c>
       <c r="AA372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:27">
-      <c r="A373" s="1">
-        <v>371</v>
-      </c>
-      <c r="B373">
-        <v>7768164</v>
-      </c>
-      <c r="C373" t="s">
-        <v>28</v>
-      </c>
-      <c r="D373" t="s">
-        <v>28</v>
-      </c>
-      <c r="E373" s="2">
-        <v>45340.79166666666</v>
-      </c>
-      <c r="F373" t="s">
-        <v>34</v>
-      </c>
-      <c r="G373" t="s">
-        <v>32</v>
-      </c>
-      <c r="K373">
-        <v>1.444</v>
-      </c>
-      <c r="L373">
-        <v>4</v>
-      </c>
-      <c r="M373">
-        <v>6.5</v>
-      </c>
-      <c r="N373">
-        <v>1.4</v>
-      </c>
-      <c r="O373">
-        <v>4</v>
-      </c>
-      <c r="P373">
-        <v>7.5</v>
-      </c>
-      <c r="Q373">
-        <v>-1.25</v>
-      </c>
-      <c r="R373">
-        <v>2.05</v>
-      </c>
-      <c r="S373">
-        <v>1.8</v>
-      </c>
-      <c r="T373">
-        <v>2.5</v>
-      </c>
-      <c r="U373">
-        <v>2.025</v>
-      </c>
-      <c r="V373">
-        <v>1.825</v>
-      </c>
-      <c r="W373">
-        <v>0</v>
-      </c>
-      <c r="X373">
-        <v>0</v>
-      </c>
-      <c r="Y373">
-        <v>0</v>
-      </c>
-      <c r="Z373">
-        <v>0</v>
-      </c>
-      <c r="AA373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:27">
-      <c r="A374" s="1">
-        <v>372</v>
-      </c>
-      <c r="B374">
-        <v>7768165</v>
-      </c>
-      <c r="C374" t="s">
-        <v>28</v>
-      </c>
-      <c r="D374" t="s">
-        <v>28</v>
-      </c>
-      <c r="E374" s="2">
-        <v>45340.89583333334</v>
-      </c>
-      <c r="F374" t="s">
-        <v>33</v>
-      </c>
-      <c r="G374" t="s">
-        <v>44</v>
-      </c>
-      <c r="K374">
-        <v>1.833</v>
-      </c>
-      <c r="L374">
-        <v>3.6</v>
-      </c>
-      <c r="M374">
-        <v>3.75</v>
-      </c>
-      <c r="N374">
-        <v>1.8</v>
-      </c>
-      <c r="O374">
-        <v>3.6</v>
-      </c>
-      <c r="P374">
-        <v>4.2</v>
-      </c>
-      <c r="Q374">
-        <v>-0.75</v>
-      </c>
-      <c r="R374">
-        <v>2.025</v>
-      </c>
-      <c r="S374">
-        <v>1.825</v>
-      </c>
-      <c r="T374">
-        <v>2.5</v>
-      </c>
-      <c r="U374">
-        <v>1.9</v>
-      </c>
-      <c r="V374">
-        <v>1.95</v>
-      </c>
-      <c r="W374">
-        <v>0</v>
-      </c>
-      <c r="X374">
-        <v>0</v>
-      </c>
-      <c r="Y374">
-        <v>0</v>
-      </c>
-      <c r="Z374">
-        <v>0</v>
-      </c>
-      <c r="AA374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:27">
-      <c r="A375" s="1">
-        <v>373</v>
-      </c>
-      <c r="B375">
-        <v>7768166</v>
-      </c>
-      <c r="C375" t="s">
-        <v>28</v>
-      </c>
-      <c r="D375" t="s">
-        <v>28</v>
-      </c>
-      <c r="E375" s="2">
-        <v>45341.70833333334</v>
-      </c>
-      <c r="F375" t="s">
-        <v>50</v>
-      </c>
-      <c r="G375" t="s">
-        <v>29</v>
-      </c>
-      <c r="K375">
-        <v>2</v>
-      </c>
-      <c r="L375">
-        <v>3.3</v>
-      </c>
-      <c r="M375">
-        <v>3.5</v>
-      </c>
-      <c r="N375">
-        <v>1.666</v>
-      </c>
-      <c r="O375">
-        <v>3.5</v>
-      </c>
-      <c r="P375">
-        <v>4.75</v>
-      </c>
-      <c r="Q375">
-        <v>-0.75</v>
-      </c>
-      <c r="R375">
-        <v>1.925</v>
-      </c>
-      <c r="S375">
-        <v>1.925</v>
-      </c>
-      <c r="T375">
-        <v>2.5</v>
-      </c>
-      <c r="U375">
-        <v>2</v>
-      </c>
-      <c r="V375">
-        <v>1.85</v>
-      </c>
-      <c r="W375">
-        <v>0</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="Y375">
-        <v>0</v>
-      </c>
-      <c r="Z375">
-        <v>0</v>
-      </c>
-      <c r="AA375">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC372"/>
+  <dimension ref="A1:AC374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6277614</v>
+        <v>6277613</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K35">
+        <v>2.8</v>
+      </c>
+      <c r="L35">
+        <v>3.25</v>
+      </c>
+      <c r="M35">
         <v>2.375</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>3.2</v>
       </c>
-      <c r="M35">
-        <v>2.875</v>
-      </c>
-      <c r="N35">
-        <v>1.909</v>
-      </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6277613</v>
+        <v>6277614</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,76 +3672,76 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N36">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,76 +19158,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H210">
         <v>1</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K210">
+        <v>2.1</v>
+      </c>
+      <c r="L210">
+        <v>3.4</v>
+      </c>
+      <c r="M210">
+        <v>3</v>
+      </c>
+      <c r="N210">
         <v>1.75</v>
       </c>
-      <c r="L210">
-        <v>3.6</v>
-      </c>
-      <c r="M210">
-        <v>4</v>
-      </c>
-      <c r="N210">
-        <v>1.571</v>
-      </c>
       <c r="O210">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P210">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q210">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S210">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19235,7 +19235,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19247,76 +19247,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L211">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N211">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O211">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P211">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q211">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R211">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T211">
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X211">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -27601,7 +27601,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27613,76 +27613,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K305">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L305">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M305">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N305">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O305">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P305">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q305">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R305">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S305">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U305">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X305">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA305">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27690,7 +27690,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27702,76 +27702,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G306" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K306">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L306">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M306">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N306">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O306">
+        <v>4.2</v>
+      </c>
+      <c r="P306">
         <v>6.5</v>
       </c>
-      <c r="P306">
-        <v>12</v>
-      </c>
       <c r="Q306">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R306">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S306">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T306">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U306">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V306">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W306">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB306">
         <v>-1</v>
       </c>
       <c r="AC306">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,58 +29304,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G324" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
         <v>51</v>
       </c>
       <c r="K324">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L324">
+        <v>3.2</v>
+      </c>
+      <c r="M324">
         <v>3.75</v>
       </c>
-      <c r="M324">
+      <c r="N324">
+        <v>1.75</v>
+      </c>
+      <c r="O324">
+        <v>3.4</v>
+      </c>
+      <c r="P324">
         <v>4.333</v>
       </c>
-      <c r="N324">
-        <v>1.25</v>
-      </c>
-      <c r="O324">
-        <v>5.25</v>
-      </c>
-      <c r="P324">
-        <v>10</v>
-      </c>
       <c r="Q324">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R324">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S324">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T324">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U324">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V324">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W324">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X324">
         <v>-1</v>
@@ -29364,16 +29364,16 @@
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA324">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC324">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29482,58 +29482,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G326" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H326">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I326">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J326" t="s">
         <v>51</v>
       </c>
       <c r="K326">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L326">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M326">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N326">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O326">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P326">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R326">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T326">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U326">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V326">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W326">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -29542,16 +29542,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB326">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29737,7 +29737,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29749,76 +29749,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F329" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G329" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H329">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J329" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K329">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L329">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M329">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N329">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O329">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P329">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q329">
         <v>-1</v>
       </c>
       <c r="R329">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S329">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T329">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U329">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V329">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W329">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z329">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB329">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29826,7 +29826,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29838,76 +29838,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F330" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G330" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H330">
+        <v>2</v>
+      </c>
+      <c r="I330">
         <v>1</v>
       </c>
-      <c r="I330">
+      <c r="J330" t="s">
+        <v>51</v>
+      </c>
+      <c r="K330">
         <v>2</v>
       </c>
-      <c r="J330" t="s">
-        <v>53</v>
-      </c>
-      <c r="K330">
-        <v>1.444</v>
-      </c>
       <c r="L330">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M330">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N330">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O330">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P330">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q330">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R330">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S330">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T330">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U330">
+        <v>1.925</v>
+      </c>
+      <c r="V330">
         <v>1.875</v>
       </c>
-      <c r="V330">
-        <v>1.975</v>
-      </c>
       <c r="W330">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X330">
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA330">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC330">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29915,7 +29915,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29927,13 +29927,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F331" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G331" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I331">
         <v>1</v>
@@ -29951,34 +29951,34 @@
         <v>3.5</v>
       </c>
       <c r="N331">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O331">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P331">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q331">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R331">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S331">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T331">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V331">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W331">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X331">
         <v>-1</v>
@@ -29987,16 +29987,16 @@
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA331">
         <v>-1</v>
       </c>
       <c r="AB331">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC331">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30093,7 +30093,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7384629</v>
+        <v>7384627</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30105,76 +30105,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F333" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G333" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H333">
+        <v>2</v>
+      </c>
+      <c r="I333">
         <v>0</v>
       </c>
-      <c r="I333">
-        <v>1</v>
-      </c>
       <c r="J333" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K333">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L333">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M333">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="N333">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="O333">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P333">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q333">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R333">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S333">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T333">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U333">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V333">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA333">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB333">
         <v>-1</v>
       </c>
       <c r="AC333">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7384627</v>
+        <v>7384625</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,76 +30283,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G335" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335">
         <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K335">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="L335">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M335">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N335">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="O335">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P335">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q335">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R335">
+        <v>1.875</v>
+      </c>
+      <c r="S335">
+        <v>1.925</v>
+      </c>
+      <c r="T335">
+        <v>2.5</v>
+      </c>
+      <c r="U335">
         <v>1.8</v>
       </c>
-      <c r="S335">
+      <c r="V335">
         <v>2</v>
       </c>
-      <c r="T335">
-        <v>2.75</v>
-      </c>
-      <c r="U335">
-        <v>1.85</v>
-      </c>
-      <c r="V335">
-        <v>1.95</v>
-      </c>
       <c r="W335">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X335">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30360,7 +30360,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7384625</v>
+        <v>7384629</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30372,76 +30372,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G336" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H336">
         <v>0</v>
       </c>
       <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336" t="s">
+        <v>53</v>
+      </c>
+      <c r="K336">
+        <v>2.625</v>
+      </c>
+      <c r="L336">
+        <v>3.3</v>
+      </c>
+      <c r="M336">
+        <v>2.5</v>
+      </c>
+      <c r="N336">
+        <v>2.7</v>
+      </c>
+      <c r="O336">
+        <v>3.4</v>
+      </c>
+      <c r="P336">
+        <v>2.375</v>
+      </c>
+      <c r="Q336">
         <v>0</v>
       </c>
-      <c r="J336" t="s">
-        <v>52</v>
-      </c>
-      <c r="K336">
-        <v>1.5</v>
-      </c>
-      <c r="L336">
-        <v>3.75</v>
-      </c>
-      <c r="M336">
-        <v>7</v>
-      </c>
-      <c r="N336">
-        <v>1.363</v>
-      </c>
-      <c r="O336">
-        <v>4.333</v>
-      </c>
-      <c r="P336">
-        <v>9.5</v>
-      </c>
-      <c r="Q336">
-        <v>-1.25</v>
-      </c>
       <c r="R336">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S336">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T336">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U336">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V336">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W336">
         <v>-1</v>
       </c>
       <c r="X336">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z336">
         <v>-1</v>
       </c>
       <c r="AA336">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB336">
         <v>-1</v>
       </c>
       <c r="AC336">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -33292,12 +33292,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="369" spans="1:27">
+    <row r="369" spans="1:29">
       <c r="A369" s="1">
         <v>367</v>
       </c>
       <c r="B369">
-        <v>7768163</v>
+        <v>7768161</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33306,72 +33306,87 @@
         <v>28</v>
       </c>
       <c r="E369" s="2">
-        <v>45340.66666666666</v>
+        <v>45339.70833333334</v>
       </c>
       <c r="F369" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G369" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="H369">
+        <v>4</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369" t="s">
+        <v>51</v>
       </c>
       <c r="K369">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="L369">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M369">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N369">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="O369">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P369">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="Q369">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R369">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S369">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T369">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U369">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V369">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W369">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X369">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y369">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB369">
+        <v>0.825</v>
+      </c>
+      <c r="AC369">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29">
       <c r="A370" s="1">
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7768164</v>
+        <v>7768167</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33380,72 +33395,87 @@
         <v>28</v>
       </c>
       <c r="E370" s="2">
-        <v>45340.79166666666</v>
+        <v>45339.83333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G370" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370" t="s">
+        <v>51</v>
       </c>
       <c r="K370">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L370">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M370">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N370">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O370">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P370">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q370">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R370">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S370">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T370">
         <v>2.5</v>
       </c>
       <c r="U370">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V370">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W370">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB370">
+        <v>-1</v>
+      </c>
+      <c r="AC370">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29">
       <c r="A371" s="1">
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7768165</v>
+        <v>7768162</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33454,72 +33484,87 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45340.89583333334</v>
+        <v>45339.91666666666</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G371" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="H371">
+        <v>2</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371" t="s">
+        <v>51</v>
       </c>
       <c r="K371">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L371">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M371">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N371">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="O371">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P371">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q371">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R371">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S371">
+        <v>2.1</v>
+      </c>
+      <c r="T371">
+        <v>2.25</v>
+      </c>
+      <c r="U371">
         <v>1.9</v>
       </c>
-      <c r="T371">
-        <v>2.75</v>
-      </c>
-      <c r="U371">
-        <v>1.975</v>
-      </c>
       <c r="V371">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W371">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB371">
+        <v>-0.5</v>
+      </c>
+      <c r="AC371">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29">
       <c r="A372" s="1">
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7768166</v>
+        <v>7768163</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33528,63 +33573,241 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45341.70833333334</v>
+        <v>45340.66666666666</v>
       </c>
       <c r="F372" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G372" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>3</v>
+      </c>
+      <c r="J372" t="s">
+        <v>53</v>
       </c>
       <c r="K372">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L372">
         <v>3.3</v>
       </c>
       <c r="M372">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N372">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="O372">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P372">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q372">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R372">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S372">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T372">
         <v>2.5</v>
       </c>
       <c r="U372">
+        <v>1.925</v>
+      </c>
+      <c r="V372">
+        <v>1.875</v>
+      </c>
+      <c r="W372">
+        <v>-1</v>
+      </c>
+      <c r="X372">
+        <v>-1</v>
+      </c>
+      <c r="Y372">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z372">
+        <v>-1</v>
+      </c>
+      <c r="AA372">
+        <v>0.95</v>
+      </c>
+      <c r="AB372">
+        <v>0.925</v>
+      </c>
+      <c r="AC372">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>7768164</v>
+      </c>
+      <c r="C373" t="s">
+        <v>28</v>
+      </c>
+      <c r="D373" t="s">
+        <v>28</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45340.79166666666</v>
+      </c>
+      <c r="F373" t="s">
+        <v>34</v>
+      </c>
+      <c r="G373" t="s">
+        <v>32</v>
+      </c>
+      <c r="H373">
+        <v>3</v>
+      </c>
+      <c r="I373">
         <v>2</v>
       </c>
-      <c r="V372">
-        <v>1.85</v>
-      </c>
-      <c r="W372">
+      <c r="J373" t="s">
+        <v>51</v>
+      </c>
+      <c r="K373">
+        <v>1.444</v>
+      </c>
+      <c r="L373">
+        <v>4</v>
+      </c>
+      <c r="M373">
+        <v>6.5</v>
+      </c>
+      <c r="N373">
+        <v>1.3</v>
+      </c>
+      <c r="O373">
+        <v>4.333</v>
+      </c>
+      <c r="P373">
+        <v>9.5</v>
+      </c>
+      <c r="Q373">
+        <v>-1.5</v>
+      </c>
+      <c r="R373">
+        <v>2</v>
+      </c>
+      <c r="S373">
+        <v>1.8</v>
+      </c>
+      <c r="T373">
+        <v>2.5</v>
+      </c>
+      <c r="U373">
+        <v>1.925</v>
+      </c>
+      <c r="V373">
+        <v>1.875</v>
+      </c>
+      <c r="W373">
+        <v>0.3</v>
+      </c>
+      <c r="X373">
+        <v>-1</v>
+      </c>
+      <c r="Y373">
+        <v>-1</v>
+      </c>
+      <c r="Z373">
+        <v>-1</v>
+      </c>
+      <c r="AA373">
+        <v>0.8</v>
+      </c>
+      <c r="AB373">
+        <v>0.925</v>
+      </c>
+      <c r="AC373">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>7768166</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45341.70833333334</v>
+      </c>
+      <c r="F374" t="s">
+        <v>50</v>
+      </c>
+      <c r="G374" t="s">
+        <v>29</v>
+      </c>
+      <c r="K374">
+        <v>2</v>
+      </c>
+      <c r="L374">
+        <v>3.3</v>
+      </c>
+      <c r="M374">
+        <v>3.5</v>
+      </c>
+      <c r="N374">
+        <v>1.727</v>
+      </c>
+      <c r="O374">
+        <v>3.5</v>
+      </c>
+      <c r="P374">
+        <v>4.333</v>
+      </c>
+      <c r="Q374">
+        <v>-0.75</v>
+      </c>
+      <c r="R374">
+        <v>1.975</v>
+      </c>
+      <c r="S374">
+        <v>1.875</v>
+      </c>
+      <c r="T374">
+        <v>2.5</v>
+      </c>
+      <c r="U374">
+        <v>2.05</v>
+      </c>
+      <c r="V374">
+        <v>1.8</v>
+      </c>
+      <c r="W374">
         <v>0</v>
       </c>
-      <c r="X372">
+      <c r="X374">
         <v>0</v>
       </c>
-      <c r="Y372">
+      <c r="Y374">
         <v>0</v>
       </c>
-      <c r="Z372">
+      <c r="Z374">
         <v>0</v>
       </c>
-      <c r="AA372">
+      <c r="AA374">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC374"/>
+  <dimension ref="A1:AC375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6277613</v>
+        <v>6277614</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L35">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N35">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6277614</v>
+        <v>6277613</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,76 +3672,76 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K36">
+        <v>2.8</v>
+      </c>
+      <c r="L36">
+        <v>3.25</v>
+      </c>
+      <c r="M36">
         <v>2.375</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>3.2</v>
       </c>
-      <c r="M36">
-        <v>2.875</v>
-      </c>
-      <c r="N36">
-        <v>1.909</v>
-      </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,76 +19158,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H210">
         <v>1</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K210">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N210">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O210">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S210">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X210">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19235,7 +19235,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19247,76 +19247,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K211">
+        <v>2.1</v>
+      </c>
+      <c r="L211">
+        <v>3.4</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="N211">
         <v>1.75</v>
       </c>
-      <c r="L211">
-        <v>3.6</v>
-      </c>
-      <c r="M211">
-        <v>4</v>
-      </c>
-      <c r="N211">
-        <v>1.571</v>
-      </c>
       <c r="O211">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P211">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q211">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T211">
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -27601,7 +27601,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27613,76 +27613,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G305" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K305">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L305">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M305">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N305">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O305">
+        <v>4.2</v>
+      </c>
+      <c r="P305">
         <v>6.5</v>
       </c>
-      <c r="P305">
-        <v>12</v>
-      </c>
       <c r="Q305">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R305">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S305">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T305">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V305">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27690,7 +27690,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27702,76 +27702,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G306" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K306">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L306">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M306">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N306">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O306">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P306">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q306">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R306">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T306">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U306">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V306">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W306">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X306">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA306">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB306">
         <v>-1</v>
       </c>
       <c r="AC306">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -29737,7 +29737,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7384622</v>
+        <v>7384624</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29749,76 +29749,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F329" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G329" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H329">
+        <v>3</v>
+      </c>
+      <c r="I329">
         <v>1</v>
       </c>
-      <c r="I329">
+      <c r="J329" t="s">
+        <v>51</v>
+      </c>
+      <c r="K329">
         <v>2</v>
       </c>
-      <c r="J329" t="s">
-        <v>53</v>
-      </c>
-      <c r="K329">
-        <v>1.444</v>
-      </c>
       <c r="L329">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M329">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N329">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O329">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P329">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q329">
         <v>-1</v>
       </c>
       <c r="R329">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S329">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T329">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U329">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V329">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA329">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC329">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29826,7 +29826,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7384623</v>
+        <v>7384622</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29838,76 +29838,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F330" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G330" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330">
         <v>2</v>
       </c>
-      <c r="I330">
-        <v>1</v>
-      </c>
       <c r="J330" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K330">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L330">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M330">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N330">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O330">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P330">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q330">
+        <v>-1</v>
+      </c>
+      <c r="R330">
+        <v>1.825</v>
+      </c>
+      <c r="S330">
+        <v>2.025</v>
+      </c>
+      <c r="T330">
+        <v>2.75</v>
+      </c>
+      <c r="U330">
+        <v>1.875</v>
+      </c>
+      <c r="V330">
+        <v>1.975</v>
+      </c>
+      <c r="W330">
+        <v>-1</v>
+      </c>
+      <c r="X330">
+        <v>-1</v>
+      </c>
+      <c r="Y330">
+        <v>5</v>
+      </c>
+      <c r="Z330">
+        <v>-1</v>
+      </c>
+      <c r="AA330">
+        <v>1.025</v>
+      </c>
+      <c r="AB330">
+        <v>0.4375</v>
+      </c>
+      <c r="AC330">
         <v>-0.5</v>
-      </c>
-      <c r="R330">
-        <v>1.925</v>
-      </c>
-      <c r="S330">
-        <v>1.875</v>
-      </c>
-      <c r="T330">
-        <v>3</v>
-      </c>
-      <c r="U330">
-        <v>1.925</v>
-      </c>
-      <c r="V330">
-        <v>1.875</v>
-      </c>
-      <c r="W330">
-        <v>0.833</v>
-      </c>
-      <c r="X330">
-        <v>-1</v>
-      </c>
-      <c r="Y330">
-        <v>-1</v>
-      </c>
-      <c r="Z330">
-        <v>0.925</v>
-      </c>
-      <c r="AA330">
-        <v>-1</v>
-      </c>
-      <c r="AB330">
-        <v>0</v>
-      </c>
-      <c r="AC330">
-        <v>-0</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29915,7 +29915,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29927,13 +29927,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F331" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G331" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H331">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331">
         <v>1</v>
@@ -29951,34 +29951,34 @@
         <v>3.5</v>
       </c>
       <c r="N331">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O331">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P331">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q331">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R331">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S331">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T331">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U331">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V331">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W331">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X331">
         <v>-1</v>
@@ -29987,16 +29987,16 @@
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA331">
         <v>-1</v>
       </c>
       <c r="AB331">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30004,7 +30004,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7384628</v>
+        <v>7384629</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30016,56 +30016,56 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F332" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G332" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
         <v>1</v>
-      </c>
-      <c r="I332">
-        <v>2</v>
       </c>
       <c r="J332" t="s">
         <v>53</v>
       </c>
       <c r="K332">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L332">
         <v>3.3</v>
       </c>
       <c r="M332">
+        <v>2.5</v>
+      </c>
+      <c r="N332">
+        <v>2.7</v>
+      </c>
+      <c r="O332">
+        <v>3.4</v>
+      </c>
+      <c r="P332">
         <v>2.375</v>
       </c>
-      <c r="N332">
-        <v>3.3</v>
-      </c>
-      <c r="O332">
-        <v>3.6</v>
-      </c>
-      <c r="P332">
-        <v>2</v>
-      </c>
       <c r="Q332">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R332">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S332">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T332">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U332">
+        <v>1.825</v>
+      </c>
+      <c r="V332">
         <v>1.975</v>
       </c>
-      <c r="V332">
-        <v>1.875</v>
-      </c>
       <c r="W332">
         <v>-1</v>
       </c>
@@ -30073,19 +30073,19 @@
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB332">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC332">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7384626</v>
+        <v>7384630</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,76 +30194,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F334" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G334" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334" t="s">
+        <v>53</v>
+      </c>
+      <c r="K334">
+        <v>2.8</v>
+      </c>
+      <c r="L334">
+        <v>3.4</v>
+      </c>
+      <c r="M334">
+        <v>2.15</v>
+      </c>
+      <c r="N334">
+        <v>1.75</v>
+      </c>
+      <c r="O334">
+        <v>3.6</v>
+      </c>
+      <c r="P334">
+        <v>3.8</v>
+      </c>
+      <c r="Q334">
+        <v>-0.75</v>
+      </c>
+      <c r="R334">
+        <v>2</v>
+      </c>
+      <c r="S334">
+        <v>1.8</v>
+      </c>
+      <c r="T334">
         <v>3</v>
       </c>
-      <c r="I334">
-        <v>0</v>
-      </c>
-      <c r="J334" t="s">
-        <v>51</v>
-      </c>
-      <c r="K334">
-        <v>1.3</v>
-      </c>
-      <c r="L334">
-        <v>5</v>
-      </c>
-      <c r="M334">
-        <v>9</v>
-      </c>
-      <c r="N334">
-        <v>1.166</v>
-      </c>
-      <c r="O334">
-        <v>6.5</v>
-      </c>
-      <c r="P334">
-        <v>13</v>
-      </c>
-      <c r="Q334">
-        <v>-2</v>
-      </c>
-      <c r="R334">
+      <c r="U334">
         <v>1.85</v>
       </c>
-      <c r="S334">
+      <c r="V334">
         <v>1.95</v>
       </c>
-      <c r="T334">
-        <v>3.25</v>
-      </c>
-      <c r="U334">
-        <v>2</v>
-      </c>
-      <c r="V334">
-        <v>1.8</v>
-      </c>
       <c r="W334">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z334">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30360,7 +30360,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7384629</v>
+        <v>7384626</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30372,76 +30372,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G336" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H336">
+        <v>3</v>
+      </c>
+      <c r="I336">
         <v>0</v>
       </c>
-      <c r="I336">
-        <v>1</v>
-      </c>
       <c r="J336" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K336">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L336">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M336">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N336">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O336">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P336">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q336">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R336">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S336">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T336">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U336">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V336">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA336">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC336">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,55 +30461,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F337" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G337" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J337" t="s">
         <v>53</v>
       </c>
       <c r="K337">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L337">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M337">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N337">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O337">
         <v>3.6</v>
       </c>
       <c r="P337">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q337">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R337">
+        <v>1.8</v>
+      </c>
+      <c r="S337">
         <v>2</v>
       </c>
-      <c r="S337">
-        <v>1.8</v>
-      </c>
       <c r="T337">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U337">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V337">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W337">
         <v>-1</v>
@@ -30518,19 +30518,19 @@
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z337">
         <v>-1</v>
       </c>
       <c r="AA337">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC337">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -33742,7 +33742,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7768166</v>
+        <v>7768165</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33751,64 +33751,168 @@
         <v>28</v>
       </c>
       <c r="E374" s="2">
-        <v>45341.70833333334</v>
+        <v>45340.89583333334</v>
       </c>
       <c r="F374" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G374" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374" t="s">
+        <v>52</v>
       </c>
       <c r="K374">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L374">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M374">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N374">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O374">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P374">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q374">
         <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S374">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T374">
         <v>2.5</v>
       </c>
       <c r="U374">
+        <v>1.95</v>
+      </c>
+      <c r="V374">
+        <v>1.9</v>
+      </c>
+      <c r="W374">
+        <v>-1</v>
+      </c>
+      <c r="X374">
+        <v>2.6</v>
+      </c>
+      <c r="Y374">
+        <v>-1</v>
+      </c>
+      <c r="Z374">
+        <v>-1</v>
+      </c>
+      <c r="AA374">
+        <v>0.8</v>
+      </c>
+      <c r="AB374">
+        <v>-1</v>
+      </c>
+      <c r="AC374">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>7768166</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45341.70833333334</v>
+      </c>
+      <c r="F375" t="s">
+        <v>50</v>
+      </c>
+      <c r="G375" t="s">
+        <v>29</v>
+      </c>
+      <c r="H375">
+        <v>2</v>
+      </c>
+      <c r="I375">
+        <v>2</v>
+      </c>
+      <c r="J375" t="s">
+        <v>52</v>
+      </c>
+      <c r="K375">
+        <v>2</v>
+      </c>
+      <c r="L375">
+        <v>3.3</v>
+      </c>
+      <c r="M375">
+        <v>3.5</v>
+      </c>
+      <c r="N375">
+        <v>2.3</v>
+      </c>
+      <c r="O375">
+        <v>3.1</v>
+      </c>
+      <c r="P375">
+        <v>2.9</v>
+      </c>
+      <c r="Q375">
+        <v>-0.25</v>
+      </c>
+      <c r="R375">
         <v>2.05</v>
       </c>
-      <c r="V374">
+      <c r="S375">
         <v>1.8</v>
       </c>
-      <c r="W374">
-        <v>0</v>
-      </c>
-      <c r="X374">
-        <v>0</v>
-      </c>
-      <c r="Y374">
-        <v>0</v>
-      </c>
-      <c r="Z374">
-        <v>0</v>
-      </c>
-      <c r="AA374">
-        <v>0</v>
+      <c r="T375">
+        <v>2.25</v>
+      </c>
+      <c r="U375">
+        <v>1.975</v>
+      </c>
+      <c r="V375">
+        <v>1.875</v>
+      </c>
+      <c r="W375">
+        <v>-1</v>
+      </c>
+      <c r="X375">
+        <v>2.1</v>
+      </c>
+      <c r="Y375">
+        <v>-1</v>
+      </c>
+      <c r="Z375">
+        <v>-0.5</v>
+      </c>
+      <c r="AA375">
+        <v>0.4</v>
+      </c>
+      <c r="AB375">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC375">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6277614</v>
+        <v>6277613</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K35">
+        <v>2.8</v>
+      </c>
+      <c r="L35">
+        <v>3.25</v>
+      </c>
+      <c r="M35">
         <v>2.375</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>3.2</v>
       </c>
-      <c r="M35">
-        <v>2.875</v>
-      </c>
-      <c r="N35">
-        <v>1.909</v>
-      </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6277613</v>
+        <v>6277614</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,76 +3672,76 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N36">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,76 +29304,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G324" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I324">
         <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K324">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L324">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M324">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N324">
         <v>1.75</v>
       </c>
       <c r="O324">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P324">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q324">
         <v>-0.5</v>
       </c>
       <c r="R324">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S324">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T324">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U324">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V324">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W324">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z324">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB324">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC324">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,76 +29393,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G325" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I325">
         <v>2</v>
       </c>
       <c r="J325" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K325">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L325">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M325">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N325">
         <v>1.75</v>
       </c>
       <c r="O325">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P325">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q325">
         <v>-0.5</v>
       </c>
       <c r="R325">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T325">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U325">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V325">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W325">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA325">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB325">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC325">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29737,7 +29737,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29749,76 +29749,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F329" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G329" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H329">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J329" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K329">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L329">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M329">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N329">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O329">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P329">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q329">
         <v>-1</v>
       </c>
       <c r="R329">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S329">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T329">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U329">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V329">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W329">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z329">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB329">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29826,7 +29826,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7384622</v>
+        <v>7384624</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29838,76 +29838,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F330" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G330" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H330">
+        <v>3</v>
+      </c>
+      <c r="I330">
         <v>1</v>
       </c>
-      <c r="I330">
+      <c r="J330" t="s">
+        <v>51</v>
+      </c>
+      <c r="K330">
         <v>2</v>
       </c>
-      <c r="J330" t="s">
-        <v>53</v>
-      </c>
-      <c r="K330">
-        <v>1.444</v>
-      </c>
       <c r="L330">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M330">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N330">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O330">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P330">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q330">
         <v>-1</v>
       </c>
       <c r="R330">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S330">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T330">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V330">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W330">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X330">
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA330">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC330">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30004,7 +30004,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7384629</v>
+        <v>7384625</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30016,76 +30016,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F332" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G332" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H332">
         <v>0</v>
       </c>
       <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332" t="s">
+        <v>52</v>
+      </c>
+      <c r="K332">
+        <v>1.5</v>
+      </c>
+      <c r="L332">
+        <v>3.75</v>
+      </c>
+      <c r="M332">
+        <v>7</v>
+      </c>
+      <c r="N332">
+        <v>1.363</v>
+      </c>
+      <c r="O332">
+        <v>4.333</v>
+      </c>
+      <c r="P332">
+        <v>9.5</v>
+      </c>
+      <c r="Q332">
+        <v>-1.25</v>
+      </c>
+      <c r="R332">
+        <v>1.875</v>
+      </c>
+      <c r="S332">
+        <v>1.925</v>
+      </c>
+      <c r="T332">
+        <v>2.5</v>
+      </c>
+      <c r="U332">
+        <v>1.8</v>
+      </c>
+      <c r="V332">
+        <v>2</v>
+      </c>
+      <c r="W332">
+        <v>-1</v>
+      </c>
+      <c r="X332">
+        <v>3.333</v>
+      </c>
+      <c r="Y332">
+        <v>-1</v>
+      </c>
+      <c r="Z332">
+        <v>-1</v>
+      </c>
+      <c r="AA332">
+        <v>0.925</v>
+      </c>
+      <c r="AB332">
+        <v>-1</v>
+      </c>
+      <c r="AC332">
         <v>1</v>
-      </c>
-      <c r="J332" t="s">
-        <v>53</v>
-      </c>
-      <c r="K332">
-        <v>2.625</v>
-      </c>
-      <c r="L332">
-        <v>3.3</v>
-      </c>
-      <c r="M332">
-        <v>2.5</v>
-      </c>
-      <c r="N332">
-        <v>2.7</v>
-      </c>
-      <c r="O332">
-        <v>3.4</v>
-      </c>
-      <c r="P332">
-        <v>2.375</v>
-      </c>
-      <c r="Q332">
-        <v>0</v>
-      </c>
-      <c r="R332">
-        <v>2.025</v>
-      </c>
-      <c r="S332">
-        <v>1.775</v>
-      </c>
-      <c r="T332">
-        <v>2.25</v>
-      </c>
-      <c r="U332">
-        <v>1.825</v>
-      </c>
-      <c r="V332">
-        <v>1.975</v>
-      </c>
-      <c r="W332">
-        <v>-1</v>
-      </c>
-      <c r="X332">
-        <v>-1</v>
-      </c>
-      <c r="Y332">
-        <v>1.375</v>
-      </c>
-      <c r="Z332">
-        <v>-1</v>
-      </c>
-      <c r="AA332">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB332">
-        <v>-1</v>
-      </c>
-      <c r="AC332">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30093,7 +30093,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7384627</v>
+        <v>7384626</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30105,13 +30105,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F333" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I333">
         <v>0</v>
@@ -30120,43 +30120,43 @@
         <v>51</v>
       </c>
       <c r="K333">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L333">
         <v>5</v>
       </c>
       <c r="M333">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N333">
-        <v>1.181</v>
+        <v>1.166</v>
       </c>
       <c r="O333">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P333">
         <v>13</v>
       </c>
       <c r="Q333">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R333">
+        <v>1.85</v>
+      </c>
+      <c r="S333">
+        <v>1.95</v>
+      </c>
+      <c r="T333">
+        <v>3.25</v>
+      </c>
+      <c r="U333">
+        <v>2</v>
+      </c>
+      <c r="V333">
         <v>1.8</v>
       </c>
-      <c r="S333">
-        <v>2</v>
-      </c>
-      <c r="T333">
-        <v>2.75</v>
-      </c>
-      <c r="U333">
-        <v>1.85</v>
-      </c>
-      <c r="V333">
-        <v>1.95</v>
-      </c>
       <c r="W333">
-        <v>0.181</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30165,16 +30165,16 @@
         <v>-1</v>
       </c>
       <c r="Z333">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA333">
+        <v>-1</v>
+      </c>
+      <c r="AB333">
+        <v>-0.5</v>
+      </c>
+      <c r="AC333">
         <v>0.4</v>
-      </c>
-      <c r="AA333">
-        <v>-0.5</v>
-      </c>
-      <c r="AB333">
-        <v>-1</v>
-      </c>
-      <c r="AC333">
-        <v>0.95</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7384630</v>
+        <v>7384627</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,49 +30194,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F334" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G334" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H334">
+        <v>2</v>
+      </c>
+      <c r="I334">
         <v>0</v>
       </c>
-      <c r="I334">
-        <v>1</v>
-      </c>
       <c r="J334" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K334">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L334">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M334">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="N334">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="O334">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P334">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="Q334">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R334">
+        <v>1.8</v>
+      </c>
+      <c r="S334">
         <v>2</v>
       </c>
-      <c r="S334">
-        <v>1.8</v>
-      </c>
       <c r="T334">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U334">
         <v>1.85</v>
@@ -30245,19 +30245,19 @@
         <v>1.95</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA334">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB334">
         <v>-1</v>
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7384625</v>
+        <v>7384628</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,76 +30283,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G335" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J335" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K335">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L335">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M335">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N335">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O335">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P335">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="Q335">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R335">
+        <v>1.8</v>
+      </c>
+      <c r="S335">
+        <v>2</v>
+      </c>
+      <c r="T335">
+        <v>2.75</v>
+      </c>
+      <c r="U335">
+        <v>1.975</v>
+      </c>
+      <c r="V335">
         <v>1.875</v>
       </c>
-      <c r="S335">
-        <v>1.925</v>
-      </c>
-      <c r="T335">
-        <v>2.5</v>
-      </c>
-      <c r="U335">
-        <v>1.8</v>
-      </c>
-      <c r="V335">
-        <v>2</v>
-      </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC335">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30360,7 +30360,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7384626</v>
+        <v>7384629</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30372,76 +30372,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G336" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H336">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336" t="s">
+        <v>53</v>
+      </c>
+      <c r="K336">
+        <v>2.625</v>
+      </c>
+      <c r="L336">
+        <v>3.3</v>
+      </c>
+      <c r="M336">
+        <v>2.5</v>
+      </c>
+      <c r="N336">
+        <v>2.7</v>
+      </c>
+      <c r="O336">
+        <v>3.4</v>
+      </c>
+      <c r="P336">
+        <v>2.375</v>
+      </c>
+      <c r="Q336">
         <v>0</v>
       </c>
-      <c r="J336" t="s">
-        <v>51</v>
-      </c>
-      <c r="K336">
-        <v>1.3</v>
-      </c>
-      <c r="L336">
-        <v>5</v>
-      </c>
-      <c r="M336">
-        <v>9</v>
-      </c>
-      <c r="N336">
-        <v>1.166</v>
-      </c>
-      <c r="O336">
-        <v>6.5</v>
-      </c>
-      <c r="P336">
-        <v>13</v>
-      </c>
-      <c r="Q336">
-        <v>-2</v>
-      </c>
       <c r="R336">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S336">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T336">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U336">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V336">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W336">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z336">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA336">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB336">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,55 +30461,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F337" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G337" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
         <v>1</v>
-      </c>
-      <c r="I337">
-        <v>2</v>
       </c>
       <c r="J337" t="s">
         <v>53</v>
       </c>
       <c r="K337">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L337">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M337">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N337">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O337">
         <v>3.6</v>
       </c>
       <c r="P337">
+        <v>3.8</v>
+      </c>
+      <c r="Q337">
+        <v>-0.75</v>
+      </c>
+      <c r="R337">
         <v>2</v>
       </c>
-      <c r="Q337">
-        <v>0.5</v>
-      </c>
-      <c r="R337">
+      <c r="S337">
         <v>1.8</v>
       </c>
-      <c r="S337">
-        <v>2</v>
-      </c>
       <c r="T337">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U337">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V337">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W337">
         <v>-1</v>
@@ -30518,19 +30518,19 @@
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Z337">
         <v>-1</v>
       </c>
       <c r="AA337">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB337">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="338" spans="1:29">

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Atletico Grau</t>
   </si>
   <si>
-    <t>UTC Cajamarca</t>
+    <t>Universitario de Deportes</t>
   </si>
   <si>
-    <t>Universitario de Deportes</t>
+    <t>UTC Cajamarca</t>
   </si>
   <si>
     <t>Sport Boys</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC375"/>
+  <dimension ref="A1:AC384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6189839</v>
+        <v>6189840</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,10 +738,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>51</v>
       </c>
       <c r="K3">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>1.444</v>
+      </c>
+      <c r="O3">
+        <v>4.5</v>
+      </c>
+      <c r="P3">
+        <v>7.5</v>
+      </c>
+      <c r="Q3">
+        <v>-1.25</v>
+      </c>
+      <c r="R3">
+        <v>1.925</v>
+      </c>
+      <c r="S3">
+        <v>1.875</v>
+      </c>
+      <c r="T3">
         <v>2.75</v>
-      </c>
-      <c r="N3">
-        <v>2.2</v>
-      </c>
-      <c r="O3">
-        <v>3.25</v>
-      </c>
-      <c r="P3">
-        <v>3.5</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
-      <c r="S3">
-        <v>1.975</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
       </c>
       <c r="U3">
         <v>1.95</v>
@@ -786,7 +786,7 @@
         <v>1.85</v>
       </c>
       <c r="W3">
-        <v>1.2</v>
+        <v>0.444</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -795,7 +795,7 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
         <v>-1</v>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6189840</v>
+        <v>6189839</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,10 +827,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -839,34 +839,34 @@
         <v>51</v>
       </c>
       <c r="K4">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q4">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
         <v>1.95</v>
@@ -875,7 +875,7 @@
         <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.444</v>
+        <v>1.2</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -884,7 +884,7 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -1450,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1539,7 +1539,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>44976.72916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2604,7 +2604,7 @@
         <v>44979.70833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
@@ -2874,7 +2874,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3583,7 +3583,7 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -3672,7 +3672,7 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -4476,7 +4476,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4740,7 +4740,7 @@
         <v>45003.72916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -4918,7 +4918,7 @@
         <v>45003.91666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5363,7 +5363,7 @@
         <v>45009.9375</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -6075,7 +6075,7 @@
         <v>45012.70833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -6345,7 +6345,7 @@
         <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7143,7 +7143,7 @@
         <v>45024.72916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7499,7 +7499,7 @@
         <v>45025.83333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -8125,7 +8125,7 @@
         <v>47</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8303,7 +8303,7 @@
         <v>46</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8567,7 +8567,7 @@
         <v>45037.72916666666</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -9279,7 +9279,7 @@
         <v>45040.9375</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>43</v>
@@ -9549,7 +9549,7 @@
         <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10614,7 +10614,7 @@
         <v>45053.71875</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -11151,7 +11151,7 @@
         <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>5</v>
@@ -11596,7 +11596,7 @@
         <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -12041,7 +12041,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>45065.9375</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -12842,7 +12842,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13462,10 +13462,10 @@
         <v>45074.72916666666</v>
       </c>
       <c r="F146" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s">
         <v>30</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         <v>45079.9375</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
         <v>45</v>
@@ -14622,7 +14622,7 @@
         <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -15423,7 +15423,7 @@
         <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15690,7 +15690,7 @@
         <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -16224,7 +16224,7 @@
         <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16310,7 +16310,7 @@
         <v>45107.72916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
         <v>44</v>
@@ -16933,7 +16933,7 @@
         <v>45110.9375</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -17203,7 +17203,7 @@
         <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17381,7 +17381,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17823,7 +17823,7 @@
         <v>45121.72916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
         <v>38</v>
@@ -17912,7 +17912,7 @@
         <v>45121.95833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
         <v>39</v>
@@ -18894,7 +18894,7 @@
         <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19603,7 +19603,7 @@
         <v>45136.71875</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
         <v>39</v>
@@ -20048,7 +20048,7 @@
         <v>45138.9375</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
         <v>40</v>
@@ -20407,7 +20407,7 @@
         <v>41</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20763,7 +20763,7 @@
         <v>42</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -21116,7 +21116,7 @@
         <v>45149.71875</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
         <v>40</v>
@@ -21472,7 +21472,7 @@
         <v>45150.875</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G236" t="s">
         <v>36</v>
@@ -21920,7 +21920,7 @@
         <v>42</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22009,7 +22009,7 @@
         <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H242">
         <v>2</v>
@@ -22807,7 +22807,7 @@
         <v>45157.89583333334</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G251" t="s">
         <v>47</v>
@@ -23163,7 +23163,7 @@
         <v>45159.71875</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
         <v>36</v>
@@ -23700,7 +23700,7 @@
         <v>29</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -23967,7 +23967,7 @@
         <v>37</v>
       </c>
       <c r="G264" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>45172.71875</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G269" t="s">
         <v>47</v>
@@ -24854,7 +24854,7 @@
         <v>45179.875</v>
       </c>
       <c r="F274" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G274" t="s">
         <v>46</v>
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="G275" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H275">
         <v>4</v>
@@ -25480,7 +25480,7 @@
         <v>43</v>
       </c>
       <c r="G281" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -26011,7 +26011,7 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F287" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G287" t="s">
         <v>46</v>
@@ -26189,7 +26189,7 @@
         <v>45189.9375</v>
       </c>
       <c r="F289" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G289" t="s">
         <v>32</v>
@@ -27260,7 +27260,7 @@
         <v>43</v>
       </c>
       <c r="G301" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27438,7 +27438,7 @@
         <v>33</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H303">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
         <v>32</v>
@@ -28147,10 +28147,10 @@
         <v>45201.9375</v>
       </c>
       <c r="F311" t="s">
+        <v>30</v>
+      </c>
+      <c r="G311" t="s">
         <v>31</v>
-      </c>
-      <c r="G311" t="s">
-        <v>30</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28948,7 +28948,7 @@
         <v>45219.70833333334</v>
       </c>
       <c r="F320" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G320" t="s">
         <v>33</v>
@@ -29218,7 +29218,7 @@
         <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,76 +29304,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G324" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J324" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K324">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L324">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M324">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N324">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O324">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P324">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q324">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R324">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S324">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T324">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U324">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
         <v>-1</v>
       </c>
       <c r="AA324">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB324">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC324">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,76 +29393,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G325" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H325">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I325">
         <v>2</v>
       </c>
       <c r="J325" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K325">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L325">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M325">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N325">
         <v>1.75</v>
       </c>
       <c r="O325">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P325">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q325">
         <v>-0.5</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S325">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U325">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V325">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W325">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z325">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB325">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29482,58 +29482,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G326" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J326" t="s">
         <v>51</v>
       </c>
       <c r="K326">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L326">
+        <v>3.2</v>
+      </c>
+      <c r="M326">
         <v>3.75</v>
       </c>
-      <c r="M326">
+      <c r="N326">
+        <v>1.75</v>
+      </c>
+      <c r="O326">
+        <v>3.4</v>
+      </c>
+      <c r="P326">
         <v>4.333</v>
       </c>
-      <c r="N326">
-        <v>1.25</v>
-      </c>
-      <c r="O326">
-        <v>5.25</v>
-      </c>
-      <c r="P326">
-        <v>10</v>
-      </c>
       <c r="Q326">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T326">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U326">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V326">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W326">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -29542,16 +29542,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA326">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC326">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29737,7 +29737,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7384622</v>
+        <v>7384624</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29749,76 +29749,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F329" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G329" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H329">
+        <v>3</v>
+      </c>
+      <c r="I329">
         <v>1</v>
       </c>
-      <c r="I329">
+      <c r="J329" t="s">
+        <v>51</v>
+      </c>
+      <c r="K329">
         <v>2</v>
       </c>
-      <c r="J329" t="s">
-        <v>53</v>
-      </c>
-      <c r="K329">
-        <v>1.444</v>
-      </c>
       <c r="L329">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M329">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N329">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O329">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P329">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q329">
         <v>-1</v>
       </c>
       <c r="R329">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S329">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T329">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U329">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V329">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA329">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC329">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29826,7 +29826,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29838,13 +29838,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F330" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G330" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H330">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330">
         <v>1</v>
@@ -29862,34 +29862,34 @@
         <v>3.5</v>
       </c>
       <c r="N330">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O330">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P330">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q330">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R330">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S330">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T330">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U330">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V330">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W330">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29898,16 +29898,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29915,7 +29915,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7384623</v>
+        <v>7384622</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29927,76 +29927,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F331" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G331" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331">
         <v>2</v>
       </c>
-      <c r="I331">
-        <v>1</v>
-      </c>
       <c r="J331" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K331">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L331">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M331">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N331">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O331">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P331">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q331">
+        <v>-1</v>
+      </c>
+      <c r="R331">
+        <v>1.825</v>
+      </c>
+      <c r="S331">
+        <v>2.025</v>
+      </c>
+      <c r="T331">
+        <v>2.75</v>
+      </c>
+      <c r="U331">
+        <v>1.875</v>
+      </c>
+      <c r="V331">
+        <v>1.975</v>
+      </c>
+      <c r="W331">
+        <v>-1</v>
+      </c>
+      <c r="X331">
+        <v>-1</v>
+      </c>
+      <c r="Y331">
+        <v>5</v>
+      </c>
+      <c r="Z331">
+        <v>-1</v>
+      </c>
+      <c r="AA331">
+        <v>1.025</v>
+      </c>
+      <c r="AB331">
+        <v>0.4375</v>
+      </c>
+      <c r="AC331">
         <v>-0.5</v>
-      </c>
-      <c r="R331">
-        <v>1.925</v>
-      </c>
-      <c r="S331">
-        <v>1.875</v>
-      </c>
-      <c r="T331">
-        <v>3</v>
-      </c>
-      <c r="U331">
-        <v>1.925</v>
-      </c>
-      <c r="V331">
-        <v>1.875</v>
-      </c>
-      <c r="W331">
-        <v>0.833</v>
-      </c>
-      <c r="X331">
-        <v>-1</v>
-      </c>
-      <c r="Y331">
-        <v>-1</v>
-      </c>
-      <c r="Z331">
-        <v>0.925</v>
-      </c>
-      <c r="AA331">
-        <v>-1</v>
-      </c>
-      <c r="AB331">
-        <v>0</v>
-      </c>
-      <c r="AC331">
-        <v>-0</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30093,7 +30093,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7384626</v>
+        <v>7384628</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30105,76 +30105,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F333" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G333" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H333">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K333">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="L333">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M333">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N333">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="O333">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P333">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q333">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R333">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S333">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T333">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V333">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W333">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z333">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB333">
+        <v>0.4875</v>
+      </c>
+      <c r="AC333">
         <v>-0.5</v>
-      </c>
-      <c r="AC333">
-        <v>0.4</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7384627</v>
+        <v>7384629</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,76 +30194,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F334" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G334" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K334">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L334">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M334">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="N334">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="O334">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P334">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="Q334">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R334">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S334">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T334">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W334">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z334">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB334">
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,55 +30283,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G335" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
         <v>1</v>
-      </c>
-      <c r="I335">
-        <v>2</v>
       </c>
       <c r="J335" t="s">
         <v>53</v>
       </c>
       <c r="K335">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L335">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M335">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N335">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O335">
         <v>3.6</v>
       </c>
       <c r="P335">
+        <v>3.8</v>
+      </c>
+      <c r="Q335">
+        <v>-0.75</v>
+      </c>
+      <c r="R335">
         <v>2</v>
       </c>
-      <c r="Q335">
-        <v>0.5</v>
-      </c>
-      <c r="R335">
+      <c r="S335">
         <v>1.8</v>
       </c>
-      <c r="S335">
-        <v>2</v>
-      </c>
       <c r="T335">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U335">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V335">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W335">
         <v>-1</v>
@@ -30340,19 +30340,19 @@
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB335">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30360,7 +30360,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7384629</v>
+        <v>7384627</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30372,76 +30372,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G336" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K336">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L336">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M336">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="N336">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="O336">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P336">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q336">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R336">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S336">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T336">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U336">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V336">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA336">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB336">
         <v>-1</v>
       </c>
       <c r="AC336">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7384630</v>
+        <v>7384626</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,76 +30461,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F337" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G337" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K337">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L337">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M337">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="N337">
-        <v>1.75</v>
+        <v>1.166</v>
       </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P337">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="Q337">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R337">
+        <v>1.85</v>
+      </c>
+      <c r="S337">
+        <v>1.95</v>
+      </c>
+      <c r="T337">
+        <v>3.25</v>
+      </c>
+      <c r="U337">
         <v>2</v>
       </c>
-      <c r="S337">
+      <c r="V337">
         <v>1.8</v>
       </c>
-      <c r="T337">
-        <v>3</v>
-      </c>
-      <c r="U337">
-        <v>1.85</v>
-      </c>
-      <c r="V337">
-        <v>1.95</v>
-      </c>
       <c r="W337">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA337">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC337">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30550,7 +30550,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F338" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G338" t="s">
         <v>41</v>
@@ -30642,7 +30642,7 @@
         <v>41</v>
       </c>
       <c r="G339" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H339">
         <v>0</v>
@@ -30728,7 +30728,7 @@
         <v>45317.70833333334</v>
       </c>
       <c r="F340" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G340" t="s">
         <v>47</v>
@@ -31265,7 +31265,7 @@
         <v>40</v>
       </c>
       <c r="G346" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H346">
         <v>0</v>
@@ -31532,7 +31532,7 @@
         <v>45</v>
       </c>
       <c r="G349" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H349">
         <v>1</v>
@@ -31885,7 +31885,7 @@
         <v>45325.91666666666</v>
       </c>
       <c r="F353" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G353" t="s">
         <v>29</v>
@@ -32330,7 +32330,7 @@
         <v>45331.70833333334</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G358" t="s">
         <v>33</v>
@@ -32689,7 +32689,7 @@
         <v>41</v>
       </c>
       <c r="G362" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -33223,7 +33223,7 @@
         <v>38</v>
       </c>
       <c r="G368" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H368">
         <v>2</v>
@@ -33487,7 +33487,7 @@
         <v>45339.91666666666</v>
       </c>
       <c r="F371" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G371" t="s">
         <v>42</v>
@@ -33913,6 +33913,672 @@
       </c>
       <c r="AC375">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>7818815</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45345.70833333334</v>
+      </c>
+      <c r="F376" t="s">
+        <v>44</v>
+      </c>
+      <c r="G376" t="s">
+        <v>38</v>
+      </c>
+      <c r="K376">
+        <v>1.4</v>
+      </c>
+      <c r="L376">
+        <v>4.333</v>
+      </c>
+      <c r="M376">
+        <v>8</v>
+      </c>
+      <c r="N376">
+        <v>1.4</v>
+      </c>
+      <c r="O376">
+        <v>4.333</v>
+      </c>
+      <c r="P376">
+        <v>8</v>
+      </c>
+      <c r="Q376">
+        <v>-1.25</v>
+      </c>
+      <c r="R376">
+        <v>1.95</v>
+      </c>
+      <c r="S376">
+        <v>1.9</v>
+      </c>
+      <c r="T376">
+        <v>2.75</v>
+      </c>
+      <c r="U376">
+        <v>1.975</v>
+      </c>
+      <c r="V376">
+        <v>1.875</v>
+      </c>
+      <c r="W376">
+        <v>0</v>
+      </c>
+      <c r="X376">
+        <v>0</v>
+      </c>
+      <c r="Y376">
+        <v>0</v>
+      </c>
+      <c r="Z376">
+        <v>0</v>
+      </c>
+      <c r="AA376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>7818817</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45346.70833333334</v>
+      </c>
+      <c r="F377" t="s">
+        <v>32</v>
+      </c>
+      <c r="G377" t="s">
+        <v>45</v>
+      </c>
+      <c r="K377">
+        <v>2.2</v>
+      </c>
+      <c r="L377">
+        <v>3.2</v>
+      </c>
+      <c r="M377">
+        <v>3.2</v>
+      </c>
+      <c r="N377">
+        <v>2.375</v>
+      </c>
+      <c r="O377">
+        <v>3.2</v>
+      </c>
+      <c r="P377">
+        <v>3</v>
+      </c>
+      <c r="Q377">
+        <v>0</v>
+      </c>
+      <c r="R377">
+        <v>1.7</v>
+      </c>
+      <c r="S377">
+        <v>2.2</v>
+      </c>
+      <c r="T377">
+        <v>2.5</v>
+      </c>
+      <c r="U377">
+        <v>1.95</v>
+      </c>
+      <c r="V377">
+        <v>1.9</v>
+      </c>
+      <c r="W377">
+        <v>0</v>
+      </c>
+      <c r="X377">
+        <v>0</v>
+      </c>
+      <c r="Y377">
+        <v>0</v>
+      </c>
+      <c r="Z377">
+        <v>0</v>
+      </c>
+      <c r="AA377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>7818816</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45346.70833333334</v>
+      </c>
+      <c r="F378" t="s">
+        <v>31</v>
+      </c>
+      <c r="G378" t="s">
+        <v>30</v>
+      </c>
+      <c r="K378">
+        <v>3.3</v>
+      </c>
+      <c r="L378">
+        <v>3.3</v>
+      </c>
+      <c r="M378">
+        <v>2.1</v>
+      </c>
+      <c r="N378">
+        <v>3.4</v>
+      </c>
+      <c r="O378">
+        <v>3.4</v>
+      </c>
+      <c r="P378">
+        <v>2.05</v>
+      </c>
+      <c r="Q378">
+        <v>0.25</v>
+      </c>
+      <c r="R378">
+        <v>2.05</v>
+      </c>
+      <c r="S378">
+        <v>1.8</v>
+      </c>
+      <c r="T378">
+        <v>2.5</v>
+      </c>
+      <c r="U378">
+        <v>1.925</v>
+      </c>
+      <c r="V378">
+        <v>1.925</v>
+      </c>
+      <c r="W378">
+        <v>0</v>
+      </c>
+      <c r="X378">
+        <v>0</v>
+      </c>
+      <c r="Y378">
+        <v>0</v>
+      </c>
+      <c r="Z378">
+        <v>0</v>
+      </c>
+      <c r="AA378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>7818818</v>
+      </c>
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45346.8125</v>
+      </c>
+      <c r="F379" t="s">
+        <v>42</v>
+      </c>
+      <c r="G379" t="s">
+        <v>49</v>
+      </c>
+      <c r="K379">
+        <v>1.25</v>
+      </c>
+      <c r="L379">
+        <v>5</v>
+      </c>
+      <c r="M379">
+        <v>12</v>
+      </c>
+      <c r="N379">
+        <v>1.25</v>
+      </c>
+      <c r="O379">
+        <v>5.25</v>
+      </c>
+      <c r="P379">
+        <v>13</v>
+      </c>
+      <c r="Q379">
+        <v>-1.75</v>
+      </c>
+      <c r="R379">
+        <v>1.95</v>
+      </c>
+      <c r="S379">
+        <v>1.9</v>
+      </c>
+      <c r="T379">
+        <v>3</v>
+      </c>
+      <c r="U379">
+        <v>1.95</v>
+      </c>
+      <c r="V379">
+        <v>1.9</v>
+      </c>
+      <c r="W379">
+        <v>0</v>
+      </c>
+      <c r="X379">
+        <v>0</v>
+      </c>
+      <c r="Y379">
+        <v>0</v>
+      </c>
+      <c r="Z379">
+        <v>0</v>
+      </c>
+      <c r="AA379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>7818819</v>
+      </c>
+      <c r="C380" t="s">
+        <v>28</v>
+      </c>
+      <c r="D380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45346.84375</v>
+      </c>
+      <c r="F380" t="s">
+        <v>40</v>
+      </c>
+      <c r="G380" t="s">
+        <v>43</v>
+      </c>
+      <c r="K380">
+        <v>4.333</v>
+      </c>
+      <c r="L380">
+        <v>3.75</v>
+      </c>
+      <c r="M380">
+        <v>1.727</v>
+      </c>
+      <c r="N380">
+        <v>5</v>
+      </c>
+      <c r="O380">
+        <v>3.8</v>
+      </c>
+      <c r="P380">
+        <v>1.65</v>
+      </c>
+      <c r="Q380">
+        <v>0.75</v>
+      </c>
+      <c r="R380">
+        <v>2</v>
+      </c>
+      <c r="S380">
+        <v>1.85</v>
+      </c>
+      <c r="T380">
+        <v>2.75</v>
+      </c>
+      <c r="U380">
+        <v>1.9</v>
+      </c>
+      <c r="V380">
+        <v>1.95</v>
+      </c>
+      <c r="W380">
+        <v>0</v>
+      </c>
+      <c r="X380">
+        <v>0</v>
+      </c>
+      <c r="Y380">
+        <v>0</v>
+      </c>
+      <c r="Z380">
+        <v>0</v>
+      </c>
+      <c r="AA380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>7818820</v>
+      </c>
+      <c r="C381" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45347.65625</v>
+      </c>
+      <c r="F381" t="s">
+        <v>29</v>
+      </c>
+      <c r="G381" t="s">
+        <v>37</v>
+      </c>
+      <c r="K381">
+        <v>1.533</v>
+      </c>
+      <c r="L381">
+        <v>4</v>
+      </c>
+      <c r="M381">
+        <v>5.5</v>
+      </c>
+      <c r="N381">
+        <v>1.363</v>
+      </c>
+      <c r="O381">
+        <v>4.5</v>
+      </c>
+      <c r="P381">
+        <v>9</v>
+      </c>
+      <c r="Q381">
+        <v>-1.25</v>
+      </c>
+      <c r="R381">
+        <v>1.925</v>
+      </c>
+      <c r="S381">
+        <v>1.925</v>
+      </c>
+      <c r="T381">
+        <v>2.5</v>
+      </c>
+      <c r="U381">
+        <v>1.925</v>
+      </c>
+      <c r="V381">
+        <v>1.925</v>
+      </c>
+      <c r="W381">
+        <v>0</v>
+      </c>
+      <c r="X381">
+        <v>0</v>
+      </c>
+      <c r="Y381">
+        <v>0</v>
+      </c>
+      <c r="Z381">
+        <v>0</v>
+      </c>
+      <c r="AA381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>7818821</v>
+      </c>
+      <c r="C382" t="s">
+        <v>28</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45347.75</v>
+      </c>
+      <c r="F382" t="s">
+        <v>41</v>
+      </c>
+      <c r="G382" t="s">
+        <v>50</v>
+      </c>
+      <c r="K382">
+        <v>1.333</v>
+      </c>
+      <c r="L382">
+        <v>5</v>
+      </c>
+      <c r="M382">
+        <v>8</v>
+      </c>
+      <c r="N382">
+        <v>1.4</v>
+      </c>
+      <c r="O382">
+        <v>4.75</v>
+      </c>
+      <c r="P382">
+        <v>7</v>
+      </c>
+      <c r="Q382">
+        <v>-1.25</v>
+      </c>
+      <c r="R382">
+        <v>1.925</v>
+      </c>
+      <c r="S382">
+        <v>1.925</v>
+      </c>
+      <c r="T382">
+        <v>2.75</v>
+      </c>
+      <c r="U382">
+        <v>1.925</v>
+      </c>
+      <c r="V382">
+        <v>1.925</v>
+      </c>
+      <c r="W382">
+        <v>0</v>
+      </c>
+      <c r="X382">
+        <v>0</v>
+      </c>
+      <c r="Y382">
+        <v>0</v>
+      </c>
+      <c r="Z382">
+        <v>0</v>
+      </c>
+      <c r="AA382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>7818822</v>
+      </c>
+      <c r="C383" t="s">
+        <v>28</v>
+      </c>
+      <c r="D383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45347.875</v>
+      </c>
+      <c r="F383" t="s">
+        <v>47</v>
+      </c>
+      <c r="G383" t="s">
+        <v>33</v>
+      </c>
+      <c r="K383">
+        <v>1.909</v>
+      </c>
+      <c r="L383">
+        <v>3.5</v>
+      </c>
+      <c r="M383">
+        <v>3.6</v>
+      </c>
+      <c r="N383">
+        <v>1.85</v>
+      </c>
+      <c r="O383">
+        <v>3.6</v>
+      </c>
+      <c r="P383">
+        <v>4</v>
+      </c>
+      <c r="Q383">
+        <v>-0.5</v>
+      </c>
+      <c r="R383">
+        <v>1.925</v>
+      </c>
+      <c r="S383">
+        <v>1.925</v>
+      </c>
+      <c r="T383">
+        <v>2.5</v>
+      </c>
+      <c r="U383">
+        <v>1.925</v>
+      </c>
+      <c r="V383">
+        <v>1.925</v>
+      </c>
+      <c r="W383">
+        <v>0</v>
+      </c>
+      <c r="X383">
+        <v>0</v>
+      </c>
+      <c r="Y383">
+        <v>0</v>
+      </c>
+      <c r="Z383">
+        <v>0</v>
+      </c>
+      <c r="AA383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>7818823</v>
+      </c>
+      <c r="C384" t="s">
+        <v>28</v>
+      </c>
+      <c r="D384" t="s">
+        <v>28</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45348.70833333334</v>
+      </c>
+      <c r="F384" t="s">
+        <v>48</v>
+      </c>
+      <c r="G384" t="s">
+        <v>34</v>
+      </c>
+      <c r="K384">
+        <v>2.375</v>
+      </c>
+      <c r="L384">
+        <v>3.3</v>
+      </c>
+      <c r="M384">
+        <v>2.75</v>
+      </c>
+      <c r="N384">
+        <v>2.25</v>
+      </c>
+      <c r="O384">
+        <v>3.3</v>
+      </c>
+      <c r="P384">
+        <v>3</v>
+      </c>
+      <c r="Q384">
+        <v>-0.25</v>
+      </c>
+      <c r="R384">
+        <v>2</v>
+      </c>
+      <c r="S384">
+        <v>1.85</v>
+      </c>
+      <c r="T384">
+        <v>2.75</v>
+      </c>
+      <c r="U384">
+        <v>2</v>
+      </c>
+      <c r="V384">
+        <v>1.85</v>
+      </c>
+      <c r="W384">
+        <v>0</v>
+      </c>
+      <c r="X384">
+        <v>0</v>
+      </c>
+      <c r="Y384">
+        <v>0</v>
+      </c>
+      <c r="Z384">
+        <v>0</v>
+      </c>
+      <c r="AA384">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -106,10 +106,10 @@
     <t>Atletico Grau</t>
   </si>
   <si>
-    <t>Universitario de Deportes</t>
+    <t>UTC Cajamarca</t>
   </si>
   <si>
-    <t>UTC Cajamarca</t>
+    <t>Universitario de Deportes</t>
   </si>
   <si>
     <t>Sport Boys</t>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6189840</v>
+        <v>6189839</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,10 +738,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>51</v>
       </c>
       <c r="K3">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
         <v>1.95</v>
@@ -786,7 +786,7 @@
         <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.444</v>
+        <v>1.2</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -795,7 +795,7 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
         <v>-1</v>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6189839</v>
+        <v>6189840</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,10 +827,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -839,34 +839,34 @@
         <v>51</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>1.444</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>7.5</v>
+      </c>
+      <c r="Q4">
+        <v>-1.25</v>
+      </c>
+      <c r="R4">
+        <v>1.925</v>
+      </c>
+      <c r="S4">
+        <v>1.875</v>
+      </c>
+      <c r="T4">
         <v>2.75</v>
-      </c>
-      <c r="N4">
-        <v>2.2</v>
-      </c>
-      <c r="O4">
-        <v>3.25</v>
-      </c>
-      <c r="P4">
-        <v>3.5</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.825</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
       </c>
       <c r="U4">
         <v>1.95</v>
@@ -875,7 +875,7 @@
         <v>1.85</v>
       </c>
       <c r="W4">
-        <v>1.2</v>
+        <v>0.444</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -884,7 +884,7 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -1450,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1539,7 +1539,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>44976.72916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2604,7 +2604,7 @@
         <v>44979.70833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
@@ -2874,7 +2874,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3583,7 +3583,7 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -3672,7 +3672,7 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -4476,7 +4476,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4740,7 +4740,7 @@
         <v>45003.72916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -4918,7 +4918,7 @@
         <v>45003.91666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5363,7 +5363,7 @@
         <v>45009.9375</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -6075,7 +6075,7 @@
         <v>45012.70833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -6345,7 +6345,7 @@
         <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7143,7 +7143,7 @@
         <v>45024.72916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7499,7 +7499,7 @@
         <v>45025.83333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -8125,7 +8125,7 @@
         <v>47</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8303,7 +8303,7 @@
         <v>46</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8567,7 +8567,7 @@
         <v>45037.72916666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -9279,7 +9279,7 @@
         <v>45040.9375</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>43</v>
@@ -9549,7 +9549,7 @@
         <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10614,7 +10614,7 @@
         <v>45053.71875</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -11151,7 +11151,7 @@
         <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>5</v>
@@ -11596,7 +11596,7 @@
         <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -12041,7 +12041,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>45065.9375</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -12842,7 +12842,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13462,10 +13462,10 @@
         <v>45074.72916666666</v>
       </c>
       <c r="F146" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
         <v>31</v>
-      </c>
-      <c r="G146" t="s">
-        <v>30</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         <v>45079.9375</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>45</v>
@@ -14622,7 +14622,7 @@
         <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -15423,7 +15423,7 @@
         <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15690,7 +15690,7 @@
         <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -16224,7 +16224,7 @@
         <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16310,7 +16310,7 @@
         <v>45107.72916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
         <v>44</v>
@@ -16933,7 +16933,7 @@
         <v>45110.9375</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -17203,7 +17203,7 @@
         <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17381,7 +17381,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17823,7 +17823,7 @@
         <v>45121.72916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
         <v>38</v>
@@ -17912,7 +17912,7 @@
         <v>45121.95833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
         <v>39</v>
@@ -18894,7 +18894,7 @@
         <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19603,7 +19603,7 @@
         <v>45136.71875</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
         <v>39</v>
@@ -20048,7 +20048,7 @@
         <v>45138.9375</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>40</v>
@@ -20407,7 +20407,7 @@
         <v>41</v>
       </c>
       <c r="G224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20763,7 +20763,7 @@
         <v>42</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -21116,7 +21116,7 @@
         <v>45149.71875</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
         <v>40</v>
@@ -21472,7 +21472,7 @@
         <v>45150.875</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
         <v>36</v>
@@ -21920,7 +21920,7 @@
         <v>42</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22009,7 +22009,7 @@
         <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H242">
         <v>2</v>
@@ -22807,7 +22807,7 @@
         <v>45157.89583333334</v>
       </c>
       <c r="F251" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
         <v>47</v>
@@ -23163,7 +23163,7 @@
         <v>45159.71875</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G255" t="s">
         <v>36</v>
@@ -23700,7 +23700,7 @@
         <v>29</v>
       </c>
       <c r="G261" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -23967,7 +23967,7 @@
         <v>37</v>
       </c>
       <c r="G264" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>45172.71875</v>
       </c>
       <c r="F269" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G269" t="s">
         <v>47</v>
@@ -24854,7 +24854,7 @@
         <v>45179.875</v>
       </c>
       <c r="F274" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G274" t="s">
         <v>46</v>
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H275">
         <v>4</v>
@@ -25480,7 +25480,7 @@
         <v>43</v>
       </c>
       <c r="G281" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -26011,7 +26011,7 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F287" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G287" t="s">
         <v>46</v>
@@ -26189,7 +26189,7 @@
         <v>45189.9375</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G289" t="s">
         <v>32</v>
@@ -27260,7 +27260,7 @@
         <v>43</v>
       </c>
       <c r="G301" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27438,7 +27438,7 @@
         <v>33</v>
       </c>
       <c r="G303" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H303">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G305" t="s">
         <v>32</v>
@@ -28147,10 +28147,10 @@
         <v>45201.9375</v>
       </c>
       <c r="F311" t="s">
+        <v>31</v>
+      </c>
+      <c r="G311" t="s">
         <v>30</v>
-      </c>
-      <c r="G311" t="s">
-        <v>31</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28948,7 +28948,7 @@
         <v>45219.70833333334</v>
       </c>
       <c r="F320" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G320" t="s">
         <v>33</v>
@@ -29218,7 +29218,7 @@
         <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,76 +29304,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G324" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K324">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L324">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M324">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N324">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O324">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P324">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q324">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R324">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S324">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T324">
+        <v>2.75</v>
+      </c>
+      <c r="U324">
+        <v>1.825</v>
+      </c>
+      <c r="V324">
+        <v>1.975</v>
+      </c>
+      <c r="W324">
+        <v>-1</v>
+      </c>
+      <c r="X324">
+        <v>-1</v>
+      </c>
+      <c r="Y324">
         <v>3</v>
       </c>
-      <c r="U324">
-        <v>1.875</v>
-      </c>
-      <c r="V324">
-        <v>1.925</v>
-      </c>
-      <c r="W324">
-        <v>0.25</v>
-      </c>
-      <c r="X324">
-        <v>-1</v>
-      </c>
-      <c r="Y324">
-        <v>-1</v>
-      </c>
       <c r="Z324">
         <v>-1</v>
       </c>
       <c r="AA324">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC324">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,76 +29393,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G325" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H325">
         <v>1</v>
       </c>
       <c r="I325">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J325" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K325">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L325">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M325">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N325">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O325">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P325">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q325">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R325">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S325">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T325">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U325">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V325">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W325">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
         <v>-1</v>
       </c>
       <c r="AA325">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB325">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29737,7 +29737,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29749,76 +29749,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F329" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G329" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H329">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J329" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K329">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L329">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M329">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N329">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O329">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P329">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q329">
         <v>-1</v>
       </c>
       <c r="R329">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S329">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T329">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U329">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V329">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W329">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z329">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB329">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29915,7 +29915,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7384622</v>
+        <v>7384624</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29927,76 +29927,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F331" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G331" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H331">
+        <v>3</v>
+      </c>
+      <c r="I331">
         <v>1</v>
       </c>
-      <c r="I331">
+      <c r="J331" t="s">
+        <v>51</v>
+      </c>
+      <c r="K331">
         <v>2</v>
       </c>
-      <c r="J331" t="s">
-        <v>53</v>
-      </c>
-      <c r="K331">
-        <v>1.444</v>
-      </c>
       <c r="L331">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M331">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N331">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O331">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P331">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q331">
         <v>-1</v>
       </c>
       <c r="R331">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S331">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T331">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V331">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA331">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB331">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC331">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30004,7 +30004,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7384625</v>
+        <v>7384626</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30016,76 +30016,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F332" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G332" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I332">
         <v>0</v>
       </c>
       <c r="J332" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K332">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L332">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M332">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N332">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="O332">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P332">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q332">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R332">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S332">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T332">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U332">
+        <v>2</v>
+      </c>
+      <c r="V332">
         <v>1.8</v>
       </c>
-      <c r="V332">
-        <v>2</v>
-      </c>
       <c r="W332">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X332">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA332">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC332">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30093,7 +30093,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30105,55 +30105,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G333" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
         <v>1</v>
-      </c>
-      <c r="I333">
-        <v>2</v>
       </c>
       <c r="J333" t="s">
         <v>53</v>
       </c>
       <c r="K333">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L333">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M333">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N333">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O333">
         <v>3.6</v>
       </c>
       <c r="P333">
+        <v>3.8</v>
+      </c>
+      <c r="Q333">
+        <v>-0.75</v>
+      </c>
+      <c r="R333">
         <v>2</v>
       </c>
-      <c r="Q333">
-        <v>0.5</v>
-      </c>
-      <c r="R333">
+      <c r="S333">
         <v>1.8</v>
       </c>
-      <c r="S333">
-        <v>2</v>
-      </c>
       <c r="T333">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U333">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V333">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W333">
         <v>-1</v>
@@ -30162,19 +30162,19 @@
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Z333">
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB333">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC333">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7384630</v>
+        <v>7384625</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,76 +30283,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G335" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H335">
         <v>0</v>
       </c>
       <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335" t="s">
+        <v>52</v>
+      </c>
+      <c r="K335">
+        <v>1.5</v>
+      </c>
+      <c r="L335">
+        <v>3.75</v>
+      </c>
+      <c r="M335">
+        <v>7</v>
+      </c>
+      <c r="N335">
+        <v>1.363</v>
+      </c>
+      <c r="O335">
+        <v>4.333</v>
+      </c>
+      <c r="P335">
+        <v>9.5</v>
+      </c>
+      <c r="Q335">
+        <v>-1.25</v>
+      </c>
+      <c r="R335">
+        <v>1.875</v>
+      </c>
+      <c r="S335">
+        <v>1.925</v>
+      </c>
+      <c r="T335">
+        <v>2.5</v>
+      </c>
+      <c r="U335">
+        <v>1.8</v>
+      </c>
+      <c r="V335">
+        <v>2</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
+        <v>3.333</v>
+      </c>
+      <c r="Y335">
+        <v>-1</v>
+      </c>
+      <c r="Z335">
+        <v>-1</v>
+      </c>
+      <c r="AA335">
+        <v>0.925</v>
+      </c>
+      <c r="AB335">
+        <v>-1</v>
+      </c>
+      <c r="AC335">
         <v>1</v>
-      </c>
-      <c r="J335" t="s">
-        <v>53</v>
-      </c>
-      <c r="K335">
-        <v>2.8</v>
-      </c>
-      <c r="L335">
-        <v>3.4</v>
-      </c>
-      <c r="M335">
-        <v>2.15</v>
-      </c>
-      <c r="N335">
-        <v>1.75</v>
-      </c>
-      <c r="O335">
-        <v>3.6</v>
-      </c>
-      <c r="P335">
-        <v>3.8</v>
-      </c>
-      <c r="Q335">
-        <v>-0.75</v>
-      </c>
-      <c r="R335">
-        <v>2</v>
-      </c>
-      <c r="S335">
-        <v>1.8</v>
-      </c>
-      <c r="T335">
-        <v>3</v>
-      </c>
-      <c r="U335">
-        <v>1.85</v>
-      </c>
-      <c r="V335">
-        <v>1.95</v>
-      </c>
-      <c r="W335">
-        <v>-1</v>
-      </c>
-      <c r="X335">
-        <v>-1</v>
-      </c>
-      <c r="Y335">
-        <v>2.8</v>
-      </c>
-      <c r="Z335">
-        <v>-1</v>
-      </c>
-      <c r="AA335">
-        <v>0.8</v>
-      </c>
-      <c r="AB335">
-        <v>-1</v>
-      </c>
-      <c r="AC335">
-        <v>0.95</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30360,7 +30360,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30372,40 +30372,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G336" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H336">
+        <v>1</v>
+      </c>
+      <c r="I336">
         <v>2</v>
       </c>
-      <c r="I336">
-        <v>0</v>
-      </c>
       <c r="J336" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K336">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="L336">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M336">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N336">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O336">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P336">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q336">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R336">
         <v>1.8</v>
@@ -30417,31 +30417,31 @@
         <v>2.75</v>
       </c>
       <c r="U336">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V336">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W336">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z336">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA336">
+        <v>1</v>
+      </c>
+      <c r="AB336">
+        <v>0.4875</v>
+      </c>
+      <c r="AC336">
         <v>-0.5</v>
-      </c>
-      <c r="AB336">
-        <v>-1</v>
-      </c>
-      <c r="AC336">
-        <v>0.95</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,13 +30461,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F337" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G337" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337">
         <v>0</v>
@@ -30476,43 +30476,43 @@
         <v>51</v>
       </c>
       <c r="K337">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L337">
         <v>5</v>
       </c>
       <c r="M337">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N337">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O337">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P337">
         <v>13</v>
       </c>
       <c r="Q337">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R337">
+        <v>1.8</v>
+      </c>
+      <c r="S337">
+        <v>2</v>
+      </c>
+      <c r="T337">
+        <v>2.75</v>
+      </c>
+      <c r="U337">
         <v>1.85</v>
       </c>
-      <c r="S337">
+      <c r="V337">
         <v>1.95</v>
       </c>
-      <c r="T337">
-        <v>3.25</v>
-      </c>
-      <c r="U337">
-        <v>2</v>
-      </c>
-      <c r="V337">
-        <v>1.8</v>
-      </c>
       <c r="W337">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X337">
         <v>-1</v>
@@ -30521,16 +30521,16 @@
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB337">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30550,7 +30550,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F338" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G338" t="s">
         <v>41</v>
@@ -30642,7 +30642,7 @@
         <v>41</v>
       </c>
       <c r="G339" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H339">
         <v>0</v>
@@ -30728,7 +30728,7 @@
         <v>45317.70833333334</v>
       </c>
       <c r="F340" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G340" t="s">
         <v>47</v>
@@ -31265,7 +31265,7 @@
         <v>40</v>
       </c>
       <c r="G346" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H346">
         <v>0</v>
@@ -31532,7 +31532,7 @@
         <v>45</v>
       </c>
       <c r="G349" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H349">
         <v>1</v>
@@ -31885,7 +31885,7 @@
         <v>45325.91666666666</v>
       </c>
       <c r="F353" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G353" t="s">
         <v>29</v>
@@ -32330,7 +32330,7 @@
         <v>45331.70833333334</v>
       </c>
       <c r="F358" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G358" t="s">
         <v>33</v>
@@ -32689,7 +32689,7 @@
         <v>41</v>
       </c>
       <c r="G362" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -33223,7 +33223,7 @@
         <v>38</v>
       </c>
       <c r="G368" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H368">
         <v>2</v>
@@ -33487,7 +33487,7 @@
         <v>45339.91666666666</v>
       </c>
       <c r="F371" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G371" t="s">
         <v>42</v>
@@ -33947,31 +33947,31 @@
         <v>8</v>
       </c>
       <c r="N376">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O376">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P376">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q376">
         <v>-1.25</v>
       </c>
       <c r="R376">
+        <v>1.8</v>
+      </c>
+      <c r="S376">
+        <v>2.05</v>
+      </c>
+      <c r="T376">
+        <v>2.5</v>
+      </c>
+      <c r="U376">
         <v>1.95</v>
       </c>
-      <c r="S376">
+      <c r="V376">
         <v>1.9</v>
-      </c>
-      <c r="T376">
-        <v>2.75</v>
-      </c>
-      <c r="U376">
-        <v>1.975</v>
-      </c>
-      <c r="V376">
-        <v>1.875</v>
       </c>
       <c r="W376">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34006,46 +34006,46 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G377" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K377">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L377">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M377">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="N377">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="O377">
         <v>3.2</v>
       </c>
       <c r="P377">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q377">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R377">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S377">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="T377">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U377">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V377">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -34068,7 +34068,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34080,46 +34080,46 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F378" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G378" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K378">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L378">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M378">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N378">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O378">
         <v>3.4</v>
       </c>
       <c r="P378">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q378">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R378">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S378">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T378">
         <v>2.5</v>
       </c>
       <c r="U378">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V378">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34169,31 +34169,31 @@
         <v>12</v>
       </c>
       <c r="N379">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="O379">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P379">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q379">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R379">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S379">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T379">
         <v>3</v>
       </c>
       <c r="U379">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V379">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W379">
         <v>0</v>
@@ -34243,31 +34243,31 @@
         <v>1.727</v>
       </c>
       <c r="N380">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O380">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P380">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q380">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R380">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S380">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T380">
         <v>2.75</v>
       </c>
       <c r="U380">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V380">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W380">
         <v>0</v>
@@ -34317,31 +34317,31 @@
         <v>5.5</v>
       </c>
       <c r="N381">
-        <v>1.363</v>
+        <v>1.6</v>
       </c>
       <c r="O381">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P381">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q381">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R381">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S381">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T381">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U381">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V381">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34391,31 +34391,31 @@
         <v>8</v>
       </c>
       <c r="N382">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O382">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P382">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q382">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R382">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S382">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T382">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U382">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V382">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34465,31 +34465,31 @@
         <v>3.6</v>
       </c>
       <c r="N383">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O383">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P383">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q383">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R383">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S383">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T383">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U383">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V383">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34545,25 +34545,25 @@
         <v>3.3</v>
       </c>
       <c r="P384">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q384">
         <v>-0.25</v>
       </c>
       <c r="R384">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S384">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T384">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U384">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V384">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W384">
         <v>0</v>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Atletico Grau</t>
   </si>
   <si>
-    <t>UTC Cajamarca</t>
+    <t>Universitario de Deportes</t>
   </si>
   <si>
-    <t>Universitario de Deportes</t>
+    <t>UTC Cajamarca</t>
   </si>
   <si>
     <t>Sport Boys</t>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6189839</v>
+        <v>6189840</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,10 +738,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>51</v>
       </c>
       <c r="K3">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>1.444</v>
+      </c>
+      <c r="O3">
+        <v>4.5</v>
+      </c>
+      <c r="P3">
+        <v>7.5</v>
+      </c>
+      <c r="Q3">
+        <v>-1.25</v>
+      </c>
+      <c r="R3">
+        <v>1.925</v>
+      </c>
+      <c r="S3">
+        <v>1.875</v>
+      </c>
+      <c r="T3">
         <v>2.75</v>
-      </c>
-      <c r="N3">
-        <v>2.2</v>
-      </c>
-      <c r="O3">
-        <v>3.25</v>
-      </c>
-      <c r="P3">
-        <v>3.5</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
-      <c r="S3">
-        <v>1.975</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
       </c>
       <c r="U3">
         <v>1.95</v>
@@ -786,7 +786,7 @@
         <v>1.85</v>
       </c>
       <c r="W3">
-        <v>1.2</v>
+        <v>0.444</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -795,7 +795,7 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
         <v>-1</v>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6189840</v>
+        <v>6189839</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,10 +827,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -839,34 +839,34 @@
         <v>51</v>
       </c>
       <c r="K4">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q4">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
         <v>1.95</v>
@@ -875,7 +875,7 @@
         <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.444</v>
+        <v>1.2</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -884,7 +884,7 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -1450,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1539,7 +1539,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>44976.72916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2604,7 +2604,7 @@
         <v>44979.70833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
@@ -2874,7 +2874,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3583,7 +3583,7 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -3672,7 +3672,7 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -4476,7 +4476,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4740,7 +4740,7 @@
         <v>45003.72916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -4918,7 +4918,7 @@
         <v>45003.91666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5363,7 +5363,7 @@
         <v>45009.9375</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -6075,7 +6075,7 @@
         <v>45012.70833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -6345,7 +6345,7 @@
         <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7143,7 +7143,7 @@
         <v>45024.72916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7499,7 +7499,7 @@
         <v>45025.83333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -8125,7 +8125,7 @@
         <v>47</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8303,7 +8303,7 @@
         <v>46</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8567,7 +8567,7 @@
         <v>45037.72916666666</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -9279,7 +9279,7 @@
         <v>45040.9375</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>43</v>
@@ -9549,7 +9549,7 @@
         <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10614,7 +10614,7 @@
         <v>45053.71875</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -11151,7 +11151,7 @@
         <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>5</v>
@@ -11596,7 +11596,7 @@
         <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -12041,7 +12041,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>45065.9375</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -12842,7 +12842,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13462,10 +13462,10 @@
         <v>45074.72916666666</v>
       </c>
       <c r="F146" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s">
         <v>30</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         <v>45079.9375</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
         <v>45</v>
@@ -14622,7 +14622,7 @@
         <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -15423,7 +15423,7 @@
         <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15690,7 +15690,7 @@
         <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -16224,7 +16224,7 @@
         <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16310,7 +16310,7 @@
         <v>45107.72916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
         <v>44</v>
@@ -16933,7 +16933,7 @@
         <v>45110.9375</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -17203,7 +17203,7 @@
         <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17381,7 +17381,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17823,7 +17823,7 @@
         <v>45121.72916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
         <v>38</v>
@@ -17912,7 +17912,7 @@
         <v>45121.95833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
         <v>39</v>
@@ -18894,7 +18894,7 @@
         <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19603,7 +19603,7 @@
         <v>45136.71875</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
         <v>39</v>
@@ -20048,7 +20048,7 @@
         <v>45138.9375</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
         <v>40</v>
@@ -20407,7 +20407,7 @@
         <v>41</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20763,7 +20763,7 @@
         <v>42</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -21116,7 +21116,7 @@
         <v>45149.71875</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
         <v>40</v>
@@ -21472,7 +21472,7 @@
         <v>45150.875</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G236" t="s">
         <v>36</v>
@@ -21920,7 +21920,7 @@
         <v>42</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22009,7 +22009,7 @@
         <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H242">
         <v>2</v>
@@ -22807,7 +22807,7 @@
         <v>45157.89583333334</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G251" t="s">
         <v>47</v>
@@ -23163,7 +23163,7 @@
         <v>45159.71875</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
         <v>36</v>
@@ -23700,7 +23700,7 @@
         <v>29</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -23967,7 +23967,7 @@
         <v>37</v>
       </c>
       <c r="G264" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>45172.71875</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G269" t="s">
         <v>47</v>
@@ -24854,7 +24854,7 @@
         <v>45179.875</v>
       </c>
       <c r="F274" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G274" t="s">
         <v>46</v>
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="G275" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H275">
         <v>4</v>
@@ -25480,7 +25480,7 @@
         <v>43</v>
       </c>
       <c r="G281" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -26011,7 +26011,7 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F287" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G287" t="s">
         <v>46</v>
@@ -26189,7 +26189,7 @@
         <v>45189.9375</v>
       </c>
       <c r="F289" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G289" t="s">
         <v>32</v>
@@ -27260,7 +27260,7 @@
         <v>43</v>
       </c>
       <c r="G301" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27438,7 +27438,7 @@
         <v>33</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H303">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
         <v>32</v>
@@ -28147,10 +28147,10 @@
         <v>45201.9375</v>
       </c>
       <c r="F311" t="s">
+        <v>30</v>
+      </c>
+      <c r="G311" t="s">
         <v>31</v>
-      </c>
-      <c r="G311" t="s">
-        <v>30</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28948,7 +28948,7 @@
         <v>45219.70833333334</v>
       </c>
       <c r="F320" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G320" t="s">
         <v>33</v>
@@ -29218,7 +29218,7 @@
         <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,58 +29393,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G325" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J325" t="s">
         <v>51</v>
       </c>
       <c r="K325">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L325">
+        <v>3.2</v>
+      </c>
+      <c r="M325">
         <v>3.75</v>
       </c>
-      <c r="M325">
+      <c r="N325">
+        <v>1.75</v>
+      </c>
+      <c r="O325">
+        <v>3.4</v>
+      </c>
+      <c r="P325">
         <v>4.333</v>
       </c>
-      <c r="N325">
-        <v>1.25</v>
-      </c>
-      <c r="O325">
-        <v>5.25</v>
-      </c>
-      <c r="P325">
-        <v>10</v>
-      </c>
       <c r="Q325">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R325">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T325">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U325">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V325">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W325">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X325">
         <v>-1</v>
@@ -29453,16 +29453,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA325">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC325">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29482,58 +29482,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G326" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H326">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I326">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J326" t="s">
         <v>51</v>
       </c>
       <c r="K326">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L326">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M326">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N326">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O326">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P326">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R326">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T326">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U326">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V326">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W326">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -29542,16 +29542,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB326">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29737,7 +29737,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29749,76 +29749,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F329" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G329" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H329">
+        <v>2</v>
+      </c>
+      <c r="I329">
         <v>1</v>
       </c>
-      <c r="I329">
+      <c r="J329" t="s">
+        <v>51</v>
+      </c>
+      <c r="K329">
         <v>2</v>
       </c>
-      <c r="J329" t="s">
-        <v>53</v>
-      </c>
-      <c r="K329">
-        <v>1.444</v>
-      </c>
       <c r="L329">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M329">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N329">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O329">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P329">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q329">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R329">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S329">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T329">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U329">
+        <v>1.925</v>
+      </c>
+      <c r="V329">
         <v>1.875</v>
       </c>
-      <c r="V329">
-        <v>1.975</v>
-      </c>
       <c r="W329">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA329">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC329">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29826,7 +29826,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29838,13 +29838,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F330" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G330" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I330">
         <v>1</v>
@@ -29862,34 +29862,34 @@
         <v>3.5</v>
       </c>
       <c r="N330">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O330">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P330">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q330">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R330">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S330">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T330">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V330">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W330">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29898,16 +29898,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC330">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29915,7 +29915,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29927,76 +29927,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F331" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G331" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K331">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L331">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M331">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N331">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O331">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P331">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q331">
         <v>-1</v>
       </c>
       <c r="R331">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S331">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T331">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U331">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V331">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W331">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z331">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB331">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30004,7 +30004,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30016,13 +30016,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F332" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G332" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H332">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332">
         <v>0</v>
@@ -30031,43 +30031,43 @@
         <v>51</v>
       </c>
       <c r="K332">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L332">
         <v>5</v>
       </c>
       <c r="M332">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N332">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O332">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P332">
         <v>13</v>
       </c>
       <c r="Q332">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R332">
+        <v>1.8</v>
+      </c>
+      <c r="S332">
+        <v>2</v>
+      </c>
+      <c r="T332">
+        <v>2.75</v>
+      </c>
+      <c r="U332">
         <v>1.85</v>
       </c>
-      <c r="S332">
+      <c r="V332">
         <v>1.95</v>
       </c>
-      <c r="T332">
-        <v>3.25</v>
-      </c>
-      <c r="U332">
-        <v>2</v>
-      </c>
-      <c r="V332">
-        <v>1.8</v>
-      </c>
       <c r="W332">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X332">
         <v>-1</v>
@@ -30076,16 +30076,16 @@
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB332">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC332">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30093,7 +30093,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30105,55 +30105,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F333" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G333" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
         <v>53</v>
       </c>
       <c r="K333">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L333">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M333">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N333">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O333">
         <v>3.6</v>
       </c>
       <c r="P333">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q333">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R333">
+        <v>1.8</v>
+      </c>
+      <c r="S333">
         <v>2</v>
       </c>
-      <c r="S333">
-        <v>1.8</v>
-      </c>
       <c r="T333">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U333">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V333">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W333">
         <v>-1</v>
@@ -30162,19 +30162,19 @@
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z333">
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC333">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7384629</v>
+        <v>7384630</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,10 +30194,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F334" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G334" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -30209,40 +30209,40 @@
         <v>53</v>
       </c>
       <c r="K334">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="L334">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M334">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N334">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O334">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P334">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q334">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R334">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S334">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W334">
         <v>-1</v>
@@ -30251,19 +30251,19 @@
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>1.375</v>
+        <v>2.8</v>
       </c>
       <c r="Z334">
         <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB334">
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7384625</v>
+        <v>7384629</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,76 +30283,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G335" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H335">
         <v>0</v>
       </c>
       <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335" t="s">
+        <v>53</v>
+      </c>
+      <c r="K335">
+        <v>2.625</v>
+      </c>
+      <c r="L335">
+        <v>3.3</v>
+      </c>
+      <c r="M335">
+        <v>2.5</v>
+      </c>
+      <c r="N335">
+        <v>2.7</v>
+      </c>
+      <c r="O335">
+        <v>3.4</v>
+      </c>
+      <c r="P335">
+        <v>2.375</v>
+      </c>
+      <c r="Q335">
         <v>0</v>
       </c>
-      <c r="J335" t="s">
-        <v>52</v>
-      </c>
-      <c r="K335">
-        <v>1.5</v>
-      </c>
-      <c r="L335">
-        <v>3.75</v>
-      </c>
-      <c r="M335">
-        <v>7</v>
-      </c>
-      <c r="N335">
-        <v>1.363</v>
-      </c>
-      <c r="O335">
-        <v>4.333</v>
-      </c>
-      <c r="P335">
-        <v>9.5</v>
-      </c>
-      <c r="Q335">
-        <v>-1.25</v>
-      </c>
       <c r="R335">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S335">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T335">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U335">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V335">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30360,7 +30360,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7384628</v>
+        <v>7384625</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30372,76 +30372,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G336" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336" t="s">
+        <v>52</v>
+      </c>
+      <c r="K336">
+        <v>1.5</v>
+      </c>
+      <c r="L336">
+        <v>3.75</v>
+      </c>
+      <c r="M336">
+        <v>7</v>
+      </c>
+      <c r="N336">
+        <v>1.363</v>
+      </c>
+      <c r="O336">
+        <v>4.333</v>
+      </c>
+      <c r="P336">
+        <v>9.5</v>
+      </c>
+      <c r="Q336">
+        <v>-1.25</v>
+      </c>
+      <c r="R336">
+        <v>1.875</v>
+      </c>
+      <c r="S336">
+        <v>1.925</v>
+      </c>
+      <c r="T336">
+        <v>2.5</v>
+      </c>
+      <c r="U336">
+        <v>1.8</v>
+      </c>
+      <c r="V336">
+        <v>2</v>
+      </c>
+      <c r="W336">
+        <v>-1</v>
+      </c>
+      <c r="X336">
+        <v>3.333</v>
+      </c>
+      <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
+        <v>-1</v>
+      </c>
+      <c r="AA336">
+        <v>0.925</v>
+      </c>
+      <c r="AB336">
+        <v>-1</v>
+      </c>
+      <c r="AC336">
         <v>1</v>
-      </c>
-      <c r="I336">
-        <v>2</v>
-      </c>
-      <c r="J336" t="s">
-        <v>53</v>
-      </c>
-      <c r="K336">
-        <v>2.75</v>
-      </c>
-      <c r="L336">
-        <v>3.3</v>
-      </c>
-      <c r="M336">
-        <v>2.375</v>
-      </c>
-      <c r="N336">
-        <v>3.3</v>
-      </c>
-      <c r="O336">
-        <v>3.6</v>
-      </c>
-      <c r="P336">
-        <v>2</v>
-      </c>
-      <c r="Q336">
-        <v>0.5</v>
-      </c>
-      <c r="R336">
-        <v>1.8</v>
-      </c>
-      <c r="S336">
-        <v>2</v>
-      </c>
-      <c r="T336">
-        <v>2.75</v>
-      </c>
-      <c r="U336">
-        <v>1.975</v>
-      </c>
-      <c r="V336">
-        <v>1.875</v>
-      </c>
-      <c r="W336">
-        <v>-1</v>
-      </c>
-      <c r="X336">
-        <v>-1</v>
-      </c>
-      <c r="Y336">
-        <v>1</v>
-      </c>
-      <c r="Z336">
-        <v>-1</v>
-      </c>
-      <c r="AA336">
-        <v>1</v>
-      </c>
-      <c r="AB336">
-        <v>0.4875</v>
-      </c>
-      <c r="AC336">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7384627</v>
+        <v>7384626</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,13 +30461,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F337" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G337" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I337">
         <v>0</v>
@@ -30476,43 +30476,43 @@
         <v>51</v>
       </c>
       <c r="K337">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L337">
         <v>5</v>
       </c>
       <c r="M337">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N337">
-        <v>1.181</v>
+        <v>1.166</v>
       </c>
       <c r="O337">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P337">
         <v>13</v>
       </c>
       <c r="Q337">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R337">
+        <v>1.85</v>
+      </c>
+      <c r="S337">
+        <v>1.95</v>
+      </c>
+      <c r="T337">
+        <v>3.25</v>
+      </c>
+      <c r="U337">
+        <v>2</v>
+      </c>
+      <c r="V337">
         <v>1.8</v>
       </c>
-      <c r="S337">
-        <v>2</v>
-      </c>
-      <c r="T337">
-        <v>2.75</v>
-      </c>
-      <c r="U337">
-        <v>1.85</v>
-      </c>
-      <c r="V337">
-        <v>1.95</v>
-      </c>
       <c r="W337">
-        <v>0.181</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X337">
         <v>-1</v>
@@ -30521,16 +30521,16 @@
         <v>-1</v>
       </c>
       <c r="Z337">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA337">
+        <v>-1</v>
+      </c>
+      <c r="AB337">
+        <v>-0.5</v>
+      </c>
+      <c r="AC337">
         <v>0.4</v>
-      </c>
-      <c r="AA337">
-        <v>-0.5</v>
-      </c>
-      <c r="AB337">
-        <v>-1</v>
-      </c>
-      <c r="AC337">
-        <v>0.95</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30550,7 +30550,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F338" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G338" t="s">
         <v>41</v>
@@ -30642,7 +30642,7 @@
         <v>41</v>
       </c>
       <c r="G339" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H339">
         <v>0</v>
@@ -30728,7 +30728,7 @@
         <v>45317.70833333334</v>
       </c>
       <c r="F340" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G340" t="s">
         <v>47</v>
@@ -31265,7 +31265,7 @@
         <v>40</v>
       </c>
       <c r="G346" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H346">
         <v>0</v>
@@ -31532,7 +31532,7 @@
         <v>45</v>
       </c>
       <c r="G349" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H349">
         <v>1</v>
@@ -31885,7 +31885,7 @@
         <v>45325.91666666666</v>
       </c>
       <c r="F353" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G353" t="s">
         <v>29</v>
@@ -32330,7 +32330,7 @@
         <v>45331.70833333334</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G358" t="s">
         <v>33</v>
@@ -32689,7 +32689,7 @@
         <v>41</v>
       </c>
       <c r="G362" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -33223,7 +33223,7 @@
         <v>38</v>
       </c>
       <c r="G368" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H368">
         <v>2</v>
@@ -33487,7 +33487,7 @@
         <v>45339.91666666666</v>
       </c>
       <c r="F371" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G371" t="s">
         <v>42</v>
@@ -33937,6 +33937,15 @@
       <c r="G376" t="s">
         <v>38</v>
       </c>
+      <c r="H376">
+        <v>4</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376" t="s">
+        <v>51</v>
+      </c>
       <c r="K376">
         <v>1.4</v>
       </c>
@@ -33947,46 +33956,52 @@
         <v>8</v>
       </c>
       <c r="N376">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O376">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P376">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q376">
         <v>-1.25</v>
       </c>
       <c r="R376">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S376">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T376">
         <v>2.5</v>
       </c>
       <c r="U376">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V376">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W376">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA376">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB376">
+        <v>0.925</v>
+      </c>
+      <c r="AC376">
+        <v>-1</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34006,10 +34021,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F377" t="s">
+        <v>31</v>
+      </c>
+      <c r="G377" t="s">
         <v>30</v>
-      </c>
-      <c r="G377" t="s">
-        <v>31</v>
       </c>
       <c r="K377">
         <v>3.3</v>
@@ -34021,31 +34036,31 @@
         <v>2.1</v>
       </c>
       <c r="N377">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O377">
         <v>3.2</v>
       </c>
       <c r="P377">
+        <v>2.05</v>
+      </c>
+      <c r="Q377">
+        <v>0.5</v>
+      </c>
+      <c r="R377">
+        <v>1.775</v>
+      </c>
+      <c r="S377">
         <v>2.1</v>
-      </c>
-      <c r="Q377">
-        <v>0.25</v>
-      </c>
-      <c r="R377">
-        <v>2.05</v>
-      </c>
-      <c r="S377">
-        <v>1.8</v>
       </c>
       <c r="T377">
         <v>2.25</v>
       </c>
       <c r="U377">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V377">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -34116,10 +34131,10 @@
         <v>2.5</v>
       </c>
       <c r="U378">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V378">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34169,22 +34184,22 @@
         <v>12</v>
       </c>
       <c r="N379">
-        <v>1.222</v>
+        <v>1.181</v>
       </c>
       <c r="O379">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P379">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q379">
         <v>-2</v>
       </c>
       <c r="R379">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S379">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T379">
         <v>3</v>
@@ -34326,13 +34341,13 @@
         <v>5.75</v>
       </c>
       <c r="Q381">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R381">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S381">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T381">
         <v>2.25</v>
@@ -34400,13 +34415,13 @@
         <v>12</v>
       </c>
       <c r="Q382">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R382">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S382">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T382">
         <v>3</v>
@@ -34465,31 +34480,31 @@
         <v>3.6</v>
       </c>
       <c r="N383">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O383">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P383">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q383">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R383">
+        <v>2</v>
+      </c>
+      <c r="S383">
+        <v>1.85</v>
+      </c>
+      <c r="T383">
+        <v>2.5</v>
+      </c>
+      <c r="U383">
+        <v>2.05</v>
+      </c>
+      <c r="V383">
         <v>1.8</v>
-      </c>
-      <c r="S383">
-        <v>2.05</v>
-      </c>
-      <c r="T383">
-        <v>2.25</v>
-      </c>
-      <c r="U383">
-        <v>1.8</v>
-      </c>
-      <c r="V383">
-        <v>2.05</v>
       </c>
       <c r="W383">
         <v>0</v>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,58 +29393,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G325" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H325">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I325">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J325" t="s">
         <v>51</v>
       </c>
       <c r="K325">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L325">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M325">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N325">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O325">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P325">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q325">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S325">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U325">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V325">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W325">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X325">
         <v>-1</v>
@@ -29453,16 +29453,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB325">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29482,58 +29482,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G326" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J326" t="s">
         <v>51</v>
       </c>
       <c r="K326">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L326">
+        <v>3.2</v>
+      </c>
+      <c r="M326">
         <v>3.75</v>
       </c>
-      <c r="M326">
+      <c r="N326">
+        <v>1.75</v>
+      </c>
+      <c r="O326">
+        <v>3.4</v>
+      </c>
+      <c r="P326">
         <v>4.333</v>
       </c>
-      <c r="N326">
-        <v>1.25</v>
-      </c>
-      <c r="O326">
-        <v>5.25</v>
-      </c>
-      <c r="P326">
-        <v>10</v>
-      </c>
       <c r="Q326">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T326">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U326">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V326">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W326">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -29542,16 +29542,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA326">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC326">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -30004,7 +30004,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30016,40 +30016,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F332" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G332" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
         <v>2</v>
       </c>
-      <c r="I332">
-        <v>0</v>
-      </c>
       <c r="J332" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K332">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="L332">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M332">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N332">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O332">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P332">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q332">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R332">
         <v>1.8</v>
@@ -30061,31 +30061,31 @@
         <v>2.75</v>
       </c>
       <c r="U332">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V332">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W332">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z332">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
+        <v>1</v>
+      </c>
+      <c r="AB332">
+        <v>0.4875</v>
+      </c>
+      <c r="AC332">
         <v>-0.5</v>
-      </c>
-      <c r="AB332">
-        <v>-1</v>
-      </c>
-      <c r="AC332">
-        <v>0.95</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30093,7 +30093,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30105,55 +30105,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G333" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
         <v>1</v>
-      </c>
-      <c r="I333">
-        <v>2</v>
       </c>
       <c r="J333" t="s">
         <v>53</v>
       </c>
       <c r="K333">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L333">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M333">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N333">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O333">
         <v>3.6</v>
       </c>
       <c r="P333">
+        <v>3.8</v>
+      </c>
+      <c r="Q333">
+        <v>-0.75</v>
+      </c>
+      <c r="R333">
         <v>2</v>
       </c>
-      <c r="Q333">
-        <v>0.5</v>
-      </c>
-      <c r="R333">
+      <c r="S333">
         <v>1.8</v>
       </c>
-      <c r="S333">
-        <v>2</v>
-      </c>
       <c r="T333">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U333">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V333">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W333">
         <v>-1</v>
@@ -30162,19 +30162,19 @@
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Z333">
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB333">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC333">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7384630</v>
+        <v>7384627</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,49 +30194,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F334" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G334" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H334">
+        <v>2</v>
+      </c>
+      <c r="I334">
         <v>0</v>
       </c>
-      <c r="I334">
-        <v>1</v>
-      </c>
       <c r="J334" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K334">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L334">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M334">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="N334">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="O334">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P334">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="Q334">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R334">
+        <v>1.8</v>
+      </c>
+      <c r="S334">
         <v>2</v>
       </c>
-      <c r="S334">
-        <v>1.8</v>
-      </c>
       <c r="T334">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U334">
         <v>1.85</v>
@@ -30245,19 +30245,19 @@
         <v>1.95</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA334">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB334">
         <v>-1</v>
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7384629</v>
+        <v>7384626</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,76 +30283,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G335" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H335">
+        <v>3</v>
+      </c>
+      <c r="I335">
         <v>0</v>
       </c>
-      <c r="I335">
-        <v>1</v>
-      </c>
       <c r="J335" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K335">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L335">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M335">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N335">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O335">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P335">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q335">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R335">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S335">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T335">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U335">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V335">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W335">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA335">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC335">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7384626</v>
+        <v>7384629</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,76 +30461,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F337" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G337" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337" t="s">
+        <v>53</v>
+      </c>
+      <c r="K337">
+        <v>2.625</v>
+      </c>
+      <c r="L337">
+        <v>3.3</v>
+      </c>
+      <c r="M337">
+        <v>2.5</v>
+      </c>
+      <c r="N337">
+        <v>2.7</v>
+      </c>
+      <c r="O337">
+        <v>3.4</v>
+      </c>
+      <c r="P337">
+        <v>2.375</v>
+      </c>
+      <c r="Q337">
         <v>0</v>
       </c>
-      <c r="J337" t="s">
-        <v>51</v>
-      </c>
-      <c r="K337">
-        <v>1.3</v>
-      </c>
-      <c r="L337">
-        <v>5</v>
-      </c>
-      <c r="M337">
-        <v>9</v>
-      </c>
-      <c r="N337">
-        <v>1.166</v>
-      </c>
-      <c r="O337">
-        <v>6.5</v>
-      </c>
-      <c r="P337">
-        <v>13</v>
-      </c>
-      <c r="Q337">
-        <v>-2</v>
-      </c>
       <c r="R337">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S337">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T337">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U337">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V337">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W337">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z337">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB337">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -34009,7 +34009,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34021,46 +34021,46 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G377" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K377">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L377">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M377">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N377">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O377">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P377">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q377">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R377">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S377">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T377">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V377">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -34083,7 +34083,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34095,46 +34095,46 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F378" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G378" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K378">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L378">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M378">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="N378">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="O378">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P378">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q378">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R378">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S378">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T378">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U378">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V378">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34184,31 +34184,31 @@
         <v>12</v>
       </c>
       <c r="N379">
-        <v>1.181</v>
+        <v>1.166</v>
       </c>
       <c r="O379">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P379">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q379">
         <v>-2</v>
       </c>
       <c r="R379">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S379">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T379">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U379">
+        <v>2.025</v>
+      </c>
+      <c r="V379">
         <v>1.825</v>
-      </c>
-      <c r="V379">
-        <v>2.025</v>
       </c>
       <c r="W379">
         <v>0</v>
@@ -34258,31 +34258,31 @@
         <v>1.727</v>
       </c>
       <c r="N380">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="O380">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P380">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q380">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R380">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S380">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T380">
         <v>2.75</v>
       </c>
       <c r="U380">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V380">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W380">
         <v>0</v>
@@ -34406,16 +34406,16 @@
         <v>8</v>
       </c>
       <c r="N382">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="O382">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P382">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q382">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R382">
         <v>1.975</v>
@@ -34424,13 +34424,13 @@
         <v>1.875</v>
       </c>
       <c r="T382">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U382">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V382">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W382">
         <v>0</v>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC384"/>
+  <dimension ref="A1:AC382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6277613</v>
+        <v>6277614</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L35">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N35">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6277614</v>
+        <v>6277613</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,76 +3672,76 @@
         <v>44990.72916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K36">
+        <v>2.8</v>
+      </c>
+      <c r="L36">
+        <v>3.25</v>
+      </c>
+      <c r="M36">
         <v>2.375</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>3.2</v>
       </c>
-      <c r="M36">
-        <v>2.875</v>
-      </c>
-      <c r="N36">
-        <v>1.909</v>
-      </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -27601,7 +27601,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27613,76 +27613,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K305">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L305">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M305">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N305">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O305">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P305">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q305">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R305">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S305">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U305">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X305">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA305">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27690,7 +27690,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27702,76 +27702,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G306" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K306">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L306">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M306">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N306">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O306">
+        <v>4.2</v>
+      </c>
+      <c r="P306">
         <v>6.5</v>
       </c>
-      <c r="P306">
-        <v>12</v>
-      </c>
       <c r="Q306">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R306">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S306">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T306">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U306">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V306">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W306">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB306">
         <v>-1</v>
       </c>
       <c r="AC306">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,76 +29304,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F324" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G324" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I324">
         <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K324">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L324">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M324">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N324">
         <v>1.75</v>
       </c>
       <c r="O324">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P324">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q324">
         <v>-0.5</v>
       </c>
       <c r="R324">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S324">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T324">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U324">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA324">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC324">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,76 +29393,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G325" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H325">
         <v>1</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J325" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K325">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L325">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M325">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N325">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O325">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P325">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q325">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R325">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S325">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T325">
+        <v>2.75</v>
+      </c>
+      <c r="U325">
+        <v>1.825</v>
+      </c>
+      <c r="V325">
+        <v>1.975</v>
+      </c>
+      <c r="W325">
+        <v>-1</v>
+      </c>
+      <c r="X325">
+        <v>-1</v>
+      </c>
+      <c r="Y325">
         <v>3</v>
       </c>
-      <c r="U325">
-        <v>1.875</v>
-      </c>
-      <c r="V325">
-        <v>1.925</v>
-      </c>
-      <c r="W325">
-        <v>0.25</v>
-      </c>
-      <c r="X325">
-        <v>-1</v>
-      </c>
-      <c r="Y325">
-        <v>-1</v>
-      </c>
       <c r="Z325">
         <v>-1</v>
       </c>
       <c r="AA325">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC325">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29482,58 +29482,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G326" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H326">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I326">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J326" t="s">
         <v>51</v>
       </c>
       <c r="K326">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L326">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M326">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N326">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O326">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P326">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R326">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T326">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U326">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V326">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W326">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -29542,16 +29542,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB326">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29737,7 +29737,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29749,13 +29749,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F329" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G329" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I329">
         <v>1</v>
@@ -29773,34 +29773,34 @@
         <v>3.5</v>
       </c>
       <c r="N329">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O329">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P329">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q329">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R329">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S329">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T329">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U329">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V329">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W329">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29809,16 +29809,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC329">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29826,7 +29826,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29838,13 +29838,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F330" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G330" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H330">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330">
         <v>1</v>
@@ -29862,34 +29862,34 @@
         <v>3.5</v>
       </c>
       <c r="N330">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O330">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P330">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q330">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R330">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S330">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T330">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U330">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V330">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W330">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29898,16 +29898,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30004,7 +30004,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30016,55 +30016,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F332" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G332" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
         <v>1</v>
-      </c>
-      <c r="I332">
-        <v>2</v>
       </c>
       <c r="J332" t="s">
         <v>53</v>
       </c>
       <c r="K332">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L332">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M332">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N332">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O332">
         <v>3.6</v>
       </c>
       <c r="P332">
+        <v>3.8</v>
+      </c>
+      <c r="Q332">
+        <v>-0.75</v>
+      </c>
+      <c r="R332">
         <v>2</v>
       </c>
-      <c r="Q332">
-        <v>0.5</v>
-      </c>
-      <c r="R332">
+      <c r="S332">
         <v>1.8</v>
       </c>
-      <c r="S332">
-        <v>2</v>
-      </c>
       <c r="T332">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U332">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V332">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W332">
         <v>-1</v>
@@ -30073,19 +30073,19 @@
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB332">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC332">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30093,7 +30093,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30105,10 +30105,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F333" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G333" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -30120,40 +30120,40 @@
         <v>53</v>
       </c>
       <c r="K333">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L333">
+        <v>3.3</v>
+      </c>
+      <c r="M333">
+        <v>2.5</v>
+      </c>
+      <c r="N333">
+        <v>2.7</v>
+      </c>
+      <c r="O333">
         <v>3.4</v>
       </c>
-      <c r="M333">
-        <v>2.15</v>
-      </c>
-      <c r="N333">
-        <v>1.75</v>
-      </c>
-      <c r="O333">
-        <v>3.6</v>
-      </c>
       <c r="P333">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q333">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R333">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S333">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T333">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V333">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W333">
         <v>-1</v>
@@ -30162,19 +30162,19 @@
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z333">
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB333">
         <v>-1</v>
       </c>
       <c r="AC333">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,40 +30194,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F334" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G334" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334">
         <v>2</v>
       </c>
-      <c r="I334">
-        <v>0</v>
-      </c>
       <c r="J334" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K334">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="L334">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M334">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N334">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O334">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P334">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q334">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R334">
         <v>1.8</v>
@@ -30239,31 +30239,31 @@
         <v>2.75</v>
       </c>
       <c r="U334">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V334">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W334">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z334">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
+        <v>1</v>
+      </c>
+      <c r="AB334">
+        <v>0.4875</v>
+      </c>
+      <c r="AC334">
         <v>-0.5</v>
-      </c>
-      <c r="AB334">
-        <v>-1</v>
-      </c>
-      <c r="AC334">
-        <v>0.95</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7384629</v>
+        <v>7384627</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,76 +30461,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F337" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G337" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H337">
+        <v>2</v>
+      </c>
+      <c r="I337">
         <v>0</v>
       </c>
-      <c r="I337">
-        <v>1</v>
-      </c>
       <c r="J337" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K337">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L337">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M337">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="N337">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="O337">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P337">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q337">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R337">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S337">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T337">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U337">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V337">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W337">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA337">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB337">
         <v>-1</v>
       </c>
       <c r="AC337">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -34026,6 +34026,15 @@
       <c r="G377" t="s">
         <v>45</v>
       </c>
+      <c r="H377">
+        <v>3</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377" t="s">
+        <v>51</v>
+      </c>
       <c r="K377">
         <v>2.2</v>
       </c>
@@ -34036,22 +34045,22 @@
         <v>3.2</v>
       </c>
       <c r="N377">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O377">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P377">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q377">
         <v>-0.75</v>
       </c>
       <c r="R377">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S377">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T377">
         <v>2.5</v>
@@ -34063,19 +34072,25 @@
         <v>1.875</v>
       </c>
       <c r="W377">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA377">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB377">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC377">
+        <v>-1</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34100,6 +34115,15 @@
       <c r="G378" t="s">
         <v>30</v>
       </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378" t="s">
+        <v>52</v>
+      </c>
       <c r="K378">
         <v>3.3</v>
       </c>
@@ -34110,10 +34134,10 @@
         <v>2.1</v>
       </c>
       <c r="N378">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O378">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P378">
         <v>1.95</v>
@@ -34122,34 +34146,40 @@
         <v>0.5</v>
       </c>
       <c r="R378">
+        <v>2</v>
+      </c>
+      <c r="S378">
         <v>1.85</v>
-      </c>
-      <c r="S378">
-        <v>2</v>
       </c>
       <c r="T378">
         <v>2</v>
       </c>
       <c r="U378">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V378">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W378">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X378">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y378">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA378">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB378">
+        <v>-1</v>
+      </c>
+      <c r="AC378">
+        <v>1.1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34157,7 +34187,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7818818</v>
+        <v>7818820</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34166,49 +34196,49 @@
         <v>28</v>
       </c>
       <c r="E379" s="2">
-        <v>45346.8125</v>
+        <v>45347.65625</v>
       </c>
       <c r="F379" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G379" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K379">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L379">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M379">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="N379">
-        <v>1.166</v>
+        <v>1.55</v>
       </c>
       <c r="O379">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P379">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Q379">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R379">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S379">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T379">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U379">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V379">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W379">
         <v>0</v>
@@ -34231,7 +34261,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7818819</v>
+        <v>7818821</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34240,49 +34270,49 @@
         <v>28</v>
       </c>
       <c r="E380" s="2">
-        <v>45346.84375</v>
+        <v>45347.75</v>
       </c>
       <c r="F380" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G380" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K380">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="L380">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M380">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N380">
-        <v>4.75</v>
+        <v>1.142</v>
       </c>
       <c r="O380">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P380">
-        <v>1.666</v>
+        <v>19</v>
       </c>
       <c r="Q380">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R380">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S380">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T380">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U380">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V380">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W380">
         <v>0</v>
@@ -34305,7 +34335,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7818820</v>
+        <v>7818822</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34314,49 +34344,49 @@
         <v>28</v>
       </c>
       <c r="E381" s="2">
-        <v>45347.65625</v>
+        <v>45347.875</v>
       </c>
       <c r="F381" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G381" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K381">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L381">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M381">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N381">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O381">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P381">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q381">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R381">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S381">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T381">
         <v>2.25</v>
       </c>
       <c r="U381">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V381">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34379,7 +34409,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>7818821</v>
+        <v>7818823</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34388,49 +34418,49 @@
         <v>28</v>
       </c>
       <c r="E382" s="2">
-        <v>45347.75</v>
+        <v>45348.70833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G382" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K382">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L382">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M382">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N382">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O382">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="P382">
-        <v>15</v>
+        <v>3.2</v>
       </c>
       <c r="Q382">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R382">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S382">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T382">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U382">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V382">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34445,154 +34475,6 @@
         <v>0</v>
       </c>
       <c r="AA382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:29">
-      <c r="A383" s="1">
-        <v>381</v>
-      </c>
-      <c r="B383">
-        <v>7818822</v>
-      </c>
-      <c r="C383" t="s">
-        <v>28</v>
-      </c>
-      <c r="D383" t="s">
-        <v>28</v>
-      </c>
-      <c r="E383" s="2">
-        <v>45347.875</v>
-      </c>
-      <c r="F383" t="s">
-        <v>47</v>
-      </c>
-      <c r="G383" t="s">
-        <v>33</v>
-      </c>
-      <c r="K383">
-        <v>1.909</v>
-      </c>
-      <c r="L383">
-        <v>3.5</v>
-      </c>
-      <c r="M383">
-        <v>3.6</v>
-      </c>
-      <c r="N383">
-        <v>1.95</v>
-      </c>
-      <c r="O383">
-        <v>3.5</v>
-      </c>
-      <c r="P383">
-        <v>3.75</v>
-      </c>
-      <c r="Q383">
-        <v>-0.5</v>
-      </c>
-      <c r="R383">
-        <v>2</v>
-      </c>
-      <c r="S383">
-        <v>1.85</v>
-      </c>
-      <c r="T383">
-        <v>2.5</v>
-      </c>
-      <c r="U383">
-        <v>2.05</v>
-      </c>
-      <c r="V383">
-        <v>1.8</v>
-      </c>
-      <c r="W383">
-        <v>0</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>0</v>
-      </c>
-      <c r="Z383">
-        <v>0</v>
-      </c>
-      <c r="AA383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:29">
-      <c r="A384" s="1">
-        <v>382</v>
-      </c>
-      <c r="B384">
-        <v>7818823</v>
-      </c>
-      <c r="C384" t="s">
-        <v>28</v>
-      </c>
-      <c r="D384" t="s">
-        <v>28</v>
-      </c>
-      <c r="E384" s="2">
-        <v>45348.70833333334</v>
-      </c>
-      <c r="F384" t="s">
-        <v>48</v>
-      </c>
-      <c r="G384" t="s">
-        <v>34</v>
-      </c>
-      <c r="K384">
-        <v>2.375</v>
-      </c>
-      <c r="L384">
-        <v>3.3</v>
-      </c>
-      <c r="M384">
-        <v>2.75</v>
-      </c>
-      <c r="N384">
-        <v>2.25</v>
-      </c>
-      <c r="O384">
-        <v>3.3</v>
-      </c>
-      <c r="P384">
-        <v>3.2</v>
-      </c>
-      <c r="Q384">
-        <v>-0.25</v>
-      </c>
-      <c r="R384">
-        <v>1.975</v>
-      </c>
-      <c r="S384">
-        <v>1.875</v>
-      </c>
-      <c r="T384">
-        <v>2.5</v>
-      </c>
-      <c r="U384">
-        <v>1.825</v>
-      </c>
-      <c r="V384">
-        <v>2.025</v>
-      </c>
-      <c r="W384">
-        <v>0</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>0</v>
-      </c>
-      <c r="Z384">
-        <v>0</v>
-      </c>
-      <c r="AA384">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
         <v>1.75</v>
       </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>1.571</v>
-      </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P156">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
         <v>6.5</v>
       </c>
-      <c r="P157">
-        <v>12</v>
-      </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N176">
         <v>1.75</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q176">
         <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q180">
         <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
+      <c r="J182" t="s">
+        <v>51</v>
+      </c>
+      <c r="K182">
         <v>2</v>
       </c>
-      <c r="J182" t="s">
-        <v>53</v>
-      </c>
-      <c r="K182">
-        <v>1.444</v>
-      </c>
       <c r="L182">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U182">
+        <v>1.925</v>
+      </c>
+      <c r="V182">
         <v>1.875</v>
       </c>
-      <c r="V182">
-        <v>1.975</v>
-      </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384629</v>
+        <v>7384626</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H183">
+        <v>3</v>
+      </c>
+      <c r="I183">
         <v>0</v>
       </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
       <c r="J183" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L183">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N183">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P183">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA183">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384628</v>
+        <v>7384629</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,56 +16844,56 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
         <v>1</v>
-      </c>
-      <c r="I184">
-        <v>2</v>
       </c>
       <c r="J184" t="s">
         <v>53</v>
       </c>
       <c r="K184">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L184">
         <v>3.3</v>
       </c>
       <c r="M184">
+        <v>2.5</v>
+      </c>
+      <c r="N184">
+        <v>2.7</v>
+      </c>
+      <c r="O184">
+        <v>3.4</v>
+      </c>
+      <c r="P184">
         <v>2.375</v>
       </c>
-      <c r="N184">
-        <v>3.3</v>
-      </c>
-      <c r="O184">
-        <v>3.6</v>
-      </c>
-      <c r="P184">
-        <v>2</v>
-      </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
+        <v>1.825</v>
+      </c>
+      <c r="V184">
         <v>1.975</v>
       </c>
-      <c r="V184">
-        <v>1.875</v>
-      </c>
       <c r="W184">
         <v>-1</v>
       </c>
@@ -16901,19 +16901,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB184">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,13 +16933,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -16948,43 +16948,43 @@
         <v>51</v>
       </c>
       <c r="K185">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L185">
         <v>5</v>
       </c>
       <c r="M185">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N185">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O185">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P185">
         <v>13</v>
       </c>
       <c r="Q185">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R185">
+        <v>1.8</v>
+      </c>
+      <c r="S185">
+        <v>2</v>
+      </c>
+      <c r="T185">
+        <v>2.75</v>
+      </c>
+      <c r="U185">
         <v>1.85</v>
       </c>
-      <c r="S185">
+      <c r="V185">
         <v>1.95</v>
       </c>
-      <c r="T185">
-        <v>3.25</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
-      <c r="V185">
-        <v>1.8</v>
-      </c>
       <c r="W185">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16993,16 +16993,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384625</v>
+        <v>7384630</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N186">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q186">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U186">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,40 +17111,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
         <v>2</v>
       </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K187">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M187">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q187">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R187">
         <v>1.8</v>
@@ -17156,31 +17156,31 @@
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z187">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
+        <v>1</v>
+      </c>
+      <c r="AB187">
+        <v>0.4875</v>
+      </c>
+      <c r="AC187">
         <v>-0.5</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384630</v>
+        <v>7384625</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188" t="s">
+        <v>52</v>
+      </c>
+      <c r="K188">
+        <v>1.5</v>
+      </c>
+      <c r="L188">
+        <v>3.75</v>
+      </c>
+      <c r="M188">
+        <v>7</v>
+      </c>
+      <c r="N188">
+        <v>1.363</v>
+      </c>
+      <c r="O188">
+        <v>4.333</v>
+      </c>
+      <c r="P188">
+        <v>9.5</v>
+      </c>
+      <c r="Q188">
+        <v>-1.25</v>
+      </c>
+      <c r="R188">
+        <v>1.875</v>
+      </c>
+      <c r="S188">
+        <v>1.925</v>
+      </c>
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>3.333</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>0.925</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>1</v>
-      </c>
-      <c r="J188" t="s">
-        <v>53</v>
-      </c>
-      <c r="K188">
-        <v>2.8</v>
-      </c>
-      <c r="L188">
-        <v>3.4</v>
-      </c>
-      <c r="M188">
-        <v>2.15</v>
-      </c>
-      <c r="N188">
-        <v>1.75</v>
-      </c>
-      <c r="O188">
-        <v>3.6</v>
-      </c>
-      <c r="P188">
-        <v>3.8</v>
-      </c>
-      <c r="Q188">
-        <v>-0.75</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
-      <c r="S188">
-        <v>1.8</v>
-      </c>
-      <c r="T188">
-        <v>3</v>
-      </c>
-      <c r="U188">
-        <v>1.85</v>
-      </c>
-      <c r="V188">
-        <v>1.95</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>2.8</v>
-      </c>
-      <c r="Z188">
-        <v>-1</v>
-      </c>
-      <c r="AA188">
-        <v>0.8</v>
-      </c>
-      <c r="AB188">
-        <v>-1</v>
-      </c>
-      <c r="AC188">
-        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K228">
+        <v>3.3</v>
+      </c>
+      <c r="L228">
+        <v>3.3</v>
+      </c>
+      <c r="M228">
+        <v>2.1</v>
+      </c>
+      <c r="N228">
+        <v>4.5</v>
+      </c>
+      <c r="O228">
+        <v>3.2</v>
+      </c>
+      <c r="P228">
+        <v>1.95</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>1.85</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.775</v>
+      </c>
+      <c r="V228">
+        <v>2.1</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
         <v>2.2</v>
       </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
-      <c r="M228">
-        <v>3.2</v>
-      </c>
-      <c r="N228">
-        <v>1.6</v>
-      </c>
-      <c r="O228">
-        <v>3.75</v>
-      </c>
-      <c r="P228">
-        <v>5.75</v>
-      </c>
-      <c r="Q228">
-        <v>-0.75</v>
-      </c>
-      <c r="R228">
-        <v>1.85</v>
-      </c>
-      <c r="S228">
-        <v>2</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.875</v>
-      </c>
-      <c r="W228">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N229">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
         <v>2</v>
       </c>
-      <c r="S229">
-        <v>1.85</v>
-      </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21282,73 +21282,177 @@
         <v>232</v>
       </c>
       <c r="B234">
+        <v>7818822</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45347.875</v>
+      </c>
+      <c r="F234" t="s">
+        <v>34</v>
+      </c>
+      <c r="G234" t="s">
+        <v>37</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234" t="s">
+        <v>51</v>
+      </c>
+      <c r="K234">
+        <v>1.909</v>
+      </c>
+      <c r="L234">
+        <v>3.5</v>
+      </c>
+      <c r="M234">
+        <v>3.6</v>
+      </c>
+      <c r="N234">
+        <v>1.8</v>
+      </c>
+      <c r="O234">
+        <v>3.6</v>
+      </c>
+      <c r="P234">
+        <v>4.333</v>
+      </c>
+      <c r="Q234">
+        <v>-0.5</v>
+      </c>
+      <c r="R234">
+        <v>1.825</v>
+      </c>
+      <c r="S234">
+        <v>1.975</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>1.8</v>
+      </c>
+      <c r="V234">
+        <v>2</v>
+      </c>
+      <c r="W234">
+        <v>0.8</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
+        <v>0.825</v>
+      </c>
+      <c r="AA234">
+        <v>-1</v>
+      </c>
+      <c r="AB234">
+        <v>-0.5</v>
+      </c>
+      <c r="AC234">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
         <v>7818823</v>
       </c>
-      <c r="C234" t="s">
-        <v>28</v>
-      </c>
-      <c r="D234" t="s">
-        <v>28</v>
-      </c>
-      <c r="E234" s="2">
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
         <v>45348.70833333334</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F235" t="s">
         <v>48</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G235" t="s">
         <v>38</v>
       </c>
-      <c r="K234">
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235" t="s">
+        <v>53</v>
+      </c>
+      <c r="K235">
         <v>2.375</v>
       </c>
-      <c r="L234">
+      <c r="L235">
         <v>3.3</v>
       </c>
-      <c r="M234">
+      <c r="M235">
         <v>2.75</v>
       </c>
-      <c r="N234">
-        <v>2.2</v>
-      </c>
-      <c r="O234">
+      <c r="N235">
+        <v>2.15</v>
+      </c>
+      <c r="O235">
         <v>3.3</v>
       </c>
-      <c r="P234">
-        <v>3.3</v>
-      </c>
-      <c r="Q234">
+      <c r="P235">
+        <v>3.4</v>
+      </c>
+      <c r="Q235">
         <v>-0.25</v>
       </c>
-      <c r="R234">
-        <v>1.925</v>
-      </c>
-      <c r="S234">
-        <v>1.925</v>
-      </c>
-      <c r="T234">
+      <c r="R235">
+        <v>1.825</v>
+      </c>
+      <c r="S235">
+        <v>1.975</v>
+      </c>
+      <c r="T235">
         <v>2.5</v>
       </c>
-      <c r="U234">
+      <c r="U235">
         <v>1.825</v>
       </c>
-      <c r="V234">
-        <v>2.025</v>
-      </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
-        <v>0</v>
+      <c r="V235">
+        <v>1.975</v>
+      </c>
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
+        <v>-1</v>
+      </c>
+      <c r="Y235">
+        <v>2.4</v>
+      </c>
+      <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB235">
+        <v>0.825</v>
+      </c>
+      <c r="AC235">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC235"/>
+  <dimension ref="A1:AC244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
+        <v>2.1</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
         <v>1.75</v>
       </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.571</v>
-      </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
         <v>6.5</v>
       </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N157">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N175">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O175">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P175">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>1.825</v>
+      </c>
+      <c r="V175">
+        <v>1.975</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
         <v>3</v>
       </c>
-      <c r="U175">
-        <v>1.875</v>
-      </c>
-      <c r="V175">
-        <v>1.925</v>
-      </c>
-      <c r="W175">
-        <v>0.25</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>-1</v>
-      </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,13 +16666,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -16690,34 +16690,34 @@
         <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16726,16 +16726,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384629</v>
+        <v>7384627</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="N184">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P184">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R184">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA184">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,40 +16933,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
         <v>2</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K185">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="L185">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N185">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O185">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q185">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
         <v>1.8</v>
@@ -16978,31 +16978,31 @@
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z185">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
+        <v>1</v>
+      </c>
+      <c r="AB185">
+        <v>0.4875</v>
+      </c>
+      <c r="AC185">
         <v>-0.5</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
-      <c r="AC185">
-        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,10 +17022,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17037,40 +17037,40 @@
         <v>53</v>
       </c>
       <c r="K186">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>2.5</v>
+      </c>
+      <c r="N186">
+        <v>2.7</v>
+      </c>
+      <c r="O186">
         <v>3.4</v>
       </c>
-      <c r="M186">
-        <v>2.15</v>
-      </c>
-      <c r="N186">
-        <v>1.75</v>
-      </c>
-      <c r="O186">
-        <v>3.6</v>
-      </c>
       <c r="P186">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17079,19 +17079,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,55 +17111,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
         <v>1</v>
-      </c>
-      <c r="I187">
-        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>53</v>
       </c>
       <c r="K187">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N187">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O187">
         <v>3.6</v>
       </c>
       <c r="P187">
+        <v>3.8</v>
+      </c>
+      <c r="Q187">
+        <v>-0.75</v>
+      </c>
+      <c r="R187">
         <v>2</v>
       </c>
-      <c r="Q187">
-        <v>0.5</v>
-      </c>
-      <c r="R187">
+      <c r="S187">
         <v>1.8</v>
       </c>
-      <c r="S187">
-        <v>2</v>
-      </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17168,19 +17168,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB187">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K228">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N228">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
+        <v>1.85</v>
+      </c>
+      <c r="S228">
         <v>2</v>
       </c>
-      <c r="S228">
-        <v>1.85</v>
-      </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
+        <v>3.3</v>
+      </c>
+      <c r="L229">
+        <v>3.3</v>
+      </c>
+      <c r="M229">
+        <v>2.1</v>
+      </c>
+      <c r="N229">
+        <v>4.5</v>
+      </c>
+      <c r="O229">
+        <v>3.2</v>
+      </c>
+      <c r="P229">
+        <v>1.95</v>
+      </c>
+      <c r="Q229">
+        <v>0.5</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>1.85</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
+        <v>1.775</v>
+      </c>
+      <c r="V229">
+        <v>2.1</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
         <v>2.2</v>
       </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
-      <c r="M229">
-        <v>3.2</v>
-      </c>
-      <c r="N229">
-        <v>1.6</v>
-      </c>
-      <c r="O229">
-        <v>3.75</v>
-      </c>
-      <c r="P229">
-        <v>5.75</v>
-      </c>
-      <c r="Q229">
-        <v>-0.75</v>
-      </c>
-      <c r="R229">
-        <v>1.85</v>
-      </c>
-      <c r="S229">
-        <v>2</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>1.975</v>
-      </c>
-      <c r="V229">
-        <v>1.875</v>
-      </c>
-      <c r="W229">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21453,6 +21453,672 @@
       </c>
       <c r="AC235">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>7850288</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45351.67708333334</v>
+      </c>
+      <c r="F236" t="s">
+        <v>44</v>
+      </c>
+      <c r="G236" t="s">
+        <v>34</v>
+      </c>
+      <c r="K236">
+        <v>1.8</v>
+      </c>
+      <c r="L236">
+        <v>3.5</v>
+      </c>
+      <c r="M236">
+        <v>4.333</v>
+      </c>
+      <c r="N236">
+        <v>1.95</v>
+      </c>
+      <c r="O236">
+        <v>3.25</v>
+      </c>
+      <c r="P236">
+        <v>4</v>
+      </c>
+      <c r="Q236">
+        <v>-0.5</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>1.85</v>
+      </c>
+      <c r="T236">
+        <v>2.5</v>
+      </c>
+      <c r="U236">
+        <v>2.05</v>
+      </c>
+      <c r="V236">
+        <v>1.8</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>7850289</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45352.70833333334</v>
+      </c>
+      <c r="F237" t="s">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>43</v>
+      </c>
+      <c r="K237">
+        <v>3.25</v>
+      </c>
+      <c r="L237">
+        <v>3.6</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237">
+        <v>3.1</v>
+      </c>
+      <c r="O237">
+        <v>3.4</v>
+      </c>
+      <c r="P237">
+        <v>2.1</v>
+      </c>
+      <c r="Q237">
+        <v>0.25</v>
+      </c>
+      <c r="R237">
+        <v>1.95</v>
+      </c>
+      <c r="S237">
+        <v>1.9</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>1.975</v>
+      </c>
+      <c r="V237">
+        <v>1.875</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>7850290</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45352.9375</v>
+      </c>
+      <c r="F238" t="s">
+        <v>31</v>
+      </c>
+      <c r="G238" t="s">
+        <v>46</v>
+      </c>
+      <c r="K238">
+        <v>1.4</v>
+      </c>
+      <c r="L238">
+        <v>4</v>
+      </c>
+      <c r="M238">
+        <v>9</v>
+      </c>
+      <c r="N238">
+        <v>1.5</v>
+      </c>
+      <c r="O238">
+        <v>3.75</v>
+      </c>
+      <c r="P238">
+        <v>7</v>
+      </c>
+      <c r="Q238">
+        <v>-1</v>
+      </c>
+      <c r="R238">
+        <v>1.85</v>
+      </c>
+      <c r="S238">
+        <v>2</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>1.95</v>
+      </c>
+      <c r="V238">
+        <v>1.9</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>7850291</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45353.63541666666</v>
+      </c>
+      <c r="F239" t="s">
+        <v>29</v>
+      </c>
+      <c r="G239" t="s">
+        <v>35</v>
+      </c>
+      <c r="K239">
+        <v>1.25</v>
+      </c>
+      <c r="L239">
+        <v>5.5</v>
+      </c>
+      <c r="M239">
+        <v>11</v>
+      </c>
+      <c r="N239">
+        <v>1.25</v>
+      </c>
+      <c r="O239">
+        <v>6</v>
+      </c>
+      <c r="P239">
+        <v>10</v>
+      </c>
+      <c r="Q239">
+        <v>-1.75</v>
+      </c>
+      <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
+        <v>1.875</v>
+      </c>
+      <c r="T239">
+        <v>3</v>
+      </c>
+      <c r="U239">
+        <v>2</v>
+      </c>
+      <c r="V239">
+        <v>1.85</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>7850292</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45353.73958333334</v>
+      </c>
+      <c r="F240" t="s">
+        <v>50</v>
+      </c>
+      <c r="G240" t="s">
+        <v>41</v>
+      </c>
+      <c r="K240">
+        <v>2.9</v>
+      </c>
+      <c r="L240">
+        <v>3.2</v>
+      </c>
+      <c r="M240">
+        <v>2.375</v>
+      </c>
+      <c r="N240">
+        <v>3.4</v>
+      </c>
+      <c r="O240">
+        <v>3.2</v>
+      </c>
+      <c r="P240">
+        <v>2.15</v>
+      </c>
+      <c r="Q240">
+        <v>0.25</v>
+      </c>
+      <c r="R240">
+        <v>1.975</v>
+      </c>
+      <c r="S240">
+        <v>1.875</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
+        <v>2</v>
+      </c>
+      <c r="V240">
+        <v>1.85</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>7850293</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45353.875</v>
+      </c>
+      <c r="F241" t="s">
+        <v>37</v>
+      </c>
+      <c r="G241" t="s">
+        <v>45</v>
+      </c>
+      <c r="K241">
+        <v>1.8</v>
+      </c>
+      <c r="L241">
+        <v>3.75</v>
+      </c>
+      <c r="M241">
+        <v>4</v>
+      </c>
+      <c r="N241">
+        <v>1.615</v>
+      </c>
+      <c r="O241">
+        <v>4</v>
+      </c>
+      <c r="P241">
+        <v>4.75</v>
+      </c>
+      <c r="Q241">
+        <v>-0.75</v>
+      </c>
+      <c r="R241">
+        <v>1.8</v>
+      </c>
+      <c r="S241">
+        <v>2.05</v>
+      </c>
+      <c r="T241">
+        <v>2.75</v>
+      </c>
+      <c r="U241">
+        <v>2.025</v>
+      </c>
+      <c r="V241">
+        <v>1.825</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>7850294</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45354.70833333334</v>
+      </c>
+      <c r="F242" t="s">
+        <v>48</v>
+      </c>
+      <c r="G242" t="s">
+        <v>36</v>
+      </c>
+      <c r="K242">
+        <v>1.909</v>
+      </c>
+      <c r="L242">
+        <v>3.5</v>
+      </c>
+      <c r="M242">
+        <v>3.75</v>
+      </c>
+      <c r="N242">
+        <v>1.571</v>
+      </c>
+      <c r="O242">
+        <v>3.8</v>
+      </c>
+      <c r="P242">
+        <v>5.5</v>
+      </c>
+      <c r="Q242">
+        <v>-1</v>
+      </c>
+      <c r="R242">
+        <v>2.025</v>
+      </c>
+      <c r="S242">
+        <v>1.825</v>
+      </c>
+      <c r="T242">
+        <v>2.75</v>
+      </c>
+      <c r="U242">
+        <v>1.975</v>
+      </c>
+      <c r="V242">
+        <v>1.875</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7850295</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45354.875</v>
+      </c>
+      <c r="F243" t="s">
+        <v>38</v>
+      </c>
+      <c r="G243" t="s">
+        <v>42</v>
+      </c>
+      <c r="K243">
+        <v>1.3</v>
+      </c>
+      <c r="L243">
+        <v>5</v>
+      </c>
+      <c r="M243">
+        <v>10</v>
+      </c>
+      <c r="N243">
+        <v>1.25</v>
+      </c>
+      <c r="O243">
+        <v>5.25</v>
+      </c>
+      <c r="P243">
+        <v>12</v>
+      </c>
+      <c r="Q243">
+        <v>-1.75</v>
+      </c>
+      <c r="R243">
+        <v>2.025</v>
+      </c>
+      <c r="S243">
+        <v>1.825</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
+        <v>2</v>
+      </c>
+      <c r="V243">
+        <v>1.85</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7850296</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45355.66666666666</v>
+      </c>
+      <c r="F244" t="s">
+        <v>49</v>
+      </c>
+      <c r="G244" t="s">
+        <v>47</v>
+      </c>
+      <c r="K244">
+        <v>2.5</v>
+      </c>
+      <c r="L244">
+        <v>3.2</v>
+      </c>
+      <c r="M244">
+        <v>2.75</v>
+      </c>
+      <c r="N244">
+        <v>2.15</v>
+      </c>
+      <c r="O244">
+        <v>3.3</v>
+      </c>
+      <c r="P244">
+        <v>3.2</v>
+      </c>
+      <c r="Q244">
+        <v>-0.25</v>
+      </c>
+      <c r="R244">
+        <v>1.9</v>
+      </c>
+      <c r="S244">
+        <v>1.95</v>
+      </c>
+      <c r="T244">
+        <v>2.5</v>
+      </c>
+      <c r="U244">
+        <v>1.975</v>
+      </c>
+      <c r="V244">
+        <v>1.875</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB175">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
         <v>1.75</v>
       </c>
       <c r="O176">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q176">
         <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB176">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,58 +16221,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L177">
+        <v>3.2</v>
+      </c>
+      <c r="M177">
         <v>3.75</v>
       </c>
-      <c r="M177">
+      <c r="N177">
+        <v>1.75</v>
+      </c>
+      <c r="O177">
+        <v>3.4</v>
+      </c>
+      <c r="P177">
         <v>4.333</v>
       </c>
-      <c r="N177">
-        <v>1.25</v>
-      </c>
-      <c r="O177">
-        <v>5.25</v>
-      </c>
-      <c r="P177">
-        <v>10</v>
-      </c>
       <c r="Q177">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16281,16 +16281,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384627</v>
+        <v>7384625</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>52</v>
+      </c>
+      <c r="K184">
+        <v>1.5</v>
+      </c>
+      <c r="L184">
+        <v>3.75</v>
+      </c>
+      <c r="M184">
+        <v>7</v>
+      </c>
+      <c r="N184">
+        <v>1.363</v>
+      </c>
+      <c r="O184">
+        <v>4.333</v>
+      </c>
+      <c r="P184">
+        <v>9.5</v>
+      </c>
+      <c r="Q184">
+        <v>-1.25</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
+        <v>1.8</v>
+      </c>
+      <c r="V184">
         <v>2</v>
       </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184" t="s">
-        <v>51</v>
-      </c>
-      <c r="K184">
-        <v>1.25</v>
-      </c>
-      <c r="L184">
-        <v>5</v>
-      </c>
-      <c r="M184">
-        <v>12</v>
-      </c>
-      <c r="N184">
-        <v>1.181</v>
-      </c>
-      <c r="O184">
-        <v>6</v>
-      </c>
-      <c r="P184">
-        <v>13</v>
-      </c>
-      <c r="Q184">
-        <v>-1.75</v>
-      </c>
-      <c r="R184">
-        <v>1.8</v>
-      </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
       <c r="W184">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384628</v>
+        <v>7384627</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,40 +16933,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K185">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M185">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="N185">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P185">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R185">
         <v>1.8</v>
@@ -16978,31 +16978,31 @@
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA185">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB185">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384629</v>
+        <v>7384628</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,55 +17022,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
         <v>53</v>
       </c>
       <c r="K186">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L186">
         <v>3.3</v>
       </c>
       <c r="M186">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17079,19 +17079,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC186">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,10 +17111,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17126,40 +17126,40 @@
         <v>53</v>
       </c>
       <c r="K187">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L187">
+        <v>3.3</v>
+      </c>
+      <c r="M187">
+        <v>2.5</v>
+      </c>
+      <c r="N187">
+        <v>2.7</v>
+      </c>
+      <c r="O187">
         <v>3.4</v>
       </c>
-      <c r="M187">
-        <v>2.15</v>
-      </c>
-      <c r="N187">
-        <v>1.75</v>
-      </c>
-      <c r="O187">
-        <v>3.6</v>
-      </c>
       <c r="P187">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17168,19 +17168,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384625</v>
+        <v>7384630</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K188">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N188">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K228">
+        <v>3.3</v>
+      </c>
+      <c r="L228">
+        <v>3.3</v>
+      </c>
+      <c r="M228">
+        <v>2.1</v>
+      </c>
+      <c r="N228">
+        <v>4.5</v>
+      </c>
+      <c r="O228">
+        <v>3.2</v>
+      </c>
+      <c r="P228">
+        <v>1.95</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>1.85</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.775</v>
+      </c>
+      <c r="V228">
+        <v>2.1</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
         <v>2.2</v>
       </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
-      <c r="M228">
-        <v>3.2</v>
-      </c>
-      <c r="N228">
-        <v>1.6</v>
-      </c>
-      <c r="O228">
-        <v>3.75</v>
-      </c>
-      <c r="P228">
-        <v>5.75</v>
-      </c>
-      <c r="Q228">
-        <v>-0.75</v>
-      </c>
-      <c r="R228">
-        <v>1.85</v>
-      </c>
-      <c r="S228">
-        <v>2</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.875</v>
-      </c>
-      <c r="W228">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N229">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
         <v>2</v>
       </c>
-      <c r="S229">
-        <v>1.85</v>
-      </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21477,6 +21477,15 @@
       <c r="G236" t="s">
         <v>34</v>
       </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236" t="s">
+        <v>51</v>
+      </c>
       <c r="K236">
         <v>1.8</v>
       </c>
@@ -21487,46 +21496,52 @@
         <v>4.333</v>
       </c>
       <c r="N236">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O236">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P236">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q236">
         <v>-0.5</v>
       </c>
       <c r="R236">
+        <v>2.025</v>
+      </c>
+      <c r="S236">
+        <v>1.775</v>
+      </c>
+      <c r="T236">
+        <v>2.25</v>
+      </c>
+      <c r="U236">
+        <v>1.8</v>
+      </c>
+      <c r="V236">
         <v>2</v>
       </c>
-      <c r="S236">
-        <v>1.85</v>
-      </c>
-      <c r="T236">
-        <v>2.5</v>
-      </c>
-      <c r="U236">
-        <v>2.05</v>
-      </c>
-      <c r="V236">
-        <v>1.8</v>
-      </c>
       <c r="W236">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA236">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB236">
+        <v>0.8</v>
+      </c>
+      <c r="AC236">
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21551,6 +21566,15 @@
       <c r="G237" t="s">
         <v>43</v>
       </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237" t="s">
+        <v>51</v>
+      </c>
       <c r="K237">
         <v>3.25</v>
       </c>
@@ -21561,46 +21585,52 @@
         <v>2</v>
       </c>
       <c r="N237">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O237">
         <v>3.4</v>
       </c>
       <c r="P237">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W237">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA237">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB237">
+        <v>-0.5</v>
+      </c>
+      <c r="AC237">
+        <v>0.5</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21625,6 +21655,15 @@
       <c r="G238" t="s">
         <v>46</v>
       </c>
+      <c r="H238">
+        <v>2</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>51</v>
+      </c>
       <c r="K238">
         <v>1.4</v>
       </c>
@@ -21635,22 +21674,22 @@
         <v>9</v>
       </c>
       <c r="N238">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O238">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P238">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q238">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T238">
         <v>2.5</v>
@@ -21659,22 +21698,28 @@
         <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="X238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,31 +21754,31 @@
         <v>11</v>
       </c>
       <c r="N239">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Q239">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T239">
         <v>3</v>
       </c>
       <c r="U239">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21783,31 +21828,31 @@
         <v>2.375</v>
       </c>
       <c r="N240">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O240">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P240">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R240">
+        <v>1.875</v>
+      </c>
+      <c r="S240">
         <v>1.975</v>
-      </c>
-      <c r="S240">
-        <v>1.875</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
+        <v>1.85</v>
+      </c>
+      <c r="V240">
         <v>2</v>
-      </c>
-      <c r="V240">
-        <v>1.85</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21857,31 +21902,31 @@
         <v>4</v>
       </c>
       <c r="N241">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O241">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P241">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q241">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R241">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S241">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T241">
         <v>2.75</v>
       </c>
       <c r="U241">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21931,22 +21976,22 @@
         <v>3.75</v>
       </c>
       <c r="N242">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O242">
         <v>3.8</v>
       </c>
       <c r="P242">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q242">
         <v>-1</v>
       </c>
       <c r="R242">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S242">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T242">
         <v>2.75</v>
@@ -22079,22 +22124,22 @@
         <v>2.75</v>
       </c>
       <c r="N244">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O244">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q244">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S244">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T244">
         <v>2.5</v>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC244"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P156">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
         <v>6.5</v>
       </c>
-      <c r="P157">
-        <v>12</v>
-      </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L175">
+        <v>3.2</v>
+      </c>
+      <c r="M175">
         <v>3.75</v>
       </c>
-      <c r="M175">
+      <c r="N175">
+        <v>1.75</v>
+      </c>
+      <c r="O175">
+        <v>3.4</v>
+      </c>
+      <c r="P175">
         <v>4.333</v>
       </c>
-      <c r="N175">
-        <v>1.25</v>
-      </c>
-      <c r="O175">
-        <v>5.25</v>
-      </c>
-      <c r="P175">
-        <v>10</v>
-      </c>
       <c r="Q175">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,13 +16666,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -16690,34 +16690,34 @@
         <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16726,16 +16726,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384626</v>
+        <v>7384629</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K183">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M183">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N183">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="O183">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P183">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="Q183">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T183">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384627</v>
+        <v>7384626</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,13 +16933,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -16948,43 +16948,43 @@
         <v>51</v>
       </c>
       <c r="K185">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L185">
         <v>5</v>
       </c>
       <c r="M185">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N185">
-        <v>1.181</v>
+        <v>1.166</v>
       </c>
       <c r="O185">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P185">
         <v>13</v>
       </c>
       <c r="Q185">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R185">
+        <v>1.85</v>
+      </c>
+      <c r="S185">
+        <v>1.95</v>
+      </c>
+      <c r="T185">
+        <v>3.25</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2</v>
-      </c>
-      <c r="T185">
-        <v>2.75</v>
-      </c>
-      <c r="U185">
-        <v>1.85</v>
-      </c>
-      <c r="V185">
-        <v>1.95</v>
-      </c>
       <c r="W185">
-        <v>0.181</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16993,16 +16993,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA185">
+        <v>-1</v>
+      </c>
+      <c r="AB185">
+        <v>-0.5</v>
+      </c>
+      <c r="AC185">
         <v>0.4</v>
-      </c>
-      <c r="AA185">
-        <v>-0.5</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
-      <c r="AC185">
-        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384628</v>
+        <v>7384627</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,40 +17022,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="N186">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q186">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R186">
         <v>1.8</v>
@@ -17067,31 +17067,31 @@
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384629</v>
+        <v>7384628</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,55 +17111,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>53</v>
       </c>
       <c r="K187">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L187">
         <v>3.3</v>
       </c>
       <c r="M187">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17168,19 +17168,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -21744,6 +21744,15 @@
       <c r="G239" t="s">
         <v>35</v>
       </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239" t="s">
+        <v>51</v>
+      </c>
       <c r="K239">
         <v>1.25</v>
       </c>
@@ -21754,46 +21763,52 @@
         <v>11</v>
       </c>
       <c r="N239">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P239">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q239">
         <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T239">
         <v>3</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V239">
         <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21818,6 +21833,15 @@
       <c r="G240" t="s">
         <v>41</v>
       </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240" t="s">
+        <v>52</v>
+      </c>
       <c r="K240">
         <v>2.9</v>
       </c>
@@ -21828,7 +21852,7 @@
         <v>2.375</v>
       </c>
       <c r="N240">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O240">
         <v>3.5</v>
@@ -21840,34 +21864,40 @@
         <v>0.75</v>
       </c>
       <c r="R240">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V240">
         <v>2</v>
       </c>
       <c r="W240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA240">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB240">
+        <v>-1</v>
+      </c>
+      <c r="AC240">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:27">
@@ -21875,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7850293</v>
+        <v>7850294</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21884,40 +21914,40 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45353.875</v>
+        <v>45354.70833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K241">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L241">
+        <v>3.5</v>
+      </c>
+      <c r="M241">
         <v>3.75</v>
       </c>
-      <c r="M241">
-        <v>4</v>
-      </c>
       <c r="N241">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O241">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q241">
         <v>-1</v>
       </c>
       <c r="R241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T241">
         <v>2.75</v>
@@ -21949,7 +21979,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7850294</v>
+        <v>7850295</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21958,43 +21988,43 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45354.70833333334</v>
+        <v>45354.875</v>
       </c>
       <c r="F242" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G242" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K242">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M242">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="N242">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="O242">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P242">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="Q242">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R242">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S242">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T242">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U242">
         <v>1.975</v>
@@ -22023,7 +22053,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7850295</v>
+        <v>7850296</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22032,49 +22062,49 @@
         <v>28</v>
       </c>
       <c r="E243" s="2">
-        <v>45354.875</v>
+        <v>45355.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G243" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L243">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M243">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="N243">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O243">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P243">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q243">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R243">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S243">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U243">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V243">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22089,80 +22119,6 @@
         <v>0</v>
       </c>
       <c r="AA243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244">
-        <v>7850296</v>
-      </c>
-      <c r="C244" t="s">
-        <v>28</v>
-      </c>
-      <c r="D244" t="s">
-        <v>28</v>
-      </c>
-      <c r="E244" s="2">
-        <v>45355.66666666666</v>
-      </c>
-      <c r="F244" t="s">
-        <v>49</v>
-      </c>
-      <c r="G244" t="s">
-        <v>47</v>
-      </c>
-      <c r="K244">
-        <v>2.5</v>
-      </c>
-      <c r="L244">
-        <v>3.2</v>
-      </c>
-      <c r="M244">
-        <v>2.75</v>
-      </c>
-      <c r="N244">
-        <v>2</v>
-      </c>
-      <c r="O244">
-        <v>3.4</v>
-      </c>
-      <c r="P244">
-        <v>3.5</v>
-      </c>
-      <c r="Q244">
-        <v>-0.5</v>
-      </c>
-      <c r="R244">
-        <v>2.05</v>
-      </c>
-      <c r="S244">
-        <v>1.8</v>
-      </c>
-      <c r="T244">
-        <v>2.5</v>
-      </c>
-      <c r="U244">
-        <v>1.975</v>
-      </c>
-      <c r="V244">
-        <v>1.875</v>
-      </c>
-      <c r="W244">
-        <v>0</v>
-      </c>
-      <c r="X244">
-        <v>0</v>
-      </c>
-      <c r="Y244">
-        <v>0</v>
-      </c>
-      <c r="Z244">
-        <v>0</v>
-      </c>
-      <c r="AA244">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
         <v>1.75</v>
       </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>1.571</v>
-      </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
         <v>6.5</v>
       </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N157">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O176">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.825</v>
+      </c>
+      <c r="V176">
+        <v>1.975</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
         <v>3</v>
       </c>
-      <c r="U176">
-        <v>1.875</v>
-      </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
-      <c r="W176">
-        <v>0.25</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384622</v>
+        <v>7384624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H180">
+        <v>3</v>
+      </c>
+      <c r="I180">
         <v>1</v>
       </c>
-      <c r="I180">
+      <c r="J180" t="s">
+        <v>51</v>
+      </c>
+      <c r="K180">
         <v>2</v>
       </c>
-      <c r="J180" t="s">
-        <v>53</v>
-      </c>
-      <c r="K180">
-        <v>1.444</v>
-      </c>
       <c r="L180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q180">
         <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384623</v>
+        <v>7384622</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
         <v>2</v>
       </c>
-      <c r="I182">
-        <v>1</v>
-      </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M182">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N182">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q182">
+        <v>-1</v>
+      </c>
+      <c r="R182">
+        <v>1.825</v>
+      </c>
+      <c r="S182">
+        <v>2.025</v>
+      </c>
+      <c r="T182">
+        <v>2.75</v>
+      </c>
+      <c r="U182">
+        <v>1.875</v>
+      </c>
+      <c r="V182">
+        <v>1.975</v>
+      </c>
+      <c r="W182">
+        <v>-1</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>5</v>
+      </c>
+      <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>1.025</v>
+      </c>
+      <c r="AB182">
+        <v>0.4375</v>
+      </c>
+      <c r="AC182">
         <v>-0.5</v>
-      </c>
-      <c r="R182">
-        <v>1.925</v>
-      </c>
-      <c r="S182">
-        <v>1.875</v>
-      </c>
-      <c r="T182">
-        <v>3</v>
-      </c>
-      <c r="U182">
-        <v>1.925</v>
-      </c>
-      <c r="V182">
-        <v>1.875</v>
-      </c>
-      <c r="W182">
-        <v>0.833</v>
-      </c>
-      <c r="X182">
-        <v>-1</v>
-      </c>
-      <c r="Y182">
-        <v>-1</v>
-      </c>
-      <c r="Z182">
-        <v>0.925</v>
-      </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
-      <c r="AB182">
-        <v>0</v>
-      </c>
-      <c r="AC182">
-        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384629</v>
+        <v>7384628</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,55 +16755,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
         <v>3.3</v>
       </c>
       <c r="M183">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N183">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16812,19 +16812,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384625</v>
+        <v>7384626</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N184">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P184">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
         <v>1.8</v>
       </c>
-      <c r="V184">
-        <v>2</v>
-      </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X184">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC184">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384626</v>
+        <v>7384630</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>53</v>
+      </c>
+      <c r="K185">
+        <v>2.8</v>
+      </c>
+      <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
+        <v>2.15</v>
+      </c>
+      <c r="N185">
+        <v>1.75</v>
+      </c>
+      <c r="O185">
+        <v>3.6</v>
+      </c>
+      <c r="P185">
+        <v>3.8</v>
+      </c>
+      <c r="Q185">
+        <v>-0.75</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>1.8</v>
+      </c>
+      <c r="T185">
         <v>3</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185" t="s">
-        <v>51</v>
-      </c>
-      <c r="K185">
-        <v>1.3</v>
-      </c>
-      <c r="L185">
-        <v>5</v>
-      </c>
-      <c r="M185">
-        <v>9</v>
-      </c>
-      <c r="N185">
-        <v>1.166</v>
-      </c>
-      <c r="O185">
-        <v>6.5</v>
-      </c>
-      <c r="P185">
-        <v>13</v>
-      </c>
-      <c r="Q185">
-        <v>-2</v>
-      </c>
-      <c r="R185">
+      <c r="U185">
         <v>1.85</v>
       </c>
-      <c r="S185">
+      <c r="V185">
         <v>1.95</v>
       </c>
-      <c r="T185">
-        <v>3.25</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
-      <c r="V185">
-        <v>1.8</v>
-      </c>
       <c r="W185">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384628</v>
+        <v>7384625</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187" t="s">
+        <v>52</v>
+      </c>
+      <c r="K187">
+        <v>1.5</v>
+      </c>
+      <c r="L187">
+        <v>3.75</v>
+      </c>
+      <c r="M187">
+        <v>7</v>
+      </c>
+      <c r="N187">
+        <v>1.363</v>
+      </c>
+      <c r="O187">
+        <v>4.333</v>
+      </c>
+      <c r="P187">
+        <v>9.5</v>
+      </c>
+      <c r="Q187">
+        <v>-1.25</v>
+      </c>
+      <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>1.925</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
+        <v>1.8</v>
+      </c>
+      <c r="V187">
+        <v>2</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>3.333</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>-1</v>
+      </c>
+      <c r="AA187">
+        <v>0.925</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>1</v>
-      </c>
-      <c r="I187">
-        <v>2</v>
-      </c>
-      <c r="J187" t="s">
-        <v>53</v>
-      </c>
-      <c r="K187">
-        <v>2.75</v>
-      </c>
-      <c r="L187">
-        <v>3.3</v>
-      </c>
-      <c r="M187">
-        <v>2.375</v>
-      </c>
-      <c r="N187">
-        <v>3.3</v>
-      </c>
-      <c r="O187">
-        <v>3.6</v>
-      </c>
-      <c r="P187">
-        <v>2</v>
-      </c>
-      <c r="Q187">
-        <v>0.5</v>
-      </c>
-      <c r="R187">
-        <v>1.8</v>
-      </c>
-      <c r="S187">
-        <v>2</v>
-      </c>
-      <c r="T187">
-        <v>2.75</v>
-      </c>
-      <c r="U187">
-        <v>1.975</v>
-      </c>
-      <c r="V187">
-        <v>1.875</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>1</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
-        <v>1</v>
-      </c>
-      <c r="AB187">
-        <v>0.4875</v>
-      </c>
-      <c r="AC187">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,10 +17200,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17215,40 +17215,40 @@
         <v>53</v>
       </c>
       <c r="K188">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L188">
+        <v>3.3</v>
+      </c>
+      <c r="M188">
+        <v>2.5</v>
+      </c>
+      <c r="N188">
+        <v>2.7</v>
+      </c>
+      <c r="O188">
         <v>3.4</v>
       </c>
-      <c r="M188">
-        <v>2.15</v>
-      </c>
-      <c r="N188">
-        <v>1.75</v>
-      </c>
-      <c r="O188">
-        <v>3.6</v>
-      </c>
       <c r="P188">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17257,19 +17257,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -21900,12 +21900,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7850294</v>
+        <v>7850293</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21914,72 +21914,87 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45354.70833333334</v>
+        <v>45353.875</v>
       </c>
       <c r="F241" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241" t="s">
+        <v>52</v>
       </c>
       <c r="K241">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L241">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M241">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P241">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q241">
         <v>-1</v>
       </c>
       <c r="R241">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S241">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T241">
         <v>2.75</v>
       </c>
       <c r="U241">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
         <v>1.9</v>
       </c>
       <c r="W241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB241">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC241">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7850295</v>
+        <v>7850294</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21988,72 +22003,87 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45354.875</v>
+        <v>45354.70833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G242" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242" t="s">
+        <v>51</v>
       </c>
       <c r="K242">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L242">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="N242">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O242">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P242">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="Q242">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R242">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S242">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U242">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V242">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB242">
+        <v>-1</v>
+      </c>
+      <c r="AC242">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7850296</v>
+        <v>7850295</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22062,43 +22092,52 @@
         <v>28</v>
       </c>
       <c r="E243" s="2">
-        <v>45355.66666666666</v>
+        <v>45354.875</v>
       </c>
       <c r="F243" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G243" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="H243">
+        <v>2</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243" t="s">
+        <v>52</v>
       </c>
       <c r="K243">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L243">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M243">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="N243">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O243">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P243">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R243">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S243">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T243">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U243">
         <v>1.975</v>
@@ -22107,18 +22146,261 @@
         <v>1.875</v>
       </c>
       <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>3.75</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB243">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC243">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7850296</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45355.66666666666</v>
+      </c>
+      <c r="F244" t="s">
+        <v>49</v>
+      </c>
+      <c r="G244" t="s">
+        <v>47</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+      <c r="I244">
         <v>0</v>
       </c>
-      <c r="X243">
+      <c r="J244" t="s">
+        <v>51</v>
+      </c>
+      <c r="K244">
+        <v>2.5</v>
+      </c>
+      <c r="L244">
+        <v>3.2</v>
+      </c>
+      <c r="M244">
+        <v>2.75</v>
+      </c>
+      <c r="N244">
+        <v>2.2</v>
+      </c>
+      <c r="O244">
+        <v>3.25</v>
+      </c>
+      <c r="P244">
+        <v>3.2</v>
+      </c>
+      <c r="Q244">
+        <v>-0.25</v>
+      </c>
+      <c r="R244">
+        <v>1.825</v>
+      </c>
+      <c r="S244">
+        <v>1.975</v>
+      </c>
+      <c r="T244">
+        <v>2.25</v>
+      </c>
+      <c r="U244">
+        <v>1.775</v>
+      </c>
+      <c r="V244">
+        <v>2.025</v>
+      </c>
+      <c r="W244">
+        <v>1.2</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>-1</v>
+      </c>
+      <c r="Z244">
+        <v>0.825</v>
+      </c>
+      <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>-0.5</v>
+      </c>
+      <c r="AC244">
+        <v>0.5125</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7882749</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45359.70833333334</v>
+      </c>
+      <c r="F245" t="s">
+        <v>47</v>
+      </c>
+      <c r="G245" t="s">
+        <v>50</v>
+      </c>
+      <c r="K245">
+        <v>2.05</v>
+      </c>
+      <c r="L245">
+        <v>3.3</v>
+      </c>
+      <c r="M245">
+        <v>3.5</v>
+      </c>
+      <c r="N245">
+        <v>1.85</v>
+      </c>
+      <c r="O245">
+        <v>3.4</v>
+      </c>
+      <c r="P245">
+        <v>4.2</v>
+      </c>
+      <c r="Q245">
+        <v>-0.5</v>
+      </c>
+      <c r="R245">
+        <v>1.875</v>
+      </c>
+      <c r="S245">
+        <v>1.975</v>
+      </c>
+      <c r="T245">
+        <v>2.5</v>
+      </c>
+      <c r="U245">
+        <v>1.95</v>
+      </c>
+      <c r="V245">
+        <v>1.9</v>
+      </c>
+      <c r="W245">
         <v>0</v>
       </c>
-      <c r="Y243">
+      <c r="X245">
         <v>0</v>
       </c>
-      <c r="Z243">
+      <c r="Y245">
         <v>0</v>
       </c>
-      <c r="AA243">
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>7883364</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45359.91666666666</v>
+      </c>
+      <c r="F246" t="s">
+        <v>34</v>
+      </c>
+      <c r="G246" t="s">
+        <v>31</v>
+      </c>
+      <c r="K246">
+        <v>3.5</v>
+      </c>
+      <c r="L246">
+        <v>3.2</v>
+      </c>
+      <c r="M246">
+        <v>2.05</v>
+      </c>
+      <c r="N246">
+        <v>4</v>
+      </c>
+      <c r="O246">
+        <v>3.2</v>
+      </c>
+      <c r="P246">
+        <v>1.909</v>
+      </c>
+      <c r="Q246">
+        <v>0.5</v>
+      </c>
+      <c r="R246">
+        <v>1.9</v>
+      </c>
+      <c r="S246">
+        <v>1.95</v>
+      </c>
+      <c r="T246">
+        <v>2.25</v>
+      </c>
+      <c r="U246">
+        <v>1.975</v>
+      </c>
+      <c r="V246">
+        <v>1.875</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC246"/>
+  <dimension ref="A1:AC253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q180">
         <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>2</v>
-      </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K182">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U182">
+        <v>1.925</v>
+      </c>
+      <c r="V182">
         <v>1.875</v>
       </c>
-      <c r="V182">
-        <v>1.975</v>
-      </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384628</v>
+        <v>7384629</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,56 +16755,56 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
         <v>1</v>
-      </c>
-      <c r="I183">
-        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L183">
         <v>3.3</v>
       </c>
       <c r="M183">
+        <v>2.5</v>
+      </c>
+      <c r="N183">
+        <v>2.7</v>
+      </c>
+      <c r="O183">
+        <v>3.4</v>
+      </c>
+      <c r="P183">
         <v>2.375</v>
       </c>
-      <c r="N183">
-        <v>3.3</v>
-      </c>
-      <c r="O183">
-        <v>3.6</v>
-      </c>
-      <c r="P183">
-        <v>2</v>
-      </c>
       <c r="Q183">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
+        <v>1.825</v>
+      </c>
+      <c r="V183">
         <v>1.975</v>
       </c>
-      <c r="V183">
-        <v>1.875</v>
-      </c>
       <c r="W183">
         <v>-1</v>
       </c>
@@ -16812,19 +16812,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB183">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384626</v>
+        <v>7384625</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K184">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M184">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N184">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O184">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q184">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V184">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,40 +17022,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="L186">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M186">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q186">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
         <v>1.8</v>
@@ -17067,31 +17067,31 @@
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z186">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
+        <v>1</v>
+      </c>
+      <c r="AB186">
+        <v>0.4875</v>
+      </c>
+      <c r="AC186">
         <v>-0.5</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384625</v>
+        <v>7384627</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M187">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N187">
-        <v>1.363</v>
+        <v>1.181</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P187">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X187">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384629</v>
+        <v>7384626</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L188">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M188">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N188">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P188">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R188">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K228">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N228">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
+        <v>3.3</v>
+      </c>
+      <c r="L229">
+        <v>3.3</v>
+      </c>
+      <c r="M229">
+        <v>2.1</v>
+      </c>
+      <c r="N229">
+        <v>4.5</v>
+      </c>
+      <c r="O229">
+        <v>3.2</v>
+      </c>
+      <c r="P229">
+        <v>1.95</v>
+      </c>
+      <c r="Q229">
+        <v>0.5</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>1.85</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
+        <v>1.775</v>
+      </c>
+      <c r="V229">
+        <v>2.1</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
         <v>2.2</v>
       </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
-      <c r="M229">
-        <v>3.2</v>
-      </c>
-      <c r="N229">
-        <v>1.6</v>
-      </c>
-      <c r="O229">
-        <v>3.75</v>
-      </c>
-      <c r="P229">
-        <v>5.75</v>
-      </c>
-      <c r="Q229">
-        <v>-0.75</v>
-      </c>
-      <c r="R229">
-        <v>1.85</v>
-      </c>
-      <c r="S229">
-        <v>2</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>1.975</v>
-      </c>
-      <c r="V229">
-        <v>1.875</v>
-      </c>
-      <c r="W229">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -22261,7 +22261,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7882749</v>
+        <v>7883363</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22270,64 +22270,79 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45359.70833333334</v>
+        <v>45358.70833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G245" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="H245">
+        <v>2</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>51</v>
       </c>
       <c r="K245">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="L245">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M245">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N245">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P245">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R245">
         <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V245">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W245">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+      <c r="AC245">
+        <v>0.825</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22335,7 +22350,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7883364</v>
+        <v>7882749</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22344,63 +22359,611 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45359.91666666666</v>
+        <v>45359.70833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G246" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="H246">
+        <v>2</v>
+      </c>
+      <c r="I246">
+        <v>3</v>
+      </c>
+      <c r="J246" t="s">
+        <v>53</v>
       </c>
       <c r="K246">
+        <v>2.05</v>
+      </c>
+      <c r="L246">
+        <v>3.3</v>
+      </c>
+      <c r="M246">
         <v>3.5</v>
       </c>
-      <c r="L246">
-        <v>3.2</v>
-      </c>
-      <c r="M246">
-        <v>2.05</v>
-      </c>
       <c r="N246">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P246">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q246">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
+        <v>1.775</v>
+      </c>
+      <c r="V246">
+        <v>2.025</v>
+      </c>
+      <c r="W246">
+        <v>-1</v>
+      </c>
+      <c r="X246">
+        <v>-1</v>
+      </c>
+      <c r="Y246">
+        <v>2.5</v>
+      </c>
+      <c r="Z246">
+        <v>-1</v>
+      </c>
+      <c r="AA246">
+        <v>1</v>
+      </c>
+      <c r="AB246">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC246">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>7883364</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45359.91666666666</v>
+      </c>
+      <c r="F247" t="s">
+        <v>34</v>
+      </c>
+      <c r="G247" t="s">
+        <v>31</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247" t="s">
+        <v>52</v>
+      </c>
+      <c r="K247">
+        <v>3.5</v>
+      </c>
+      <c r="L247">
+        <v>3.2</v>
+      </c>
+      <c r="M247">
+        <v>2.05</v>
+      </c>
+      <c r="N247">
+        <v>3</v>
+      </c>
+      <c r="O247">
+        <v>2.9</v>
+      </c>
+      <c r="P247">
+        <v>2.45</v>
+      </c>
+      <c r="Q247">
+        <v>0.25</v>
+      </c>
+      <c r="R247">
+        <v>1.725</v>
+      </c>
+      <c r="S247">
+        <v>2.075</v>
+      </c>
+      <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
+        <v>1.8</v>
+      </c>
+      <c r="V247">
+        <v>2</v>
+      </c>
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
+        <v>1.9</v>
+      </c>
+      <c r="Y247">
+        <v>-1</v>
+      </c>
+      <c r="Z247">
+        <v>0.3625</v>
+      </c>
+      <c r="AA247">
+        <v>-0.5</v>
+      </c>
+      <c r="AB247">
+        <v>0.8</v>
+      </c>
+      <c r="AC247">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>7883365</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45360.63541666666</v>
+      </c>
+      <c r="F248" t="s">
+        <v>35</v>
+      </c>
+      <c r="G248" t="s">
+        <v>38</v>
+      </c>
+      <c r="K248">
+        <v>1.95</v>
+      </c>
+      <c r="L248">
+        <v>3.3</v>
+      </c>
+      <c r="M248">
+        <v>3.75</v>
+      </c>
+      <c r="N248">
+        <v>1.666</v>
+      </c>
+      <c r="O248">
+        <v>3.6</v>
+      </c>
+      <c r="P248">
+        <v>5</v>
+      </c>
+      <c r="Q248">
+        <v>-0.75</v>
+      </c>
+      <c r="R248">
+        <v>1.875</v>
+      </c>
+      <c r="S248">
         <v>1.975</v>
       </c>
-      <c r="V246">
-        <v>1.875</v>
-      </c>
-      <c r="W246">
-        <v>0</v>
-      </c>
-      <c r="X246">
-        <v>0</v>
-      </c>
-      <c r="Y246">
-        <v>0</v>
-      </c>
-      <c r="Z246">
-        <v>0</v>
-      </c>
-      <c r="AA246">
+      <c r="T248">
+        <v>2.5</v>
+      </c>
+      <c r="U248">
+        <v>1.9</v>
+      </c>
+      <c r="V248">
+        <v>1.95</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>7882750</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45360.72916666666</v>
+      </c>
+      <c r="F249" t="s">
+        <v>41</v>
+      </c>
+      <c r="G249" t="s">
+        <v>30</v>
+      </c>
+      <c r="K249">
+        <v>1.533</v>
+      </c>
+      <c r="L249">
+        <v>4</v>
+      </c>
+      <c r="M249">
+        <v>5.5</v>
+      </c>
+      <c r="N249">
+        <v>1.5</v>
+      </c>
+      <c r="O249">
+        <v>4</v>
+      </c>
+      <c r="P249">
+        <v>6.5</v>
+      </c>
+      <c r="Q249">
+        <v>-1</v>
+      </c>
+      <c r="R249">
+        <v>1.825</v>
+      </c>
+      <c r="S249">
+        <v>2.025</v>
+      </c>
+      <c r="T249">
+        <v>2.5</v>
+      </c>
+      <c r="U249">
+        <v>1.825</v>
+      </c>
+      <c r="V249">
+        <v>2.025</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>7883366</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45360.75</v>
+      </c>
+      <c r="F250" t="s">
+        <v>42</v>
+      </c>
+      <c r="G250" t="s">
+        <v>48</v>
+      </c>
+      <c r="K250">
+        <v>2.3</v>
+      </c>
+      <c r="L250">
+        <v>3.2</v>
+      </c>
+      <c r="M250">
+        <v>3</v>
+      </c>
+      <c r="N250">
+        <v>1.8</v>
+      </c>
+      <c r="O250">
+        <v>3.4</v>
+      </c>
+      <c r="P250">
+        <v>4.2</v>
+      </c>
+      <c r="Q250">
+        <v>-0.5</v>
+      </c>
+      <c r="R250">
+        <v>1.8</v>
+      </c>
+      <c r="S250">
+        <v>2.05</v>
+      </c>
+      <c r="T250">
+        <v>2.75</v>
+      </c>
+      <c r="U250">
+        <v>2.025</v>
+      </c>
+      <c r="V250">
+        <v>1.825</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>7882751</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45360.91666666666</v>
+      </c>
+      <c r="F251" t="s">
+        <v>43</v>
+      </c>
+      <c r="G251" t="s">
+        <v>29</v>
+      </c>
+      <c r="K251">
+        <v>2.375</v>
+      </c>
+      <c r="L251">
+        <v>3.2</v>
+      </c>
+      <c r="M251">
+        <v>2.875</v>
+      </c>
+      <c r="N251">
+        <v>2.1</v>
+      </c>
+      <c r="O251">
+        <v>3.2</v>
+      </c>
+      <c r="P251">
+        <v>3.4</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
+        <v>1.85</v>
+      </c>
+      <c r="S251">
+        <v>2</v>
+      </c>
+      <c r="T251">
+        <v>2.25</v>
+      </c>
+      <c r="U251">
+        <v>1.8</v>
+      </c>
+      <c r="V251">
+        <v>2.05</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>7883367</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45361.70833333334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>36</v>
+      </c>
+      <c r="G252" t="s">
+        <v>37</v>
+      </c>
+      <c r="K252">
+        <v>2.2</v>
+      </c>
+      <c r="L252">
+        <v>3.3</v>
+      </c>
+      <c r="M252">
+        <v>3.1</v>
+      </c>
+      <c r="N252">
+        <v>2.375</v>
+      </c>
+      <c r="O252">
+        <v>3.25</v>
+      </c>
+      <c r="P252">
+        <v>2.75</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>1.775</v>
+      </c>
+      <c r="S252">
+        <v>2.1</v>
+      </c>
+      <c r="T252">
+        <v>2.5</v>
+      </c>
+      <c r="U252">
+        <v>2.05</v>
+      </c>
+      <c r="V252">
+        <v>1.8</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>7882752</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45361.70833333334</v>
+      </c>
+      <c r="F253" t="s">
+        <v>46</v>
+      </c>
+      <c r="G253" t="s">
+        <v>49</v>
+      </c>
+      <c r="K253">
+        <v>1.3</v>
+      </c>
+      <c r="L253">
+        <v>4.5</v>
+      </c>
+      <c r="M253">
+        <v>10</v>
+      </c>
+      <c r="N253">
+        <v>1.222</v>
+      </c>
+      <c r="O253">
+        <v>4.75</v>
+      </c>
+      <c r="P253">
+        <v>12</v>
+      </c>
+      <c r="Q253">
+        <v>-1.75</v>
+      </c>
+      <c r="R253">
+        <v>2.025</v>
+      </c>
+      <c r="S253">
+        <v>1.825</v>
+      </c>
+      <c r="T253">
+        <v>2.75</v>
+      </c>
+      <c r="U253">
+        <v>1.925</v>
+      </c>
+      <c r="V253">
+        <v>1.925</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC253"/>
+  <dimension ref="A1:AC256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
+        <v>2.1</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
         <v>1.75</v>
       </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.571</v>
-      </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L175">
+        <v>3.2</v>
+      </c>
+      <c r="M175">
         <v>3.75</v>
       </c>
-      <c r="M175">
+      <c r="N175">
+        <v>1.75</v>
+      </c>
+      <c r="O175">
+        <v>3.4</v>
+      </c>
+      <c r="P175">
         <v>4.333</v>
       </c>
-      <c r="N175">
-        <v>1.25</v>
-      </c>
-      <c r="O175">
-        <v>5.25</v>
-      </c>
-      <c r="P175">
-        <v>10</v>
-      </c>
       <c r="Q175">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,58 +16221,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16281,16 +16281,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384622</v>
+        <v>7384624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H180">
+        <v>3</v>
+      </c>
+      <c r="I180">
         <v>1</v>
       </c>
-      <c r="I180">
-        <v>2</v>
-      </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q180">
         <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384623</v>
+        <v>7384622</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M182">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N182">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q182">
+        <v>-1</v>
+      </c>
+      <c r="R182">
+        <v>1.825</v>
+      </c>
+      <c r="S182">
+        <v>2.025</v>
+      </c>
+      <c r="T182">
+        <v>2.75</v>
+      </c>
+      <c r="U182">
+        <v>1.875</v>
+      </c>
+      <c r="V182">
+        <v>1.975</v>
+      </c>
+      <c r="W182">
+        <v>-1</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>5</v>
+      </c>
+      <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>1.025</v>
+      </c>
+      <c r="AB182">
+        <v>0.4375</v>
+      </c>
+      <c r="AC182">
         <v>-0.5</v>
-      </c>
-      <c r="R182">
-        <v>1.925</v>
-      </c>
-      <c r="S182">
-        <v>1.875</v>
-      </c>
-      <c r="T182">
-        <v>3</v>
-      </c>
-      <c r="U182">
-        <v>1.925</v>
-      </c>
-      <c r="V182">
-        <v>1.875</v>
-      </c>
-      <c r="W182">
-        <v>0.833</v>
-      </c>
-      <c r="X182">
-        <v>-1</v>
-      </c>
-      <c r="Y182">
-        <v>-1</v>
-      </c>
-      <c r="Z182">
-        <v>0.925</v>
-      </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
-      <c r="AB182">
-        <v>0</v>
-      </c>
-      <c r="AC182">
-        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384629</v>
+        <v>7384630</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,10 +16755,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16770,40 +16770,40 @@
         <v>53</v>
       </c>
       <c r="K183">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N183">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16812,19 +16812,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.375</v>
+        <v>2.8</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384625</v>
+        <v>7384627</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N184">
-        <v>1.363</v>
+        <v>1.181</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P184">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X184">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,10 +16933,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -16948,40 +16948,40 @@
         <v>53</v>
       </c>
       <c r="K185">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L185">
+        <v>3.3</v>
+      </c>
+      <c r="M185">
+        <v>2.5</v>
+      </c>
+      <c r="N185">
+        <v>2.7</v>
+      </c>
+      <c r="O185">
         <v>3.4</v>
       </c>
-      <c r="M185">
-        <v>2.15</v>
-      </c>
-      <c r="N185">
-        <v>1.75</v>
-      </c>
-      <c r="O185">
-        <v>3.6</v>
-      </c>
       <c r="P185">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16990,19 +16990,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384628</v>
+        <v>7384626</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N186">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P186">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q186">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R186">
+        <v>1.85</v>
+      </c>
+      <c r="S186">
+        <v>1.95</v>
+      </c>
+      <c r="T186">
+        <v>3.25</v>
+      </c>
+      <c r="U186">
+        <v>2</v>
+      </c>
+      <c r="V186">
         <v>1.8</v>
       </c>
-      <c r="S186">
-        <v>2</v>
-      </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>1.975</v>
-      </c>
-      <c r="V186">
-        <v>1.875</v>
-      </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,40 +17111,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K187">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M187">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q187">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R187">
         <v>1.8</v>
@@ -17156,31 +17156,31 @@
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z187">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
+        <v>1</v>
+      </c>
+      <c r="AB187">
+        <v>0.4875</v>
+      </c>
+      <c r="AC187">
         <v>-0.5</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384626</v>
+        <v>7384625</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K188">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L188">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N188">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O188">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q188">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -22545,6 +22545,15 @@
       <c r="G248" t="s">
         <v>38</v>
       </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248" t="s">
+        <v>52</v>
+      </c>
       <c r="K248">
         <v>1.95</v>
       </c>
@@ -22555,46 +22564,52 @@
         <v>3.75</v>
       </c>
       <c r="N248">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P248">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S248">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T248">
         <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB248">
+        <v>-1</v>
+      </c>
+      <c r="AC248">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22619,6 +22634,15 @@
       <c r="G249" t="s">
         <v>30</v>
       </c>
+      <c r="H249">
+        <v>3</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" t="s">
+        <v>51</v>
+      </c>
       <c r="K249">
         <v>1.533</v>
       </c>
@@ -22629,46 +22653,52 @@
         <v>5.5</v>
       </c>
       <c r="N249">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O249">
         <v>4</v>
       </c>
       <c r="P249">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q249">
         <v>-1</v>
       </c>
       <c r="R249">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S249">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T249">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W249">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA249">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB249">
+        <v>0.95</v>
+      </c>
+      <c r="AC249">
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22693,6 +22723,15 @@
       <c r="G250" t="s">
         <v>48</v>
       </c>
+      <c r="H250">
+        <v>2</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250" t="s">
+        <v>51</v>
+      </c>
       <c r="K250">
         <v>2.3</v>
       </c>
@@ -22703,46 +22742,52 @@
         <v>3</v>
       </c>
       <c r="N250">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O250">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P250">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q250">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R250">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S250">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
         <v>2.75</v>
       </c>
       <c r="U250">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W250">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA250">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB250">
+        <v>0.475</v>
+      </c>
+      <c r="AC250">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22767,6 +22812,15 @@
       <c r="G251" t="s">
         <v>29</v>
       </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251" t="s">
+        <v>53</v>
+      </c>
       <c r="K251">
         <v>2.375</v>
       </c>
@@ -22777,46 +22831,52 @@
         <v>2.875</v>
       </c>
       <c r="N251">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O251">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P251">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T251">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
+        <v>2</v>
+      </c>
+      <c r="V251">
         <v>1.8</v>
       </c>
-      <c r="V251">
-        <v>2.05</v>
-      </c>
       <c r="W251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Z251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB251">
+        <v>1</v>
+      </c>
+      <c r="AC251">
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22824,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22836,61 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="H252">
+        <v>2</v>
+      </c>
+      <c r="I252">
+        <v>2</v>
+      </c>
+      <c r="J252" t="s">
+        <v>52</v>
       </c>
       <c r="K252">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L252">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M252">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N252">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O252">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P252">
+        <v>9.5</v>
+      </c>
+      <c r="Q252">
+        <v>-1.5</v>
+      </c>
+      <c r="R252">
+        <v>1.95</v>
+      </c>
+      <c r="S252">
+        <v>1.85</v>
+      </c>
+      <c r="T252">
         <v>2.75</v>
       </c>
-      <c r="Q252">
-        <v>0</v>
-      </c>
-      <c r="R252">
-        <v>1.775</v>
-      </c>
-      <c r="S252">
-        <v>2.1</v>
-      </c>
-      <c r="T252">
-        <v>2.5</v>
-      </c>
       <c r="U252">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W252">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Y252">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB252">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC252">
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22898,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22910,60 +22985,297 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253" t="s">
+        <v>51</v>
       </c>
       <c r="K253">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L253">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M253">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N253">
+        <v>2.4</v>
+      </c>
+      <c r="O253">
+        <v>3.25</v>
+      </c>
+      <c r="P253">
+        <v>2.625</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>1.8</v>
+      </c>
+      <c r="S253">
+        <v>2</v>
+      </c>
+      <c r="T253">
+        <v>2.5</v>
+      </c>
+      <c r="U253">
+        <v>2.025</v>
+      </c>
+      <c r="V253">
+        <v>1.825</v>
+      </c>
+      <c r="W253">
+        <v>1.4</v>
+      </c>
+      <c r="X253">
+        <v>-1</v>
+      </c>
+      <c r="Y253">
+        <v>-1</v>
+      </c>
+      <c r="Z253">
+        <v>0.8</v>
+      </c>
+      <c r="AA253">
+        <v>-1</v>
+      </c>
+      <c r="AB253">
+        <v>-1</v>
+      </c>
+      <c r="AC253">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>7908663</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45363.9375</v>
+      </c>
+      <c r="F254" t="s">
+        <v>31</v>
+      </c>
+      <c r="G254" t="s">
+        <v>45</v>
+      </c>
+      <c r="K254">
+        <v>1.2</v>
+      </c>
+      <c r="L254">
+        <v>5.5</v>
+      </c>
+      <c r="M254">
+        <v>13</v>
+      </c>
+      <c r="N254">
         <v>1.222</v>
       </c>
-      <c r="O253">
+      <c r="O254">
+        <v>5.5</v>
+      </c>
+      <c r="P254">
+        <v>11</v>
+      </c>
+      <c r="Q254">
+        <v>-1.75</v>
+      </c>
+      <c r="R254">
+        <v>1.975</v>
+      </c>
+      <c r="S254">
+        <v>1.875</v>
+      </c>
+      <c r="T254">
+        <v>2.5</v>
+      </c>
+      <c r="U254">
+        <v>1.9</v>
+      </c>
+      <c r="V254">
+        <v>1.95</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>7908664</v>
+      </c>
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45364.85416666666</v>
+      </c>
+      <c r="F255" t="s">
+        <v>38</v>
+      </c>
+      <c r="G255" t="s">
+        <v>43</v>
+      </c>
+      <c r="K255">
+        <v>2.15</v>
+      </c>
+      <c r="L255">
+        <v>3.25</v>
+      </c>
+      <c r="M255">
+        <v>3.1</v>
+      </c>
+      <c r="N255">
+        <v>2.15</v>
+      </c>
+      <c r="O255">
+        <v>3.25</v>
+      </c>
+      <c r="P255">
+        <v>3.1</v>
+      </c>
+      <c r="Q255">
+        <v>-0.25</v>
+      </c>
+      <c r="R255">
+        <v>1.925</v>
+      </c>
+      <c r="S255">
+        <v>1.925</v>
+      </c>
+      <c r="T255">
+        <v>2.5</v>
+      </c>
+      <c r="U255">
+        <v>2.05</v>
+      </c>
+      <c r="V255">
+        <v>1.8</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>7908670</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45364.95833333334</v>
+      </c>
+      <c r="F256" t="s">
+        <v>29</v>
+      </c>
+      <c r="G256" t="s">
+        <v>41</v>
+      </c>
+      <c r="K256">
+        <v>1.615</v>
+      </c>
+      <c r="L256">
+        <v>3.75</v>
+      </c>
+      <c r="M256">
         <v>4.75</v>
       </c>
-      <c r="P253">
-        <v>12</v>
-      </c>
-      <c r="Q253">
-        <v>-1.75</v>
-      </c>
-      <c r="R253">
-        <v>2.025</v>
-      </c>
-      <c r="S253">
-        <v>1.825</v>
-      </c>
-      <c r="T253">
-        <v>2.75</v>
-      </c>
-      <c r="U253">
-        <v>1.925</v>
-      </c>
-      <c r="V253">
-        <v>1.925</v>
-      </c>
-      <c r="W253">
+      <c r="N256">
+        <v>1.615</v>
+      </c>
+      <c r="O256">
+        <v>3.75</v>
+      </c>
+      <c r="P256">
+        <v>4.75</v>
+      </c>
+      <c r="Q256">
+        <v>-0.75</v>
+      </c>
+      <c r="R256">
+        <v>1.85</v>
+      </c>
+      <c r="S256">
+        <v>2</v>
+      </c>
+      <c r="T256">
+        <v>2.5</v>
+      </c>
+      <c r="U256">
+        <v>1.85</v>
+      </c>
+      <c r="V256">
+        <v>2</v>
+      </c>
+      <c r="W256">
         <v>0</v>
       </c>
-      <c r="X253">
+      <c r="X256">
         <v>0</v>
       </c>
-      <c r="Y253">
+      <c r="Y256">
         <v>0</v>
       </c>
-      <c r="Z253">
+      <c r="Z256">
         <v>0</v>
       </c>
-      <c r="AA253">
+      <c r="AA256">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC256"/>
+  <dimension ref="A1:AC262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
         <v>1.75</v>
       </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>1.571</v>
-      </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P156">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
         <v>6.5</v>
       </c>
-      <c r="P157">
-        <v>12</v>
-      </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,58 +16221,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L177">
+        <v>3.2</v>
+      </c>
+      <c r="M177">
         <v>3.75</v>
       </c>
-      <c r="M177">
+      <c r="N177">
+        <v>1.75</v>
+      </c>
+      <c r="O177">
+        <v>3.4</v>
+      </c>
+      <c r="P177">
         <v>4.333</v>
       </c>
-      <c r="N177">
-        <v>1.25</v>
-      </c>
-      <c r="O177">
-        <v>5.25</v>
-      </c>
-      <c r="P177">
-        <v>10</v>
-      </c>
       <c r="Q177">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16281,16 +16281,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,13 +16488,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16512,34 +16512,34 @@
         <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,16 +16548,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,55 +16755,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M183">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O183">
         <v>3.6</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16812,19 +16812,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384627</v>
+        <v>7384630</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,49 +16844,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K184">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="N184">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O184">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q184">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
         <v>1.85</v>
@@ -16895,19 +16895,19 @@
         <v>1.95</v>
       </c>
       <c r="W184">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z184">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
         <v>-1</v>
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,13 +17022,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17037,43 +17037,43 @@
         <v>51</v>
       </c>
       <c r="K186">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L186">
         <v>5</v>
       </c>
       <c r="M186">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N186">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O186">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P186">
         <v>13</v>
       </c>
       <c r="Q186">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R186">
+        <v>1.8</v>
+      </c>
+      <c r="S186">
+        <v>2</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
         <v>1.85</v>
       </c>
-      <c r="S186">
+      <c r="V186">
         <v>1.95</v>
       </c>
-      <c r="T186">
-        <v>3.25</v>
-      </c>
-      <c r="U186">
-        <v>2</v>
-      </c>
-      <c r="V186">
-        <v>1.8</v>
-      </c>
       <c r="W186">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17082,16 +17082,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384628</v>
+        <v>7384625</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187" t="s">
+        <v>52</v>
+      </c>
+      <c r="K187">
+        <v>1.5</v>
+      </c>
+      <c r="L187">
+        <v>3.75</v>
+      </c>
+      <c r="M187">
+        <v>7</v>
+      </c>
+      <c r="N187">
+        <v>1.363</v>
+      </c>
+      <c r="O187">
+        <v>4.333</v>
+      </c>
+      <c r="P187">
+        <v>9.5</v>
+      </c>
+      <c r="Q187">
+        <v>-1.25</v>
+      </c>
+      <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>1.925</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
+        <v>1.8</v>
+      </c>
+      <c r="V187">
+        <v>2</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>3.333</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>-1</v>
+      </c>
+      <c r="AA187">
+        <v>0.925</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>1</v>
-      </c>
-      <c r="I187">
-        <v>2</v>
-      </c>
-      <c r="J187" t="s">
-        <v>53</v>
-      </c>
-      <c r="K187">
-        <v>2.75</v>
-      </c>
-      <c r="L187">
-        <v>3.3</v>
-      </c>
-      <c r="M187">
-        <v>2.375</v>
-      </c>
-      <c r="N187">
-        <v>3.3</v>
-      </c>
-      <c r="O187">
-        <v>3.6</v>
-      </c>
-      <c r="P187">
-        <v>2</v>
-      </c>
-      <c r="Q187">
-        <v>0.5</v>
-      </c>
-      <c r="R187">
-        <v>1.8</v>
-      </c>
-      <c r="S187">
-        <v>2</v>
-      </c>
-      <c r="T187">
-        <v>2.75</v>
-      </c>
-      <c r="U187">
-        <v>1.975</v>
-      </c>
-      <c r="V187">
-        <v>1.875</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>1</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
-        <v>1</v>
-      </c>
-      <c r="AB187">
-        <v>0.4875</v>
-      </c>
-      <c r="AC187">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384625</v>
+        <v>7384626</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M188">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N188">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P188">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U188">
+        <v>2</v>
+      </c>
+      <c r="V188">
         <v>1.8</v>
       </c>
-      <c r="V188">
-        <v>2</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X188">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -23079,6 +23079,15 @@
       <c r="G254" t="s">
         <v>45</v>
       </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254" t="s">
+        <v>51</v>
+      </c>
       <c r="K254">
         <v>1.2</v>
       </c>
@@ -23101,34 +23110,40 @@
         <v>-1.75</v>
       </c>
       <c r="R254">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S254">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U254">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V254">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W254">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="X254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB254">
+        <v>-1</v>
+      </c>
+      <c r="AC254">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23153,6 +23168,15 @@
       <c r="G255" t="s">
         <v>43</v>
       </c>
+      <c r="H255">
+        <v>2</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" t="s">
+        <v>51</v>
+      </c>
       <c r="K255">
         <v>2.15</v>
       </c>
@@ -23163,46 +23187,52 @@
         <v>3.1</v>
       </c>
       <c r="N255">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O255">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P255">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q255">
         <v>-0.25</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA255">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB255">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC255">
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23227,6 +23257,15 @@
       <c r="G256" t="s">
         <v>41</v>
       </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256" t="s">
+        <v>53</v>
+      </c>
       <c r="K256">
         <v>1.615</v>
       </c>
@@ -23237,46 +23276,586 @@
         <v>4.75</v>
       </c>
       <c r="N256">
+        <v>1.75</v>
+      </c>
+      <c r="O256">
+        <v>3.6</v>
+      </c>
+      <c r="P256">
+        <v>4</v>
+      </c>
+      <c r="Q256">
+        <v>-0.5</v>
+      </c>
+      <c r="R256">
+        <v>1.8</v>
+      </c>
+      <c r="S256">
+        <v>2</v>
+      </c>
+      <c r="T256">
+        <v>2.75</v>
+      </c>
+      <c r="U256">
+        <v>1.95</v>
+      </c>
+      <c r="V256">
+        <v>1.85</v>
+      </c>
+      <c r="W256">
+        <v>-1</v>
+      </c>
+      <c r="X256">
+        <v>-1</v>
+      </c>
+      <c r="Y256">
+        <v>3</v>
+      </c>
+      <c r="Z256">
+        <v>-1</v>
+      </c>
+      <c r="AA256">
+        <v>1</v>
+      </c>
+      <c r="AB256">
+        <v>0.475</v>
+      </c>
+      <c r="AC256">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>7908665</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45365.64583333334</v>
+      </c>
+      <c r="F257" t="s">
+        <v>44</v>
+      </c>
+      <c r="G257" t="s">
+        <v>37</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>52</v>
+      </c>
+      <c r="K257">
+        <v>2.15</v>
+      </c>
+      <c r="L257">
+        <v>3.2</v>
+      </c>
+      <c r="M257">
+        <v>3.3</v>
+      </c>
+      <c r="N257">
+        <v>2.6</v>
+      </c>
+      <c r="O257">
+        <v>3</v>
+      </c>
+      <c r="P257">
+        <v>2.625</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>1.875</v>
+      </c>
+      <c r="S257">
+        <v>1.925</v>
+      </c>
+      <c r="T257">
+        <v>2.25</v>
+      </c>
+      <c r="U257">
+        <v>1.975</v>
+      </c>
+      <c r="V257">
+        <v>1.825</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
+        <v>2</v>
+      </c>
+      <c r="Y257">
+        <v>-1</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
+        <v>-0</v>
+      </c>
+      <c r="AB257">
+        <v>-0.5</v>
+      </c>
+      <c r="AC257">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>7908666</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45365.73958333334</v>
+      </c>
+      <c r="F258" t="s">
+        <v>50</v>
+      </c>
+      <c r="G258" t="s">
+        <v>46</v>
+      </c>
+      <c r="H258">
+        <v>3</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258" t="s">
+        <v>51</v>
+      </c>
+      <c r="K258">
+        <v>3.2</v>
+      </c>
+      <c r="L258">
+        <v>3.2</v>
+      </c>
+      <c r="M258">
+        <v>2.2</v>
+      </c>
+      <c r="N258">
+        <v>2.7</v>
+      </c>
+      <c r="O258">
+        <v>3.1</v>
+      </c>
+      <c r="P258">
+        <v>2.6</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>1.95</v>
+      </c>
+      <c r="S258">
+        <v>1.9</v>
+      </c>
+      <c r="T258">
+        <v>2.5</v>
+      </c>
+      <c r="U258">
+        <v>2.025</v>
+      </c>
+      <c r="V258">
+        <v>1.825</v>
+      </c>
+      <c r="W258">
+        <v>1.7</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
+        <v>0.95</v>
+      </c>
+      <c r="AA258">
+        <v>-1</v>
+      </c>
+      <c r="AB258">
+        <v>1.025</v>
+      </c>
+      <c r="AC258">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>7908667</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45365.875</v>
+      </c>
+      <c r="F259" t="s">
+        <v>42</v>
+      </c>
+      <c r="G259" t="s">
+        <v>36</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259" t="s">
+        <v>51</v>
+      </c>
+      <c r="K259">
+        <v>2.2</v>
+      </c>
+      <c r="L259">
+        <v>3.2</v>
+      </c>
+      <c r="M259">
+        <v>3.2</v>
+      </c>
+      <c r="N259">
+        <v>1.8</v>
+      </c>
+      <c r="O259">
+        <v>3.4</v>
+      </c>
+      <c r="P259">
+        <v>4.333</v>
+      </c>
+      <c r="Q259">
+        <v>-0.5</v>
+      </c>
+      <c r="R259">
+        <v>1.825</v>
+      </c>
+      <c r="S259">
+        <v>1.975</v>
+      </c>
+      <c r="T259">
+        <v>2.5</v>
+      </c>
+      <c r="U259">
+        <v>1.975</v>
+      </c>
+      <c r="V259">
+        <v>1.825</v>
+      </c>
+      <c r="W259">
+        <v>0.8</v>
+      </c>
+      <c r="X259">
+        <v>-1</v>
+      </c>
+      <c r="Y259">
+        <v>-1</v>
+      </c>
+      <c r="Z259">
+        <v>0.825</v>
+      </c>
+      <c r="AA259">
+        <v>-1</v>
+      </c>
+      <c r="AB259">
+        <v>-1</v>
+      </c>
+      <c r="AC259">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>7908669</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45366.63541666666</v>
+      </c>
+      <c r="F260" t="s">
+        <v>49</v>
+      </c>
+      <c r="G260" t="s">
+        <v>34</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>4</v>
+      </c>
+      <c r="J260" t="s">
+        <v>53</v>
+      </c>
+      <c r="K260">
+        <v>2.05</v>
+      </c>
+      <c r="L260">
+        <v>3.2</v>
+      </c>
+      <c r="M260">
+        <v>3.5</v>
+      </c>
+      <c r="N260">
+        <v>2.1</v>
+      </c>
+      <c r="O260">
+        <v>3.25</v>
+      </c>
+      <c r="P260">
+        <v>3.25</v>
+      </c>
+      <c r="Q260">
+        <v>-0.25</v>
+      </c>
+      <c r="R260">
+        <v>1.875</v>
+      </c>
+      <c r="S260">
+        <v>1.925</v>
+      </c>
+      <c r="T260">
+        <v>2.75</v>
+      </c>
+      <c r="U260">
+        <v>1.975</v>
+      </c>
+      <c r="V260">
+        <v>1.825</v>
+      </c>
+      <c r="W260">
+        <v>-1</v>
+      </c>
+      <c r="X260">
+        <v>-1</v>
+      </c>
+      <c r="Y260">
+        <v>2.25</v>
+      </c>
+      <c r="Z260">
+        <v>-1</v>
+      </c>
+      <c r="AA260">
+        <v>0.925</v>
+      </c>
+      <c r="AB260">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC260">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>7908671</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45366.72916666666</v>
+      </c>
+      <c r="F261" t="s">
+        <v>48</v>
+      </c>
+      <c r="G261" t="s">
+        <v>35</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261" t="s">
+        <v>53</v>
+      </c>
+      <c r="K261">
         <v>1.615</v>
       </c>
-      <c r="O256">
+      <c r="L261">
         <v>3.75</v>
       </c>
-      <c r="P256">
-        <v>4.75</v>
-      </c>
-      <c r="Q256">
-        <v>-0.75</v>
-      </c>
-      <c r="R256">
+      <c r="M261">
+        <v>5</v>
+      </c>
+      <c r="N261">
+        <v>2.1</v>
+      </c>
+      <c r="O261">
+        <v>3.3</v>
+      </c>
+      <c r="P261">
+        <v>3.2</v>
+      </c>
+      <c r="Q261">
+        <v>-0.25</v>
+      </c>
+      <c r="R261">
+        <v>1.875</v>
+      </c>
+      <c r="S261">
+        <v>1.925</v>
+      </c>
+      <c r="T261">
+        <v>2.25</v>
+      </c>
+      <c r="U261">
         <v>1.85</v>
       </c>
-      <c r="S256">
-        <v>2</v>
-      </c>
-      <c r="T256">
+      <c r="V261">
+        <v>1.95</v>
+      </c>
+      <c r="W261">
+        <v>-1</v>
+      </c>
+      <c r="X261">
+        <v>-1</v>
+      </c>
+      <c r="Y261">
+        <v>2.2</v>
+      </c>
+      <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
+        <v>0.925</v>
+      </c>
+      <c r="AB261">
+        <v>-1</v>
+      </c>
+      <c r="AC261">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>7908668</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45367.70833333334</v>
+      </c>
+      <c r="F262" t="s">
+        <v>30</v>
+      </c>
+      <c r="G262" t="s">
+        <v>47</v>
+      </c>
+      <c r="H262">
+        <v>2</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>51</v>
+      </c>
+      <c r="K262">
+        <v>1.8</v>
+      </c>
+      <c r="L262">
+        <v>3.5</v>
+      </c>
+      <c r="M262">
+        <v>4.333</v>
+      </c>
+      <c r="N262">
+        <v>1.45</v>
+      </c>
+      <c r="O262">
+        <v>4.2</v>
+      </c>
+      <c r="P262">
+        <v>7</v>
+      </c>
+      <c r="Q262">
+        <v>-1</v>
+      </c>
+      <c r="R262">
+        <v>1.775</v>
+      </c>
+      <c r="S262">
+        <v>2.025</v>
+      </c>
+      <c r="T262">
         <v>2.5</v>
       </c>
-      <c r="U256">
-        <v>1.85</v>
-      </c>
-      <c r="V256">
-        <v>2</v>
-      </c>
-      <c r="W256">
+      <c r="U262">
+        <v>1.9</v>
+      </c>
+      <c r="V262">
+        <v>1.9</v>
+      </c>
+      <c r="W262">
+        <v>0.45</v>
+      </c>
+      <c r="X262">
+        <v>-1</v>
+      </c>
+      <c r="Y262">
+        <v>-1</v>
+      </c>
+      <c r="Z262">
         <v>0</v>
       </c>
-      <c r="X256">
-        <v>0</v>
-      </c>
-      <c r="Y256">
-        <v>0</v>
-      </c>
-      <c r="Z256">
-        <v>0</v>
-      </c>
-      <c r="AA256">
-        <v>0</v>
+      <c r="AA262">
+        <v>-0</v>
+      </c>
+      <c r="AB262">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC262">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC262"/>
+  <dimension ref="A1:AC265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L175">
+        <v>3.2</v>
+      </c>
+      <c r="M175">
         <v>3.75</v>
       </c>
-      <c r="M175">
+      <c r="N175">
+        <v>1.75</v>
+      </c>
+      <c r="O175">
+        <v>3.4</v>
+      </c>
+      <c r="P175">
         <v>4.333</v>
       </c>
-      <c r="N175">
-        <v>1.25</v>
-      </c>
-      <c r="O175">
-        <v>5.25</v>
-      </c>
-      <c r="P175">
-        <v>10</v>
-      </c>
       <c r="Q175">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,13 +16488,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16512,34 +16512,34 @@
         <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,16 +16548,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384628</v>
+        <v>7384627</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,40 +16755,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="L183">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="N183">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P183">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q183">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R183">
         <v>1.8</v>
@@ -16800,31 +16800,31 @@
         <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA183">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384630</v>
+        <v>7384626</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H184">
+        <v>3</v>
+      </c>
+      <c r="I184">
         <v>0</v>
       </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
       <c r="J184" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="N184">
-        <v>1.75</v>
+        <v>1.166</v>
       </c>
       <c r="O184">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P184">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S184">
+        <v>1.95</v>
+      </c>
+      <c r="T184">
+        <v>3.25</v>
+      </c>
+      <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
         <v>1.8</v>
       </c>
-      <c r="T184">
-        <v>3</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384629</v>
+        <v>7384625</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185" t="s">
+        <v>52</v>
+      </c>
+      <c r="K185">
+        <v>1.5</v>
+      </c>
+      <c r="L185">
+        <v>3.75</v>
+      </c>
+      <c r="M185">
+        <v>7</v>
+      </c>
+      <c r="N185">
+        <v>1.363</v>
+      </c>
+      <c r="O185">
+        <v>4.333</v>
+      </c>
+      <c r="P185">
+        <v>9.5</v>
+      </c>
+      <c r="Q185">
+        <v>-1.25</v>
+      </c>
+      <c r="R185">
+        <v>1.875</v>
+      </c>
+      <c r="S185">
+        <v>1.925</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
+        <v>1.8</v>
+      </c>
+      <c r="V185">
+        <v>2</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>3.333</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.925</v>
+      </c>
+      <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
         <v>1</v>
-      </c>
-      <c r="J185" t="s">
-        <v>53</v>
-      </c>
-      <c r="K185">
-        <v>2.625</v>
-      </c>
-      <c r="L185">
-        <v>3.3</v>
-      </c>
-      <c r="M185">
-        <v>2.5</v>
-      </c>
-      <c r="N185">
-        <v>2.7</v>
-      </c>
-      <c r="O185">
-        <v>3.4</v>
-      </c>
-      <c r="P185">
-        <v>2.375</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>2.025</v>
-      </c>
-      <c r="S185">
-        <v>1.775</v>
-      </c>
-      <c r="T185">
-        <v>2.25</v>
-      </c>
-      <c r="U185">
-        <v>1.825</v>
-      </c>
-      <c r="V185">
-        <v>1.975</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>1.375</v>
-      </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
-      <c r="AA185">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
-      <c r="AC185">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384627</v>
+        <v>7384630</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,49 +17022,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L186">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="N186">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q186">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
+        <v>2</v>
+      </c>
+      <c r="S186">
         <v>1.8</v>
       </c>
-      <c r="S186">
-        <v>2</v>
-      </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U186">
         <v>1.85</v>
@@ -17073,19 +17073,19 @@
         <v>1.95</v>
       </c>
       <c r="W186">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z186">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB186">
         <v>-1</v>
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384625</v>
+        <v>7384629</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>53</v>
+      </c>
+      <c r="K187">
+        <v>2.625</v>
+      </c>
+      <c r="L187">
+        <v>3.3</v>
+      </c>
+      <c r="M187">
+        <v>2.5</v>
+      </c>
+      <c r="N187">
+        <v>2.7</v>
+      </c>
+      <c r="O187">
+        <v>3.4</v>
+      </c>
+      <c r="P187">
+        <v>2.375</v>
+      </c>
+      <c r="Q187">
         <v>0</v>
       </c>
-      <c r="J187" t="s">
-        <v>52</v>
-      </c>
-      <c r="K187">
-        <v>1.5</v>
-      </c>
-      <c r="L187">
-        <v>3.75</v>
-      </c>
-      <c r="M187">
-        <v>7</v>
-      </c>
-      <c r="N187">
-        <v>1.363</v>
-      </c>
-      <c r="O187">
-        <v>4.333</v>
-      </c>
-      <c r="P187">
-        <v>9.5</v>
-      </c>
-      <c r="Q187">
-        <v>-1.25</v>
-      </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384626</v>
+        <v>7384628</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K188">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="L188">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M188">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N188">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="O188">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q188">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB188">
+        <v>0.4875</v>
+      </c>
+      <c r="AC188">
         <v>-0.5</v>
-      </c>
-      <c r="AC188">
-        <v>0.4</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K228">
+        <v>3.3</v>
+      </c>
+      <c r="L228">
+        <v>3.3</v>
+      </c>
+      <c r="M228">
+        <v>2.1</v>
+      </c>
+      <c r="N228">
+        <v>4.5</v>
+      </c>
+      <c r="O228">
+        <v>3.2</v>
+      </c>
+      <c r="P228">
+        <v>1.95</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>1.85</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.775</v>
+      </c>
+      <c r="V228">
+        <v>2.1</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
         <v>2.2</v>
       </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
-      <c r="M228">
-        <v>3.2</v>
-      </c>
-      <c r="N228">
-        <v>1.6</v>
-      </c>
-      <c r="O228">
-        <v>3.75</v>
-      </c>
-      <c r="P228">
-        <v>5.75</v>
-      </c>
-      <c r="Q228">
-        <v>-0.75</v>
-      </c>
-      <c r="R228">
-        <v>1.85</v>
-      </c>
-      <c r="S228">
-        <v>2</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.875</v>
-      </c>
-      <c r="W228">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N229">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -23856,6 +23856,228 @@
       </c>
       <c r="AC262">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>7971186</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263" t="s">
+        <v>28</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45379.70833333334</v>
+      </c>
+      <c r="F263" t="s">
+        <v>34</v>
+      </c>
+      <c r="G263" t="s">
+        <v>50</v>
+      </c>
+      <c r="K263">
+        <v>1.615</v>
+      </c>
+      <c r="L263">
+        <v>3.75</v>
+      </c>
+      <c r="M263">
+        <v>5.5</v>
+      </c>
+      <c r="N263">
+        <v>1.666</v>
+      </c>
+      <c r="O263">
+        <v>3.5</v>
+      </c>
+      <c r="P263">
+        <v>5.75</v>
+      </c>
+      <c r="Q263">
+        <v>-0.75</v>
+      </c>
+      <c r="R263">
+        <v>1.8</v>
+      </c>
+      <c r="S263">
+        <v>2.05</v>
+      </c>
+      <c r="T263">
+        <v>2.5</v>
+      </c>
+      <c r="U263">
+        <v>1.85</v>
+      </c>
+      <c r="V263">
+        <v>2</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AA263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>7971187</v>
+      </c>
+      <c r="C264" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" t="s">
+        <v>28</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45379.91666666666</v>
+      </c>
+      <c r="F264" t="s">
+        <v>43</v>
+      </c>
+      <c r="G264" t="s">
+        <v>48</v>
+      </c>
+      <c r="K264">
+        <v>1.333</v>
+      </c>
+      <c r="L264">
+        <v>5</v>
+      </c>
+      <c r="M264">
+        <v>9</v>
+      </c>
+      <c r="N264">
+        <v>1.222</v>
+      </c>
+      <c r="O264">
+        <v>6</v>
+      </c>
+      <c r="P264">
+        <v>12</v>
+      </c>
+      <c r="Q264">
+        <v>-1.75</v>
+      </c>
+      <c r="R264">
+        <v>1.925</v>
+      </c>
+      <c r="S264">
+        <v>1.925</v>
+      </c>
+      <c r="T264">
+        <v>3</v>
+      </c>
+      <c r="U264">
+        <v>1.975</v>
+      </c>
+      <c r="V264">
+        <v>1.875</v>
+      </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
+      <c r="AA264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>7971188</v>
+      </c>
+      <c r="C265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D265" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45380.875</v>
+      </c>
+      <c r="F265" t="s">
+        <v>45</v>
+      </c>
+      <c r="G265" t="s">
+        <v>49</v>
+      </c>
+      <c r="K265">
+        <v>1.5</v>
+      </c>
+      <c r="L265">
+        <v>4</v>
+      </c>
+      <c r="M265">
+        <v>7</v>
+      </c>
+      <c r="N265">
+        <v>1.45</v>
+      </c>
+      <c r="O265">
+        <v>4</v>
+      </c>
+      <c r="P265">
+        <v>8.5</v>
+      </c>
+      <c r="Q265">
+        <v>-1.25</v>
+      </c>
+      <c r="R265">
+        <v>1.975</v>
+      </c>
+      <c r="S265">
+        <v>1.875</v>
+      </c>
+      <c r="T265">
+        <v>2.5</v>
+      </c>
+      <c r="U265">
+        <v>1.875</v>
+      </c>
+      <c r="V265">
+        <v>1.975</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC265"/>
+  <dimension ref="A1:AC268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
+        <v>2.1</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
         <v>1.75</v>
       </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.571</v>
-      </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N175">
         <v>1.75</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q175">
         <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,13 +16488,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16512,34 +16512,34 @@
         <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,16 +16548,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384627</v>
+        <v>7384630</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,49 +16755,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K183">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="N183">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O183">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
         <v>1.8</v>
       </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
         <v>1.85</v>
@@ -16806,19 +16806,19 @@
         <v>1.95</v>
       </c>
       <c r="W183">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z183">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB183">
         <v>-1</v>
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,13 +16844,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16859,43 +16859,43 @@
         <v>51</v>
       </c>
       <c r="K184">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L184">
         <v>5</v>
       </c>
       <c r="M184">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N184">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O184">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P184">
         <v>13</v>
       </c>
       <c r="Q184">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R184">
+        <v>1.8</v>
+      </c>
+      <c r="S184">
+        <v>2</v>
+      </c>
+      <c r="T184">
+        <v>2.75</v>
+      </c>
+      <c r="U184">
         <v>1.85</v>
       </c>
-      <c r="S184">
+      <c r="V184">
         <v>1.95</v>
       </c>
-      <c r="T184">
-        <v>3.25</v>
-      </c>
-      <c r="U184">
-        <v>2</v>
-      </c>
-      <c r="V184">
-        <v>1.8</v>
-      </c>
       <c r="W184">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16904,16 +16904,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,55 +17022,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
         <v>53</v>
       </c>
       <c r="K186">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M186">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O186">
         <v>3.6</v>
       </c>
       <c r="P186">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17079,19 +17079,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384629</v>
+        <v>7384626</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M187">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N187">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P187">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA187">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384628</v>
+        <v>7384629</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,56 +17200,56 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>1</v>
-      </c>
-      <c r="I188">
-        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>53</v>
       </c>
       <c r="K188">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L188">
         <v>3.3</v>
       </c>
       <c r="M188">
+        <v>2.5</v>
+      </c>
+      <c r="N188">
+        <v>2.7</v>
+      </c>
+      <c r="O188">
+        <v>3.4</v>
+      </c>
+      <c r="P188">
         <v>2.375</v>
       </c>
-      <c r="N188">
-        <v>3.3</v>
-      </c>
-      <c r="O188">
-        <v>3.6</v>
-      </c>
-      <c r="P188">
-        <v>2</v>
-      </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
         <v>1.975</v>
       </c>
-      <c r="V188">
-        <v>1.875</v>
-      </c>
       <c r="W188">
         <v>-1</v>
       </c>
@@ -17257,19 +17257,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB188">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K252">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L252">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M252">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N252">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O252">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P252">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q252">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X252">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G253" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K253">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L253">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M253">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N253">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O253">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P253">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R253">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC253">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23880,6 +23880,15 @@
       <c r="G263" t="s">
         <v>50</v>
       </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263" t="s">
+        <v>53</v>
+      </c>
       <c r="K263">
         <v>1.615</v>
       </c>
@@ -23890,46 +23899,52 @@
         <v>5.5</v>
       </c>
       <c r="N263">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O263">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P263">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R263">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S263">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T263">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V263">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB263">
+        <v>0.4125</v>
+      </c>
+      <c r="AC263">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23954,6 +23969,15 @@
       <c r="G264" t="s">
         <v>48</v>
       </c>
+      <c r="H264">
+        <v>3</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264" t="s">
+        <v>51</v>
+      </c>
       <c r="K264">
         <v>1.333</v>
       </c>
@@ -23964,46 +23988,52 @@
         <v>9</v>
       </c>
       <c r="N264">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="O264">
         <v>6</v>
       </c>
       <c r="P264">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q264">
         <v>-1.75</v>
       </c>
       <c r="R264">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S264">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T264">
         <v>3</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W264">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA264">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB264">
+        <v>0</v>
+      </c>
+      <c r="AC264">
+        <v>-0</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24038,45 +24068,267 @@
         <v>7</v>
       </c>
       <c r="N265">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="O265">
+        <v>5</v>
+      </c>
+      <c r="P265">
+        <v>13</v>
+      </c>
+      <c r="Q265">
+        <v>-1.5</v>
+      </c>
+      <c r="R265">
+        <v>1.85</v>
+      </c>
+      <c r="S265">
+        <v>2</v>
+      </c>
+      <c r="T265">
+        <v>2.75</v>
+      </c>
+      <c r="U265">
+        <v>1.975</v>
+      </c>
+      <c r="V265">
+        <v>1.875</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>7971189</v>
+      </c>
+      <c r="C266" t="s">
+        <v>28</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45381.67708333334</v>
+      </c>
+      <c r="F266" t="s">
+        <v>35</v>
+      </c>
+      <c r="G266" t="s">
+        <v>42</v>
+      </c>
+      <c r="K266">
+        <v>1.615</v>
+      </c>
+      <c r="L266">
         <v>4</v>
       </c>
-      <c r="P265">
-        <v>8.5</v>
-      </c>
-      <c r="Q265">
-        <v>-1.25</v>
-      </c>
-      <c r="R265">
+      <c r="M266">
+        <v>5</v>
+      </c>
+      <c r="N266">
+        <v>1.7</v>
+      </c>
+      <c r="O266">
+        <v>4</v>
+      </c>
+      <c r="P266">
+        <v>4.5</v>
+      </c>
+      <c r="Q266">
+        <v>-0.75</v>
+      </c>
+      <c r="R266">
+        <v>1.925</v>
+      </c>
+      <c r="S266">
+        <v>1.925</v>
+      </c>
+      <c r="T266">
+        <v>2.5</v>
+      </c>
+      <c r="U266">
+        <v>1.9</v>
+      </c>
+      <c r="V266">
+        <v>1.95</v>
+      </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>0</v>
+      </c>
+      <c r="AA266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>7971190</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45381.78125</v>
+      </c>
+      <c r="F267" t="s">
+        <v>41</v>
+      </c>
+      <c r="G267" t="s">
+        <v>38</v>
+      </c>
+      <c r="K267">
+        <v>1.8</v>
+      </c>
+      <c r="L267">
+        <v>3.6</v>
+      </c>
+      <c r="M267">
+        <v>4.333</v>
+      </c>
+      <c r="N267">
+        <v>1.65</v>
+      </c>
+      <c r="O267">
+        <v>4</v>
+      </c>
+      <c r="P267">
+        <v>5</v>
+      </c>
+      <c r="Q267">
+        <v>-0.75</v>
+      </c>
+      <c r="R267">
+        <v>1.825</v>
+      </c>
+      <c r="S267">
+        <v>2.025</v>
+      </c>
+      <c r="T267">
+        <v>2.5</v>
+      </c>
+      <c r="U267">
+        <v>1.875</v>
+      </c>
+      <c r="V267">
         <v>1.975</v>
       </c>
-      <c r="S265">
+      <c r="W267">
+        <v>0</v>
+      </c>
+      <c r="X267">
+        <v>0</v>
+      </c>
+      <c r="Y267">
+        <v>0</v>
+      </c>
+      <c r="Z267">
+        <v>0</v>
+      </c>
+      <c r="AA267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>7971191</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45381.91666666666</v>
+      </c>
+      <c r="F268" t="s">
+        <v>37</v>
+      </c>
+      <c r="G268" t="s">
+        <v>31</v>
+      </c>
+      <c r="K268">
+        <v>3.75</v>
+      </c>
+      <c r="L268">
+        <v>3.4</v>
+      </c>
+      <c r="M268">
+        <v>1.95</v>
+      </c>
+      <c r="N268">
+        <v>3.8</v>
+      </c>
+      <c r="O268">
+        <v>3.4</v>
+      </c>
+      <c r="P268">
+        <v>1.909</v>
+      </c>
+      <c r="Q268">
+        <v>0.5</v>
+      </c>
+      <c r="R268">
+        <v>1.85</v>
+      </c>
+      <c r="S268">
+        <v>2</v>
+      </c>
+      <c r="T268">
+        <v>2.25</v>
+      </c>
+      <c r="U268">
+        <v>1.975</v>
+      </c>
+      <c r="V268">
         <v>1.875</v>
       </c>
-      <c r="T265">
-        <v>2.5</v>
-      </c>
-      <c r="U265">
-        <v>1.875</v>
-      </c>
-      <c r="V265">
-        <v>1.975</v>
-      </c>
-      <c r="W265">
-        <v>0</v>
-      </c>
-      <c r="X265">
-        <v>0</v>
-      </c>
-      <c r="Y265">
-        <v>0</v>
-      </c>
-      <c r="Z265">
-        <v>0</v>
-      </c>
-      <c r="AA265">
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="Y268">
+        <v>0</v>
+      </c>
+      <c r="Z268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
         <v>1.75</v>
       </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>1.571</v>
-      </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384630</v>
+        <v>7384627</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,49 +16755,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
         <v>1.85</v>
@@ -16806,19 +16806,19 @@
         <v>1.95</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA183">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
         <v>-1</v>
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384627</v>
+        <v>7384625</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K184">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M184">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N184">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="O184">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q184">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384625</v>
+        <v>7384630</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K185">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L185">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N185">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O185">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q185">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U185">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384628</v>
+        <v>7384626</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N186">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P186">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q186">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R186">
+        <v>1.85</v>
+      </c>
+      <c r="S186">
+        <v>1.95</v>
+      </c>
+      <c r="T186">
+        <v>3.25</v>
+      </c>
+      <c r="U186">
+        <v>2</v>
+      </c>
+      <c r="V186">
         <v>1.8</v>
       </c>
-      <c r="S186">
-        <v>2</v>
-      </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>1.975</v>
-      </c>
-      <c r="V186">
-        <v>1.875</v>
-      </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384626</v>
+        <v>7384629</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K187">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M187">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N187">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="O187">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="Q187">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z187">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384629</v>
+        <v>7384628</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,55 +17200,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>53</v>
       </c>
       <c r="K188">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L188">
         <v>3.3</v>
       </c>
       <c r="M188">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N188">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17257,19 +17257,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K252">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L252">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M252">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N252">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O252">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P252">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R252">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U252">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K253">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L253">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M253">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N253">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O253">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P253">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q253">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T253">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X253">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA253">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -24089,10 +24089,10 @@
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V265">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24163,10 +24163,10 @@
         <v>2.5</v>
       </c>
       <c r="U266">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V266">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W266">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0.5</v>
       </c>
       <c r="R268">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S268">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T268">
         <v>2.25</v>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384627</v>
+        <v>7384630</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,49 +16755,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K183">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="N183">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O183">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
         <v>1.8</v>
       </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
         <v>1.85</v>
@@ -16806,19 +16806,19 @@
         <v>1.95</v>
       </c>
       <c r="W183">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z183">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB183">
         <v>-1</v>
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384625</v>
+        <v>7384627</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N184">
-        <v>1.363</v>
+        <v>1.181</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P184">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X184">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384630</v>
+        <v>7384625</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185" t="s">
+        <v>52</v>
+      </c>
+      <c r="K185">
+        <v>1.5</v>
+      </c>
+      <c r="L185">
+        <v>3.75</v>
+      </c>
+      <c r="M185">
+        <v>7</v>
+      </c>
+      <c r="N185">
+        <v>1.363</v>
+      </c>
+      <c r="O185">
+        <v>4.333</v>
+      </c>
+      <c r="P185">
+        <v>9.5</v>
+      </c>
+      <c r="Q185">
+        <v>-1.25</v>
+      </c>
+      <c r="R185">
+        <v>1.875</v>
+      </c>
+      <c r="S185">
+        <v>1.925</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
+        <v>1.8</v>
+      </c>
+      <c r="V185">
+        <v>2</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>3.333</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.925</v>
+      </c>
+      <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
         <v>1</v>
-      </c>
-      <c r="J185" t="s">
-        <v>53</v>
-      </c>
-      <c r="K185">
-        <v>2.8</v>
-      </c>
-      <c r="L185">
-        <v>3.4</v>
-      </c>
-      <c r="M185">
-        <v>2.15</v>
-      </c>
-      <c r="N185">
-        <v>1.75</v>
-      </c>
-      <c r="O185">
-        <v>3.6</v>
-      </c>
-      <c r="P185">
-        <v>3.8</v>
-      </c>
-      <c r="Q185">
-        <v>-0.75</v>
-      </c>
-      <c r="R185">
-        <v>2</v>
-      </c>
-      <c r="S185">
-        <v>1.8</v>
-      </c>
-      <c r="T185">
-        <v>3</v>
-      </c>
-      <c r="U185">
-        <v>1.85</v>
-      </c>
-      <c r="V185">
-        <v>1.95</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>2.8</v>
-      </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
-      <c r="AA185">
-        <v>0.8</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
-      <c r="AC185">
-        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384626</v>
+        <v>7384628</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="L186">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M186">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="O186">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q186">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB186">
+        <v>0.4875</v>
+      </c>
+      <c r="AC186">
         <v>-0.5</v>
-      </c>
-      <c r="AC186">
-        <v>0.4</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384629</v>
+        <v>7384626</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M187">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N187">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P187">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA187">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384628</v>
+        <v>7384629</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,56 +17200,56 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>1</v>
-      </c>
-      <c r="I188">
-        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>53</v>
       </c>
       <c r="K188">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L188">
         <v>3.3</v>
       </c>
       <c r="M188">
+        <v>2.5</v>
+      </c>
+      <c r="N188">
+        <v>2.7</v>
+      </c>
+      <c r="O188">
+        <v>3.4</v>
+      </c>
+      <c r="P188">
         <v>2.375</v>
       </c>
-      <c r="N188">
-        <v>3.3</v>
-      </c>
-      <c r="O188">
-        <v>3.6</v>
-      </c>
-      <c r="P188">
-        <v>2</v>
-      </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
         <v>1.975</v>
       </c>
-      <c r="V188">
-        <v>1.875</v>
-      </c>
       <c r="W188">
         <v>-1</v>
       </c>
@@ -17257,19 +17257,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB188">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K252">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L252">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M252">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N252">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O252">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P252">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q252">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X252">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G253" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K253">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L253">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M253">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N253">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O253">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P253">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R253">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC253">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -24041,7 +24041,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7971188</v>
+        <v>7971191</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24050,49 +24050,49 @@
         <v>28</v>
       </c>
       <c r="E265" s="2">
-        <v>45380.875</v>
+        <v>45381.91666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G265" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K265">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M265">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="N265">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="O265">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P265">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q265">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R265">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S265">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24115,7 +24115,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7971189</v>
+        <v>7971192</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24124,49 +24124,49 @@
         <v>28</v>
       </c>
       <c r="E266" s="2">
-        <v>45381.67708333334</v>
+        <v>45382.625</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G266" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K266">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L266">
+        <v>3.75</v>
+      </c>
+      <c r="M266">
         <v>4</v>
       </c>
-      <c r="M266">
-        <v>5</v>
-      </c>
       <c r="N266">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O266">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P266">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q266">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S266">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T266">
         <v>2.5</v>
       </c>
       <c r="U266">
+        <v>1.975</v>
+      </c>
+      <c r="V266">
         <v>1.875</v>
-      </c>
-      <c r="V266">
-        <v>1.975</v>
       </c>
       <c r="W266">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7971190</v>
+        <v>7971193</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24198,49 +24198,49 @@
         <v>28</v>
       </c>
       <c r="E267" s="2">
-        <v>45381.78125</v>
+        <v>45382.70833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G267" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K267">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L267">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M267">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N267">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="O267">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P267">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q267">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S267">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T267">
         <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V267">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7971191</v>
+        <v>7971194</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24272,25 +24272,25 @@
         <v>28</v>
       </c>
       <c r="E268" s="2">
-        <v>45381.91666666666</v>
+        <v>45382.72916666666</v>
       </c>
       <c r="F268" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G268" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K268">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M268">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N268">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O268">
         <v>3.4</v>
@@ -24302,19 +24302,19 @@
         <v>0.5</v>
       </c>
       <c r="R268">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S268">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T268">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U268">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V268">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W268">
         <v>0</v>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC268"/>
+  <dimension ref="A1:AC266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
+        <v>2.1</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
         <v>1.75</v>
       </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.571</v>
-      </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
         <v>6.5</v>
       </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N157">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N175">
         <v>1.75</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q175">
         <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,13 +16488,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16512,34 +16512,34 @@
         <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,16 +16548,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,55 +16755,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M183">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O183">
         <v>3.6</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16812,19 +16812,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384627</v>
+        <v>7384630</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,49 +16844,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K184">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="N184">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O184">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q184">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
         <v>1.85</v>
@@ -16895,19 +16895,19 @@
         <v>1.95</v>
       </c>
       <c r="W184">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z184">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
         <v>-1</v>
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384628</v>
+        <v>7384627</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,40 +17022,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="N186">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q186">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R186">
         <v>1.8</v>
@@ -17067,31 +17067,31 @@
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K252">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L252">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M252">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N252">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O252">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P252">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R252">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U252">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K253">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L253">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M253">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N253">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O253">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P253">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q253">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T253">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X253">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA253">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -24041,7 +24041,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7971191</v>
+        <v>7971188</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24050,64 +24050,79 @@
         <v>28</v>
       </c>
       <c r="E265" s="2">
-        <v>45381.91666666666</v>
+        <v>45380.875</v>
       </c>
       <c r="F265" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>51</v>
       </c>
       <c r="K265">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="L265">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M265">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="N265">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O265">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P265">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="Q265">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R265">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S265">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T265">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V265">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB265">
+        <v>-1</v>
+      </c>
+      <c r="AC265">
+        <v>0.925</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24115,7 +24130,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7971192</v>
+        <v>7971189</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24124,212 +24139,79 @@
         <v>28</v>
       </c>
       <c r="E266" s="2">
-        <v>45382.625</v>
+        <v>45381.67708333334</v>
       </c>
       <c r="F266" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="H266">
+        <v>3</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266" t="s">
+        <v>51</v>
       </c>
       <c r="K266">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L266">
+        <v>4</v>
+      </c>
+      <c r="M266">
+        <v>5</v>
+      </c>
+      <c r="N266">
+        <v>1.65</v>
+      </c>
+      <c r="O266">
         <v>3.75</v>
       </c>
-      <c r="M266">
-        <v>4</v>
-      </c>
-      <c r="N266">
-        <v>2.05</v>
-      </c>
-      <c r="O266">
-        <v>3.6</v>
-      </c>
       <c r="P266">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q266">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R266">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S266">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T266">
         <v>2.5</v>
       </c>
       <c r="U266">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V266">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W266">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:29">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>7971193</v>
-      </c>
-      <c r="C267" t="s">
-        <v>28</v>
-      </c>
-      <c r="D267" t="s">
-        <v>28</v>
-      </c>
-      <c r="E267" s="2">
-        <v>45382.70833333334</v>
-      </c>
-      <c r="F267" t="s">
-        <v>36</v>
-      </c>
-      <c r="G267" t="s">
-        <v>44</v>
-      </c>
-      <c r="K267">
-        <v>1.615</v>
-      </c>
-      <c r="L267">
-        <v>4</v>
-      </c>
-      <c r="M267">
-        <v>5</v>
-      </c>
-      <c r="N267">
-        <v>1.909</v>
-      </c>
-      <c r="O267">
-        <v>3.8</v>
-      </c>
-      <c r="P267">
-        <v>3.75</v>
-      </c>
-      <c r="Q267">
-        <v>-0.5</v>
-      </c>
-      <c r="R267">
-        <v>1.925</v>
-      </c>
-      <c r="S267">
-        <v>1.925</v>
-      </c>
-      <c r="T267">
-        <v>2.5</v>
-      </c>
-      <c r="U267">
-        <v>2</v>
-      </c>
-      <c r="V267">
-        <v>1.85</v>
-      </c>
-      <c r="W267">
-        <v>0</v>
-      </c>
-      <c r="X267">
-        <v>0</v>
-      </c>
-      <c r="Y267">
-        <v>0</v>
-      </c>
-      <c r="Z267">
-        <v>0</v>
-      </c>
-      <c r="AA267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:29">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>7971194</v>
-      </c>
-      <c r="C268" t="s">
-        <v>28</v>
-      </c>
-      <c r="D268" t="s">
-        <v>28</v>
-      </c>
-      <c r="E268" s="2">
-        <v>45382.72916666666</v>
-      </c>
-      <c r="F268" t="s">
-        <v>47</v>
-      </c>
-      <c r="G268" t="s">
-        <v>29</v>
-      </c>
-      <c r="K268">
-        <v>4.333</v>
-      </c>
-      <c r="L268">
-        <v>3.6</v>
-      </c>
-      <c r="M268">
-        <v>1.8</v>
-      </c>
-      <c r="N268">
-        <v>4.2</v>
-      </c>
-      <c r="O268">
-        <v>3.4</v>
-      </c>
-      <c r="P268">
-        <v>1.909</v>
-      </c>
-      <c r="Q268">
-        <v>0.5</v>
-      </c>
-      <c r="R268">
-        <v>1.925</v>
-      </c>
-      <c r="S268">
-        <v>1.925</v>
-      </c>
-      <c r="T268">
-        <v>2.5</v>
-      </c>
-      <c r="U268">
-        <v>1.925</v>
-      </c>
-      <c r="V268">
-        <v>1.925</v>
-      </c>
-      <c r="W268">
-        <v>0</v>
-      </c>
-      <c r="X268">
-        <v>0</v>
-      </c>
-      <c r="Y268">
-        <v>0</v>
-      </c>
-      <c r="Z268">
-        <v>0</v>
-      </c>
-      <c r="AA268">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB266">
+        <v>0.875</v>
+      </c>
+      <c r="AC266">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC266"/>
+  <dimension ref="A1:AC271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
         <v>1.75</v>
       </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>1.571</v>
-      </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O176">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.825</v>
+      </c>
+      <c r="V176">
+        <v>1.975</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
         <v>3</v>
       </c>
-      <c r="U176">
-        <v>1.875</v>
-      </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
-      <c r="W176">
-        <v>0.25</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384622</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,76 +16577,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q181">
+        <v>-1</v>
+      </c>
+      <c r="R181">
+        <v>1.825</v>
+      </c>
+      <c r="S181">
+        <v>2.025</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
+        <v>1.875</v>
+      </c>
+      <c r="V181">
+        <v>1.975</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>5</v>
+      </c>
+      <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>1.025</v>
+      </c>
+      <c r="AB181">
+        <v>0.4375</v>
+      </c>
+      <c r="AC181">
         <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>1.925</v>
-      </c>
-      <c r="S181">
-        <v>1.875</v>
-      </c>
-      <c r="T181">
-        <v>3</v>
-      </c>
-      <c r="U181">
-        <v>1.925</v>
-      </c>
-      <c r="V181">
-        <v>1.875</v>
-      </c>
-      <c r="W181">
-        <v>0.833</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>0.925</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>0</v>
-      </c>
-      <c r="AC181">
-        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>2</v>
-      </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K182">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U182">
+        <v>1.925</v>
+      </c>
+      <c r="V182">
         <v>1.875</v>
       </c>
-      <c r="V182">
-        <v>1.975</v>
-      </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384628</v>
+        <v>7384625</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>52</v>
+      </c>
+      <c r="K183">
+        <v>1.5</v>
+      </c>
+      <c r="L183">
+        <v>3.75</v>
+      </c>
+      <c r="M183">
+        <v>7</v>
+      </c>
+      <c r="N183">
+        <v>1.363</v>
+      </c>
+      <c r="O183">
+        <v>4.333</v>
+      </c>
+      <c r="P183">
+        <v>9.5</v>
+      </c>
+      <c r="Q183">
+        <v>-1.25</v>
+      </c>
+      <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
+        <v>1.925</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.8</v>
+      </c>
+      <c r="V183">
+        <v>2</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>3.333</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
+        <v>0.925</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
         <v>1</v>
-      </c>
-      <c r="I183">
-        <v>2</v>
-      </c>
-      <c r="J183" t="s">
-        <v>53</v>
-      </c>
-      <c r="K183">
-        <v>2.75</v>
-      </c>
-      <c r="L183">
-        <v>3.3</v>
-      </c>
-      <c r="M183">
-        <v>2.375</v>
-      </c>
-      <c r="N183">
-        <v>3.3</v>
-      </c>
-      <c r="O183">
-        <v>3.6</v>
-      </c>
-      <c r="P183">
-        <v>2</v>
-      </c>
-      <c r="Q183">
-        <v>0.5</v>
-      </c>
-      <c r="R183">
-        <v>1.8</v>
-      </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
-      <c r="T183">
-        <v>2.75</v>
-      </c>
-      <c r="U183">
-        <v>1.975</v>
-      </c>
-      <c r="V183">
-        <v>1.875</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
-      <c r="Y183">
-        <v>1</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
-      <c r="AA183">
-        <v>1</v>
-      </c>
-      <c r="AB183">
-        <v>0.4875</v>
-      </c>
-      <c r="AC183">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384625</v>
+        <v>7384629</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>53</v>
+      </c>
+      <c r="K185">
+        <v>2.625</v>
+      </c>
+      <c r="L185">
+        <v>3.3</v>
+      </c>
+      <c r="M185">
+        <v>2.5</v>
+      </c>
+      <c r="N185">
+        <v>2.7</v>
+      </c>
+      <c r="O185">
+        <v>3.4</v>
+      </c>
+      <c r="P185">
+        <v>2.375</v>
+      </c>
+      <c r="Q185">
         <v>0</v>
       </c>
-      <c r="J185" t="s">
-        <v>52</v>
-      </c>
-      <c r="K185">
-        <v>1.5</v>
-      </c>
-      <c r="L185">
-        <v>3.75</v>
-      </c>
-      <c r="M185">
-        <v>7</v>
-      </c>
-      <c r="N185">
-        <v>1.363</v>
-      </c>
-      <c r="O185">
-        <v>4.333</v>
-      </c>
-      <c r="P185">
-        <v>9.5</v>
-      </c>
-      <c r="Q185">
-        <v>-1.25</v>
-      </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,40 +17022,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="L186">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M186">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q186">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
         <v>1.8</v>
@@ -17067,31 +17067,31 @@
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z186">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
+        <v>1</v>
+      </c>
+      <c r="AB186">
+        <v>0.4875</v>
+      </c>
+      <c r="AC186">
         <v>-0.5</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,13 +17111,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17126,43 +17126,43 @@
         <v>51</v>
       </c>
       <c r="K187">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L187">
         <v>5</v>
       </c>
       <c r="M187">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N187">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O187">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P187">
         <v>13</v>
       </c>
       <c r="Q187">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R187">
+        <v>1.8</v>
+      </c>
+      <c r="S187">
+        <v>2</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
         <v>1.85</v>
       </c>
-      <c r="S187">
+      <c r="V187">
         <v>1.95</v>
       </c>
-      <c r="T187">
-        <v>3.25</v>
-      </c>
-      <c r="U187">
-        <v>2</v>
-      </c>
-      <c r="V187">
-        <v>1.8</v>
-      </c>
       <c r="W187">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17171,16 +17171,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384629</v>
+        <v>7384626</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H188">
+        <v>3</v>
+      </c>
+      <c r="I188">
         <v>0</v>
       </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L188">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M188">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N188">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P188">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R188">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -24212,6 +24212,451 @@
       </c>
       <c r="AC266">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>7971190</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45381.78125</v>
+      </c>
+      <c r="F267" t="s">
+        <v>41</v>
+      </c>
+      <c r="G267" t="s">
+        <v>38</v>
+      </c>
+      <c r="H267">
+        <v>2</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267" t="s">
+        <v>51</v>
+      </c>
+      <c r="K267">
+        <v>1.8</v>
+      </c>
+      <c r="L267">
+        <v>3.6</v>
+      </c>
+      <c r="M267">
+        <v>4.333</v>
+      </c>
+      <c r="N267">
+        <v>1.444</v>
+      </c>
+      <c r="O267">
+        <v>4.75</v>
+      </c>
+      <c r="P267">
+        <v>7</v>
+      </c>
+      <c r="Q267">
+        <v>-1.25</v>
+      </c>
+      <c r="R267">
+        <v>1.975</v>
+      </c>
+      <c r="S267">
+        <v>1.825</v>
+      </c>
+      <c r="T267">
+        <v>2.75</v>
+      </c>
+      <c r="U267">
+        <v>1.975</v>
+      </c>
+      <c r="V267">
+        <v>1.825</v>
+      </c>
+      <c r="W267">
+        <v>0.444</v>
+      </c>
+      <c r="X267">
+        <v>-1</v>
+      </c>
+      <c r="Y267">
+        <v>-1</v>
+      </c>
+      <c r="Z267">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA267">
+        <v>-1</v>
+      </c>
+      <c r="AB267">
+        <v>-1</v>
+      </c>
+      <c r="AC267">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>7971191</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45381.91666666666</v>
+      </c>
+      <c r="F268" t="s">
+        <v>37</v>
+      </c>
+      <c r="G268" t="s">
+        <v>31</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268" t="s">
+        <v>52</v>
+      </c>
+      <c r="K268">
+        <v>3.75</v>
+      </c>
+      <c r="L268">
+        <v>3.4</v>
+      </c>
+      <c r="M268">
+        <v>1.95</v>
+      </c>
+      <c r="N268">
+        <v>2.9</v>
+      </c>
+      <c r="O268">
+        <v>3.2</v>
+      </c>
+      <c r="P268">
+        <v>2.375</v>
+      </c>
+      <c r="Q268">
+        <v>0.25</v>
+      </c>
+      <c r="R268">
+        <v>1.75</v>
+      </c>
+      <c r="S268">
+        <v>2.05</v>
+      </c>
+      <c r="T268">
+        <v>2.25</v>
+      </c>
+      <c r="U268">
+        <v>1.95</v>
+      </c>
+      <c r="V268">
+        <v>1.85</v>
+      </c>
+      <c r="W268">
+        <v>-1</v>
+      </c>
+      <c r="X268">
+        <v>2.2</v>
+      </c>
+      <c r="Y268">
+        <v>-1</v>
+      </c>
+      <c r="Z268">
+        <v>0.375</v>
+      </c>
+      <c r="AA268">
+        <v>-0.5</v>
+      </c>
+      <c r="AB268">
+        <v>-1</v>
+      </c>
+      <c r="AC268">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>7971192</v>
+      </c>
+      <c r="C269" t="s">
+        <v>28</v>
+      </c>
+      <c r="D269" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45382.625</v>
+      </c>
+      <c r="F269" t="s">
+        <v>46</v>
+      </c>
+      <c r="G269" t="s">
+        <v>30</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>2</v>
+      </c>
+      <c r="J269" t="s">
+        <v>53</v>
+      </c>
+      <c r="K269">
+        <v>1.8</v>
+      </c>
+      <c r="L269">
+        <v>3.75</v>
+      </c>
+      <c r="M269">
+        <v>4</v>
+      </c>
+      <c r="N269">
+        <v>2.15</v>
+      </c>
+      <c r="O269">
+        <v>3.5</v>
+      </c>
+      <c r="P269">
+        <v>3.25</v>
+      </c>
+      <c r="Q269">
+        <v>-0.25</v>
+      </c>
+      <c r="R269">
+        <v>1.925</v>
+      </c>
+      <c r="S269">
+        <v>1.925</v>
+      </c>
+      <c r="T269">
+        <v>2.5</v>
+      </c>
+      <c r="U269">
+        <v>2</v>
+      </c>
+      <c r="V269">
+        <v>1.85</v>
+      </c>
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
+        <v>-1</v>
+      </c>
+      <c r="Y269">
+        <v>2.25</v>
+      </c>
+      <c r="Z269">
+        <v>-1</v>
+      </c>
+      <c r="AA269">
+        <v>0.925</v>
+      </c>
+      <c r="AB269">
+        <v>-1</v>
+      </c>
+      <c r="AC269">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>7971193</v>
+      </c>
+      <c r="C270" t="s">
+        <v>28</v>
+      </c>
+      <c r="D270" t="s">
+        <v>28</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45382.70833333334</v>
+      </c>
+      <c r="F270" t="s">
+        <v>36</v>
+      </c>
+      <c r="G270" t="s">
+        <v>44</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270" t="s">
+        <v>52</v>
+      </c>
+      <c r="K270">
+        <v>1.615</v>
+      </c>
+      <c r="L270">
+        <v>4</v>
+      </c>
+      <c r="M270">
+        <v>5</v>
+      </c>
+      <c r="N270">
+        <v>1.7</v>
+      </c>
+      <c r="O270">
+        <v>4</v>
+      </c>
+      <c r="P270">
+        <v>4.5</v>
+      </c>
+      <c r="Q270">
+        <v>-0.75</v>
+      </c>
+      <c r="R270">
+        <v>1.95</v>
+      </c>
+      <c r="S270">
+        <v>1.85</v>
+      </c>
+      <c r="T270">
+        <v>2.25</v>
+      </c>
+      <c r="U270">
+        <v>1.8</v>
+      </c>
+      <c r="V270">
+        <v>2</v>
+      </c>
+      <c r="W270">
+        <v>-1</v>
+      </c>
+      <c r="X270">
+        <v>3</v>
+      </c>
+      <c r="Y270">
+        <v>-1</v>
+      </c>
+      <c r="Z270">
+        <v>-1</v>
+      </c>
+      <c r="AA270">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB270">
+        <v>-1</v>
+      </c>
+      <c r="AC270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>7971194</v>
+      </c>
+      <c r="C271" t="s">
+        <v>28</v>
+      </c>
+      <c r="D271" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45382.72916666666</v>
+      </c>
+      <c r="F271" t="s">
+        <v>47</v>
+      </c>
+      <c r="G271" t="s">
+        <v>29</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>53</v>
+      </c>
+      <c r="K271">
+        <v>4.333</v>
+      </c>
+      <c r="L271">
+        <v>3.6</v>
+      </c>
+      <c r="M271">
+        <v>1.8</v>
+      </c>
+      <c r="N271">
+        <v>4.75</v>
+      </c>
+      <c r="O271">
+        <v>3.8</v>
+      </c>
+      <c r="P271">
+        <v>1.7</v>
+      </c>
+      <c r="Q271">
+        <v>0.75</v>
+      </c>
+      <c r="R271">
+        <v>1.925</v>
+      </c>
+      <c r="S271">
+        <v>1.875</v>
+      </c>
+      <c r="T271">
+        <v>2.75</v>
+      </c>
+      <c r="U271">
+        <v>1.8</v>
+      </c>
+      <c r="V271">
+        <v>2</v>
+      </c>
+      <c r="W271">
+        <v>-1</v>
+      </c>
+      <c r="X271">
+        <v>-1</v>
+      </c>
+      <c r="Y271">
+        <v>0.7</v>
+      </c>
+      <c r="Z271">
+        <v>-0.5</v>
+      </c>
+      <c r="AA271">
+        <v>0.4375</v>
+      </c>
+      <c r="AB271">
+        <v>0.4</v>
+      </c>
+      <c r="AC271">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
+        <v>2.1</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
         <v>1.75</v>
       </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.571</v>
-      </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L175">
+        <v>3.2</v>
+      </c>
+      <c r="M175">
         <v>3.75</v>
       </c>
-      <c r="M175">
+      <c r="N175">
+        <v>1.75</v>
+      </c>
+      <c r="O175">
+        <v>3.4</v>
+      </c>
+      <c r="P175">
         <v>4.333</v>
       </c>
-      <c r="N175">
-        <v>1.25</v>
-      </c>
-      <c r="O175">
-        <v>5.25</v>
-      </c>
-      <c r="P175">
-        <v>10</v>
-      </c>
       <c r="Q175">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,58 +16221,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16281,16 +16281,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,13 +16488,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16512,34 +16512,34 @@
         <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,16 +16548,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,13 +16666,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -16690,34 +16690,34 @@
         <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16726,16 +16726,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384625</v>
+        <v>7384630</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K183">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N183">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,10 +16844,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16859,40 +16859,40 @@
         <v>53</v>
       </c>
       <c r="K184">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L184">
+        <v>3.3</v>
+      </c>
+      <c r="M184">
+        <v>2.5</v>
+      </c>
+      <c r="N184">
+        <v>2.7</v>
+      </c>
+      <c r="O184">
         <v>3.4</v>
       </c>
-      <c r="M184">
-        <v>2.15</v>
-      </c>
-      <c r="N184">
-        <v>1.75</v>
-      </c>
-      <c r="O184">
-        <v>3.6</v>
-      </c>
       <c r="P184">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T184">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16901,19 +16901,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384629</v>
+        <v>7384628</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,55 +16933,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
         <v>53</v>
       </c>
       <c r="K185">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L185">
         <v>3.3</v>
       </c>
       <c r="M185">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N185">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16990,19 +16990,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384628</v>
+        <v>7384625</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186" t="s">
+        <v>52</v>
+      </c>
+      <c r="K186">
+        <v>1.5</v>
+      </c>
+      <c r="L186">
+        <v>3.75</v>
+      </c>
+      <c r="M186">
+        <v>7</v>
+      </c>
+      <c r="N186">
+        <v>1.363</v>
+      </c>
+      <c r="O186">
+        <v>4.333</v>
+      </c>
+      <c r="P186">
+        <v>9.5</v>
+      </c>
+      <c r="Q186">
+        <v>-1.25</v>
+      </c>
+      <c r="R186">
+        <v>1.875</v>
+      </c>
+      <c r="S186">
+        <v>1.925</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.8</v>
+      </c>
+      <c r="V186">
+        <v>2</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>3.333</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>-1</v>
+      </c>
+      <c r="AA186">
+        <v>0.925</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
         <v>1</v>
-      </c>
-      <c r="I186">
-        <v>2</v>
-      </c>
-      <c r="J186" t="s">
-        <v>53</v>
-      </c>
-      <c r="K186">
-        <v>2.75</v>
-      </c>
-      <c r="L186">
-        <v>3.3</v>
-      </c>
-      <c r="M186">
-        <v>2.375</v>
-      </c>
-      <c r="N186">
-        <v>3.3</v>
-      </c>
-      <c r="O186">
-        <v>3.6</v>
-      </c>
-      <c r="P186">
-        <v>2</v>
-      </c>
-      <c r="Q186">
-        <v>0.5</v>
-      </c>
-      <c r="R186">
-        <v>1.8</v>
-      </c>
-      <c r="S186">
-        <v>2</v>
-      </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>1.975</v>
-      </c>
-      <c r="V186">
-        <v>1.875</v>
-      </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
-      <c r="Y186">
-        <v>1</v>
-      </c>
-      <c r="Z186">
-        <v>-1</v>
-      </c>
-      <c r="AA186">
-        <v>1</v>
-      </c>
-      <c r="AB186">
-        <v>0.4875</v>
-      </c>
-      <c r="AC186">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K252">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L252">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M252">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N252">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O252">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P252">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q252">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X252">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G253" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K253">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L253">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M253">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N253">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O253">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P253">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R253">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC253">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC271"/>
+  <dimension ref="A1:AC272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K252">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L252">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M252">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N252">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O252">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P252">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R252">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U252">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K253">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L253">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M253">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N253">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O253">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P253">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q253">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T253">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X253">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA253">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -24657,6 +24657,80 @@
       </c>
       <c r="AC271">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>8011506</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45387.9375</v>
+      </c>
+      <c r="F272" t="s">
+        <v>31</v>
+      </c>
+      <c r="G272" t="s">
+        <v>44</v>
+      </c>
+      <c r="K272">
+        <v>1.2</v>
+      </c>
+      <c r="L272">
+        <v>6</v>
+      </c>
+      <c r="M272">
+        <v>12</v>
+      </c>
+      <c r="N272">
+        <v>1.25</v>
+      </c>
+      <c r="O272">
+        <v>5.75</v>
+      </c>
+      <c r="P272">
+        <v>9</v>
+      </c>
+      <c r="Q272">
+        <v>-1.75</v>
+      </c>
+      <c r="R272">
+        <v>1.95</v>
+      </c>
+      <c r="S272">
+        <v>1.9</v>
+      </c>
+      <c r="T272">
+        <v>2.75</v>
+      </c>
+      <c r="U272">
+        <v>1.975</v>
+      </c>
+      <c r="V272">
+        <v>1.875</v>
+      </c>
+      <c r="W272">
+        <v>0</v>
+      </c>
+      <c r="X272">
+        <v>0</v>
+      </c>
+      <c r="Y272">
+        <v>0</v>
+      </c>
+      <c r="Z272">
+        <v>0</v>
+      </c>
+      <c r="AA272">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC272"/>
+  <dimension ref="A1:AC275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384623</v>
+        <v>7384622</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N180">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>2.025</v>
+      </c>
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
+        <v>1.875</v>
+      </c>
+      <c r="V180">
+        <v>1.975</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>5</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>1.025</v>
+      </c>
+      <c r="AB180">
+        <v>0.4375</v>
+      </c>
+      <c r="AC180">
         <v>-0.5</v>
-      </c>
-      <c r="R180">
-        <v>1.925</v>
-      </c>
-      <c r="S180">
-        <v>1.875</v>
-      </c>
-      <c r="T180">
-        <v>3</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.875</v>
-      </c>
-      <c r="W180">
-        <v>0.833</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>0.925</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>0</v>
-      </c>
-      <c r="AC180">
-        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,76 +16577,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>1</v>
       </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
         <v>1.875</v>
       </c>
-      <c r="V181">
-        <v>1.975</v>
-      </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,55 +16755,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M183">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O183">
         <v>3.6</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16812,19 +16812,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384629</v>
+        <v>7384627</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="N184">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P184">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R184">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA184">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384628</v>
+        <v>7384626</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K185">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M185">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N185">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P185">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R185">
+        <v>1.85</v>
+      </c>
+      <c r="S185">
+        <v>1.95</v>
+      </c>
+      <c r="T185">
+        <v>3.25</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2</v>
-      </c>
-      <c r="T185">
-        <v>2.75</v>
-      </c>
-      <c r="U185">
-        <v>1.975</v>
-      </c>
-      <c r="V185">
-        <v>1.875</v>
-      </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384625</v>
+        <v>7384630</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N186">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q186">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U186">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384627</v>
+        <v>7384629</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K187">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M187">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="N187">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="Q187">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z187">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384626</v>
+        <v>7384625</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K188">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L188">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N188">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O188">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q188">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -24664,7 +24664,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>8011506</v>
+        <v>8011505</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24673,63 +24673,300 @@
         <v>28</v>
       </c>
       <c r="E272" s="2">
-        <v>45387.9375</v>
+        <v>45387.6875</v>
       </c>
       <c r="F272" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G272" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272" t="s">
+        <v>52</v>
       </c>
       <c r="K272">
-        <v>1.2</v>
+        <v>1.533</v>
       </c>
       <c r="L272">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M272">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="N272">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="O272">
+        <v>3.8</v>
+      </c>
+      <c r="P272">
         <v>5.75</v>
       </c>
-      <c r="P272">
-        <v>9</v>
-      </c>
       <c r="Q272">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R272">
+        <v>1.925</v>
+      </c>
+      <c r="S272">
+        <v>1.875</v>
+      </c>
+      <c r="T272">
+        <v>2.5</v>
+      </c>
+      <c r="U272">
         <v>1.95</v>
       </c>
-      <c r="S272">
-        <v>1.9</v>
-      </c>
-      <c r="T272">
-        <v>2.75</v>
-      </c>
-      <c r="U272">
+      <c r="V272">
+        <v>1.85</v>
+      </c>
+      <c r="W272">
+        <v>-1</v>
+      </c>
+      <c r="X272">
+        <v>2.8</v>
+      </c>
+      <c r="Y272">
+        <v>-1</v>
+      </c>
+      <c r="Z272">
+        <v>-1</v>
+      </c>
+      <c r="AA272">
+        <v>0.875</v>
+      </c>
+      <c r="AB272">
+        <v>-1</v>
+      </c>
+      <c r="AC272">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>8011507</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45388.625</v>
+      </c>
+      <c r="F273" t="s">
+        <v>48</v>
+      </c>
+      <c r="G273" t="s">
+        <v>41</v>
+      </c>
+      <c r="K273">
+        <v>3</v>
+      </c>
+      <c r="L273">
+        <v>3.2</v>
+      </c>
+      <c r="M273">
+        <v>2.3</v>
+      </c>
+      <c r="N273">
+        <v>3.5</v>
+      </c>
+      <c r="O273">
+        <v>3.2</v>
+      </c>
+      <c r="P273">
+        <v>2.05</v>
+      </c>
+      <c r="Q273">
+        <v>0.25</v>
+      </c>
+      <c r="R273">
+        <v>2.05</v>
+      </c>
+      <c r="S273">
+        <v>1.8</v>
+      </c>
+      <c r="T273">
+        <v>2.5</v>
+      </c>
+      <c r="U273">
+        <v>1.925</v>
+      </c>
+      <c r="V273">
+        <v>1.925</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
+      <c r="AA273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>8011508</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45388.72916666666</v>
+      </c>
+      <c r="F274" t="s">
+        <v>49</v>
+      </c>
+      <c r="G274" t="s">
+        <v>37</v>
+      </c>
+      <c r="K274">
+        <v>2.2</v>
+      </c>
+      <c r="L274">
+        <v>3.3</v>
+      </c>
+      <c r="M274">
+        <v>3.1</v>
+      </c>
+      <c r="N274">
+        <v>2.55</v>
+      </c>
+      <c r="O274">
+        <v>3.3</v>
+      </c>
+      <c r="P274">
+        <v>2.4</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274">
+        <v>2</v>
+      </c>
+      <c r="S274">
+        <v>1.85</v>
+      </c>
+      <c r="T274">
+        <v>2.5</v>
+      </c>
+      <c r="U274">
+        <v>2.05</v>
+      </c>
+      <c r="V274">
+        <v>1.8</v>
+      </c>
+      <c r="W274">
+        <v>0</v>
+      </c>
+      <c r="X274">
+        <v>0</v>
+      </c>
+      <c r="Y274">
+        <v>0</v>
+      </c>
+      <c r="Z274">
+        <v>0</v>
+      </c>
+      <c r="AA274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>8012287</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45388.8125</v>
+      </c>
+      <c r="F275" t="s">
+        <v>42</v>
+      </c>
+      <c r="G275" t="s">
+        <v>43</v>
+      </c>
+      <c r="K275">
+        <v>3.5</v>
+      </c>
+      <c r="L275">
+        <v>3.4</v>
+      </c>
+      <c r="M275">
+        <v>2</v>
+      </c>
+      <c r="N275">
+        <v>4</v>
+      </c>
+      <c r="O275">
+        <v>3.4</v>
+      </c>
+      <c r="P275">
+        <v>1.75</v>
+      </c>
+      <c r="Q275">
+        <v>0.5</v>
+      </c>
+      <c r="R275">
+        <v>2.05</v>
+      </c>
+      <c r="S275">
+        <v>1.8</v>
+      </c>
+      <c r="T275">
+        <v>2.5</v>
+      </c>
+      <c r="U275">
+        <v>1.875</v>
+      </c>
+      <c r="V275">
         <v>1.975</v>
       </c>
-      <c r="V272">
-        <v>1.875</v>
-      </c>
-      <c r="W272">
-        <v>0</v>
-      </c>
-      <c r="X272">
-        <v>0</v>
-      </c>
-      <c r="Y272">
-        <v>0</v>
-      </c>
-      <c r="Z272">
-        <v>0</v>
-      </c>
-      <c r="AA272">
+      <c r="W275">
+        <v>0</v>
+      </c>
+      <c r="X275">
+        <v>0</v>
+      </c>
+      <c r="Y275">
+        <v>0</v>
+      </c>
+      <c r="Z275">
+        <v>0</v>
+      </c>
+      <c r="AA275">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC275"/>
+  <dimension ref="A1:AC276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,58 +16221,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L177">
+        <v>3.2</v>
+      </c>
+      <c r="M177">
         <v>3.75</v>
       </c>
-      <c r="M177">
+      <c r="N177">
+        <v>1.75</v>
+      </c>
+      <c r="O177">
+        <v>3.4</v>
+      </c>
+      <c r="P177">
         <v>4.333</v>
       </c>
-      <c r="N177">
-        <v>1.25</v>
-      </c>
-      <c r="O177">
-        <v>5.25</v>
-      </c>
-      <c r="P177">
-        <v>10</v>
-      </c>
       <c r="Q177">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16281,16 +16281,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,10 +17022,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17037,40 +17037,40 @@
         <v>53</v>
       </c>
       <c r="K186">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>2.5</v>
+      </c>
+      <c r="N186">
+        <v>2.7</v>
+      </c>
+      <c r="O186">
         <v>3.4</v>
       </c>
-      <c r="M186">
-        <v>2.15</v>
-      </c>
-      <c r="N186">
-        <v>1.75</v>
-      </c>
-      <c r="O186">
-        <v>3.6</v>
-      </c>
       <c r="P186">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17079,19 +17079,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384629</v>
+        <v>7384625</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187" t="s">
+        <v>52</v>
+      </c>
+      <c r="K187">
+        <v>1.5</v>
+      </c>
+      <c r="L187">
+        <v>3.75</v>
+      </c>
+      <c r="M187">
+        <v>7</v>
+      </c>
+      <c r="N187">
+        <v>1.363</v>
+      </c>
+      <c r="O187">
+        <v>4.333</v>
+      </c>
+      <c r="P187">
+        <v>9.5</v>
+      </c>
+      <c r="Q187">
+        <v>-1.25</v>
+      </c>
+      <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>1.925</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
+        <v>1.8</v>
+      </c>
+      <c r="V187">
+        <v>2</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>3.333</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>-1</v>
+      </c>
+      <c r="AA187">
+        <v>0.925</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>1</v>
-      </c>
-      <c r="J187" t="s">
-        <v>53</v>
-      </c>
-      <c r="K187">
-        <v>2.625</v>
-      </c>
-      <c r="L187">
-        <v>3.3</v>
-      </c>
-      <c r="M187">
-        <v>2.5</v>
-      </c>
-      <c r="N187">
-        <v>2.7</v>
-      </c>
-      <c r="O187">
-        <v>3.4</v>
-      </c>
-      <c r="P187">
-        <v>2.375</v>
-      </c>
-      <c r="Q187">
-        <v>0</v>
-      </c>
-      <c r="R187">
-        <v>2.025</v>
-      </c>
-      <c r="S187">
-        <v>1.775</v>
-      </c>
-      <c r="T187">
-        <v>2.25</v>
-      </c>
-      <c r="U187">
-        <v>1.825</v>
-      </c>
-      <c r="V187">
-        <v>1.975</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>1.375</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384625</v>
+        <v>7384630</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K188">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N188">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -24801,10 +24801,10 @@
         <v>2.5</v>
       </c>
       <c r="U273">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V273">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W273">
         <v>0</v>
@@ -24854,22 +24854,22 @@
         <v>3.1</v>
       </c>
       <c r="N274">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O274">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P274">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q274">
         <v>0</v>
       </c>
       <c r="R274">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S274">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T274">
         <v>2.5</v>
@@ -24928,31 +24928,31 @@
         <v>2</v>
       </c>
       <c r="N275">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O275">
         <v>3.4</v>
       </c>
       <c r="P275">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q275">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R275">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S275">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T275">
         <v>2.5</v>
       </c>
       <c r="U275">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V275">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W275">
         <v>0</v>
@@ -24967,6 +24967,80 @@
         <v>0</v>
       </c>
       <c r="AA275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>8011511</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45389.72916666666</v>
+      </c>
+      <c r="F276" t="s">
+        <v>29</v>
+      </c>
+      <c r="G276" t="s">
+        <v>46</v>
+      </c>
+      <c r="K276">
+        <v>1.333</v>
+      </c>
+      <c r="L276">
+        <v>4.5</v>
+      </c>
+      <c r="M276">
+        <v>9</v>
+      </c>
+      <c r="N276">
+        <v>1.4</v>
+      </c>
+      <c r="O276">
+        <v>4.333</v>
+      </c>
+      <c r="P276">
+        <v>7</v>
+      </c>
+      <c r="Q276">
+        <v>-1.25</v>
+      </c>
+      <c r="R276">
+        <v>1.9</v>
+      </c>
+      <c r="S276">
+        <v>1.95</v>
+      </c>
+      <c r="T276">
+        <v>3</v>
+      </c>
+      <c r="U276">
+        <v>2.025</v>
+      </c>
+      <c r="V276">
+        <v>1.825</v>
+      </c>
+      <c r="W276">
+        <v>0</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <v>0</v>
+      </c>
+      <c r="Z276">
+        <v>0</v>
+      </c>
+      <c r="AA276">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC276"/>
+  <dimension ref="A1:AC280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
         <v>1.75</v>
       </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>1.571</v>
-      </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P156">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
         <v>6.5</v>
       </c>
-      <c r="P157">
-        <v>12</v>
-      </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L175">
+        <v>3.2</v>
+      </c>
+      <c r="M175">
         <v>3.75</v>
       </c>
-      <c r="M175">
+      <c r="N175">
+        <v>1.75</v>
+      </c>
+      <c r="O175">
+        <v>3.4</v>
+      </c>
+      <c r="P175">
         <v>4.333</v>
       </c>
-      <c r="N175">
-        <v>1.25</v>
-      </c>
-      <c r="O175">
-        <v>5.25</v>
-      </c>
-      <c r="P175">
-        <v>10</v>
-      </c>
       <c r="Q175">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,58 +16221,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16281,16 +16281,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
         <v>1</v>
       </c>
-      <c r="I180">
-        <v>2</v>
-      </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U180">
+        <v>1.925</v>
+      </c>
+      <c r="V180">
         <v>1.875</v>
       </c>
-      <c r="V180">
-        <v>1.975</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384622</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,76 +16577,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q181">
+        <v>-1</v>
+      </c>
+      <c r="R181">
+        <v>1.825</v>
+      </c>
+      <c r="S181">
+        <v>2.025</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
+        <v>1.875</v>
+      </c>
+      <c r="V181">
+        <v>1.975</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>5</v>
+      </c>
+      <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>1.025</v>
+      </c>
+      <c r="AB181">
+        <v>0.4375</v>
+      </c>
+      <c r="AC181">
         <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>1.925</v>
-      </c>
-      <c r="S181">
-        <v>1.875</v>
-      </c>
-      <c r="T181">
-        <v>3</v>
-      </c>
-      <c r="U181">
-        <v>1.925</v>
-      </c>
-      <c r="V181">
-        <v>1.875</v>
-      </c>
-      <c r="W181">
-        <v>0.833</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>0.925</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>0</v>
-      </c>
-      <c r="AC181">
-        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384628</v>
+        <v>7384626</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L183">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N183">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P183">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q183">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R183">
+        <v>1.85</v>
+      </c>
+      <c r="S183">
+        <v>1.95</v>
+      </c>
+      <c r="T183">
+        <v>3.25</v>
+      </c>
+      <c r="U183">
+        <v>2</v>
+      </c>
+      <c r="V183">
         <v>1.8</v>
       </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
-      <c r="T183">
-        <v>2.75</v>
-      </c>
-      <c r="U183">
-        <v>1.975</v>
-      </c>
-      <c r="V183">
-        <v>1.875</v>
-      </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384627</v>
+        <v>7384625</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K184">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M184">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N184">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="O184">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q184">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384626</v>
+        <v>7384630</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>53</v>
+      </c>
+      <c r="K185">
+        <v>2.8</v>
+      </c>
+      <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
+        <v>2.15</v>
+      </c>
+      <c r="N185">
+        <v>1.75</v>
+      </c>
+      <c r="O185">
+        <v>3.6</v>
+      </c>
+      <c r="P185">
+        <v>3.8</v>
+      </c>
+      <c r="Q185">
+        <v>-0.75</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>1.8</v>
+      </c>
+      <c r="T185">
         <v>3</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185" t="s">
-        <v>51</v>
-      </c>
-      <c r="K185">
-        <v>1.3</v>
-      </c>
-      <c r="L185">
-        <v>5</v>
-      </c>
-      <c r="M185">
-        <v>9</v>
-      </c>
-      <c r="N185">
-        <v>1.166</v>
-      </c>
-      <c r="O185">
-        <v>6.5</v>
-      </c>
-      <c r="P185">
-        <v>13</v>
-      </c>
-      <c r="Q185">
-        <v>-2</v>
-      </c>
-      <c r="R185">
+      <c r="U185">
         <v>1.85</v>
       </c>
-      <c r="S185">
+      <c r="V185">
         <v>1.95</v>
       </c>
-      <c r="T185">
-        <v>3.25</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
-      <c r="V185">
-        <v>1.8</v>
-      </c>
       <c r="W185">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384629</v>
+        <v>7384627</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
         <v>0</v>
       </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M186">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="N186">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384625</v>
+        <v>7384629</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>53</v>
+      </c>
+      <c r="K187">
+        <v>2.625</v>
+      </c>
+      <c r="L187">
+        <v>3.3</v>
+      </c>
+      <c r="M187">
+        <v>2.5</v>
+      </c>
+      <c r="N187">
+        <v>2.7</v>
+      </c>
+      <c r="O187">
+        <v>3.4</v>
+      </c>
+      <c r="P187">
+        <v>2.375</v>
+      </c>
+      <c r="Q187">
         <v>0</v>
       </c>
-      <c r="J187" t="s">
-        <v>52</v>
-      </c>
-      <c r="K187">
-        <v>1.5</v>
-      </c>
-      <c r="L187">
-        <v>3.75</v>
-      </c>
-      <c r="M187">
-        <v>7</v>
-      </c>
-      <c r="N187">
-        <v>1.363</v>
-      </c>
-      <c r="O187">
-        <v>4.333</v>
-      </c>
-      <c r="P187">
-        <v>9.5</v>
-      </c>
-      <c r="Q187">
-        <v>-1.25</v>
-      </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,55 +17200,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>53</v>
       </c>
       <c r="K188">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M188">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N188">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O188">
         <v>3.6</v>
       </c>
       <c r="P188">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17257,19 +17257,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K228">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N228">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
+        <v>3.3</v>
+      </c>
+      <c r="L229">
+        <v>3.3</v>
+      </c>
+      <c r="M229">
+        <v>2.1</v>
+      </c>
+      <c r="N229">
+        <v>4.5</v>
+      </c>
+      <c r="O229">
+        <v>3.2</v>
+      </c>
+      <c r="P229">
+        <v>1.95</v>
+      </c>
+      <c r="Q229">
+        <v>0.5</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>1.85</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
+        <v>1.775</v>
+      </c>
+      <c r="V229">
+        <v>2.1</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
         <v>2.2</v>
       </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
-      <c r="M229">
-        <v>3.2</v>
-      </c>
-      <c r="N229">
-        <v>1.6</v>
-      </c>
-      <c r="O229">
-        <v>3.75</v>
-      </c>
-      <c r="P229">
-        <v>5.75</v>
-      </c>
-      <c r="Q229">
-        <v>-0.75</v>
-      </c>
-      <c r="R229">
-        <v>1.85</v>
-      </c>
-      <c r="S229">
-        <v>2</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>1.975</v>
-      </c>
-      <c r="V229">
-        <v>1.875</v>
-      </c>
-      <c r="W229">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -24748,12 +24748,12 @@
         <v>0.8500000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:27">
+    <row r="273" spans="1:29">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273">
-        <v>8011507</v>
+        <v>8011506</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24762,72 +24762,87 @@
         <v>28</v>
       </c>
       <c r="E273" s="2">
-        <v>45388.625</v>
+        <v>45387.9375</v>
       </c>
       <c r="F273" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G273" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273" t="s">
+        <v>51</v>
       </c>
       <c r="K273">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L273">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M273">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="N273">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="O273">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P273">
-        <v>2.05</v>
+        <v>9</v>
       </c>
       <c r="Q273">
+        <v>-1.75</v>
+      </c>
+      <c r="R273">
+        <v>2.025</v>
+      </c>
+      <c r="S273">
+        <v>1.825</v>
+      </c>
+      <c r="T273">
+        <v>2.75</v>
+      </c>
+      <c r="U273">
+        <v>2.025</v>
+      </c>
+      <c r="V273">
+        <v>1.825</v>
+      </c>
+      <c r="W273">
         <v>0.25</v>
       </c>
-      <c r="R273">
-        <v>2.05</v>
-      </c>
-      <c r="S273">
-        <v>1.8</v>
-      </c>
-      <c r="T273">
-        <v>2.5</v>
-      </c>
-      <c r="U273">
-        <v>1.95</v>
-      </c>
-      <c r="V273">
-        <v>1.9</v>
-      </c>
-      <c r="W273">
-        <v>0</v>
-      </c>
       <c r="X273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB273">
+        <v>-1</v>
+      </c>
+      <c r="AC273">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274">
-        <v>8011508</v>
+        <v>8011507</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24836,72 +24851,87 @@
         <v>28</v>
       </c>
       <c r="E274" s="2">
-        <v>45388.72916666666</v>
+        <v>45388.625</v>
       </c>
       <c r="F274" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G274" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H274">
+        <v>2</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274" t="s">
+        <v>52</v>
       </c>
       <c r="K274">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L274">
+        <v>3.2</v>
+      </c>
+      <c r="M274">
+        <v>2.3</v>
+      </c>
+      <c r="N274">
         <v>3.3</v>
       </c>
-      <c r="M274">
-        <v>3.1</v>
-      </c>
-      <c r="N274">
-        <v>2.6</v>
-      </c>
       <c r="O274">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P274">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q274">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R274">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S274">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T274">
         <v>2.5</v>
       </c>
       <c r="U274">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V274">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W274">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X274">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y274">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB274">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC274">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275">
-        <v>8012287</v>
+        <v>8011508</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24910,72 +24940,87 @@
         <v>28</v>
       </c>
       <c r="E275" s="2">
-        <v>45388.8125</v>
+        <v>45388.72916666666</v>
       </c>
       <c r="F275" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G275" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+      <c r="J275" t="s">
+        <v>52</v>
       </c>
       <c r="K275">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L275">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M275">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N275">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O275">
         <v>3.4</v>
       </c>
       <c r="P275">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="Q275">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R275">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S275">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T275">
         <v>2.5</v>
       </c>
       <c r="U275">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V275">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X275">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB275">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC275">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276">
-        <v>8011511</v>
+        <v>8012287</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -24984,63 +25029,419 @@
         <v>28</v>
       </c>
       <c r="E276" s="2">
-        <v>45389.72916666666</v>
+        <v>45388.8125</v>
       </c>
       <c r="F276" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G276" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>4</v>
+      </c>
+      <c r="J276" t="s">
+        <v>53</v>
       </c>
       <c r="K276">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="L276">
+        <v>3.4</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
         <v>4.5</v>
       </c>
-      <c r="M276">
-        <v>9</v>
-      </c>
-      <c r="N276">
-        <v>1.4</v>
-      </c>
       <c r="O276">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P276">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="Q276">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S276">
         <v>1.95</v>
       </c>
       <c r="T276">
+        <v>2.25</v>
+      </c>
+      <c r="U276">
+        <v>1.775</v>
+      </c>
+      <c r="V276">
+        <v>2.025</v>
+      </c>
+      <c r="W276">
+        <v>-1</v>
+      </c>
+      <c r="X276">
+        <v>-1</v>
+      </c>
+      <c r="Y276">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z276">
+        <v>-1</v>
+      </c>
+      <c r="AA276">
+        <v>0.95</v>
+      </c>
+      <c r="AB276">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC276">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>8011509</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F277" t="s">
+        <v>38</v>
+      </c>
+      <c r="G277" t="s">
+        <v>47</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
+        <v>52</v>
+      </c>
+      <c r="K277">
+        <v>1.4</v>
+      </c>
+      <c r="L277">
+        <v>4.333</v>
+      </c>
+      <c r="M277">
+        <v>7</v>
+      </c>
+      <c r="N277">
+        <v>1.4</v>
+      </c>
+      <c r="O277">
+        <v>4</v>
+      </c>
+      <c r="P277">
+        <v>7.5</v>
+      </c>
+      <c r="Q277">
+        <v>-1.25</v>
+      </c>
+      <c r="R277">
+        <v>2.025</v>
+      </c>
+      <c r="S277">
+        <v>1.775</v>
+      </c>
+      <c r="T277">
+        <v>2.5</v>
+      </c>
+      <c r="U277">
+        <v>1.9</v>
+      </c>
+      <c r="V277">
+        <v>1.9</v>
+      </c>
+      <c r="W277">
+        <v>-1</v>
+      </c>
+      <c r="X277">
         <v>3</v>
       </c>
-      <c r="U276">
-        <v>2.025</v>
-      </c>
-      <c r="V276">
-        <v>1.825</v>
-      </c>
-      <c r="W276">
+      <c r="Y277">
+        <v>-1</v>
+      </c>
+      <c r="Z277">
+        <v>-1</v>
+      </c>
+      <c r="AA277">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB277">
+        <v>-1</v>
+      </c>
+      <c r="AC277">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>8011510</v>
+      </c>
+      <c r="C278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45389.625</v>
+      </c>
+      <c r="F278" t="s">
+        <v>30</v>
+      </c>
+      <c r="G278" t="s">
+        <v>34</v>
+      </c>
+      <c r="H278">
+        <v>2</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278" t="s">
+        <v>52</v>
+      </c>
+      <c r="K278">
+        <v>1.727</v>
+      </c>
+      <c r="L278">
+        <v>3.6</v>
+      </c>
+      <c r="M278">
+        <v>4.333</v>
+      </c>
+      <c r="N278">
+        <v>1.727</v>
+      </c>
+      <c r="O278">
+        <v>3.6</v>
+      </c>
+      <c r="P278">
+        <v>4.333</v>
+      </c>
+      <c r="Q278">
+        <v>-0.75</v>
+      </c>
+      <c r="R278">
+        <v>1.95</v>
+      </c>
+      <c r="S278">
+        <v>1.85</v>
+      </c>
+      <c r="T278">
+        <v>2.5</v>
+      </c>
+      <c r="U278">
+        <v>1.925</v>
+      </c>
+      <c r="V278">
+        <v>1.875</v>
+      </c>
+      <c r="W278">
+        <v>-1</v>
+      </c>
+      <c r="X278">
+        <v>2.6</v>
+      </c>
+      <c r="Y278">
+        <v>-1</v>
+      </c>
+      <c r="Z278">
+        <v>-1</v>
+      </c>
+      <c r="AA278">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB278">
+        <v>0.925</v>
+      </c>
+      <c r="AC278">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>8011511</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45389.72916666666</v>
+      </c>
+      <c r="F279" t="s">
+        <v>29</v>
+      </c>
+      <c r="G279" t="s">
+        <v>46</v>
+      </c>
+      <c r="H279">
+        <v>4</v>
+      </c>
+      <c r="I279">
         <v>0</v>
       </c>
-      <c r="X276">
+      <c r="J279" t="s">
+        <v>51</v>
+      </c>
+      <c r="K279">
+        <v>1.333</v>
+      </c>
+      <c r="L279">
+        <v>4.5</v>
+      </c>
+      <c r="M279">
+        <v>9</v>
+      </c>
+      <c r="N279">
+        <v>1.25</v>
+      </c>
+      <c r="O279">
+        <v>5.5</v>
+      </c>
+      <c r="P279">
+        <v>11</v>
+      </c>
+      <c r="Q279">
+        <v>-1.75</v>
+      </c>
+      <c r="R279">
+        <v>1.9</v>
+      </c>
+      <c r="S279">
+        <v>1.9</v>
+      </c>
+      <c r="T279">
+        <v>3.25</v>
+      </c>
+      <c r="U279">
+        <v>2</v>
+      </c>
+      <c r="V279">
+        <v>1.8</v>
+      </c>
+      <c r="W279">
+        <v>0.25</v>
+      </c>
+      <c r="X279">
+        <v>-1</v>
+      </c>
+      <c r="Y279">
+        <v>-1</v>
+      </c>
+      <c r="Z279">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA279">
+        <v>-1</v>
+      </c>
+      <c r="AB279">
+        <v>1</v>
+      </c>
+      <c r="AC279">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>8011512</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45390.70833333334</v>
+      </c>
+      <c r="F280" t="s">
+        <v>50</v>
+      </c>
+      <c r="G280" t="s">
+        <v>45</v>
+      </c>
+      <c r="K280">
+        <v>2.1</v>
+      </c>
+      <c r="L280">
+        <v>3.3</v>
+      </c>
+      <c r="M280">
+        <v>3.3</v>
+      </c>
+      <c r="N280">
+        <v>2.25</v>
+      </c>
+      <c r="O280">
+        <v>3.2</v>
+      </c>
+      <c r="P280">
+        <v>3.1</v>
+      </c>
+      <c r="Q280">
+        <v>-0.25</v>
+      </c>
+      <c r="R280">
+        <v>1.975</v>
+      </c>
+      <c r="S280">
+        <v>1.875</v>
+      </c>
+      <c r="T280">
+        <v>2.5</v>
+      </c>
+      <c r="U280">
+        <v>1.95</v>
+      </c>
+      <c r="V280">
+        <v>1.9</v>
+      </c>
+      <c r="W280">
         <v>0</v>
       </c>
-      <c r="Y276">
+      <c r="X280">
         <v>0</v>
       </c>
-      <c r="Z276">
+      <c r="Y280">
         <v>0</v>
       </c>
-      <c r="AA276">
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O177">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
+        <v>1.975</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
         <v>3</v>
       </c>
-      <c r="U177">
-        <v>1.875</v>
-      </c>
-      <c r="V177">
-        <v>1.925</v>
-      </c>
-      <c r="W177">
-        <v>0.25</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
-      <c r="Y177">
-        <v>-1</v>
-      </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,13 +16488,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16512,34 +16512,34 @@
         <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,16 +16548,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,76 +16577,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>1</v>
       </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
         <v>1.875</v>
       </c>
-      <c r="V181">
-        <v>1.975</v>
-      </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M182">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N182">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q182">
         <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z182">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB182">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384626</v>
+        <v>7384630</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>53</v>
+      </c>
+      <c r="K183">
+        <v>2.8</v>
+      </c>
+      <c r="L183">
+        <v>3.4</v>
+      </c>
+      <c r="M183">
+        <v>2.15</v>
+      </c>
+      <c r="N183">
+        <v>1.75</v>
+      </c>
+      <c r="O183">
+        <v>3.6</v>
+      </c>
+      <c r="P183">
+        <v>3.8</v>
+      </c>
+      <c r="Q183">
+        <v>-0.75</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>1.8</v>
+      </c>
+      <c r="T183">
         <v>3</v>
       </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183" t="s">
-        <v>51</v>
-      </c>
-      <c r="K183">
-        <v>1.3</v>
-      </c>
-      <c r="L183">
-        <v>5</v>
-      </c>
-      <c r="M183">
-        <v>9</v>
-      </c>
-      <c r="N183">
-        <v>1.166</v>
-      </c>
-      <c r="O183">
-        <v>6.5</v>
-      </c>
-      <c r="P183">
-        <v>13</v>
-      </c>
-      <c r="Q183">
-        <v>-2</v>
-      </c>
-      <c r="R183">
+      <c r="U183">
         <v>1.85</v>
       </c>
-      <c r="S183">
+      <c r="V183">
         <v>1.95</v>
       </c>
-      <c r="T183">
-        <v>3.25</v>
-      </c>
-      <c r="U183">
-        <v>2</v>
-      </c>
-      <c r="V183">
-        <v>1.8</v>
-      </c>
       <c r="W183">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384625</v>
+        <v>7384627</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N184">
-        <v>1.363</v>
+        <v>1.181</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P184">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X184">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,10 +16933,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -16948,40 +16948,40 @@
         <v>53</v>
       </c>
       <c r="K185">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L185">
+        <v>3.3</v>
+      </c>
+      <c r="M185">
+        <v>2.5</v>
+      </c>
+      <c r="N185">
+        <v>2.7</v>
+      </c>
+      <c r="O185">
         <v>3.4</v>
       </c>
-      <c r="M185">
-        <v>2.15</v>
-      </c>
-      <c r="N185">
-        <v>1.75</v>
-      </c>
-      <c r="O185">
-        <v>3.6</v>
-      </c>
       <c r="P185">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16990,19 +16990,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384627</v>
+        <v>7384625</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K186">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="L186">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M186">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N186">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q186">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R186">
+        <v>1.875</v>
+      </c>
+      <c r="S186">
+        <v>1.925</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
         <v>1.8</v>
       </c>
-      <c r="S186">
-        <v>2</v>
-      </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>1.85</v>
-      </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W186">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384629</v>
+        <v>7384628</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,55 +17111,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>53</v>
       </c>
       <c r="K187">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L187">
         <v>3.3</v>
       </c>
       <c r="M187">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17168,19 +17168,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384628</v>
+        <v>7384626</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L188">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M188">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N188">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P188">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R188">
+        <v>1.85</v>
+      </c>
+      <c r="S188">
+        <v>1.95</v>
+      </c>
+      <c r="T188">
+        <v>3.25</v>
+      </c>
+      <c r="U188">
+        <v>2</v>
+      </c>
+      <c r="V188">
         <v>1.8</v>
       </c>
-      <c r="S188">
-        <v>2</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.975</v>
-      </c>
-      <c r="V188">
-        <v>1.875</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K228">
+        <v>3.3</v>
+      </c>
+      <c r="L228">
+        <v>3.3</v>
+      </c>
+      <c r="M228">
+        <v>2.1</v>
+      </c>
+      <c r="N228">
+        <v>4.5</v>
+      </c>
+      <c r="O228">
+        <v>3.2</v>
+      </c>
+      <c r="P228">
+        <v>1.95</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>1.85</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.775</v>
+      </c>
+      <c r="V228">
+        <v>2.1</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
         <v>2.2</v>
       </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
-      <c r="M228">
-        <v>3.2</v>
-      </c>
-      <c r="N228">
-        <v>1.6</v>
-      </c>
-      <c r="O228">
-        <v>3.75</v>
-      </c>
-      <c r="P228">
-        <v>5.75</v>
-      </c>
-      <c r="Q228">
-        <v>-0.75</v>
-      </c>
-      <c r="R228">
-        <v>1.85</v>
-      </c>
-      <c r="S228">
-        <v>2</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.875</v>
-      </c>
-      <c r="W228">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N229">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -25393,6 +25393,15 @@
       <c r="G280" t="s">
         <v>45</v>
       </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280" t="s">
+        <v>53</v>
+      </c>
       <c r="K280">
         <v>2.1</v>
       </c>
@@ -25403,22 +25412,22 @@
         <v>3.3</v>
       </c>
       <c r="N280">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O280">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P280">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S280">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T280">
         <v>2.5</v>
@@ -25427,22 +25436,28 @@
         <v>1.95</v>
       </c>
       <c r="V280">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB280">
+        <v>-1</v>
+      </c>
+      <c r="AC280">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
         <v>6.5</v>
       </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N157">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O176">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.825</v>
+      </c>
+      <c r="V176">
+        <v>1.975</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
         <v>3</v>
       </c>
-      <c r="U176">
-        <v>1.875</v>
-      </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
-      <c r="W176">
-        <v>0.25</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384622</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,76 +16577,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q181">
+        <v>-1</v>
+      </c>
+      <c r="R181">
+        <v>1.825</v>
+      </c>
+      <c r="S181">
+        <v>2.025</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
+        <v>1.875</v>
+      </c>
+      <c r="V181">
+        <v>1.975</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>5</v>
+      </c>
+      <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>1.025</v>
+      </c>
+      <c r="AB181">
+        <v>0.4375</v>
+      </c>
+      <c r="AC181">
         <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>1.925</v>
-      </c>
-      <c r="S181">
-        <v>1.875</v>
-      </c>
-      <c r="T181">
-        <v>3</v>
-      </c>
-      <c r="U181">
-        <v>1.925</v>
-      </c>
-      <c r="V181">
-        <v>1.875</v>
-      </c>
-      <c r="W181">
-        <v>0.833</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>0.925</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>0</v>
-      </c>
-      <c r="AC181">
-        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>2</v>
-      </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K182">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U182">
+        <v>1.925</v>
+      </c>
+      <c r="V182">
         <v>1.875</v>
       </c>
-      <c r="V182">
-        <v>1.975</v>
-      </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,55 +16755,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M183">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O183">
         <v>3.6</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16812,19 +16812,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384627</v>
+        <v>7384630</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,49 +16844,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K184">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="N184">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O184">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q184">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
         <v>1.85</v>
@@ -16895,19 +16895,19 @@
         <v>1.95</v>
       </c>
       <c r="W184">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z184">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
         <v>-1</v>
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384629</v>
+        <v>7384625</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185" t="s">
+        <v>52</v>
+      </c>
+      <c r="K185">
+        <v>1.5</v>
+      </c>
+      <c r="L185">
+        <v>3.75</v>
+      </c>
+      <c r="M185">
+        <v>7</v>
+      </c>
+      <c r="N185">
+        <v>1.363</v>
+      </c>
+      <c r="O185">
+        <v>4.333</v>
+      </c>
+      <c r="P185">
+        <v>9.5</v>
+      </c>
+      <c r="Q185">
+        <v>-1.25</v>
+      </c>
+      <c r="R185">
+        <v>1.875</v>
+      </c>
+      <c r="S185">
+        <v>1.925</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
+        <v>1.8</v>
+      </c>
+      <c r="V185">
+        <v>2</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>3.333</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.925</v>
+      </c>
+      <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
         <v>1</v>
-      </c>
-      <c r="J185" t="s">
-        <v>53</v>
-      </c>
-      <c r="K185">
-        <v>2.625</v>
-      </c>
-      <c r="L185">
-        <v>3.3</v>
-      </c>
-      <c r="M185">
-        <v>2.5</v>
-      </c>
-      <c r="N185">
-        <v>2.7</v>
-      </c>
-      <c r="O185">
-        <v>3.4</v>
-      </c>
-      <c r="P185">
-        <v>2.375</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>2.025</v>
-      </c>
-      <c r="S185">
-        <v>1.775</v>
-      </c>
-      <c r="T185">
-        <v>2.25</v>
-      </c>
-      <c r="U185">
-        <v>1.825</v>
-      </c>
-      <c r="V185">
-        <v>1.975</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>1.375</v>
-      </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
-      <c r="AA185">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
-      <c r="AC185">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384625</v>
+        <v>7384626</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M186">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N186">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P186">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q186">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U186">
+        <v>2</v>
+      </c>
+      <c r="V186">
         <v>1.8</v>
       </c>
-      <c r="V186">
-        <v>2</v>
-      </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X186">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC186">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384628</v>
+        <v>7384629</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,56 +17111,56 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
         <v>1</v>
-      </c>
-      <c r="I187">
-        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>53</v>
       </c>
       <c r="K187">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L187">
         <v>3.3</v>
       </c>
       <c r="M187">
+        <v>2.5</v>
+      </c>
+      <c r="N187">
+        <v>2.7</v>
+      </c>
+      <c r="O187">
+        <v>3.4</v>
+      </c>
+      <c r="P187">
         <v>2.375</v>
       </c>
-      <c r="N187">
-        <v>3.3</v>
-      </c>
-      <c r="O187">
-        <v>3.6</v>
-      </c>
-      <c r="P187">
-        <v>2</v>
-      </c>
       <c r="Q187">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
+        <v>1.825</v>
+      </c>
+      <c r="V187">
         <v>1.975</v>
       </c>
-      <c r="V187">
-        <v>1.875</v>
-      </c>
       <c r="W187">
         <v>-1</v>
       </c>
@@ -17168,19 +17168,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB187">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,13 +17200,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17215,43 +17215,43 @@
         <v>51</v>
       </c>
       <c r="K188">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L188">
         <v>5</v>
       </c>
       <c r="M188">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N188">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O188">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P188">
         <v>13</v>
       </c>
       <c r="Q188">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R188">
+        <v>1.8</v>
+      </c>
+      <c r="S188">
+        <v>2</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
         <v>1.85</v>
       </c>
-      <c r="S188">
+      <c r="V188">
         <v>1.95</v>
       </c>
-      <c r="T188">
-        <v>3.25</v>
-      </c>
-      <c r="U188">
-        <v>2</v>
-      </c>
-      <c r="V188">
-        <v>1.8</v>
-      </c>
       <c r="W188">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17260,16 +17260,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P156">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
         <v>6.5</v>
       </c>
-      <c r="P157">
-        <v>12</v>
-      </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC280"/>
+  <dimension ref="A1:AC281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
         <v>6.5</v>
       </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N157">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N175">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O175">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P175">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>1.825</v>
+      </c>
+      <c r="V175">
+        <v>1.975</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
         <v>3</v>
       </c>
-      <c r="U175">
-        <v>1.875</v>
-      </c>
-      <c r="V175">
-        <v>1.925</v>
-      </c>
-      <c r="W175">
-        <v>0.25</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>-1</v>
-      </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q180">
         <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,76 +16577,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>1</v>
       </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
         <v>1.875</v>
       </c>
-      <c r="V181">
-        <v>1.975</v>
-      </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,13 +16666,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -16690,34 +16690,34 @@
         <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16726,16 +16726,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,55 +16755,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
         <v>1</v>
-      </c>
-      <c r="I183">
-        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N183">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O183">
         <v>3.6</v>
       </c>
       <c r="P183">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
         <v>1.8</v>
       </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16812,19 +16812,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB183">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384630</v>
+        <v>7384625</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>52</v>
+      </c>
+      <c r="K184">
+        <v>1.5</v>
+      </c>
+      <c r="L184">
+        <v>3.75</v>
+      </c>
+      <c r="M184">
+        <v>7</v>
+      </c>
+      <c r="N184">
+        <v>1.363</v>
+      </c>
+      <c r="O184">
+        <v>4.333</v>
+      </c>
+      <c r="P184">
+        <v>9.5</v>
+      </c>
+      <c r="Q184">
+        <v>-1.25</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
+        <v>1.8</v>
+      </c>
+      <c r="V184">
+        <v>2</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>3.333</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
+        <v>-1</v>
+      </c>
+      <c r="AA184">
+        <v>0.925</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
         <v>1</v>
-      </c>
-      <c r="J184" t="s">
-        <v>53</v>
-      </c>
-      <c r="K184">
-        <v>2.8</v>
-      </c>
-      <c r="L184">
-        <v>3.4</v>
-      </c>
-      <c r="M184">
-        <v>2.15</v>
-      </c>
-      <c r="N184">
-        <v>1.75</v>
-      </c>
-      <c r="O184">
-        <v>3.6</v>
-      </c>
-      <c r="P184">
-        <v>3.8</v>
-      </c>
-      <c r="Q184">
-        <v>-0.75</v>
-      </c>
-      <c r="R184">
-        <v>2</v>
-      </c>
-      <c r="S184">
-        <v>1.8</v>
-      </c>
-      <c r="T184">
-        <v>3</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>2.8</v>
-      </c>
-      <c r="Z184">
-        <v>-1</v>
-      </c>
-      <c r="AA184">
-        <v>0.8</v>
-      </c>
-      <c r="AB184">
-        <v>-1</v>
-      </c>
-      <c r="AC184">
-        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384625</v>
+        <v>7384628</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K185">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L185">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N185">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O185">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="Q185">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
+        <v>1.8</v>
+      </c>
+      <c r="S185">
+        <v>2</v>
+      </c>
+      <c r="T185">
+        <v>2.75</v>
+      </c>
+      <c r="U185">
+        <v>1.975</v>
+      </c>
+      <c r="V185">
         <v>1.875</v>
       </c>
-      <c r="S185">
-        <v>1.925</v>
-      </c>
-      <c r="T185">
-        <v>2.5</v>
-      </c>
-      <c r="U185">
-        <v>1.8</v>
-      </c>
-      <c r="V185">
-        <v>2</v>
-      </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC185">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,13 +17022,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17037,43 +17037,43 @@
         <v>51</v>
       </c>
       <c r="K186">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L186">
         <v>5</v>
       </c>
       <c r="M186">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N186">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O186">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P186">
         <v>13</v>
       </c>
       <c r="Q186">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R186">
+        <v>1.8</v>
+      </c>
+      <c r="S186">
+        <v>2</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
         <v>1.85</v>
       </c>
-      <c r="S186">
+      <c r="V186">
         <v>1.95</v>
       </c>
-      <c r="T186">
-        <v>3.25</v>
-      </c>
-      <c r="U186">
-        <v>2</v>
-      </c>
-      <c r="V186">
-        <v>1.8</v>
-      </c>
       <c r="W186">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17082,16 +17082,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384627</v>
+        <v>7384626</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,13 +17200,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17215,43 +17215,43 @@
         <v>51</v>
       </c>
       <c r="K188">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L188">
         <v>5</v>
       </c>
       <c r="M188">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N188">
-        <v>1.181</v>
+        <v>1.166</v>
       </c>
       <c r="O188">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P188">
         <v>13</v>
       </c>
       <c r="Q188">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R188">
+        <v>1.85</v>
+      </c>
+      <c r="S188">
+        <v>1.95</v>
+      </c>
+      <c r="T188">
+        <v>3.25</v>
+      </c>
+      <c r="U188">
+        <v>2</v>
+      </c>
+      <c r="V188">
         <v>1.8</v>
       </c>
-      <c r="S188">
-        <v>2</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.85</v>
-      </c>
-      <c r="V188">
-        <v>1.95</v>
-      </c>
       <c r="W188">
-        <v>0.181</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17260,16 +17260,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
+        <v>-0.5</v>
+      </c>
+      <c r="AC188">
         <v>0.4</v>
-      </c>
-      <c r="AA188">
-        <v>-0.5</v>
-      </c>
-      <c r="AB188">
-        <v>-1</v>
-      </c>
-      <c r="AC188">
-        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K228">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N228">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
+        <v>3.3</v>
+      </c>
+      <c r="L229">
+        <v>3.3</v>
+      </c>
+      <c r="M229">
+        <v>2.1</v>
+      </c>
+      <c r="N229">
+        <v>4.5</v>
+      </c>
+      <c r="O229">
+        <v>3.2</v>
+      </c>
+      <c r="P229">
+        <v>1.95</v>
+      </c>
+      <c r="Q229">
+        <v>0.5</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>1.85</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
+        <v>1.775</v>
+      </c>
+      <c r="V229">
+        <v>2.1</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
         <v>2.2</v>
       </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
-      <c r="M229">
-        <v>3.2</v>
-      </c>
-      <c r="N229">
-        <v>1.6</v>
-      </c>
-      <c r="O229">
-        <v>3.75</v>
-      </c>
-      <c r="P229">
-        <v>5.75</v>
-      </c>
-      <c r="Q229">
-        <v>-0.75</v>
-      </c>
-      <c r="R229">
-        <v>1.85</v>
-      </c>
-      <c r="S229">
-        <v>2</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>1.975</v>
-      </c>
-      <c r="V229">
-        <v>1.875</v>
-      </c>
-      <c r="W229">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -25458,6 +25458,80 @@
       </c>
       <c r="AC280">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>8042070</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45394.70833333334</v>
+      </c>
+      <c r="F281" t="s">
+        <v>46</v>
+      </c>
+      <c r="G281" t="s">
+        <v>38</v>
+      </c>
+      <c r="K281">
+        <v>1.8</v>
+      </c>
+      <c r="L281">
+        <v>3.5</v>
+      </c>
+      <c r="M281">
+        <v>4.333</v>
+      </c>
+      <c r="N281">
+        <v>1.95</v>
+      </c>
+      <c r="O281">
+        <v>3.4</v>
+      </c>
+      <c r="P281">
+        <v>3.8</v>
+      </c>
+      <c r="Q281">
+        <v>-0.5</v>
+      </c>
+      <c r="R281">
+        <v>2.025</v>
+      </c>
+      <c r="S281">
+        <v>1.825</v>
+      </c>
+      <c r="T281">
+        <v>2.5</v>
+      </c>
+      <c r="U281">
+        <v>1.875</v>
+      </c>
+      <c r="V281">
+        <v>1.975</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC281"/>
+  <dimension ref="A1:AC283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N175">
         <v>1.75</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q175">
         <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384622</v>
+        <v>7384624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H180">
+        <v>3</v>
+      </c>
+      <c r="I180">
         <v>1</v>
       </c>
-      <c r="I180">
-        <v>2</v>
-      </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q180">
         <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M182">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N182">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q182">
         <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z182">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB182">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384630</v>
+        <v>7384625</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>52</v>
+      </c>
+      <c r="K183">
+        <v>1.5</v>
+      </c>
+      <c r="L183">
+        <v>3.75</v>
+      </c>
+      <c r="M183">
+        <v>7</v>
+      </c>
+      <c r="N183">
+        <v>1.363</v>
+      </c>
+      <c r="O183">
+        <v>4.333</v>
+      </c>
+      <c r="P183">
+        <v>9.5</v>
+      </c>
+      <c r="Q183">
+        <v>-1.25</v>
+      </c>
+      <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
+        <v>1.925</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.8</v>
+      </c>
+      <c r="V183">
+        <v>2</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>3.333</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
+        <v>0.925</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
         <v>1</v>
-      </c>
-      <c r="J183" t="s">
-        <v>53</v>
-      </c>
-      <c r="K183">
-        <v>2.8</v>
-      </c>
-      <c r="L183">
-        <v>3.4</v>
-      </c>
-      <c r="M183">
-        <v>2.15</v>
-      </c>
-      <c r="N183">
-        <v>1.75</v>
-      </c>
-      <c r="O183">
-        <v>3.6</v>
-      </c>
-      <c r="P183">
-        <v>3.8</v>
-      </c>
-      <c r="Q183">
-        <v>-0.75</v>
-      </c>
-      <c r="R183">
-        <v>2</v>
-      </c>
-      <c r="S183">
-        <v>1.8</v>
-      </c>
-      <c r="T183">
-        <v>3</v>
-      </c>
-      <c r="U183">
-        <v>1.85</v>
-      </c>
-      <c r="V183">
-        <v>1.95</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
-      <c r="Y183">
-        <v>2.8</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
-      <c r="AA183">
-        <v>0.8</v>
-      </c>
-      <c r="AB183">
-        <v>-1</v>
-      </c>
-      <c r="AC183">
-        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384625</v>
+        <v>7384626</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N184">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P184">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
         <v>1.8</v>
       </c>
-      <c r="V184">
-        <v>2</v>
-      </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X184">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC184">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384628</v>
+        <v>7384629</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,56 +16933,56 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
         <v>1</v>
-      </c>
-      <c r="I185">
-        <v>2</v>
       </c>
       <c r="J185" t="s">
         <v>53</v>
       </c>
       <c r="K185">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L185">
         <v>3.3</v>
       </c>
       <c r="M185">
+        <v>2.5</v>
+      </c>
+      <c r="N185">
+        <v>2.7</v>
+      </c>
+      <c r="O185">
+        <v>3.4</v>
+      </c>
+      <c r="P185">
         <v>2.375</v>
       </c>
-      <c r="N185">
-        <v>3.3</v>
-      </c>
-      <c r="O185">
-        <v>3.6</v>
-      </c>
-      <c r="P185">
-        <v>2</v>
-      </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
+        <v>1.825</v>
+      </c>
+      <c r="V185">
         <v>1.975</v>
       </c>
-      <c r="V185">
-        <v>1.875</v>
-      </c>
       <c r="W185">
         <v>-1</v>
       </c>
@@ -16990,19 +16990,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB185">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,40 +17022,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="L186">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M186">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q186">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
         <v>1.8</v>
@@ -17067,31 +17067,31 @@
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z186">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
+        <v>1</v>
+      </c>
+      <c r="AB186">
+        <v>0.4875</v>
+      </c>
+      <c r="AC186">
         <v>-0.5</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384629</v>
+        <v>7384630</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,10 +17111,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17126,40 +17126,40 @@
         <v>53</v>
       </c>
       <c r="K187">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N187">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17168,19 +17168,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.375</v>
+        <v>2.8</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,13 +17200,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17215,43 +17215,43 @@
         <v>51</v>
       </c>
       <c r="K188">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L188">
         <v>5</v>
       </c>
       <c r="M188">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N188">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O188">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P188">
         <v>13</v>
       </c>
       <c r="Q188">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R188">
+        <v>1.8</v>
+      </c>
+      <c r="S188">
+        <v>2</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
         <v>1.85</v>
       </c>
-      <c r="S188">
+      <c r="V188">
         <v>1.95</v>
       </c>
-      <c r="T188">
-        <v>3.25</v>
-      </c>
-      <c r="U188">
-        <v>2</v>
-      </c>
-      <c r="V188">
-        <v>1.8</v>
-      </c>
       <c r="W188">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17260,16 +17260,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K228">
+        <v>3.3</v>
+      </c>
+      <c r="L228">
+        <v>3.3</v>
+      </c>
+      <c r="M228">
+        <v>2.1</v>
+      </c>
+      <c r="N228">
+        <v>4.5</v>
+      </c>
+      <c r="O228">
+        <v>3.2</v>
+      </c>
+      <c r="P228">
+        <v>1.95</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>1.85</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.775</v>
+      </c>
+      <c r="V228">
+        <v>2.1</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
         <v>2.2</v>
       </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
-      <c r="M228">
-        <v>3.2</v>
-      </c>
-      <c r="N228">
-        <v>1.6</v>
-      </c>
-      <c r="O228">
-        <v>3.75</v>
-      </c>
-      <c r="P228">
-        <v>5.75</v>
-      </c>
-      <c r="Q228">
-        <v>-0.75</v>
-      </c>
-      <c r="R228">
-        <v>1.85</v>
-      </c>
-      <c r="S228">
-        <v>2</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.875</v>
-      </c>
-      <c r="W228">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N229">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K252">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L252">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M252">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N252">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O252">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P252">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q252">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X252">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G253" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K253">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L253">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M253">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N253">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O253">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P253">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R253">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC253">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -25465,7 +25465,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>8042070</v>
+        <v>8042071</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25474,49 +25474,49 @@
         <v>28</v>
       </c>
       <c r="E281" s="2">
-        <v>45394.70833333334</v>
+        <v>45395.6875</v>
       </c>
       <c r="F281" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G281" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K281">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L281">
         <v>3.5</v>
       </c>
       <c r="M281">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N281">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P281">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q281">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R281">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S281">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T281">
         <v>2.5</v>
       </c>
       <c r="U281">
+        <v>1.975</v>
+      </c>
+      <c r="V281">
         <v>1.875</v>
-      </c>
-      <c r="V281">
-        <v>1.975</v>
       </c>
       <c r="W281">
         <v>0</v>
@@ -25531,6 +25531,154 @@
         <v>0</v>
       </c>
       <c r="AA281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>8042072</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45395.79166666666</v>
+      </c>
+      <c r="F282" t="s">
+        <v>41</v>
+      </c>
+      <c r="G282" t="s">
+        <v>42</v>
+      </c>
+      <c r="K282">
+        <v>1.25</v>
+      </c>
+      <c r="L282">
+        <v>5.5</v>
+      </c>
+      <c r="M282">
+        <v>12</v>
+      </c>
+      <c r="N282">
+        <v>1.285</v>
+      </c>
+      <c r="O282">
+        <v>5.25</v>
+      </c>
+      <c r="P282">
+        <v>11</v>
+      </c>
+      <c r="Q282">
+        <v>-1.75</v>
+      </c>
+      <c r="R282">
+        <v>2.025</v>
+      </c>
+      <c r="S282">
+        <v>1.825</v>
+      </c>
+      <c r="T282">
+        <v>3</v>
+      </c>
+      <c r="U282">
+        <v>2</v>
+      </c>
+      <c r="V282">
+        <v>1.85</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <v>0</v>
+      </c>
+      <c r="Z282">
+        <v>0</v>
+      </c>
+      <c r="AA282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>8071407</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45395.91666666666</v>
+      </c>
+      <c r="F283" t="s">
+        <v>36</v>
+      </c>
+      <c r="G283" t="s">
+        <v>31</v>
+      </c>
+      <c r="K283">
+        <v>6</v>
+      </c>
+      <c r="L283">
+        <v>3.75</v>
+      </c>
+      <c r="M283">
+        <v>1.571</v>
+      </c>
+      <c r="N283">
+        <v>5.75</v>
+      </c>
+      <c r="O283">
+        <v>3.6</v>
+      </c>
+      <c r="P283">
+        <v>1.615</v>
+      </c>
+      <c r="Q283">
+        <v>0.75</v>
+      </c>
+      <c r="R283">
+        <v>2.05</v>
+      </c>
+      <c r="S283">
+        <v>1.8</v>
+      </c>
+      <c r="T283">
+        <v>2.25</v>
+      </c>
+      <c r="U283">
+        <v>1.825</v>
+      </c>
+      <c r="V283">
+        <v>2.025</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
+      <c r="AA283">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC283"/>
+  <dimension ref="A1:AC289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O176">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.825</v>
+      </c>
+      <c r="V176">
+        <v>1.975</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
         <v>3</v>
       </c>
-      <c r="U176">
-        <v>1.875</v>
-      </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
-      <c r="W176">
-        <v>0.25</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q180">
         <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384622</v>
+        <v>7384624</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H182">
+        <v>3</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>2</v>
-      </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K182">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
         <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384625</v>
+        <v>7384630</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K183">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N183">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384626</v>
+        <v>7384625</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K184">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M184">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N184">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O184">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q184">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V184">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384629</v>
+        <v>7384628</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,55 +16933,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
         <v>53</v>
       </c>
       <c r="K185">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L185">
         <v>3.3</v>
       </c>
       <c r="M185">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N185">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16990,19 +16990,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384628</v>
+        <v>7384627</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,40 +17022,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="N186">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q186">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R186">
         <v>1.8</v>
@@ -17067,31 +17067,31 @@
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384630</v>
+        <v>7384626</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L187">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M187">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="N187">
-        <v>1.75</v>
+        <v>1.166</v>
       </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P187">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
+        <v>1.95</v>
+      </c>
+      <c r="T187">
+        <v>3.25</v>
+      </c>
+      <c r="U187">
+        <v>2</v>
+      </c>
+      <c r="V187">
         <v>1.8</v>
       </c>
-      <c r="T187">
-        <v>3</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA187">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384627</v>
+        <v>7384629</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K188">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L188">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M188">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="N188">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="O188">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="Q188">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z188">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -25465,7 +25465,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>8042071</v>
+        <v>8042070</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25474,64 +25474,79 @@
         <v>28</v>
       </c>
       <c r="E281" s="2">
-        <v>45395.6875</v>
+        <v>45394.70833333334</v>
       </c>
       <c r="F281" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G281" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281" t="s">
+        <v>53</v>
       </c>
       <c r="K281">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L281">
         <v>3.5</v>
       </c>
       <c r="M281">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N281">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O281">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P281">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q281">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S281">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T281">
         <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V281">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W281">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z281">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB281">
+        <v>0.875</v>
+      </c>
+      <c r="AC281">
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25539,7 +25554,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>8042072</v>
+        <v>8042071</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25548,49 +25563,49 @@
         <v>28</v>
       </c>
       <c r="E282" s="2">
-        <v>45395.79166666666</v>
+        <v>45395.6875</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K282">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="L282">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M282">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N282">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O282">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P282">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q282">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R282">
+        <v>1.825</v>
+      </c>
+      <c r="S282">
         <v>2.025</v>
       </c>
-      <c r="S282">
-        <v>1.825</v>
-      </c>
       <c r="T282">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V282">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W282">
         <v>0</v>
@@ -25613,72 +25628,516 @@
         <v>281</v>
       </c>
       <c r="B283">
+        <v>8042072</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45395.79166666666</v>
+      </c>
+      <c r="F283" t="s">
+        <v>41</v>
+      </c>
+      <c r="G283" t="s">
+        <v>42</v>
+      </c>
+      <c r="K283">
+        <v>1.25</v>
+      </c>
+      <c r="L283">
+        <v>5.5</v>
+      </c>
+      <c r="M283">
+        <v>12</v>
+      </c>
+      <c r="N283">
+        <v>1.222</v>
+      </c>
+      <c r="O283">
+        <v>6</v>
+      </c>
+      <c r="P283">
+        <v>13</v>
+      </c>
+      <c r="Q283">
+        <v>-1.75</v>
+      </c>
+      <c r="R283">
+        <v>1.875</v>
+      </c>
+      <c r="S283">
+        <v>1.975</v>
+      </c>
+      <c r="T283">
+        <v>3</v>
+      </c>
+      <c r="U283">
+        <v>1.85</v>
+      </c>
+      <c r="V283">
+        <v>2</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
+      <c r="AA283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
         <v>8071407</v>
       </c>
-      <c r="C283" t="s">
-        <v>28</v>
-      </c>
-      <c r="D283" t="s">
-        <v>28</v>
-      </c>
-      <c r="E283" s="2">
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="2">
         <v>45395.91666666666</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F284" t="s">
         <v>36</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G284" t="s">
         <v>31</v>
       </c>
-      <c r="K283">
+      <c r="K284">
         <v>6</v>
       </c>
-      <c r="L283">
+      <c r="L284">
         <v>3.75</v>
       </c>
-      <c r="M283">
+      <c r="M284">
         <v>1.571</v>
       </c>
-      <c r="N283">
+      <c r="N284">
         <v>5.75</v>
       </c>
-      <c r="O283">
+      <c r="O284">
         <v>3.6</v>
       </c>
-      <c r="P283">
+      <c r="P284">
         <v>1.615</v>
       </c>
-      <c r="Q283">
+      <c r="Q284">
         <v>0.75</v>
       </c>
-      <c r="R283">
+      <c r="R284">
         <v>2.05</v>
       </c>
-      <c r="S283">
+      <c r="S284">
         <v>1.8</v>
       </c>
-      <c r="T283">
+      <c r="T284">
         <v>2.25</v>
       </c>
-      <c r="U283">
+      <c r="U284">
         <v>1.825</v>
       </c>
-      <c r="V283">
+      <c r="V284">
         <v>2.025</v>
       </c>
-      <c r="W283">
-        <v>0</v>
-      </c>
-      <c r="X283">
-        <v>0</v>
-      </c>
-      <c r="Y283">
-        <v>0</v>
-      </c>
-      <c r="Z283">
-        <v>0</v>
-      </c>
-      <c r="AA283">
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="Z284">
+        <v>0</v>
+      </c>
+      <c r="AA284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>8042215</v>
+      </c>
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F285" t="s">
+        <v>37</v>
+      </c>
+      <c r="G285" t="s">
+        <v>50</v>
+      </c>
+      <c r="K285">
+        <v>1.8</v>
+      </c>
+      <c r="L285">
+        <v>3.5</v>
+      </c>
+      <c r="M285">
+        <v>4.333</v>
+      </c>
+      <c r="N285">
+        <v>1.45</v>
+      </c>
+      <c r="O285">
+        <v>4</v>
+      </c>
+      <c r="P285">
+        <v>7.5</v>
+      </c>
+      <c r="Q285">
+        <v>-1.25</v>
+      </c>
+      <c r="R285">
+        <v>2.025</v>
+      </c>
+      <c r="S285">
+        <v>1.825</v>
+      </c>
+      <c r="T285">
+        <v>2.75</v>
+      </c>
+      <c r="U285">
+        <v>2</v>
+      </c>
+      <c r="V285">
+        <v>1.85</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
+      <c r="AA285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>8042073</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45396.79166666666</v>
+      </c>
+      <c r="F286" t="s">
+        <v>45</v>
+      </c>
+      <c r="G286" t="s">
+        <v>30</v>
+      </c>
+      <c r="K286">
+        <v>1.909</v>
+      </c>
+      <c r="L286">
+        <v>3.6</v>
+      </c>
+      <c r="M286">
+        <v>3.6</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286">
+        <v>3.6</v>
+      </c>
+      <c r="P286">
+        <v>3.3</v>
+      </c>
+      <c r="Q286">
+        <v>-0.5</v>
+      </c>
+      <c r="R286">
+        <v>2.05</v>
+      </c>
+      <c r="S286">
+        <v>1.8</v>
+      </c>
+      <c r="T286">
+        <v>2.5</v>
+      </c>
+      <c r="U286">
+        <v>1.925</v>
+      </c>
+      <c r="V286">
+        <v>1.925</v>
+      </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
+      <c r="Z286">
+        <v>0</v>
+      </c>
+      <c r="AA286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>8042219</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45396.89583333334</v>
+      </c>
+      <c r="F287" t="s">
+        <v>43</v>
+      </c>
+      <c r="G287" t="s">
+        <v>35</v>
+      </c>
+      <c r="K287">
+        <v>1.363</v>
+      </c>
+      <c r="L287">
+        <v>4.5</v>
+      </c>
+      <c r="M287">
+        <v>9</v>
+      </c>
+      <c r="N287">
+        <v>1.4</v>
+      </c>
+      <c r="O287">
+        <v>4.333</v>
+      </c>
+      <c r="P287">
+        <v>8.5</v>
+      </c>
+      <c r="Q287">
+        <v>-1.25</v>
+      </c>
+      <c r="R287">
+        <v>1.875</v>
+      </c>
+      <c r="S287">
+        <v>1.975</v>
+      </c>
+      <c r="T287">
+        <v>2.75</v>
+      </c>
+      <c r="U287">
+        <v>2</v>
+      </c>
+      <c r="V287">
+        <v>1.85</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>0</v>
+      </c>
+      <c r="Z287">
+        <v>0</v>
+      </c>
+      <c r="AA287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>8042075</v>
+      </c>
+      <c r="C288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45397.70833333334</v>
+      </c>
+      <c r="F288" t="s">
+        <v>47</v>
+      </c>
+      <c r="G288" t="s">
+        <v>48</v>
+      </c>
+      <c r="K288">
+        <v>1.909</v>
+      </c>
+      <c r="L288">
+        <v>3.5</v>
+      </c>
+      <c r="M288">
+        <v>3.75</v>
+      </c>
+      <c r="N288">
+        <v>1.909</v>
+      </c>
+      <c r="O288">
+        <v>3.5</v>
+      </c>
+      <c r="P288">
+        <v>3.8</v>
+      </c>
+      <c r="Q288">
+        <v>-0.5</v>
+      </c>
+      <c r="R288">
+        <v>1.95</v>
+      </c>
+      <c r="S288">
+        <v>1.9</v>
+      </c>
+      <c r="T288">
+        <v>2.5</v>
+      </c>
+      <c r="U288">
+        <v>1.925</v>
+      </c>
+      <c r="V288">
+        <v>1.925</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
+      <c r="AA288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>8071422</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45397.89583333334</v>
+      </c>
+      <c r="F289" t="s">
+        <v>34</v>
+      </c>
+      <c r="G289" t="s">
+        <v>29</v>
+      </c>
+      <c r="K289">
+        <v>4</v>
+      </c>
+      <c r="L289">
+        <v>3.6</v>
+      </c>
+      <c r="M289">
+        <v>1.833</v>
+      </c>
+      <c r="N289">
+        <v>3.75</v>
+      </c>
+      <c r="O289">
+        <v>3.6</v>
+      </c>
+      <c r="P289">
+        <v>1.909</v>
+      </c>
+      <c r="Q289">
+        <v>0.5</v>
+      </c>
+      <c r="R289">
+        <v>1.9</v>
+      </c>
+      <c r="S289">
+        <v>1.95</v>
+      </c>
+      <c r="T289">
+        <v>2.5</v>
+      </c>
+      <c r="U289">
+        <v>1.85</v>
+      </c>
+      <c r="V289">
+        <v>2</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>0</v>
+      </c>
+      <c r="Z289">
+        <v>0</v>
+      </c>
+      <c r="AA289">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC289"/>
+  <dimension ref="A1:AC285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P156">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
         <v>6.5</v>
       </c>
-      <c r="P157">
-        <v>12</v>
-      </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302200</v>
+        <v>7302796</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,58 +16221,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L177">
+        <v>3.2</v>
+      </c>
+      <c r="M177">
         <v>3.75</v>
       </c>
-      <c r="M177">
+      <c r="N177">
+        <v>1.75</v>
+      </c>
+      <c r="O177">
+        <v>3.4</v>
+      </c>
+      <c r="P177">
         <v>4.333</v>
       </c>
-      <c r="N177">
-        <v>1.25</v>
-      </c>
-      <c r="O177">
-        <v>5.25</v>
-      </c>
-      <c r="P177">
-        <v>10</v>
-      </c>
       <c r="Q177">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16281,16 +16281,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
         <v>1</v>
       </c>
-      <c r="I180">
-        <v>2</v>
-      </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U180">
+        <v>1.925</v>
+      </c>
+      <c r="V180">
         <v>1.875</v>
       </c>
-      <c r="V180">
-        <v>1.975</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M182">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N182">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q182">
         <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z182">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB182">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,55 +16755,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M183">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O183">
         <v>3.6</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16812,19 +16812,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384628</v>
+        <v>7384627</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,40 +16933,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K185">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M185">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="N185">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P185">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R185">
         <v>1.8</v>
@@ -16978,31 +16978,31 @@
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA185">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB185">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384627</v>
+        <v>7384629</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L186">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M186">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="N186">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="Q186">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z186">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384629</v>
+        <v>7384630</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,10 +17200,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17215,40 +17215,40 @@
         <v>53</v>
       </c>
       <c r="K188">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="L188">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N188">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17257,19 +17257,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.375</v>
+        <v>2.8</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K228">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N228">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
+        <v>3.3</v>
+      </c>
+      <c r="L229">
+        <v>3.3</v>
+      </c>
+      <c r="M229">
+        <v>2.1</v>
+      </c>
+      <c r="N229">
+        <v>4.5</v>
+      </c>
+      <c r="O229">
+        <v>3.2</v>
+      </c>
+      <c r="P229">
+        <v>1.95</v>
+      </c>
+      <c r="Q229">
+        <v>0.5</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>1.85</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
+        <v>1.775</v>
+      </c>
+      <c r="V229">
+        <v>2.1</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
         <v>2.2</v>
       </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
-      <c r="M229">
-        <v>3.2</v>
-      </c>
-      <c r="N229">
-        <v>1.6</v>
-      </c>
-      <c r="O229">
-        <v>3.75</v>
-      </c>
-      <c r="P229">
-        <v>5.75</v>
-      </c>
-      <c r="Q229">
-        <v>-0.75</v>
-      </c>
-      <c r="R229">
-        <v>1.85</v>
-      </c>
-      <c r="S229">
-        <v>2</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>1.975</v>
-      </c>
-      <c r="V229">
-        <v>1.875</v>
-      </c>
-      <c r="W229">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K252">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L252">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M252">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N252">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O252">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P252">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R252">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U252">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K253">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L253">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M253">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N253">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O253">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P253">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q253">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T253">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X253">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA253">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -25554,7 +25554,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>8042071</v>
+        <v>8042073</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,34 +25563,34 @@
         <v>28</v>
       </c>
       <c r="E282" s="2">
-        <v>45395.6875</v>
+        <v>45396.79166666666</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G282" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="K282">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L282">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M282">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N282">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O282">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P282">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q282">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R282">
         <v>1.825</v>
@@ -25599,13 +25599,13 @@
         <v>2.025</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V282">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W282">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>8042072</v>
+        <v>8042219</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25637,34 +25637,34 @@
         <v>28</v>
       </c>
       <c r="E283" s="2">
-        <v>45395.79166666666</v>
+        <v>45396.89583333334</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G283" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K283">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L283">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M283">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N283">
-        <v>1.222</v>
+        <v>1.363</v>
       </c>
       <c r="O283">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="P283">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q283">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R283">
         <v>1.875</v>
@@ -25673,13 +25673,13 @@
         <v>1.975</v>
       </c>
       <c r="T283">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V283">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W283">
         <v>0</v>
@@ -25702,7 +25702,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>8071407</v>
+        <v>8042075</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25711,49 +25711,49 @@
         <v>28</v>
       </c>
       <c r="E284" s="2">
-        <v>45395.91666666666</v>
+        <v>45397.70833333334</v>
       </c>
       <c r="F284" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G284" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K284">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L284">
+        <v>3.5</v>
+      </c>
+      <c r="M284">
         <v>3.75</v>
       </c>
-      <c r="M284">
-        <v>1.571</v>
-      </c>
       <c r="N284">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="O284">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P284">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q284">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R284">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S284">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T284">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U284">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V284">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W284">
         <v>0</v>
@@ -25776,7 +25776,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>8042215</v>
+        <v>8071422</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25785,34 +25785,34 @@
         <v>28</v>
       </c>
       <c r="E285" s="2">
-        <v>45396.625</v>
+        <v>45397.89583333334</v>
       </c>
       <c r="F285" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G285" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="K285">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L285">
+        <v>3.6</v>
+      </c>
+      <c r="M285">
+        <v>1.833</v>
+      </c>
+      <c r="N285">
+        <v>3.3</v>
+      </c>
+      <c r="O285">
         <v>3.5</v>
       </c>
-      <c r="M285">
-        <v>4.333</v>
-      </c>
-      <c r="N285">
-        <v>1.45</v>
-      </c>
-      <c r="O285">
-        <v>4</v>
-      </c>
       <c r="P285">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q285">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R285">
         <v>2.025</v>
@@ -25821,13 +25821,13 @@
         <v>1.825</v>
       </c>
       <c r="T285">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U285">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V285">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W285">
         <v>0</v>
@@ -25842,302 +25842,6 @@
         <v>0</v>
       </c>
       <c r="AA285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:29">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286">
-        <v>8042073</v>
-      </c>
-      <c r="C286" t="s">
-        <v>28</v>
-      </c>
-      <c r="D286" t="s">
-        <v>28</v>
-      </c>
-      <c r="E286" s="2">
-        <v>45396.79166666666</v>
-      </c>
-      <c r="F286" t="s">
-        <v>45</v>
-      </c>
-      <c r="G286" t="s">
-        <v>30</v>
-      </c>
-      <c r="K286">
-        <v>1.909</v>
-      </c>
-      <c r="L286">
-        <v>3.6</v>
-      </c>
-      <c r="M286">
-        <v>3.6</v>
-      </c>
-      <c r="N286">
-        <v>2</v>
-      </c>
-      <c r="O286">
-        <v>3.6</v>
-      </c>
-      <c r="P286">
-        <v>3.3</v>
-      </c>
-      <c r="Q286">
-        <v>-0.5</v>
-      </c>
-      <c r="R286">
-        <v>2.05</v>
-      </c>
-      <c r="S286">
-        <v>1.8</v>
-      </c>
-      <c r="T286">
-        <v>2.5</v>
-      </c>
-      <c r="U286">
-        <v>1.925</v>
-      </c>
-      <c r="V286">
-        <v>1.925</v>
-      </c>
-      <c r="W286">
-        <v>0</v>
-      </c>
-      <c r="X286">
-        <v>0</v>
-      </c>
-      <c r="Y286">
-        <v>0</v>
-      </c>
-      <c r="Z286">
-        <v>0</v>
-      </c>
-      <c r="AA286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:29">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287">
-        <v>8042219</v>
-      </c>
-      <c r="C287" t="s">
-        <v>28</v>
-      </c>
-      <c r="D287" t="s">
-        <v>28</v>
-      </c>
-      <c r="E287" s="2">
-        <v>45396.89583333334</v>
-      </c>
-      <c r="F287" t="s">
-        <v>43</v>
-      </c>
-      <c r="G287" t="s">
-        <v>35</v>
-      </c>
-      <c r="K287">
-        <v>1.363</v>
-      </c>
-      <c r="L287">
-        <v>4.5</v>
-      </c>
-      <c r="M287">
-        <v>9</v>
-      </c>
-      <c r="N287">
-        <v>1.4</v>
-      </c>
-      <c r="O287">
-        <v>4.333</v>
-      </c>
-      <c r="P287">
-        <v>8.5</v>
-      </c>
-      <c r="Q287">
-        <v>-1.25</v>
-      </c>
-      <c r="R287">
-        <v>1.875</v>
-      </c>
-      <c r="S287">
-        <v>1.975</v>
-      </c>
-      <c r="T287">
-        <v>2.75</v>
-      </c>
-      <c r="U287">
-        <v>2</v>
-      </c>
-      <c r="V287">
-        <v>1.85</v>
-      </c>
-      <c r="W287">
-        <v>0</v>
-      </c>
-      <c r="X287">
-        <v>0</v>
-      </c>
-      <c r="Y287">
-        <v>0</v>
-      </c>
-      <c r="Z287">
-        <v>0</v>
-      </c>
-      <c r="AA287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:29">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288">
-        <v>8042075</v>
-      </c>
-      <c r="C288" t="s">
-        <v>28</v>
-      </c>
-      <c r="D288" t="s">
-        <v>28</v>
-      </c>
-      <c r="E288" s="2">
-        <v>45397.70833333334</v>
-      </c>
-      <c r="F288" t="s">
-        <v>47</v>
-      </c>
-      <c r="G288" t="s">
-        <v>48</v>
-      </c>
-      <c r="K288">
-        <v>1.909</v>
-      </c>
-      <c r="L288">
-        <v>3.5</v>
-      </c>
-      <c r="M288">
-        <v>3.75</v>
-      </c>
-      <c r="N288">
-        <v>1.909</v>
-      </c>
-      <c r="O288">
-        <v>3.5</v>
-      </c>
-      <c r="P288">
-        <v>3.8</v>
-      </c>
-      <c r="Q288">
-        <v>-0.5</v>
-      </c>
-      <c r="R288">
-        <v>1.95</v>
-      </c>
-      <c r="S288">
-        <v>1.9</v>
-      </c>
-      <c r="T288">
-        <v>2.5</v>
-      </c>
-      <c r="U288">
-        <v>1.925</v>
-      </c>
-      <c r="V288">
-        <v>1.925</v>
-      </c>
-      <c r="W288">
-        <v>0</v>
-      </c>
-      <c r="X288">
-        <v>0</v>
-      </c>
-      <c r="Y288">
-        <v>0</v>
-      </c>
-      <c r="Z288">
-        <v>0</v>
-      </c>
-      <c r="AA288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:27">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289">
-        <v>8071422</v>
-      </c>
-      <c r="C289" t="s">
-        <v>28</v>
-      </c>
-      <c r="D289" t="s">
-        <v>28</v>
-      </c>
-      <c r="E289" s="2">
-        <v>45397.89583333334</v>
-      </c>
-      <c r="F289" t="s">
-        <v>34</v>
-      </c>
-      <c r="G289" t="s">
-        <v>29</v>
-      </c>
-      <c r="K289">
-        <v>4</v>
-      </c>
-      <c r="L289">
-        <v>3.6</v>
-      </c>
-      <c r="M289">
-        <v>1.833</v>
-      </c>
-      <c r="N289">
-        <v>3.75</v>
-      </c>
-      <c r="O289">
-        <v>3.6</v>
-      </c>
-      <c r="P289">
-        <v>1.909</v>
-      </c>
-      <c r="Q289">
-        <v>0.5</v>
-      </c>
-      <c r="R289">
-        <v>1.9</v>
-      </c>
-      <c r="S289">
-        <v>1.95</v>
-      </c>
-      <c r="T289">
-        <v>2.5</v>
-      </c>
-      <c r="U289">
-        <v>1.85</v>
-      </c>
-      <c r="V289">
-        <v>2</v>
-      </c>
-      <c r="W289">
-        <v>0</v>
-      </c>
-      <c r="X289">
-        <v>0</v>
-      </c>
-      <c r="Y289">
-        <v>0</v>
-      </c>
-      <c r="Z289">
-        <v>0</v>
-      </c>
-      <c r="AA289">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC285"/>
+  <dimension ref="A1:AC284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
         <v>6.5</v>
       </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N157">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N175">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O175">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P175">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>1.825</v>
+      </c>
+      <c r="V175">
+        <v>1.975</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
         <v>3</v>
       </c>
-      <c r="U175">
-        <v>1.875</v>
-      </c>
-      <c r="V175">
-        <v>1.925</v>
-      </c>
-      <c r="W175">
-        <v>0.25</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>-1</v>
-      </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384623</v>
+        <v>7384622</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N180">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>2.025</v>
+      </c>
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
+        <v>1.875</v>
+      </c>
+      <c r="V180">
+        <v>1.975</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>5</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>1.025</v>
+      </c>
+      <c r="AB180">
+        <v>0.4375</v>
+      </c>
+      <c r="AC180">
         <v>-0.5</v>
-      </c>
-      <c r="R180">
-        <v>1.925</v>
-      </c>
-      <c r="S180">
-        <v>1.875</v>
-      </c>
-      <c r="T180">
-        <v>3</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.875</v>
-      </c>
-      <c r="W180">
-        <v>0.833</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>0.925</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>0</v>
-      </c>
-      <c r="AC180">
-        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384622</v>
+        <v>7384624</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,76 +16666,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H182">
+        <v>3</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>2</v>
-      </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K182">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
         <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384628</v>
+        <v>7384625</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>52</v>
+      </c>
+      <c r="K183">
+        <v>1.5</v>
+      </c>
+      <c r="L183">
+        <v>3.75</v>
+      </c>
+      <c r="M183">
+        <v>7</v>
+      </c>
+      <c r="N183">
+        <v>1.363</v>
+      </c>
+      <c r="O183">
+        <v>4.333</v>
+      </c>
+      <c r="P183">
+        <v>9.5</v>
+      </c>
+      <c r="Q183">
+        <v>-1.25</v>
+      </c>
+      <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
+        <v>1.925</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.8</v>
+      </c>
+      <c r="V183">
+        <v>2</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>3.333</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
+        <v>0.925</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
         <v>1</v>
-      </c>
-      <c r="I183">
-        <v>2</v>
-      </c>
-      <c r="J183" t="s">
-        <v>53</v>
-      </c>
-      <c r="K183">
-        <v>2.75</v>
-      </c>
-      <c r="L183">
-        <v>3.3</v>
-      </c>
-      <c r="M183">
-        <v>2.375</v>
-      </c>
-      <c r="N183">
-        <v>3.3</v>
-      </c>
-      <c r="O183">
-        <v>3.6</v>
-      </c>
-      <c r="P183">
-        <v>2</v>
-      </c>
-      <c r="Q183">
-        <v>0.5</v>
-      </c>
-      <c r="R183">
-        <v>1.8</v>
-      </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
-      <c r="T183">
-        <v>2.75</v>
-      </c>
-      <c r="U183">
-        <v>1.975</v>
-      </c>
-      <c r="V183">
-        <v>1.875</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
-      <c r="Y183">
-        <v>1</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
-      <c r="AA183">
-        <v>1</v>
-      </c>
-      <c r="AB183">
-        <v>0.4875</v>
-      </c>
-      <c r="AC183">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384625</v>
+        <v>7384629</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>53</v>
+      </c>
+      <c r="K184">
+        <v>2.625</v>
+      </c>
+      <c r="L184">
+        <v>3.3</v>
+      </c>
+      <c r="M184">
+        <v>2.5</v>
+      </c>
+      <c r="N184">
+        <v>2.7</v>
+      </c>
+      <c r="O184">
+        <v>3.4</v>
+      </c>
+      <c r="P184">
+        <v>2.375</v>
+      </c>
+      <c r="Q184">
         <v>0</v>
       </c>
-      <c r="J184" t="s">
-        <v>52</v>
-      </c>
-      <c r="K184">
-        <v>1.5</v>
-      </c>
-      <c r="L184">
-        <v>3.75</v>
-      </c>
-      <c r="M184">
-        <v>7</v>
-      </c>
-      <c r="N184">
-        <v>1.363</v>
-      </c>
-      <c r="O184">
-        <v>4.333</v>
-      </c>
-      <c r="P184">
-        <v>9.5</v>
-      </c>
-      <c r="Q184">
-        <v>-1.25</v>
-      </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384627</v>
+        <v>7384630</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,49 +16933,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K185">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L185">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="N185">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O185">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q185">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2</v>
-      </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U185">
         <v>1.85</v>
@@ -16984,19 +16984,19 @@
         <v>1.95</v>
       </c>
       <c r="W185">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z185">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
         <v>-1</v>
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384629</v>
+        <v>7384628</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,55 +17022,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
         <v>53</v>
       </c>
       <c r="K186">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L186">
         <v>3.3</v>
       </c>
       <c r="M186">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17079,19 +17079,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC186">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,13 +17111,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17126,43 +17126,43 @@
         <v>51</v>
       </c>
       <c r="K187">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L187">
         <v>5</v>
       </c>
       <c r="M187">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N187">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O187">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P187">
         <v>13</v>
       </c>
       <c r="Q187">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R187">
+        <v>1.8</v>
+      </c>
+      <c r="S187">
+        <v>2</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
         <v>1.85</v>
       </c>
-      <c r="S187">
+      <c r="V187">
         <v>1.95</v>
       </c>
-      <c r="T187">
-        <v>3.25</v>
-      </c>
-      <c r="U187">
-        <v>2</v>
-      </c>
-      <c r="V187">
-        <v>1.8</v>
-      </c>
       <c r="W187">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17171,16 +17171,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384630</v>
+        <v>7384626</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H188">
+        <v>3</v>
+      </c>
+      <c r="I188">
         <v>0</v>
       </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M188">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="N188">
-        <v>1.75</v>
+        <v>1.166</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P188">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
+        <v>1.95</v>
+      </c>
+      <c r="T188">
+        <v>3.25</v>
+      </c>
+      <c r="U188">
+        <v>2</v>
+      </c>
+      <c r="V188">
         <v>1.8</v>
       </c>
-      <c r="T188">
-        <v>3</v>
-      </c>
-      <c r="U188">
-        <v>1.85</v>
-      </c>
-      <c r="V188">
-        <v>1.95</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K252">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L252">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M252">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N252">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O252">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P252">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q252">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X252">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G253" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K253">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L253">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M253">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N253">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O253">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P253">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R253">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC253">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -25554,7 +25554,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>8042073</v>
+        <v>8042071</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,64 +25563,79 @@
         <v>28</v>
       </c>
       <c r="E282" s="2">
-        <v>45396.79166666666</v>
+        <v>45395.6875</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="H282">
+        <v>2</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282" t="s">
+        <v>51</v>
       </c>
       <c r="K282">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L282">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M282">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N282">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O282">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P282">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q282">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S282">
         <v>2.025</v>
       </c>
       <c r="T282">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V282">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W282">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA282">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB282">
+        <v>-0.5</v>
+      </c>
+      <c r="AC282">
+        <v>0.45</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25628,7 +25643,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>8042219</v>
+        <v>8042072</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25637,64 +25652,79 @@
         <v>28</v>
       </c>
       <c r="E283" s="2">
-        <v>45396.89583333334</v>
+        <v>45395.79166666666</v>
       </c>
       <c r="F283" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G283" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="H283">
+        <v>2</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283" t="s">
+        <v>51</v>
       </c>
       <c r="K283">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L283">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M283">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N283">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O283">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P283">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q283">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R283">
+        <v>1.925</v>
+      </c>
+      <c r="S283">
+        <v>1.925</v>
+      </c>
+      <c r="T283">
+        <v>3</v>
+      </c>
+      <c r="U283">
         <v>1.875</v>
       </c>
-      <c r="S283">
+      <c r="V283">
         <v>1.975</v>
       </c>
-      <c r="T283">
-        <v>2.75</v>
-      </c>
-      <c r="U283">
-        <v>2.025</v>
-      </c>
-      <c r="V283">
-        <v>1.825</v>
-      </c>
       <c r="W283">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA283">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB283">
+        <v>-1</v>
+      </c>
+      <c r="AC283">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25702,7 +25732,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>8042075</v>
+        <v>8071407</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25711,138 +25741,79 @@
         <v>28</v>
       </c>
       <c r="E284" s="2">
-        <v>45397.70833333334</v>
+        <v>45395.91666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G284" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284" t="s">
+        <v>53</v>
       </c>
       <c r="K284">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L284">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M284">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="N284">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="O284">
         <v>3.8</v>
       </c>
       <c r="P284">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q284">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R284">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S284">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T284">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U284">
+        <v>1.925</v>
+      </c>
+      <c r="V284">
         <v>1.875</v>
       </c>
-      <c r="V284">
-        <v>1.975</v>
-      </c>
       <c r="W284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z284">
         <v>0</v>
       </c>
       <c r="AA284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:29">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285">
-        <v>8071422</v>
-      </c>
-      <c r="C285" t="s">
-        <v>28</v>
-      </c>
-      <c r="D285" t="s">
-        <v>28</v>
-      </c>
-      <c r="E285" s="2">
-        <v>45397.89583333334</v>
-      </c>
-      <c r="F285" t="s">
-        <v>34</v>
-      </c>
-      <c r="G285" t="s">
-        <v>29</v>
-      </c>
-      <c r="K285">
-        <v>4</v>
-      </c>
-      <c r="L285">
-        <v>3.6</v>
-      </c>
-      <c r="M285">
-        <v>1.833</v>
-      </c>
-      <c r="N285">
-        <v>3.3</v>
-      </c>
-      <c r="O285">
-        <v>3.5</v>
-      </c>
-      <c r="P285">
-        <v>2.05</v>
-      </c>
-      <c r="Q285">
-        <v>0.25</v>
-      </c>
-      <c r="R285">
-        <v>2.025</v>
-      </c>
-      <c r="S285">
-        <v>1.825</v>
-      </c>
-      <c r="T285">
-        <v>2.5</v>
-      </c>
-      <c r="U285">
-        <v>1.825</v>
-      </c>
-      <c r="V285">
-        <v>2.025</v>
-      </c>
-      <c r="W285">
-        <v>0</v>
-      </c>
-      <c r="X285">
-        <v>0</v>
-      </c>
-      <c r="Y285">
-        <v>0</v>
-      </c>
-      <c r="Z285">
-        <v>0</v>
-      </c>
-      <c r="AA285">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB284">
+        <v>0.925</v>
+      </c>
+      <c r="AC284">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC284"/>
+  <dimension ref="A1:AC290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
+        <v>2.1</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
         <v>1.75</v>
       </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.571</v>
-      </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P156">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
         <v>6.5</v>
       </c>
-      <c r="P157">
-        <v>12</v>
-      </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB175">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,58 +16132,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
         <v>51</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L176">
+        <v>3.2</v>
+      </c>
+      <c r="M176">
         <v>3.75</v>
       </c>
-      <c r="M176">
+      <c r="N176">
+        <v>1.75</v>
+      </c>
+      <c r="O176">
+        <v>3.4</v>
+      </c>
+      <c r="P176">
         <v>4.333</v>
       </c>
-      <c r="N176">
-        <v>1.25</v>
-      </c>
-      <c r="O176">
-        <v>5.25</v>
-      </c>
-      <c r="P176">
-        <v>10</v>
-      </c>
       <c r="Q176">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16192,16 +16192,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,13 +16577,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -16601,34 +16601,34 @@
         <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16637,16 +16637,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,13 +16666,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -16690,34 +16690,34 @@
         <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16726,16 +16726,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384625</v>
+        <v>7384630</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K183">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N183">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,55 +16933,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
         <v>53</v>
       </c>
       <c r="K185">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N185">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O185">
         <v>3.6</v>
       </c>
       <c r="P185">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16990,19 +16990,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC185">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384628</v>
+        <v>7384627</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,40 +17022,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="N186">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q186">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R186">
         <v>1.8</v>
@@ -17067,31 +17067,31 @@
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384627</v>
+        <v>7384625</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K187">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N187">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q187">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>1.925</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
         <v>1.8</v>
       </c>
-      <c r="S187">
-        <v>2</v>
-      </c>
-      <c r="T187">
-        <v>2.75</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K228">
+        <v>3.3</v>
+      </c>
+      <c r="L228">
+        <v>3.3</v>
+      </c>
+      <c r="M228">
+        <v>2.1</v>
+      </c>
+      <c r="N228">
+        <v>4.5</v>
+      </c>
+      <c r="O228">
+        <v>3.2</v>
+      </c>
+      <c r="P228">
+        <v>1.95</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>1.85</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.775</v>
+      </c>
+      <c r="V228">
+        <v>2.1</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
         <v>2.2</v>
       </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
-      <c r="M228">
-        <v>3.2</v>
-      </c>
-      <c r="N228">
-        <v>1.6</v>
-      </c>
-      <c r="O228">
-        <v>3.75</v>
-      </c>
-      <c r="P228">
-        <v>5.75</v>
-      </c>
-      <c r="Q228">
-        <v>-0.75</v>
-      </c>
-      <c r="R228">
-        <v>1.85</v>
-      </c>
-      <c r="S228">
-        <v>2</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.875</v>
-      </c>
-      <c r="W228">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N229">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -25814,6 +25814,525 @@
       </c>
       <c r="AC284">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>8042215</v>
+      </c>
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F285" t="s">
+        <v>37</v>
+      </c>
+      <c r="G285" t="s">
+        <v>50</v>
+      </c>
+      <c r="H285">
+        <v>3</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285" t="s">
+        <v>51</v>
+      </c>
+      <c r="K285">
+        <v>1.8</v>
+      </c>
+      <c r="L285">
+        <v>3.5</v>
+      </c>
+      <c r="M285">
+        <v>4.333</v>
+      </c>
+      <c r="N285">
+        <v>1.5</v>
+      </c>
+      <c r="O285">
+        <v>3.8</v>
+      </c>
+      <c r="P285">
+        <v>7</v>
+      </c>
+      <c r="Q285">
+        <v>-1</v>
+      </c>
+      <c r="R285">
+        <v>1.8</v>
+      </c>
+      <c r="S285">
+        <v>2</v>
+      </c>
+      <c r="T285">
+        <v>2.5</v>
+      </c>
+      <c r="U285">
+        <v>1.8</v>
+      </c>
+      <c r="V285">
+        <v>2</v>
+      </c>
+      <c r="W285">
+        <v>0.5</v>
+      </c>
+      <c r="X285">
+        <v>-1</v>
+      </c>
+      <c r="Y285">
+        <v>-1</v>
+      </c>
+      <c r="Z285">
+        <v>0.8</v>
+      </c>
+      <c r="AA285">
+        <v>-1</v>
+      </c>
+      <c r="AB285">
+        <v>0.8</v>
+      </c>
+      <c r="AC285">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>8042073</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45396.79166666666</v>
+      </c>
+      <c r="F286" t="s">
+        <v>45</v>
+      </c>
+      <c r="G286" t="s">
+        <v>30</v>
+      </c>
+      <c r="H286">
+        <v>3</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286" t="s">
+        <v>51</v>
+      </c>
+      <c r="K286">
+        <v>1.909</v>
+      </c>
+      <c r="L286">
+        <v>3.6</v>
+      </c>
+      <c r="M286">
+        <v>3.6</v>
+      </c>
+      <c r="N286">
+        <v>2.45</v>
+      </c>
+      <c r="O286">
+        <v>3.4</v>
+      </c>
+      <c r="P286">
+        <v>2.7</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>1.8</v>
+      </c>
+      <c r="S286">
+        <v>2.05</v>
+      </c>
+      <c r="T286">
+        <v>2.5</v>
+      </c>
+      <c r="U286">
+        <v>1.975</v>
+      </c>
+      <c r="V286">
+        <v>1.825</v>
+      </c>
+      <c r="W286">
+        <v>1.45</v>
+      </c>
+      <c r="X286">
+        <v>-1</v>
+      </c>
+      <c r="Y286">
+        <v>-1</v>
+      </c>
+      <c r="Z286">
+        <v>0.8</v>
+      </c>
+      <c r="AA286">
+        <v>-1</v>
+      </c>
+      <c r="AB286">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC286">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>8042219</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45396.89583333334</v>
+      </c>
+      <c r="F287" t="s">
+        <v>43</v>
+      </c>
+      <c r="G287" t="s">
+        <v>35</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287" t="s">
+        <v>51</v>
+      </c>
+      <c r="K287">
+        <v>1.363</v>
+      </c>
+      <c r="L287">
+        <v>4.5</v>
+      </c>
+      <c r="M287">
+        <v>9</v>
+      </c>
+      <c r="N287">
+        <v>1.333</v>
+      </c>
+      <c r="O287">
+        <v>4.75</v>
+      </c>
+      <c r="P287">
+        <v>10</v>
+      </c>
+      <c r="Q287">
+        <v>-1.5</v>
+      </c>
+      <c r="R287">
+        <v>2.025</v>
+      </c>
+      <c r="S287">
+        <v>1.825</v>
+      </c>
+      <c r="T287">
+        <v>2.75</v>
+      </c>
+      <c r="U287">
+        <v>2</v>
+      </c>
+      <c r="V287">
+        <v>1.85</v>
+      </c>
+      <c r="W287">
+        <v>0.333</v>
+      </c>
+      <c r="X287">
+        <v>-1</v>
+      </c>
+      <c r="Y287">
+        <v>-1</v>
+      </c>
+      <c r="Z287">
+        <v>1.025</v>
+      </c>
+      <c r="AA287">
+        <v>-1</v>
+      </c>
+      <c r="AB287">
+        <v>-1</v>
+      </c>
+      <c r="AC287">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>8042075</v>
+      </c>
+      <c r="C288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45397.70833333334</v>
+      </c>
+      <c r="F288" t="s">
+        <v>47</v>
+      </c>
+      <c r="G288" t="s">
+        <v>48</v>
+      </c>
+      <c r="H288">
+        <v>2</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288" t="s">
+        <v>51</v>
+      </c>
+      <c r="K288">
+        <v>1.909</v>
+      </c>
+      <c r="L288">
+        <v>3.5</v>
+      </c>
+      <c r="M288">
+        <v>3.75</v>
+      </c>
+      <c r="N288">
+        <v>1.7</v>
+      </c>
+      <c r="O288">
+        <v>3.75</v>
+      </c>
+      <c r="P288">
+        <v>4.5</v>
+      </c>
+      <c r="Q288">
+        <v>-0.75</v>
+      </c>
+      <c r="R288">
+        <v>1.925</v>
+      </c>
+      <c r="S288">
+        <v>1.875</v>
+      </c>
+      <c r="T288">
+        <v>2.5</v>
+      </c>
+      <c r="U288">
+        <v>1.825</v>
+      </c>
+      <c r="V288">
+        <v>1.975</v>
+      </c>
+      <c r="W288">
+        <v>0.7</v>
+      </c>
+      <c r="X288">
+        <v>-1</v>
+      </c>
+      <c r="Y288">
+        <v>-1</v>
+      </c>
+      <c r="Z288">
+        <v>0.925</v>
+      </c>
+      <c r="AA288">
+        <v>-1</v>
+      </c>
+      <c r="AB288">
+        <v>-1</v>
+      </c>
+      <c r="AC288">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:29">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>8071422</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45397.89583333334</v>
+      </c>
+      <c r="F289" t="s">
+        <v>34</v>
+      </c>
+      <c r="G289" t="s">
+        <v>29</v>
+      </c>
+      <c r="H289">
+        <v>2</v>
+      </c>
+      <c r="I289">
+        <v>3</v>
+      </c>
+      <c r="J289" t="s">
+        <v>53</v>
+      </c>
+      <c r="K289">
+        <v>4</v>
+      </c>
+      <c r="L289">
+        <v>3.6</v>
+      </c>
+      <c r="M289">
+        <v>1.833</v>
+      </c>
+      <c r="N289">
+        <v>3</v>
+      </c>
+      <c r="O289">
+        <v>3.25</v>
+      </c>
+      <c r="P289">
+        <v>2.45</v>
+      </c>
+      <c r="Q289">
+        <v>0.25</v>
+      </c>
+      <c r="R289">
+        <v>1.8</v>
+      </c>
+      <c r="S289">
+        <v>2</v>
+      </c>
+      <c r="T289">
+        <v>2.5</v>
+      </c>
+      <c r="U289">
+        <v>1.8</v>
+      </c>
+      <c r="V289">
+        <v>2</v>
+      </c>
+      <c r="W289">
+        <v>-1</v>
+      </c>
+      <c r="X289">
+        <v>-1</v>
+      </c>
+      <c r="Y289">
+        <v>1.45</v>
+      </c>
+      <c r="Z289">
+        <v>-1</v>
+      </c>
+      <c r="AA289">
+        <v>1</v>
+      </c>
+      <c r="AB289">
+        <v>0.8</v>
+      </c>
+      <c r="AC289">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:29">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>8042076</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45400.91666666666</v>
+      </c>
+      <c r="F290" t="s">
+        <v>43</v>
+      </c>
+      <c r="G290" t="s">
+        <v>36</v>
+      </c>
+      <c r="K290">
+        <v>1.25</v>
+      </c>
+      <c r="L290">
+        <v>5.5</v>
+      </c>
+      <c r="M290">
+        <v>11</v>
+      </c>
+      <c r="N290">
+        <v>1.333</v>
+      </c>
+      <c r="O290">
+        <v>5</v>
+      </c>
+      <c r="P290">
+        <v>9.5</v>
+      </c>
+      <c r="Q290">
+        <v>-1.5</v>
+      </c>
+      <c r="R290">
+        <v>2.025</v>
+      </c>
+      <c r="S290">
+        <v>1.825</v>
+      </c>
+      <c r="T290">
+        <v>2.5</v>
+      </c>
+      <c r="U290">
+        <v>1.875</v>
+      </c>
+      <c r="V290">
+        <v>1.975</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>0</v>
+      </c>
+      <c r="AA290">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC290"/>
+  <dimension ref="A1:AC291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
         <v>1.75</v>
       </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>1.571</v>
-      </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
         <v>6.5</v>
       </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N157">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
         <v>1</v>
       </c>
-      <c r="I180">
-        <v>2</v>
-      </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U180">
+        <v>1.925</v>
+      </c>
+      <c r="V180">
         <v>1.875</v>
       </c>
-      <c r="V180">
-        <v>1.975</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,76 +16577,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N181">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q181">
         <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z181">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,13 +16666,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -16690,34 +16690,34 @@
         <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16726,16 +16726,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384630</v>
+        <v>7384627</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,49 +16755,49 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
         <v>0</v>
       </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
       <c r="J183" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
         <v>1.85</v>
@@ -16806,19 +16806,19 @@
         <v>1.95</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA183">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
         <v>-1</v>
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384629</v>
+        <v>7384628</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,55 +16844,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
         <v>53</v>
       </c>
       <c r="K184">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L184">
         <v>3.3</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N184">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16901,19 +16901,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,55 +16933,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
         <v>1</v>
-      </c>
-      <c r="I185">
-        <v>2</v>
       </c>
       <c r="J185" t="s">
         <v>53</v>
       </c>
       <c r="K185">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N185">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O185">
         <v>3.6</v>
       </c>
       <c r="P185">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2</v>
-      </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16990,19 +16990,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384627</v>
+        <v>7384629</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>53</v>
+      </c>
+      <c r="K186">
+        <v>2.625</v>
+      </c>
+      <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>2.5</v>
+      </c>
+      <c r="N186">
+        <v>2.7</v>
+      </c>
+      <c r="O186">
+        <v>3.4</v>
+      </c>
+      <c r="P186">
+        <v>2.375</v>
+      </c>
+      <c r="Q186">
         <v>0</v>
       </c>
-      <c r="J186" t="s">
-        <v>51</v>
-      </c>
-      <c r="K186">
-        <v>1.25</v>
-      </c>
-      <c r="L186">
-        <v>5</v>
-      </c>
-      <c r="M186">
-        <v>12</v>
-      </c>
-      <c r="N186">
-        <v>1.181</v>
-      </c>
-      <c r="O186">
-        <v>6</v>
-      </c>
-      <c r="P186">
-        <v>13</v>
-      </c>
-      <c r="Q186">
-        <v>-1.75</v>
-      </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z186">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384625</v>
+        <v>7384626</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M187">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N187">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P187">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U187">
+        <v>2</v>
+      </c>
+      <c r="V187">
         <v>1.8</v>
       </c>
-      <c r="V187">
-        <v>2</v>
-      </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X187">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384626</v>
+        <v>7384625</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K188">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L188">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N188">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O188">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q188">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K228">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N228">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
+        <v>3.3</v>
+      </c>
+      <c r="L229">
+        <v>3.3</v>
+      </c>
+      <c r="M229">
+        <v>2.1</v>
+      </c>
+      <c r="N229">
+        <v>4.5</v>
+      </c>
+      <c r="O229">
+        <v>3.2</v>
+      </c>
+      <c r="P229">
+        <v>1.95</v>
+      </c>
+      <c r="Q229">
+        <v>0.5</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>1.85</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
+        <v>1.775</v>
+      </c>
+      <c r="V229">
+        <v>2.1</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
         <v>2.2</v>
       </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
-      <c r="M229">
-        <v>3.2</v>
-      </c>
-      <c r="N229">
-        <v>1.6</v>
-      </c>
-      <c r="O229">
-        <v>3.75</v>
-      </c>
-      <c r="P229">
-        <v>5.75</v>
-      </c>
-      <c r="Q229">
-        <v>-0.75</v>
-      </c>
-      <c r="R229">
-        <v>1.85</v>
-      </c>
-      <c r="S229">
-        <v>2</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>1.975</v>
-      </c>
-      <c r="V229">
-        <v>1.875</v>
-      </c>
-      <c r="W229">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K252">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L252">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M252">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N252">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O252">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P252">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R252">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U252">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K253">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L253">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M253">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N253">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O253">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P253">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q253">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T253">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X253">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA253">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -26266,7 +26266,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>8042076</v>
+        <v>8042077</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,49 +26275,49 @@
         <v>28</v>
       </c>
       <c r="E290" s="2">
-        <v>45400.91666666666</v>
+        <v>45401.70833333334</v>
       </c>
       <c r="F290" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G290" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K290">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L290">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M290">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N290">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="O290">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P290">
-        <v>9.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q290">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R290">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S290">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T290">
         <v>2.5</v>
       </c>
       <c r="U290">
+        <v>1.975</v>
+      </c>
+      <c r="V290">
         <v>1.875</v>
-      </c>
-      <c r="V290">
-        <v>1.975</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26332,6 +26332,80 @@
         <v>0</v>
       </c>
       <c r="AA290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>8042078</v>
+      </c>
+      <c r="C291" t="s">
+        <v>28</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45401.91666666666</v>
+      </c>
+      <c r="F291" t="s">
+        <v>38</v>
+      </c>
+      <c r="G291" t="s">
+        <v>34</v>
+      </c>
+      <c r="K291">
+        <v>1.727</v>
+      </c>
+      <c r="L291">
+        <v>3.75</v>
+      </c>
+      <c r="M291">
+        <v>4.333</v>
+      </c>
+      <c r="N291">
+        <v>2.15</v>
+      </c>
+      <c r="O291">
+        <v>3.4</v>
+      </c>
+      <c r="P291">
+        <v>3.4</v>
+      </c>
+      <c r="Q291">
+        <v>-0.25</v>
+      </c>
+      <c r="R291">
+        <v>1.825</v>
+      </c>
+      <c r="S291">
+        <v>2.025</v>
+      </c>
+      <c r="T291">
+        <v>2.5</v>
+      </c>
+      <c r="U291">
+        <v>2.025</v>
+      </c>
+      <c r="V291">
+        <v>1.825</v>
+      </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>0</v>
+      </c>
+      <c r="Z291">
+        <v>0</v>
+      </c>
+      <c r="AA291">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC291"/>
+  <dimension ref="A1:AC293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P156">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
         <v>6.5</v>
       </c>
-      <c r="P157">
-        <v>12</v>
-      </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
         <v>1.75</v>
       </c>
       <c r="O176">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q176">
         <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB176">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,55 +16844,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
         <v>1</v>
-      </c>
-      <c r="I184">
-        <v>2</v>
       </c>
       <c r="J184" t="s">
         <v>53</v>
       </c>
       <c r="K184">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N184">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O184">
         <v>3.6</v>
       </c>
       <c r="P184">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16901,19 +16901,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,10 +16933,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -16948,40 +16948,40 @@
         <v>53</v>
       </c>
       <c r="K185">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L185">
+        <v>3.3</v>
+      </c>
+      <c r="M185">
+        <v>2.5</v>
+      </c>
+      <c r="N185">
+        <v>2.7</v>
+      </c>
+      <c r="O185">
         <v>3.4</v>
       </c>
-      <c r="M185">
-        <v>2.15</v>
-      </c>
-      <c r="N185">
-        <v>1.75</v>
-      </c>
-      <c r="O185">
-        <v>3.6</v>
-      </c>
       <c r="P185">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16990,19 +16990,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384629</v>
+        <v>7384626</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H186">
+        <v>3</v>
+      </c>
+      <c r="I186">
         <v>0</v>
       </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M186">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N186">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P186">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC186">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384626</v>
+        <v>7384625</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K187">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N187">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O187">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q187">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384625</v>
+        <v>7384628</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K188">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M188">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N188">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
+        <v>1.8</v>
+      </c>
+      <c r="S188">
+        <v>2</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.975</v>
+      </c>
+      <c r="V188">
         <v>1.875</v>
       </c>
-      <c r="S188">
-        <v>1.925</v>
-      </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>1.8</v>
-      </c>
-      <c r="V188">
-        <v>2</v>
-      </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K252">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L252">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M252">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N252">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O252">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P252">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q252">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X252">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G253" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K253">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L253">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M253">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N253">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O253">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P253">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R253">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC253">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -26266,7 +26266,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>8042077</v>
+        <v>8042078</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,49 +26275,49 @@
         <v>28</v>
       </c>
       <c r="E290" s="2">
-        <v>45401.70833333334</v>
+        <v>45401.91666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G290" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K290">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="L290">
+        <v>3.75</v>
+      </c>
+      <c r="M290">
         <v>4.333</v>
       </c>
-      <c r="M290">
-        <v>1.533</v>
-      </c>
       <c r="N290">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O290">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P290">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="Q290">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R290">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S290">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T290">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U290">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V290">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26340,7 +26340,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>8042078</v>
+        <v>8042079</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26349,49 +26349,49 @@
         <v>28</v>
       </c>
       <c r="E291" s="2">
-        <v>45401.91666666666</v>
+        <v>45402.625</v>
       </c>
       <c r="F291" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G291" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K291">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L291">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M291">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N291">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O291">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P291">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S291">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T291">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U291">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V291">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W291">
         <v>0</v>
@@ -26406,6 +26406,154 @@
         <v>0</v>
       </c>
       <c r="AA291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>8042081</v>
+      </c>
+      <c r="C292" t="s">
+        <v>28</v>
+      </c>
+      <c r="D292" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45402.72916666666</v>
+      </c>
+      <c r="F292" t="s">
+        <v>30</v>
+      </c>
+      <c r="G292" t="s">
+        <v>37</v>
+      </c>
+      <c r="K292">
+        <v>2.2</v>
+      </c>
+      <c r="L292">
+        <v>3.3</v>
+      </c>
+      <c r="M292">
+        <v>3.2</v>
+      </c>
+      <c r="N292">
+        <v>1.65</v>
+      </c>
+      <c r="O292">
+        <v>3.4</v>
+      </c>
+      <c r="P292">
+        <v>5.25</v>
+      </c>
+      <c r="Q292">
+        <v>-0.75</v>
+      </c>
+      <c r="R292">
+        <v>1.875</v>
+      </c>
+      <c r="S292">
+        <v>1.975</v>
+      </c>
+      <c r="T292">
+        <v>2.25</v>
+      </c>
+      <c r="U292">
+        <v>1.85</v>
+      </c>
+      <c r="V292">
+        <v>2</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>0</v>
+      </c>
+      <c r="Z292">
+        <v>0</v>
+      </c>
+      <c r="AA292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:29">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>8042080</v>
+      </c>
+      <c r="C293" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" t="s">
+        <v>28</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45402.72916666666</v>
+      </c>
+      <c r="F293" t="s">
+        <v>42</v>
+      </c>
+      <c r="G293" t="s">
+        <v>47</v>
+      </c>
+      <c r="K293">
+        <v>2.5</v>
+      </c>
+      <c r="L293">
+        <v>3.3</v>
+      </c>
+      <c r="M293">
+        <v>2.75</v>
+      </c>
+      <c r="N293">
+        <v>2.1</v>
+      </c>
+      <c r="O293">
+        <v>3.3</v>
+      </c>
+      <c r="P293">
+        <v>3.25</v>
+      </c>
+      <c r="Q293">
+        <v>-0.25</v>
+      </c>
+      <c r="R293">
+        <v>1.825</v>
+      </c>
+      <c r="S293">
+        <v>2.025</v>
+      </c>
+      <c r="T293">
+        <v>2.25</v>
+      </c>
+      <c r="U293">
+        <v>1.85</v>
+      </c>
+      <c r="V293">
+        <v>2</v>
+      </c>
+      <c r="W293">
+        <v>0</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+      <c r="Y293">
+        <v>0</v>
+      </c>
+      <c r="Z293">
+        <v>0</v>
+      </c>
+      <c r="AA293">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC293"/>
+  <dimension ref="A1:AC294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302795</v>
+        <v>7302200</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N176">
         <v>1.75</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q176">
         <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
         <v>1.75</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,13 +16488,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16512,34 +16512,34 @@
         <v>3.5</v>
       </c>
       <c r="N180">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,16 +16548,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384624</v>
+        <v>7384623</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,13 +16666,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -16690,34 +16690,34 @@
         <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
-        <v>0.45</v>
+        <v>0.833</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16726,16 +16726,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384627</v>
+        <v>7384629</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,76 +16755,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>53</v>
+      </c>
+      <c r="K183">
+        <v>2.625</v>
+      </c>
+      <c r="L183">
+        <v>3.3</v>
+      </c>
+      <c r="M183">
+        <v>2.5</v>
+      </c>
+      <c r="N183">
+        <v>2.7</v>
+      </c>
+      <c r="O183">
+        <v>3.4</v>
+      </c>
+      <c r="P183">
+        <v>2.375</v>
+      </c>
+      <c r="Q183">
         <v>0</v>
       </c>
-      <c r="J183" t="s">
-        <v>51</v>
-      </c>
-      <c r="K183">
-        <v>1.25</v>
-      </c>
-      <c r="L183">
-        <v>5</v>
-      </c>
-      <c r="M183">
-        <v>12</v>
-      </c>
-      <c r="N183">
-        <v>1.181</v>
-      </c>
-      <c r="O183">
-        <v>6</v>
-      </c>
-      <c r="P183">
-        <v>13</v>
-      </c>
-      <c r="Q183">
-        <v>-1.75</v>
-      </c>
       <c r="R183">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z183">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384630</v>
+        <v>7384628</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,55 +16844,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
         <v>53</v>
       </c>
       <c r="K184">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M184">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N184">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O184">
         <v>3.6</v>
       </c>
       <c r="P184">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16901,19 +16901,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384629</v>
+        <v>7384626</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H185">
+        <v>3</v>
+      </c>
+      <c r="I185">
         <v>0</v>
       </c>
-      <c r="I185">
-        <v>1</v>
-      </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K185">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M185">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N185">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P185">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R185">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA185">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384626</v>
+        <v>7384630</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>53</v>
+      </c>
+      <c r="K186">
+        <v>2.8</v>
+      </c>
+      <c r="L186">
+        <v>3.4</v>
+      </c>
+      <c r="M186">
+        <v>2.15</v>
+      </c>
+      <c r="N186">
+        <v>1.75</v>
+      </c>
+      <c r="O186">
+        <v>3.6</v>
+      </c>
+      <c r="P186">
+        <v>3.8</v>
+      </c>
+      <c r="Q186">
+        <v>-0.75</v>
+      </c>
+      <c r="R186">
+        <v>2</v>
+      </c>
+      <c r="S186">
+        <v>1.8</v>
+      </c>
+      <c r="T186">
         <v>3</v>
       </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186" t="s">
-        <v>51</v>
-      </c>
-      <c r="K186">
-        <v>1.3</v>
-      </c>
-      <c r="L186">
-        <v>5</v>
-      </c>
-      <c r="M186">
-        <v>9</v>
-      </c>
-      <c r="N186">
-        <v>1.166</v>
-      </c>
-      <c r="O186">
-        <v>6.5</v>
-      </c>
-      <c r="P186">
-        <v>13</v>
-      </c>
-      <c r="Q186">
-        <v>-2</v>
-      </c>
-      <c r="R186">
+      <c r="U186">
         <v>1.85</v>
       </c>
-      <c r="S186">
+      <c r="V186">
         <v>1.95</v>
       </c>
-      <c r="T186">
-        <v>3.25</v>
-      </c>
-      <c r="U186">
-        <v>2</v>
-      </c>
-      <c r="V186">
-        <v>1.8</v>
-      </c>
       <c r="W186">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384625</v>
+        <v>7384627</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M187">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N187">
-        <v>1.363</v>
+        <v>1.181</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P187">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X187">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384628</v>
+        <v>7384625</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188" t="s">
+        <v>52</v>
+      </c>
+      <c r="K188">
+        <v>1.5</v>
+      </c>
+      <c r="L188">
+        <v>3.75</v>
+      </c>
+      <c r="M188">
+        <v>7</v>
+      </c>
+      <c r="N188">
+        <v>1.363</v>
+      </c>
+      <c r="O188">
+        <v>4.333</v>
+      </c>
+      <c r="P188">
+        <v>9.5</v>
+      </c>
+      <c r="Q188">
+        <v>-1.25</v>
+      </c>
+      <c r="R188">
+        <v>1.875</v>
+      </c>
+      <c r="S188">
+        <v>1.925</v>
+      </c>
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>3.333</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>0.925</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>1</v>
-      </c>
-      <c r="I188">
-        <v>2</v>
-      </c>
-      <c r="J188" t="s">
-        <v>53</v>
-      </c>
-      <c r="K188">
-        <v>2.75</v>
-      </c>
-      <c r="L188">
-        <v>3.3</v>
-      </c>
-      <c r="M188">
-        <v>2.375</v>
-      </c>
-      <c r="N188">
-        <v>3.3</v>
-      </c>
-      <c r="O188">
-        <v>3.6</v>
-      </c>
-      <c r="P188">
-        <v>2</v>
-      </c>
-      <c r="Q188">
-        <v>0.5</v>
-      </c>
-      <c r="R188">
-        <v>1.8</v>
-      </c>
-      <c r="S188">
-        <v>2</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.975</v>
-      </c>
-      <c r="V188">
-        <v>1.875</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>1</v>
-      </c>
-      <c r="Z188">
-        <v>-1</v>
-      </c>
-      <c r="AA188">
-        <v>1</v>
-      </c>
-      <c r="AB188">
-        <v>0.4875</v>
-      </c>
-      <c r="AC188">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K228">
+        <v>3.3</v>
+      </c>
+      <c r="L228">
+        <v>3.3</v>
+      </c>
+      <c r="M228">
+        <v>2.1</v>
+      </c>
+      <c r="N228">
+        <v>4.5</v>
+      </c>
+      <c r="O228">
+        <v>3.2</v>
+      </c>
+      <c r="P228">
+        <v>1.95</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>1.85</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.775</v>
+      </c>
+      <c r="V228">
+        <v>2.1</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
         <v>2.2</v>
       </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
-      <c r="M228">
-        <v>3.2</v>
-      </c>
-      <c r="N228">
-        <v>1.6</v>
-      </c>
-      <c r="O228">
-        <v>3.75</v>
-      </c>
-      <c r="P228">
-        <v>5.75</v>
-      </c>
-      <c r="Q228">
-        <v>-0.75</v>
-      </c>
-      <c r="R228">
-        <v>1.85</v>
-      </c>
-      <c r="S228">
-        <v>2</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.875</v>
-      </c>
-      <c r="W228">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,76 +20849,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N229">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -26266,7 +26266,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>8042078</v>
+        <v>8042076</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,64 +26275,79 @@
         <v>28</v>
       </c>
       <c r="E290" s="2">
-        <v>45401.91666666666</v>
+        <v>45400.91666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G290" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H290">
+        <v>3</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290" t="s">
+        <v>51</v>
       </c>
       <c r="K290">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="L290">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M290">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N290">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O290">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P290">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q290">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R290">
+        <v>1.775</v>
+      </c>
+      <c r="S290">
         <v>2.025</v>
       </c>
-      <c r="S290">
-        <v>1.825</v>
-      </c>
       <c r="T290">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U290">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V290">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W290">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="X290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA290">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB290">
+        <v>0.8</v>
+      </c>
+      <c r="AC290">
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26340,7 +26355,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>8042079</v>
+        <v>8042077</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26349,64 +26364,79 @@
         <v>28</v>
       </c>
       <c r="E291" s="2">
-        <v>45402.625</v>
+        <v>45401.70833333334</v>
       </c>
       <c r="F291" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G291" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+      <c r="I291">
+        <v>2</v>
+      </c>
+      <c r="J291" t="s">
+        <v>53</v>
       </c>
       <c r="K291">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L291">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M291">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="N291">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="O291">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P291">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q291">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R291">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S291">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T291">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U291">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V291">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W291">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X291">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z291">
         <v>0</v>
       </c>
       <c r="AA291">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB291">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC291">
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26414,7 +26444,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>8042081</v>
+        <v>8042079</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26423,49 +26453,49 @@
         <v>28</v>
       </c>
       <c r="E292" s="2">
-        <v>45402.72916666666</v>
+        <v>45402.625</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G292" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K292">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L292">
         <v>3.3</v>
       </c>
       <c r="M292">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N292">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O292">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P292">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q292">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
+        <v>1.975</v>
+      </c>
+      <c r="S292">
         <v>1.875</v>
       </c>
-      <c r="S292">
-        <v>1.975</v>
-      </c>
       <c r="T292">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U292">
+        <v>2</v>
+      </c>
+      <c r="V292">
         <v>1.85</v>
-      </c>
-      <c r="V292">
-        <v>2</v>
       </c>
       <c r="W292">
         <v>0</v>
@@ -26488,7 +26518,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8042080</v>
+        <v>8042081</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26500,37 +26530,37 @@
         <v>45402.72916666666</v>
       </c>
       <c r="F293" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K293">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L293">
         <v>3.3</v>
       </c>
       <c r="M293">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N293">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O293">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P293">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R293">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S293">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T293">
         <v>2.25</v>
@@ -26554,6 +26584,80 @@
         <v>0</v>
       </c>
       <c r="AA293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:29">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>8042080</v>
+      </c>
+      <c r="C294" t="s">
+        <v>28</v>
+      </c>
+      <c r="D294" t="s">
+        <v>28</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45402.72916666666</v>
+      </c>
+      <c r="F294" t="s">
+        <v>42</v>
+      </c>
+      <c r="G294" t="s">
+        <v>47</v>
+      </c>
+      <c r="K294">
+        <v>2.5</v>
+      </c>
+      <c r="L294">
+        <v>3.3</v>
+      </c>
+      <c r="M294">
+        <v>2.75</v>
+      </c>
+      <c r="N294">
+        <v>2.1</v>
+      </c>
+      <c r="O294">
+        <v>3.3</v>
+      </c>
+      <c r="P294">
+        <v>3.25</v>
+      </c>
+      <c r="Q294">
+        <v>-0.25</v>
+      </c>
+      <c r="R294">
+        <v>1.85</v>
+      </c>
+      <c r="S294">
+        <v>2</v>
+      </c>
+      <c r="T294">
+        <v>2.25</v>
+      </c>
+      <c r="U294">
+        <v>1.85</v>
+      </c>
+      <c r="V294">
+        <v>2</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>0</v>
+      </c>
+      <c r="Z294">
+        <v>0</v>
+      </c>
+      <c r="AA294">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
+        <v>2.1</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
         <v>1.75</v>
       </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.571</v>
-      </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
         <v>6.5</v>
       </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N157">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L175">
+        <v>3.2</v>
+      </c>
+      <c r="M175">
         <v>3.75</v>
       </c>
-      <c r="M175">
+      <c r="N175">
+        <v>1.75</v>
+      </c>
+      <c r="O175">
+        <v>3.4</v>
+      </c>
+      <c r="P175">
         <v>4.333</v>
       </c>
-      <c r="N175">
-        <v>1.25</v>
-      </c>
-      <c r="O175">
-        <v>5.25</v>
-      </c>
-      <c r="P175">
-        <v>10</v>
-      </c>
       <c r="Q175">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
         <v>1.75</v>
       </c>
       <c r="O176">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q176">
         <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB176">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384628</v>
+        <v>7384626</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N184">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="O184">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P184">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R184">
+        <v>1.85</v>
+      </c>
+      <c r="S184">
+        <v>1.95</v>
+      </c>
+      <c r="T184">
+        <v>3.25</v>
+      </c>
+      <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
-      <c r="U184">
-        <v>1.975</v>
-      </c>
-      <c r="V184">
-        <v>1.875</v>
-      </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384626</v>
+        <v>7384628</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K185">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="L185">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N185">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="O185">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q185">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T185">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB185">
+        <v>0.4875</v>
+      </c>
+      <c r="AC185">
         <v>-0.5</v>
-      </c>
-      <c r="AC185">
-        <v>0.4</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -26444,7 +26444,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>8042079</v>
+        <v>8042275</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26453,49 +26453,49 @@
         <v>28</v>
       </c>
       <c r="E292" s="2">
-        <v>45402.625</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F292" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G292" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K292">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L292">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M292">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N292">
+        <v>1.25</v>
+      </c>
+      <c r="O292">
+        <v>5.75</v>
+      </c>
+      <c r="P292">
+        <v>13</v>
+      </c>
+      <c r="Q292">
+        <v>-1.75</v>
+      </c>
+      <c r="R292">
         <v>1.95</v>
       </c>
-      <c r="O292">
-        <v>3.6</v>
-      </c>
-      <c r="P292">
-        <v>3.6</v>
-      </c>
-      <c r="Q292">
-        <v>-0.5</v>
-      </c>
-      <c r="R292">
-        <v>1.975</v>
-      </c>
       <c r="S292">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T292">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U292">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V292">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W292">
         <v>0</v>
@@ -26518,7 +26518,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8042081</v>
+        <v>8042082</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26527,49 +26527,49 @@
         <v>28</v>
       </c>
       <c r="E293" s="2">
-        <v>45402.72916666666</v>
+        <v>45403.6875</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G293" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K293">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L293">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M293">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N293">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O293">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P293">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q293">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S293">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T293">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U293">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V293">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W293">
         <v>0</v>
@@ -26592,7 +26592,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8042080</v>
+        <v>8042276</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26601,49 +26601,49 @@
         <v>28</v>
       </c>
       <c r="E294" s="2">
-        <v>45402.72916666666</v>
+        <v>45404.70833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G294" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K294">
+        <v>2.1</v>
+      </c>
+      <c r="L294">
+        <v>3.4</v>
+      </c>
+      <c r="M294">
+        <v>3.4</v>
+      </c>
+      <c r="N294">
+        <v>1.666</v>
+      </c>
+      <c r="O294">
+        <v>3.8</v>
+      </c>
+      <c r="P294">
+        <v>4.75</v>
+      </c>
+      <c r="Q294">
+        <v>-0.75</v>
+      </c>
+      <c r="R294">
+        <v>1.925</v>
+      </c>
+      <c r="S294">
+        <v>1.925</v>
+      </c>
+      <c r="T294">
         <v>2.5</v>
       </c>
-      <c r="L294">
-        <v>3.3</v>
-      </c>
-      <c r="M294">
-        <v>2.75</v>
-      </c>
-      <c r="N294">
-        <v>2.1</v>
-      </c>
-      <c r="O294">
-        <v>3.3</v>
-      </c>
-      <c r="P294">
-        <v>3.25</v>
-      </c>
-      <c r="Q294">
-        <v>-0.25</v>
-      </c>
-      <c r="R294">
-        <v>1.85</v>
-      </c>
-      <c r="S294">
-        <v>2</v>
-      </c>
-      <c r="T294">
-        <v>2.25</v>
-      </c>
       <c r="U294">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V294">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W294">
         <v>0</v>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC294"/>
+  <dimension ref="A1:AC298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6905571</v>
+        <v>6905578</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6905578</v>
+        <v>6905571</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
         <v>1.75</v>
       </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>1.571</v>
-      </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N175">
         <v>1.75</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q175">
         <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,58 +16221,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L177">
+        <v>3.2</v>
+      </c>
+      <c r="M177">
         <v>3.75</v>
       </c>
-      <c r="M177">
+      <c r="N177">
+        <v>1.75</v>
+      </c>
+      <c r="O177">
+        <v>3.4</v>
+      </c>
+      <c r="P177">
         <v>4.333</v>
       </c>
-      <c r="N177">
-        <v>1.25</v>
-      </c>
-      <c r="O177">
-        <v>5.25</v>
-      </c>
-      <c r="P177">
-        <v>10</v>
-      </c>
       <c r="Q177">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16281,16 +16281,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q180">
         <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16577,76 +16577,76 @@
         <v>45227.71875</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>1</v>
       </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
         <v>1.875</v>
       </c>
-      <c r="V181">
-        <v>1.975</v>
-      </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16666,13 +16666,13 @@
         <v>45227.71875</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -16690,34 +16690,34 @@
         <v>3.5</v>
       </c>
       <c r="N182">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16726,16 +16726,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16743,7 +16743,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384629</v>
+        <v>7384628</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16755,55 +16755,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
         <v>3.3</v>
       </c>
       <c r="M183">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N183">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16812,19 +16812,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384626</v>
+        <v>7384627</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,13 +16844,13 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16859,43 +16859,43 @@
         <v>51</v>
       </c>
       <c r="K184">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L184">
         <v>5</v>
       </c>
       <c r="M184">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N184">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O184">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P184">
         <v>13</v>
       </c>
       <c r="Q184">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R184">
+        <v>1.8</v>
+      </c>
+      <c r="S184">
+        <v>2</v>
+      </c>
+      <c r="T184">
+        <v>2.75</v>
+      </c>
+      <c r="U184">
         <v>1.85</v>
       </c>
-      <c r="S184">
+      <c r="V184">
         <v>1.95</v>
       </c>
-      <c r="T184">
-        <v>3.25</v>
-      </c>
-      <c r="U184">
-        <v>2</v>
-      </c>
-      <c r="V184">
-        <v>1.8</v>
-      </c>
       <c r="W184">
-        <v>0.1659999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16904,16 +16904,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384628</v>
+        <v>7384626</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K185">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M185">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N185">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P185">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R185">
+        <v>1.85</v>
+      </c>
+      <c r="S185">
+        <v>1.95</v>
+      </c>
+      <c r="T185">
+        <v>3.25</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2</v>
-      </c>
-      <c r="T185">
-        <v>2.75</v>
-      </c>
-      <c r="U185">
-        <v>1.975</v>
-      </c>
-      <c r="V185">
-        <v>1.875</v>
-      </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,10 +17022,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17037,40 +17037,40 @@
         <v>53</v>
       </c>
       <c r="K186">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>2.5</v>
+      </c>
+      <c r="N186">
+        <v>2.7</v>
+      </c>
+      <c r="O186">
         <v>3.4</v>
       </c>
-      <c r="M186">
-        <v>2.15</v>
-      </c>
-      <c r="N186">
-        <v>1.75</v>
-      </c>
-      <c r="O186">
-        <v>3.6</v>
-      </c>
       <c r="P186">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17079,19 +17079,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384627</v>
+        <v>7384625</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K187">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N187">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q187">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>1.925</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
         <v>1.8</v>
       </c>
-      <c r="S187">
-        <v>2</v>
-      </c>
-      <c r="T187">
-        <v>2.75</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384625</v>
+        <v>7384630</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K188">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N188">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,76 +22896,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K252">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L252">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M252">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N252">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O252">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P252">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R252">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U252">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
         <v>1.825</v>
       </c>
       <c r="W252">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,76 +22985,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K253">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L253">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M253">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N253">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O253">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P253">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q253">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T253">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V253">
         <v>1.825</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X253">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA253">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -26444,7 +26444,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>8042275</v>
+        <v>8042078</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26453,64 +26453,79 @@
         <v>28</v>
       </c>
       <c r="E292" s="2">
-        <v>45403.54166666666</v>
+        <v>45401.91666666666</v>
       </c>
       <c r="F292" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G292" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292" t="s">
+        <v>53</v>
       </c>
       <c r="K292">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L292">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M292">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="N292">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O292">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P292">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="Q292">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R292">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S292">
+        <v>1.8</v>
+      </c>
+      <c r="T292">
+        <v>2.75</v>
+      </c>
+      <c r="U292">
+        <v>1.875</v>
+      </c>
+      <c r="V292">
+        <v>1.975</v>
+      </c>
+      <c r="W292">
+        <v>-1</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+      <c r="Y292">
         <v>1.9</v>
       </c>
-      <c r="T292">
-        <v>3</v>
-      </c>
-      <c r="U292">
-        <v>1.825</v>
-      </c>
-      <c r="V292">
-        <v>2.025</v>
-      </c>
-      <c r="W292">
-        <v>0</v>
-      </c>
-      <c r="X292">
-        <v>0</v>
-      </c>
-      <c r="Y292">
-        <v>0</v>
-      </c>
       <c r="Z292">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB292">
+        <v>-1</v>
+      </c>
+      <c r="AC292">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26518,7 +26533,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8042082</v>
+        <v>8042079</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26527,64 +26542,79 @@
         <v>28</v>
       </c>
       <c r="E293" s="2">
-        <v>45403.6875</v>
+        <v>45402.625</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="H293">
+        <v>6</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293" t="s">
+        <v>51</v>
       </c>
       <c r="K293">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L293">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M293">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N293">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O293">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P293">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R293">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S293">
+        <v>1.85</v>
+      </c>
+      <c r="T293">
+        <v>2.75</v>
+      </c>
+      <c r="U293">
+        <v>2</v>
+      </c>
+      <c r="V293">
         <v>1.8</v>
       </c>
-      <c r="T293">
-        <v>2</v>
-      </c>
-      <c r="U293">
-        <v>1.775</v>
-      </c>
-      <c r="V293">
-        <v>2.1</v>
-      </c>
       <c r="W293">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X293">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA293">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB293">
+        <v>1</v>
+      </c>
+      <c r="AC293">
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26592,7 +26622,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8042276</v>
+        <v>8042081</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26601,40 +26631,49 @@
         <v>28</v>
       </c>
       <c r="E294" s="2">
-        <v>45404.70833333334</v>
+        <v>45402.72916666666</v>
       </c>
       <c r="F294" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G294" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294" t="s">
+        <v>51</v>
       </c>
       <c r="K294">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L294">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M294">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N294">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="O294">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P294">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q294">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R294">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S294">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T294">
         <v>2.5</v>
@@ -26646,18 +26685,335 @@
         <v>1.975</v>
       </c>
       <c r="W294">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
         <v>0</v>
       </c>
       <c r="AA294">
+        <v>-0</v>
+      </c>
+      <c r="AB294">
+        <v>-1</v>
+      </c>
+      <c r="AC294">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:29">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>8042080</v>
+      </c>
+      <c r="C295" t="s">
+        <v>28</v>
+      </c>
+      <c r="D295" t="s">
+        <v>28</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45402.72916666666</v>
+      </c>
+      <c r="F295" t="s">
+        <v>42</v>
+      </c>
+      <c r="G295" t="s">
+        <v>47</v>
+      </c>
+      <c r="H295">
+        <v>2</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295" t="s">
+        <v>51</v>
+      </c>
+      <c r="K295">
+        <v>2.5</v>
+      </c>
+      <c r="L295">
+        <v>3.3</v>
+      </c>
+      <c r="M295">
+        <v>2.75</v>
+      </c>
+      <c r="N295">
+        <v>2.25</v>
+      </c>
+      <c r="O295">
+        <v>3.1</v>
+      </c>
+      <c r="P295">
+        <v>3</v>
+      </c>
+      <c r="Q295">
+        <v>-0.25</v>
+      </c>
+      <c r="R295">
+        <v>2.025</v>
+      </c>
+      <c r="S295">
+        <v>1.775</v>
+      </c>
+      <c r="T295">
+        <v>2.25</v>
+      </c>
+      <c r="U295">
+        <v>2</v>
+      </c>
+      <c r="V295">
+        <v>1.8</v>
+      </c>
+      <c r="W295">
+        <v>1.25</v>
+      </c>
+      <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
+        <v>-1</v>
+      </c>
+      <c r="Z295">
+        <v>1.025</v>
+      </c>
+      <c r="AA295">
+        <v>-1</v>
+      </c>
+      <c r="AB295">
+        <v>-0.5</v>
+      </c>
+      <c r="AC295">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:29">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>8042275</v>
+      </c>
+      <c r="C296" t="s">
+        <v>28</v>
+      </c>
+      <c r="D296" t="s">
+        <v>28</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45403.54166666666</v>
+      </c>
+      <c r="F296" t="s">
+        <v>29</v>
+      </c>
+      <c r="G296" t="s">
+        <v>45</v>
+      </c>
+      <c r="K296">
+        <v>1.4</v>
+      </c>
+      <c r="L296">
+        <v>4.5</v>
+      </c>
+      <c r="M296">
+        <v>8</v>
+      </c>
+      <c r="N296">
+        <v>1.25</v>
+      </c>
+      <c r="O296">
+        <v>5.75</v>
+      </c>
+      <c r="P296">
+        <v>13</v>
+      </c>
+      <c r="Q296">
+        <v>-1.75</v>
+      </c>
+      <c r="R296">
+        <v>1.95</v>
+      </c>
+      <c r="S296">
+        <v>1.9</v>
+      </c>
+      <c r="T296">
+        <v>3</v>
+      </c>
+      <c r="U296">
+        <v>1.825</v>
+      </c>
+      <c r="V296">
+        <v>2.025</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>0</v>
+      </c>
+      <c r="Z296">
+        <v>0</v>
+      </c>
+      <c r="AA296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:29">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>8042082</v>
+      </c>
+      <c r="C297" t="s">
+        <v>28</v>
+      </c>
+      <c r="D297" t="s">
+        <v>28</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45403.6875</v>
+      </c>
+      <c r="F297" t="s">
+        <v>35</v>
+      </c>
+      <c r="G297" t="s">
+        <v>41</v>
+      </c>
+      <c r="K297">
+        <v>2.625</v>
+      </c>
+      <c r="L297">
+        <v>3.2</v>
+      </c>
+      <c r="M297">
+        <v>2.625</v>
+      </c>
+      <c r="N297">
+        <v>2.375</v>
+      </c>
+      <c r="O297">
+        <v>3</v>
+      </c>
+      <c r="P297">
+        <v>3.1</v>
+      </c>
+      <c r="Q297">
+        <v>-0.25</v>
+      </c>
+      <c r="R297">
+        <v>2.05</v>
+      </c>
+      <c r="S297">
+        <v>1.8</v>
+      </c>
+      <c r="T297">
+        <v>2</v>
+      </c>
+      <c r="U297">
+        <v>1.775</v>
+      </c>
+      <c r="V297">
+        <v>2.1</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>0</v>
+      </c>
+      <c r="Z297">
+        <v>0</v>
+      </c>
+      <c r="AA297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>8042276</v>
+      </c>
+      <c r="C298" t="s">
+        <v>28</v>
+      </c>
+      <c r="D298" t="s">
+        <v>28</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45404.70833333334</v>
+      </c>
+      <c r="F298" t="s">
+        <v>50</v>
+      </c>
+      <c r="G298" t="s">
+        <v>44</v>
+      </c>
+      <c r="K298">
+        <v>2.1</v>
+      </c>
+      <c r="L298">
+        <v>3.4</v>
+      </c>
+      <c r="M298">
+        <v>3.4</v>
+      </c>
+      <c r="N298">
+        <v>1.666</v>
+      </c>
+      <c r="O298">
+        <v>3.8</v>
+      </c>
+      <c r="P298">
+        <v>4.75</v>
+      </c>
+      <c r="Q298">
+        <v>-0.75</v>
+      </c>
+      <c r="R298">
+        <v>1.925</v>
+      </c>
+      <c r="S298">
+        <v>1.925</v>
+      </c>
+      <c r="T298">
+        <v>2.5</v>
+      </c>
+      <c r="U298">
+        <v>1.875</v>
+      </c>
+      <c r="V298">
+        <v>1.975</v>
+      </c>
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>0</v>
+      </c>
+      <c r="Z298">
+        <v>0</v>
+      </c>
+      <c r="AA298">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB296"/>
+  <dimension ref="A1:AB297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,10 +697,10 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
         <v>0.8500000000000001</v>
@@ -783,10 +783,10 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>0.875</v>
@@ -955,10 +955,10 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>0.925</v>
@@ -1041,10 +1041,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>-0.5</v>
@@ -1213,10 +1213,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>-0.5</v>
@@ -1299,10 +1299,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1385,10 +1385,10 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <v>0.8</v>
@@ -1471,10 +1471,10 @@
         <v>7.5</v>
       </c>
       <c r="Y11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
@@ -1643,10 +1643,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1729,10 +1729,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z16">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA16">
         <v>0.825</v>
@@ -2073,10 +2073,10 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2159,10 +2159,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2245,10 +2245,10 @@
         <v>0.363</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2331,10 +2331,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>0.8999999999999999</v>
@@ -2503,10 +2503,10 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2589,10 +2589,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z24">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2675,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="Y25">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2761,10 +2761,10 @@
         <v>4.25</v>
       </c>
       <c r="Y26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA26">
         <v>0.825</v>
@@ -2847,10 +2847,10 @@
         <v>7.5</v>
       </c>
       <c r="Y27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
         <v>0.9750000000000001</v>
@@ -2933,10 +2933,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z28">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA28">
         <v>0.475</v>
@@ -3105,10 +3105,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3363,10 +3363,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3449,10 +3449,10 @@
         <v>6</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3535,10 +3535,10 @@
         <v>4</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
         <v>0.925</v>
@@ -3621,10 +3621,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z36">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
         <v>-1</v>
@@ -3707,10 +3707,10 @@
         <v>5</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3793,10 +3793,10 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
         <v>0.4625</v>
@@ -3879,10 +3879,10 @@
         <v>0.25</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
         <v>0.95</v>
@@ -3965,10 +3965,10 @@
         <v>2.2</v>
       </c>
       <c r="Y40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4223,10 +4223,10 @@
         <v>3</v>
       </c>
       <c r="Y43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4309,10 +4309,10 @@
         <v>2.1</v>
       </c>
       <c r="Y44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA44">
         <v>0.8</v>
@@ -4395,10 +4395,10 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
         <v>0.925</v>
@@ -4567,10 +4567,10 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4653,10 +4653,10 @@
         <v>3.75</v>
       </c>
       <c r="Y48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -4997,10 +4997,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>-1</v>
@@ -5169,10 +5169,10 @@
         <v>0.95</v>
       </c>
       <c r="Y54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5255,10 +5255,10 @@
         <v>1.875</v>
       </c>
       <c r="Y55">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA55">
         <v>0.95</v>
@@ -5341,10 +5341,10 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5427,10 +5427,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5599,10 +5599,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>-0.5</v>
@@ -5857,10 +5857,10 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z62">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -5943,10 +5943,10 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
         <v>0.7749999999999999</v>
@@ -6029,10 +6029,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>0.825</v>
@@ -6115,10 +6115,10 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>0</v>
@@ -6459,10 +6459,10 @@
         <v>1.15</v>
       </c>
       <c r="Y69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
         <v>-0.5</v>
@@ -6545,10 +6545,10 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
         <v>-1</v>
@@ -6631,10 +6631,10 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
         <v>0.4125</v>
@@ -6717,10 +6717,10 @@
         <v>1.8</v>
       </c>
       <c r="Y72">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA72">
         <v>0.7749999999999999</v>
@@ -6803,10 +6803,10 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>0.95</v>
@@ -6889,10 +6889,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>1.025</v>
@@ -7061,10 +7061,10 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
         <v>0.8</v>
@@ -7147,10 +7147,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z77">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>0.875</v>
@@ -7319,10 +7319,10 @@
         <v>4.5</v>
       </c>
       <c r="Y79">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7491,10 +7491,10 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
         <v>0.825</v>
@@ -7663,10 +7663,10 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7749,10 +7749,10 @@
         <v>1.5</v>
       </c>
       <c r="Y84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
         <v>1.025</v>
@@ -8093,10 +8093,10 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
         <v>0</v>
@@ -8265,10 +8265,10 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8351,10 +8351,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8523,10 +8523,10 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>0</v>
@@ -8695,10 +8695,10 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
         <v>0.4</v>
@@ -8781,10 +8781,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA96">
         <v>-1</v>
@@ -8867,10 +8867,10 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z97">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -8953,10 +8953,10 @@
         <v>1.3</v>
       </c>
       <c r="Y98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
         <v>0.875</v>
@@ -9211,10 +9211,10 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
         <v>0.8999999999999999</v>
@@ -9641,10 +9641,10 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z106">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA106">
         <v>1</v>
@@ -9813,10 +9813,10 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z108">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA108">
         <v>0.3875</v>
@@ -9899,10 +9899,10 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>-0.5</v>
@@ -9985,10 +9985,10 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
         <v>-1</v>
@@ -10243,10 +10243,10 @@
         <v>1.75</v>
       </c>
       <c r="Y113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA113">
         <v>1.025</v>
@@ -10329,10 +10329,10 @@
         <v>6.5</v>
       </c>
       <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z114">
-        <v>-1</v>
       </c>
       <c r="AA114">
         <v>0.825</v>
@@ -10501,10 +10501,10 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10673,10 +10673,10 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
         <v>-1</v>
@@ -10759,10 +10759,10 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
         <v>0.8500000000000001</v>
@@ -10931,10 +10931,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>0.9750000000000001</v>
@@ -11017,10 +11017,10 @@
         <v>0.444</v>
       </c>
       <c r="Y122">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA122">
         <v>-0.5</v>
@@ -11103,10 +11103,10 @@
         <v>2</v>
       </c>
       <c r="Y123">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11361,10 +11361,10 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
         <v>0.9750000000000001</v>
@@ -11447,10 +11447,10 @@
         <v>4.25</v>
       </c>
       <c r="Y127">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA127">
         <v>0.8999999999999999</v>
@@ -11533,10 +11533,10 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
         <v>0.925</v>
@@ -11705,10 +11705,10 @@
         <v>1.25</v>
       </c>
       <c r="Y130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA130">
         <v>0.925</v>
@@ -11791,10 +11791,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>0.8500000000000001</v>
@@ -11963,10 +11963,10 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>0.875</v>
@@ -12049,10 +12049,10 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
         <v>0.8999999999999999</v>
@@ -12135,10 +12135,10 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z135">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA135">
         <v>-1</v>
@@ -12221,10 +12221,10 @@
         <v>0.5</v>
       </c>
       <c r="Y136">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
         <v>-1</v>
@@ -12393,10 +12393,10 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>0.8</v>
@@ -12565,10 +12565,10 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>0.4625</v>
@@ -12823,10 +12823,10 @@
         <v>1.25</v>
       </c>
       <c r="Y143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA143">
         <v>-1</v>
@@ -13081,10 +13081,10 @@
         <v>1.7</v>
       </c>
       <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z146">
-        <v>-1</v>
       </c>
       <c r="AA146">
         <v>-0.5</v>
@@ -13167,10 +13167,10 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z147">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA147">
         <v>0.875</v>
@@ -13253,10 +13253,10 @@
         <v>1.05</v>
       </c>
       <c r="Y148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA148">
         <v>0.8999999999999999</v>
@@ -13339,10 +13339,10 @@
         <v>1.75</v>
       </c>
       <c r="Y149">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>0.925</v>
@@ -13425,10 +13425,10 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
         <v>-0.5</v>
@@ -13769,10 +13769,10 @@
         <v>0.833</v>
       </c>
       <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
       </c>
       <c r="AA154">
         <v>-1</v>
@@ -13872,7 +13872,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -13881,61 +13881,61 @@
         <v>45198.70833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J156">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="K156">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L156">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M156">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="N156">
+        <v>4.2</v>
+      </c>
+      <c r="O156">
         <v>6.5</v>
       </c>
-      <c r="O156">
-        <v>12</v>
-      </c>
       <c r="P156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q156">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R156">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -13944,13 +13944,13 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13958,7 +13958,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13967,76 +13967,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J157">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="L157">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M157">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="N157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O157">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="P157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q157">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z157">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14113,10 +14113,10 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z158">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
         <v>0.95</v>
@@ -14199,10 +14199,10 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z159">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
         <v>-1</v>
@@ -14285,10 +14285,10 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
         <v>-1</v>
@@ -14371,10 +14371,10 @@
         <v>0.55</v>
       </c>
       <c r="Y161">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
         <v>-1</v>
@@ -14457,10 +14457,10 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
         <v>0.4125</v>
@@ -14543,10 +14543,10 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z163">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -14629,10 +14629,10 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
         <v>1</v>
@@ -14801,10 +14801,10 @@
         <v>1.7</v>
       </c>
       <c r="Y166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
         <v>0.825</v>
@@ -14887,10 +14887,10 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
         <v>1</v>
@@ -15145,10 +15145,10 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
         <v>0.425</v>
@@ -15317,10 +15317,10 @@
         <v>4.5</v>
       </c>
       <c r="Y172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA172">
         <v>0.3875</v>
@@ -15661,10 +15661,10 @@
         <v>3</v>
       </c>
       <c r="Y176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA176">
         <v>0.4125</v>
@@ -15747,10 +15747,10 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
         <v>0.8500000000000001</v>
@@ -15833,10 +15833,10 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z178">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
         <v>-1</v>
@@ -15919,10 +15919,10 @@
         <v>0.7</v>
       </c>
       <c r="Y179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA179">
         <v>1</v>
@@ -15936,7 +15936,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15945,76 +15945,76 @@
         <v>45227.71875</v>
       </c>
       <c r="E180" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G180">
+        <v>2</v>
+      </c>
+      <c r="H180">
         <v>1</v>
       </c>
-      <c r="H180">
-        <v>2</v>
-      </c>
       <c r="I180" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J180">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="K180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="L180">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="N180">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O180">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R180">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T180">
+        <v>1.925</v>
+      </c>
+      <c r="U180">
         <v>1.875</v>
       </c>
-      <c r="U180">
-        <v>1.975</v>
-      </c>
       <c r="V180">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16022,7 +16022,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
@@ -16031,13 +16031,13 @@
         <v>45227.71875</v>
       </c>
       <c r="E181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16055,34 +16055,34 @@
         <v>3.5</v>
       </c>
       <c r="M181">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="N181">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O181">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V181">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16108,7 +16108,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
@@ -16117,76 +16117,76 @@
         <v>45227.71875</v>
       </c>
       <c r="E182" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J182">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="K182">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M182">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N182">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O182">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P182">
         <v>-1</v>
       </c>
       <c r="Q182">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R182">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16194,7 +16194,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384628</v>
+        <v>7384627</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -16203,40 +16203,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J183">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="K183">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L183">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="M183">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="N183">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O183">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P183">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q183">
         <v>1.8</v>
@@ -16248,31 +16248,31 @@
         <v>2.75</v>
       </c>
       <c r="T183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16280,7 +16280,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384626</v>
+        <v>7384625</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -16289,61 +16289,61 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E184" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J184">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K184">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L184">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M184">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="N184">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="O184">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="P184">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="Q184">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V184">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16352,13 +16352,13 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16366,7 +16366,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
@@ -16375,40 +16375,40 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J185">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="K185">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L185">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="M185">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="N185">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O185">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P185">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -16420,19 +16420,19 @@
         <v>2.75</v>
       </c>
       <c r="T185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V185">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
@@ -16441,10 +16441,10 @@
         <v>1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB185">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16452,7 +16452,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384630</v>
+        <v>7384626</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16461,76 +16461,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J186">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="K186">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L186">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="M186">
-        <v>1.75</v>
+        <v>1.166</v>
       </c>
       <c r="N186">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O186">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="P186">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="Q186">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R186">
+        <v>1.95</v>
+      </c>
+      <c r="S186">
+        <v>3.25</v>
+      </c>
+      <c r="T186">
+        <v>2</v>
+      </c>
+      <c r="U186">
         <v>1.8</v>
       </c>
-      <c r="S186">
-        <v>3</v>
-      </c>
-      <c r="T186">
-        <v>1.85</v>
-      </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
       <c r="V186">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z186">
+        <v>-1</v>
+      </c>
+      <c r="AA186">
         <v>-0.5</v>
       </c>
-      <c r="AA186">
-        <v>-1</v>
-      </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16538,7 +16538,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384625</v>
+        <v>7384629</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16547,76 +16547,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J187">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="K187">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L187">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="M187">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="N187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O187">
-        <v>9.5</v>
+        <v>2.375</v>
       </c>
       <c r="P187">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q187">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R187">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T187">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
         <v>-1</v>
       </c>
       <c r="W187">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16624,7 +16624,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384629</v>
+        <v>7384630</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
@@ -16633,10 +16633,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16648,40 +16648,40 @@
         <v>52</v>
       </c>
       <c r="J188">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="K188">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="M188">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="N188">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O188">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q188">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
         <v>-1</v>
@@ -16690,19 +16690,19 @@
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>1.375</v>
+        <v>2.8</v>
       </c>
       <c r="Y188">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -16865,10 +16865,10 @@
         <v>1.6</v>
       </c>
       <c r="Y190">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA190">
         <v>0.3875</v>
@@ -16951,10 +16951,10 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
         <v>-1</v>
@@ -17123,10 +17123,10 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
         <v>0.925</v>
@@ -17295,10 +17295,10 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z195">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA195">
         <v>-1</v>
@@ -17467,10 +17467,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y197">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA197">
         <v>1.05</v>
@@ -17553,10 +17553,10 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z198">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
         <v>0.925</v>
@@ -17639,10 +17639,10 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA199">
         <v>0</v>
@@ -17811,10 +17811,10 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z201">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
         <v>0.95</v>
@@ -18155,10 +18155,10 @@
         <v>0.909</v>
       </c>
       <c r="Y205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA205">
         <v>-0.5</v>
@@ -18241,10 +18241,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA206">
         <v>0.8</v>
@@ -18327,10 +18327,10 @@
         <v>2.1</v>
       </c>
       <c r="Y207">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA207">
         <v>-1</v>
@@ -18413,10 +18413,10 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
         <v>0.8500000000000001</v>
@@ -18499,10 +18499,10 @@
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z209">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
         <v>0.8999999999999999</v>
@@ -18671,10 +18671,10 @@
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z211">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA211">
         <v>-1</v>
@@ -18757,10 +18757,10 @@
         <v>4</v>
       </c>
       <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
       </c>
       <c r="AA212">
         <v>0.8500000000000001</v>
@@ -18843,10 +18843,10 @@
         <v>1.55</v>
       </c>
       <c r="Y213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA213">
         <v>-1</v>
@@ -18929,10 +18929,10 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z214">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
         <v>-1</v>
@@ -19015,10 +19015,10 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
         <v>-0.5</v>
@@ -19101,10 +19101,10 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
         <v>-1</v>
@@ -19187,10 +19187,10 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z217">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
         <v>-1</v>
@@ -19273,10 +19273,10 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
         <v>0.925</v>
@@ -19359,10 +19359,10 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z219">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
         <v>-1</v>
@@ -19445,10 +19445,10 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z220">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
         <v>0.825</v>
@@ -19531,10 +19531,10 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
         <v>-1</v>
@@ -19617,10 +19617,10 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z222">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
         <v>-0.5</v>
@@ -19703,10 +19703,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA223">
         <v>0.925</v>
@@ -20047,10 +20047,10 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
         <v>0.925</v>
@@ -20064,7 +20064,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C228" t="s">
         <v>27</v>
@@ -20073,76 +20073,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E228" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J228">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="K228">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L228">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O228">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="P228">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U228">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V228">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:28">
@@ -20150,7 +20150,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
@@ -20159,76 +20159,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E229" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J229">
+        <v>3.3</v>
+      </c>
+      <c r="K229">
+        <v>3.3</v>
+      </c>
+      <c r="L229">
+        <v>2.1</v>
+      </c>
+      <c r="M229">
+        <v>4.5</v>
+      </c>
+      <c r="N229">
+        <v>3.2</v>
+      </c>
+      <c r="O229">
+        <v>1.95</v>
+      </c>
+      <c r="P229">
+        <v>0.5</v>
+      </c>
+      <c r="Q229">
+        <v>2</v>
+      </c>
+      <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
+        <v>2</v>
+      </c>
+      <c r="T229">
+        <v>1.775</v>
+      </c>
+      <c r="U229">
+        <v>2.1</v>
+      </c>
+      <c r="V229">
+        <v>-1</v>
+      </c>
+      <c r="W229">
         <v>2.2</v>
       </c>
-      <c r="K229">
-        <v>3.2</v>
-      </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
-      <c r="M229">
-        <v>1.6</v>
-      </c>
-      <c r="N229">
-        <v>3.75</v>
-      </c>
-      <c r="O229">
-        <v>5.75</v>
-      </c>
-      <c r="P229">
-        <v>-0.75</v>
-      </c>
-      <c r="Q229">
-        <v>1.85</v>
-      </c>
-      <c r="R229">
-        <v>2</v>
-      </c>
-      <c r="S229">
-        <v>2.5</v>
-      </c>
-      <c r="T229">
-        <v>1.975</v>
-      </c>
-      <c r="U229">
-        <v>1.875</v>
-      </c>
-      <c r="V229">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="W229">
-        <v>-1</v>
-      </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z229">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20391,10 +20391,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z231">
-        <v>-1</v>
       </c>
       <c r="AA231">
         <v>0.9750000000000001</v>
@@ -20563,10 +20563,10 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z233">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
         <v>1.025</v>
@@ -20649,10 +20649,10 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z234">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
         <v>-0.5</v>
@@ -20735,10 +20735,10 @@
         <v>2.4</v>
       </c>
       <c r="Y235">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA235">
         <v>0.825</v>
@@ -20821,10 +20821,10 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z236">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
         <v>0.8</v>
@@ -20907,10 +20907,10 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z237">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -20993,10 +20993,10 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
         <v>-1</v>
@@ -21079,10 +21079,10 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z239">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA239">
         <v>-1</v>
@@ -21337,10 +21337,10 @@
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z242">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
         <v>-1</v>
@@ -21509,10 +21509,10 @@
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z244">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
         <v>-0.5</v>
@@ -21595,10 +21595,10 @@
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z245">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
         <v>-1</v>
@@ -21681,10 +21681,10 @@
         <v>2.5</v>
       </c>
       <c r="Y246">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA246">
         <v>0.7749999999999999</v>
@@ -21939,10 +21939,10 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z249">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
         <v>0.95</v>
@@ -22025,10 +22025,10 @@
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z250">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
         <v>0.475</v>
@@ -22111,10 +22111,10 @@
         <v>2.8</v>
       </c>
       <c r="Y251">
+        <v>-1</v>
+      </c>
+      <c r="Z251">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z251">
-        <v>-1</v>
       </c>
       <c r="AA251">
         <v>1</v>
@@ -22283,10 +22283,10 @@
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z253">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
         <v>-1</v>
@@ -22455,10 +22455,10 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z255">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
         <v>0.8500000000000001</v>
@@ -22541,10 +22541,10 @@
         <v>3</v>
       </c>
       <c r="Y256">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA256">
         <v>0.475</v>
@@ -22713,10 +22713,10 @@
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA258">
         <v>1.025</v>
@@ -22799,10 +22799,10 @@
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z259">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
         <v>-1</v>
@@ -22885,10 +22885,10 @@
         <v>2.25</v>
       </c>
       <c r="Y260">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA260">
         <v>0.9750000000000001</v>
@@ -22971,10 +22971,10 @@
         <v>2.2</v>
       </c>
       <c r="Y261">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA261">
         <v>-1</v>
@@ -23057,10 +23057,10 @@
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z262">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA262">
         <v>0.8999999999999999</v>
@@ -23143,10 +23143,10 @@
         <v>6</v>
       </c>
       <c r="Y263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA263">
         <v>0.4125</v>
@@ -23229,10 +23229,10 @@
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z264">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
         <v>0</v>
@@ -23401,10 +23401,10 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z266">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
         <v>0.875</v>
@@ -23487,10 +23487,10 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z267">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
         <v>-1</v>
@@ -23659,10 +23659,10 @@
         <v>2.25</v>
       </c>
       <c r="Y269">
+        <v>-1</v>
+      </c>
+      <c r="Z269">
         <v>0.925</v>
-      </c>
-      <c r="Z269">
-        <v>-1</v>
       </c>
       <c r="AA269">
         <v>-1</v>
@@ -23831,10 +23831,10 @@
         <v>0.7</v>
       </c>
       <c r="Y271">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA271">
         <v>0.4</v>
@@ -24261,10 +24261,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA276">
         <v>0.7749999999999999</v>
@@ -24519,10 +24519,10 @@
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z279">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
         <v>1</v>
@@ -24605,10 +24605,10 @@
         <v>2</v>
       </c>
       <c r="Y280">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA280">
         <v>-1</v>
@@ -24691,10 +24691,10 @@
         <v>2.2</v>
       </c>
       <c r="Y281">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA281">
         <v>0.875</v>
@@ -24777,10 +24777,10 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z282">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
         <v>-0.5</v>
@@ -24863,10 +24863,10 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z283">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA283">
         <v>-1</v>
@@ -24949,10 +24949,10 @@
         <v>0.5</v>
       </c>
       <c r="Y284">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA284">
         <v>0.925</v>
@@ -25035,10 +25035,10 @@
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z285">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
         <v>0.8</v>
@@ -25121,10 +25121,10 @@
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z286">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
         <v>0.9750000000000001</v>
@@ -25207,10 +25207,10 @@
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z287">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
         <v>-1</v>
@@ -25293,10 +25293,10 @@
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z288">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
         <v>-1</v>
@@ -25379,10 +25379,10 @@
         <v>1.45</v>
       </c>
       <c r="Y289">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA289">
         <v>0.8</v>
@@ -25465,10 +25465,10 @@
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z290">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
         <v>0.8</v>
@@ -25551,10 +25551,10 @@
         <v>0.5</v>
       </c>
       <c r="Y291">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA291">
         <v>0.8999999999999999</v>
@@ -25637,10 +25637,10 @@
         <v>1.9</v>
       </c>
       <c r="Y292">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA292">
         <v>-1</v>
@@ -25723,10 +25723,10 @@
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z293">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
         <v>1</v>
@@ -25809,10 +25809,10 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z294">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA294">
         <v>-1</v>
@@ -25895,10 +25895,10 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z295">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
         <v>-0.5</v>
@@ -25912,40 +25912,49 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>8042276</v>
+        <v>8042275</v>
       </c>
       <c r="C296" t="s">
         <v>27</v>
       </c>
       <c r="D296" s="2">
-        <v>45404.70833333334</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="E296" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F296" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G296">
+        <v>2</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296" t="s">
+        <v>50</v>
       </c>
       <c r="J296">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="K296">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L296">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M296">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="N296">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O296">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P296">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q296">
         <v>1.85</v>
@@ -25954,22 +25963,120 @@
         <v>2</v>
       </c>
       <c r="S296">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T296">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V296">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X296">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y296">
+        <v>0.425</v>
+      </c>
+      <c r="Z296">
+        <v>-0.5</v>
+      </c>
+      <c r="AA296">
+        <v>-1</v>
+      </c>
+      <c r="AB296">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>8042082</v>
+      </c>
+      <c r="C297" t="s">
+        <v>27</v>
+      </c>
+      <c r="D297" s="2">
+        <v>45403.6875</v>
+      </c>
+      <c r="E297" t="s">
+        <v>34</v>
+      </c>
+      <c r="F297" t="s">
+        <v>40</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>2</v>
+      </c>
+      <c r="I297" t="s">
+        <v>52</v>
+      </c>
+      <c r="J297">
+        <v>2.625</v>
+      </c>
+      <c r="K297">
+        <v>3.2</v>
+      </c>
+      <c r="L297">
+        <v>2.625</v>
+      </c>
+      <c r="M297">
+        <v>2.55</v>
+      </c>
+      <c r="N297">
+        <v>3</v>
+      </c>
+      <c r="O297">
+        <v>2.875</v>
+      </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
+      <c r="Q297">
+        <v>1.775</v>
+      </c>
+      <c r="R297">
+        <v>2.025</v>
+      </c>
+      <c r="S297">
+        <v>2</v>
+      </c>
+      <c r="T297">
+        <v>1.75</v>
+      </c>
+      <c r="U297">
+        <v>2.05</v>
+      </c>
+      <c r="V297">
+        <v>-1</v>
+      </c>
+      <c r="W297">
+        <v>-1</v>
+      </c>
+      <c r="X297">
+        <v>1.875</v>
+      </c>
+      <c r="Y297">
+        <v>-1</v>
+      </c>
+      <c r="Z297">
+        <v>1.025</v>
+      </c>
+      <c r="AA297">
+        <v>0.75</v>
+      </c>
+      <c r="AB297">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8042083</t>
+    <t>8042086</t>
   </si>
   <si>
     <t>Peru Liga 1</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB299"/>
+  <dimension ref="A1:AB298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13875,7 +13875,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -13884,76 +13884,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J156">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="K156">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L156">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M156">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="N156">
+        <v>4.2</v>
+      </c>
+      <c r="O156">
         <v>6.5</v>
       </c>
-      <c r="O156">
-        <v>12</v>
-      </c>
       <c r="P156">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q156">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R156">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13961,7 +13961,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -13970,76 +13970,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J157">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="L157">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M157">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="N157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O157">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="P157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q157">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z157">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -15509,7 +15509,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -15518,76 +15518,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G175">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J175">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K175">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L175">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="M175">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="N175">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P175">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S175">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T175">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V175">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA175">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15595,7 +15595,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -15604,76 +15604,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J176">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="K176">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L176">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="M176">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="N176">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O176">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S176">
+        <v>2.75</v>
+      </c>
+      <c r="T176">
+        <v>1.825</v>
+      </c>
+      <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
+        <v>-1</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>3</v>
       </c>
-      <c r="T176">
-        <v>1.875</v>
-      </c>
-      <c r="U176">
-        <v>1.925</v>
-      </c>
-      <c r="V176">
-        <v>0.25</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB176">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15939,7 +15939,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384622</v>
+        <v>7384623</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45227.71875</v>
       </c>
       <c r="E180" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G180">
+        <v>2</v>
+      </c>
+      <c r="H180">
         <v>1</v>
       </c>
-      <c r="H180">
-        <v>2</v>
-      </c>
       <c r="I180" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J180">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="K180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="L180">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="N180">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O180">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R180">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T180">
+        <v>1.925</v>
+      </c>
+      <c r="U180">
         <v>1.875</v>
       </c>
-      <c r="U180">
-        <v>1.975</v>
-      </c>
       <c r="V180">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16025,7 +16025,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7384623</v>
+        <v>7384624</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16034,13 +16034,13 @@
         <v>45227.71875</v>
       </c>
       <c r="E181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16058,34 +16058,34 @@
         <v>3.5</v>
       </c>
       <c r="M181">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="N181">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O181">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V181">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16094,16 +16094,16 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16111,7 +16111,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45227.71875</v>
       </c>
       <c r="E182" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J182">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="K182">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M182">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N182">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O182">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P182">
         <v>-1</v>
       </c>
       <c r="Q182">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R182">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y182">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16197,7 +16197,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384627</v>
+        <v>7384629</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16206,76 +16206,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J183">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="K183">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L183">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="M183">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="N183">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O183">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="P183">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q183">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S183">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T183">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y183">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA183">
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16283,7 +16283,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384626</v>
+        <v>7384628</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16292,76 +16292,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E184" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J184">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="K184">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L184">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="M184">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="N184">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O184">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P184">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="Q184">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V184">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA184">
+        <v>0.4875</v>
+      </c>
+      <c r="AB184">
         <v>-0.5</v>
-      </c>
-      <c r="AB184">
-        <v>0.4</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16369,7 +16369,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384630</v>
+        <v>7384626</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16378,76 +16378,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J185">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="K185">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L185">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="M185">
-        <v>1.75</v>
+        <v>1.166</v>
       </c>
       <c r="N185">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O185">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="P185">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="Q185">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R185">
+        <v>1.95</v>
+      </c>
+      <c r="S185">
+        <v>3.25</v>
+      </c>
+      <c r="T185">
+        <v>2</v>
+      </c>
+      <c r="U185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>3</v>
-      </c>
-      <c r="T185">
-        <v>1.85</v>
-      </c>
-      <c r="U185">
-        <v>1.95</v>
-      </c>
       <c r="V185">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB185">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16455,7 +16455,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384629</v>
+        <v>7384625</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186" t="s">
+        <v>52</v>
+      </c>
+      <c r="J186">
+        <v>1.5</v>
+      </c>
+      <c r="K186">
+        <v>3.75</v>
+      </c>
+      <c r="L186">
+        <v>7</v>
+      </c>
+      <c r="M186">
+        <v>1.363</v>
+      </c>
+      <c r="N186">
+        <v>4.333</v>
+      </c>
+      <c r="O186">
+        <v>9.5</v>
+      </c>
+      <c r="P186">
+        <v>-1.25</v>
+      </c>
+      <c r="Q186">
+        <v>1.875</v>
+      </c>
+      <c r="R186">
+        <v>1.925</v>
+      </c>
+      <c r="S186">
+        <v>2.5</v>
+      </c>
+      <c r="T186">
+        <v>1.8</v>
+      </c>
+      <c r="U186">
+        <v>2</v>
+      </c>
+      <c r="V186">
+        <v>-1</v>
+      </c>
+      <c r="W186">
+        <v>3.333</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>0.925</v>
+      </c>
+      <c r="AA186">
+        <v>-1</v>
+      </c>
+      <c r="AB186">
         <v>1</v>
-      </c>
-      <c r="I186" t="s">
-        <v>53</v>
-      </c>
-      <c r="J186">
-        <v>2.625</v>
-      </c>
-      <c r="K186">
-        <v>3.3</v>
-      </c>
-      <c r="L186">
-        <v>2.5</v>
-      </c>
-      <c r="M186">
-        <v>2.7</v>
-      </c>
-      <c r="N186">
-        <v>3.4</v>
-      </c>
-      <c r="O186">
-        <v>2.375</v>
-      </c>
-      <c r="P186">
-        <v>0</v>
-      </c>
-      <c r="Q186">
-        <v>2.025</v>
-      </c>
-      <c r="R186">
-        <v>1.775</v>
-      </c>
-      <c r="S186">
-        <v>2.25</v>
-      </c>
-      <c r="T186">
-        <v>1.825</v>
-      </c>
-      <c r="U186">
-        <v>1.975</v>
-      </c>
-      <c r="V186">
-        <v>-1</v>
-      </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>1.375</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA186">
-        <v>-1</v>
-      </c>
-      <c r="AB186">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16541,7 +16541,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -16550,55 +16550,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
         <v>1</v>
-      </c>
-      <c r="H187">
-        <v>2</v>
       </c>
       <c r="I187" t="s">
         <v>53</v>
       </c>
       <c r="J187">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K187">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L187">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="M187">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="N187">
         <v>3.6</v>
       </c>
       <c r="O187">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P187">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q187">
+        <v>2</v>
+      </c>
+      <c r="R187">
         <v>1.8</v>
       </c>
-      <c r="R187">
-        <v>2</v>
-      </c>
       <c r="S187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T187">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U187">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
         <v>-1</v>
@@ -16607,19 +16607,19 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA187">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16627,7 +16627,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384625</v>
+        <v>7384627</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -16636,76 +16636,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J188">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="K188">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L188">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M188">
-        <v>1.363</v>
+        <v>1.181</v>
       </c>
       <c r="N188">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="O188">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="P188">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q188">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W188">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z188">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -20067,7 +20067,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20076,76 +20076,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E228" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J228">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="K228">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L228">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O228">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="P228">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U228">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V228">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:28">
@@ -20153,7 +20153,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20162,76 +20162,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E229" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F229" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J229">
+        <v>3.3</v>
+      </c>
+      <c r="K229">
+        <v>3.3</v>
+      </c>
+      <c r="L229">
+        <v>2.1</v>
+      </c>
+      <c r="M229">
+        <v>4.5</v>
+      </c>
+      <c r="N229">
+        <v>3.2</v>
+      </c>
+      <c r="O229">
+        <v>1.95</v>
+      </c>
+      <c r="P229">
+        <v>0.5</v>
+      </c>
+      <c r="Q229">
+        <v>2</v>
+      </c>
+      <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
+        <v>2</v>
+      </c>
+      <c r="T229">
+        <v>1.775</v>
+      </c>
+      <c r="U229">
+        <v>2.1</v>
+      </c>
+      <c r="V229">
+        <v>-1</v>
+      </c>
+      <c r="W229">
         <v>2.2</v>
       </c>
-      <c r="K229">
-        <v>3.2</v>
-      </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
-      <c r="M229">
-        <v>1.6</v>
-      </c>
-      <c r="N229">
-        <v>3.75</v>
-      </c>
-      <c r="O229">
-        <v>5.75</v>
-      </c>
-      <c r="P229">
-        <v>-0.75</v>
-      </c>
-      <c r="Q229">
-        <v>1.85</v>
-      </c>
-      <c r="R229">
-        <v>2</v>
-      </c>
-      <c r="S229">
-        <v>2.5</v>
-      </c>
-      <c r="T229">
-        <v>1.975</v>
-      </c>
-      <c r="U229">
-        <v>1.875</v>
-      </c>
-      <c r="V229">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="W229">
-        <v>-1</v>
-      </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -25743,7 +25743,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8042081</v>
+        <v>8042080</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -25752,13 +25752,13 @@
         <v>45402.72916666666</v>
       </c>
       <c r="E294" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F294" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -25767,25 +25767,25 @@
         <v>51</v>
       </c>
       <c r="J294">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K294">
         <v>3.3</v>
       </c>
       <c r="L294">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M294">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N294">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O294">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P294">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q294">
         <v>2.025</v>
@@ -25794,16 +25794,16 @@
         <v>1.775</v>
       </c>
       <c r="S294">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T294">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U294">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -25812,16 +25812,16 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB294">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -25829,7 +25829,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8042080</v>
+        <v>8042081</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -25838,13 +25838,13 @@
         <v>45402.72916666666</v>
       </c>
       <c r="E295" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F295" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H295">
         <v>0</v>
@@ -25853,25 +25853,25 @@
         <v>51</v>
       </c>
       <c r="J295">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K295">
         <v>3.3</v>
       </c>
       <c r="L295">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M295">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N295">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O295">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P295">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q295">
         <v>2.025</v>
@@ -25880,16 +25880,16 @@
         <v>1.775</v>
       </c>
       <c r="S295">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U295">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V295">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -25898,16 +25898,16 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA295">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:28">
@@ -26086,150 +26086,64 @@
       <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298">
-        <v>8042276</v>
+      <c r="B298" t="s">
+        <v>27</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
       </c>
       <c r="D298" s="2">
-        <v>45405.70833333334</v>
+        <v>45409.8125</v>
       </c>
       <c r="E298" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F298" t="s">
-        <v>44</v>
-      </c>
-      <c r="G298">
-        <v>0</v>
-      </c>
-      <c r="H298">
-        <v>0</v>
-      </c>
-      <c r="I298" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J298">
+        <v>2.2</v>
+      </c>
+      <c r="K298">
+        <v>3.3</v>
+      </c>
+      <c r="L298">
+        <v>3.2</v>
+      </c>
+      <c r="M298">
         <v>2.1</v>
-      </c>
-      <c r="K298">
-        <v>3.4</v>
-      </c>
-      <c r="L298">
-        <v>3.4</v>
-      </c>
-      <c r="M298">
-        <v>2</v>
       </c>
       <c r="N298">
         <v>3.2</v>
       </c>
       <c r="O298">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P298">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q298">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R298">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S298">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T298">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U298">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W298">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="X298">
-        <v>-1</v>
-      </c>
-      <c r="Y298">
-        <v>-1</v>
-      </c>
-      <c r="Z298">
-        <v>0.8</v>
-      </c>
-      <c r="AA298">
-        <v>-1</v>
-      </c>
-      <c r="AB298">
-        <v>0.7749999999999999</v>
-      </c>
-    </row>
-    <row r="299" spans="1:28">
-      <c r="A299" s="1">
-        <v>297</v>
-      </c>
-      <c r="B299" t="s">
-        <v>27</v>
-      </c>
-      <c r="C299" t="s">
-        <v>28</v>
-      </c>
-      <c r="D299" s="2">
-        <v>45408.70833333334</v>
-      </c>
-      <c r="E299" t="s">
-        <v>46</v>
-      </c>
-      <c r="F299" t="s">
-        <v>42</v>
-      </c>
-      <c r="J299">
-        <v>1.5</v>
-      </c>
-      <c r="K299">
-        <v>4.333</v>
-      </c>
-      <c r="L299">
-        <v>6</v>
-      </c>
-      <c r="M299">
-        <v>1.4</v>
-      </c>
-      <c r="N299">
-        <v>4.333</v>
-      </c>
-      <c r="O299">
-        <v>8</v>
-      </c>
-      <c r="P299">
-        <v>-1.25</v>
-      </c>
-      <c r="Q299">
-        <v>1.925</v>
-      </c>
-      <c r="R299">
-        <v>1.925</v>
-      </c>
-      <c r="S299">
-        <v>2.75</v>
-      </c>
-      <c r="T299">
-        <v>1.875</v>
-      </c>
-      <c r="U299">
-        <v>1.975</v>
-      </c>
-      <c r="V299">
-        <v>0</v>
-      </c>
-      <c r="W299">
-        <v>0</v>
-      </c>
-      <c r="X299">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -13884,7 +13884,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7211640</v>
+        <v>7211641</v>
       </c>
       <c r="C156" t="s">
         <v>31</v>
@@ -13893,76 +13893,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J156">
-        <v>1.615</v>
+        <v>1.125</v>
       </c>
       <c r="K156">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="L156">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M156">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="N156">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O156">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="P156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R156">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S156">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z156">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13970,7 +13970,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7211641</v>
+        <v>7211640</v>
       </c>
       <c r="C157" t="s">
         <v>31</v>
@@ -13979,76 +13979,76 @@
         <v>45198.70833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J157">
-        <v>1.125</v>
+        <v>1.615</v>
       </c>
       <c r="K157">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L157">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M157">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="N157">
+        <v>4.2</v>
+      </c>
+      <c r="O157">
         <v>6.5</v>
       </c>
-      <c r="O157">
-        <v>12</v>
-      </c>
       <c r="P157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S157">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -15518,7 +15518,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302200</v>
+        <v>7302795</v>
       </c>
       <c r="C175" t="s">
         <v>31</v>
@@ -15527,76 +15527,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J175">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K175">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="M175">
         <v>1.75</v>
       </c>
       <c r="N175">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O175">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P175">
         <v>-0.5</v>
       </c>
       <c r="Q175">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S175">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V175">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA175">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15604,7 +15604,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7302796</v>
+        <v>7302200</v>
       </c>
       <c r="C176" t="s">
         <v>31</v>
@@ -15613,58 +15613,58 @@
         <v>45221.70833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="s">
         <v>54</v>
       </c>
       <c r="J176">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K176">
+        <v>3.2</v>
+      </c>
+      <c r="L176">
         <v>3.75</v>
       </c>
-      <c r="L176">
+      <c r="M176">
+        <v>1.75</v>
+      </c>
+      <c r="N176">
+        <v>3.4</v>
+      </c>
+      <c r="O176">
         <v>4.333</v>
       </c>
-      <c r="M176">
-        <v>1.25</v>
-      </c>
-      <c r="N176">
-        <v>5.25</v>
-      </c>
-      <c r="O176">
-        <v>10</v>
-      </c>
       <c r="P176">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R176">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S176">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T176">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="W176">
         <v>-1</v>
@@ -15673,16 +15673,16 @@
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15690,7 +15690,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C177" t="s">
         <v>31</v>
@@ -15699,76 +15699,76 @@
         <v>45221.70833333334</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G177">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J177">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K177">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L177">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="M177">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="N177">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P177">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA177">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15948,7 +15948,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7384624</v>
+        <v>7384622</v>
       </c>
       <c r="C180" t="s">
         <v>31</v>
@@ -15957,76 +15957,76 @@
         <v>45227.71875</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J180">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="K180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M180">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N180">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O180">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P180">
         <v>-1</v>
       </c>
       <c r="Q180">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T180">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA180">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16120,7 +16120,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7384622</v>
+        <v>7384624</v>
       </c>
       <c r="C182" t="s">
         <v>31</v>
@@ -16129,76 +16129,76 @@
         <v>45227.71875</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G182">
+        <v>3</v>
+      </c>
+      <c r="H182">
         <v>1</v>
       </c>
-      <c r="H182">
-        <v>2</v>
-      </c>
       <c r="I182" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J182">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="K182">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="L182">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="N182">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O182">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P182">
         <v>-1</v>
       </c>
       <c r="Q182">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S182">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T182">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16206,7 +16206,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384625</v>
+        <v>7384628</v>
       </c>
       <c r="C183" t="s">
         <v>31</v>
@@ -16215,76 +16215,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E183" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J183">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="K183">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L183">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="M183">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="N183">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O183">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="P183">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q183">
+        <v>1.8</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>2.75</v>
+      </c>
+      <c r="T183">
+        <v>1.975</v>
+      </c>
+      <c r="U183">
         <v>1.875</v>
       </c>
-      <c r="R183">
-        <v>1.925</v>
-      </c>
-      <c r="S183">
-        <v>2.5</v>
-      </c>
-      <c r="T183">
-        <v>1.8</v>
-      </c>
-      <c r="U183">
-        <v>2</v>
-      </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB183">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16292,7 +16292,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384629</v>
+        <v>7384626</v>
       </c>
       <c r="C184" t="s">
         <v>31</v>
@@ -16301,76 +16301,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E184" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J184">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="K184">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L184">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="M184">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="N184">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="O184">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="P184">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q184">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R184">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T184">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V184">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z184">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16378,7 +16378,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7384630</v>
+        <v>7384629</v>
       </c>
       <c r="C185" t="s">
         <v>31</v>
@@ -16387,10 +16387,10 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16402,40 +16402,40 @@
         <v>56</v>
       </c>
       <c r="J185">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="K185">
+        <v>3.3</v>
+      </c>
+      <c r="L185">
+        <v>2.5</v>
+      </c>
+      <c r="M185">
+        <v>2.7</v>
+      </c>
+      <c r="N185">
         <v>3.4</v>
       </c>
-      <c r="L185">
-        <v>2.15</v>
-      </c>
-      <c r="M185">
-        <v>1.75</v>
-      </c>
-      <c r="N185">
-        <v>3.6</v>
-      </c>
       <c r="O185">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="P185">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q185">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S185">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
         <v>-1</v>
@@ -16444,19 +16444,19 @@
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16464,7 +16464,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384626</v>
+        <v>7384625</v>
       </c>
       <c r="C186" t="s">
         <v>31</v>
@@ -16473,76 +16473,76 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J186">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K186">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L186">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M186">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="N186">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="O186">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="P186">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="Q186">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S186">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T186">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U186">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16636,7 +16636,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C188" t="s">
         <v>31</v>
@@ -16645,55 +16645,55 @@
         <v>45228.70833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
         <v>1</v>
-      </c>
-      <c r="H188">
-        <v>2</v>
       </c>
       <c r="I188" t="s">
         <v>56</v>
       </c>
       <c r="J188">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K188">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="M188">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="N188">
         <v>3.6</v>
       </c>
       <c r="O188">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q188">
+        <v>2</v>
+      </c>
+      <c r="R188">
         <v>1.8</v>
       </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
       <c r="S188">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T188">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
         <v>-1</v>
@@ -16702,19 +16702,19 @@
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA188">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -20076,7 +20076,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7818816</v>
+        <v>7818817</v>
       </c>
       <c r="C228" t="s">
         <v>31</v>
@@ -20085,76 +20085,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E228" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J228">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="K228">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L228">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O228">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="P228">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U228">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V228">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:28">
@@ -20162,7 +20162,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7818817</v>
+        <v>7818816</v>
       </c>
       <c r="C229" t="s">
         <v>31</v>
@@ -20171,76 +20171,76 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E229" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J229">
+        <v>3.3</v>
+      </c>
+      <c r="K229">
+        <v>3.3</v>
+      </c>
+      <c r="L229">
+        <v>2.1</v>
+      </c>
+      <c r="M229">
+        <v>4.5</v>
+      </c>
+      <c r="N229">
+        <v>3.2</v>
+      </c>
+      <c r="O229">
+        <v>1.95</v>
+      </c>
+      <c r="P229">
+        <v>0.5</v>
+      </c>
+      <c r="Q229">
+        <v>2</v>
+      </c>
+      <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
+        <v>2</v>
+      </c>
+      <c r="T229">
+        <v>1.775</v>
+      </c>
+      <c r="U229">
+        <v>2.1</v>
+      </c>
+      <c r="V229">
+        <v>-1</v>
+      </c>
+      <c r="W229">
         <v>2.2</v>
       </c>
-      <c r="K229">
-        <v>3.2</v>
-      </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
-      <c r="M229">
-        <v>1.6</v>
-      </c>
-      <c r="N229">
-        <v>3.75</v>
-      </c>
-      <c r="O229">
-        <v>5.75</v>
-      </c>
-      <c r="P229">
-        <v>-0.75</v>
-      </c>
-      <c r="Q229">
-        <v>1.85</v>
-      </c>
-      <c r="R229">
-        <v>2</v>
-      </c>
-      <c r="S229">
-        <v>2.5</v>
-      </c>
-      <c r="T229">
-        <v>1.975</v>
-      </c>
-      <c r="U229">
-        <v>1.875</v>
-      </c>
-      <c r="V229">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="W229">
-        <v>-1</v>
-      </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -22140,7 +22140,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7883367</v>
+        <v>7882752</v>
       </c>
       <c r="C252" t="s">
         <v>31</v>
@@ -22149,76 +22149,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="E252" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F252" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G252">
         <v>2</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J252">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="K252">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L252">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="N252">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O252">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="P252">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q252">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R252">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T252">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U252">
         <v>1.825</v>
       </c>
       <c r="V252">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -22226,7 +22226,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7882752</v>
+        <v>7883367</v>
       </c>
       <c r="C253" t="s">
         <v>31</v>
@@ -22235,76 +22235,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="E253" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F253" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G253">
         <v>2</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J253">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="K253">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L253">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="M253">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="N253">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="O253">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="P253">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q253">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R253">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S253">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T253">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U253">
         <v>1.825</v>
       </c>
       <c r="V253">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W253">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z253">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -25752,7 +25752,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8042081</v>
+        <v>8042080</v>
       </c>
       <c r="C294" t="s">
         <v>31</v>
@@ -25761,13 +25761,13 @@
         <v>45402.72916666666</v>
       </c>
       <c r="E294" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F294" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -25776,25 +25776,25 @@
         <v>54</v>
       </c>
       <c r="J294">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K294">
         <v>3.3</v>
       </c>
       <c r="L294">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M294">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N294">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O294">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P294">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q294">
         <v>2.025</v>
@@ -25803,16 +25803,16 @@
         <v>1.775</v>
       </c>
       <c r="S294">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T294">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U294">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -25821,16 +25821,16 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB294">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -25838,7 +25838,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8042080</v>
+        <v>8042081</v>
       </c>
       <c r="C295" t="s">
         <v>31</v>
@@ -25847,13 +25847,13 @@
         <v>45402.72916666666</v>
       </c>
       <c r="E295" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F295" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H295">
         <v>0</v>
@@ -25862,25 +25862,25 @@
         <v>54</v>
       </c>
       <c r="J295">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K295">
         <v>3.3</v>
       </c>
       <c r="L295">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M295">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N295">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O295">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P295">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q295">
         <v>2.025</v>
@@ -25889,16 +25889,16 @@
         <v>1.775</v>
       </c>
       <c r="S295">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U295">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V295">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -25907,16 +25907,16 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA295">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:28">
@@ -26378,10 +26378,10 @@
         <v>2.25</v>
       </c>
       <c r="T301">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U301">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
         <v>0</v>
@@ -26422,31 +26422,31 @@
         <v>3.2</v>
       </c>
       <c r="M302">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N302">
         <v>3.1</v>
       </c>
       <c r="O302">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P302">
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R302">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S302">
         <v>2.5</v>
       </c>
       <c r="T302">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U302">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V302">
         <v>0</v>
@@ -26490,28 +26490,28 @@
         <v>1.2</v>
       </c>
       <c r="N303">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O303">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="P303">
         <v>-1.75</v>
       </c>
       <c r="Q303">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R303">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S303">
         <v>2.75</v>
       </c>
       <c r="T303">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U303">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V303">
         <v>0</v>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -97,16 +97,19 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8042084</t>
+    <t>8042087</t>
   </si>
   <si>
-    <t>8042085</t>
-  </si>
-  <si>
-    <t>8042086</t>
+    <t>8042088</t>
   </si>
   <si>
     <t>8132794</t>
+  </si>
+  <si>
+    <t>8042217</t>
+  </si>
+  <si>
+    <t>8046242</t>
   </si>
   <si>
     <t>Peru Liga 1</t>
@@ -546,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB303"/>
+  <dimension ref="A1:AB304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,16 +646,16 @@
         <v>6668354</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45078.91666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -661,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2">
         <v>1.363</v>
@@ -729,16 +732,16 @@
         <v>6668355</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45079.91666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -747,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3">
         <v>2.8</v>
@@ -815,16 +818,16 @@
         <v>6668356</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45079.9375</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4">
         <v>1.363</v>
@@ -901,16 +904,16 @@
         <v>6668357</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -919,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J5">
         <v>1.8</v>
@@ -987,16 +990,16 @@
         <v>6668358</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1005,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6">
         <v>1.4</v>
@@ -1073,16 +1076,16 @@
         <v>6668359</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45080.9375</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1091,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>1.444</v>
@@ -1159,16 +1162,16 @@
         <v>6668360</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45081.625</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8">
         <v>1.3</v>
@@ -1245,16 +1248,16 @@
         <v>6668361</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45081.72916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9">
         <v>2.875</v>
@@ -1331,16 +1334,16 @@
         <v>6667842</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45081.83333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1349,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10">
         <v>1.4</v>
@@ -1417,16 +1420,16 @@
         <v>6695540</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45086.875</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1435,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>1.285</v>
@@ -1503,16 +1506,16 @@
         <v>6695541</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45087.625</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1521,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12">
         <v>2.375</v>
@@ -1589,16 +1592,16 @@
         <v>6695543</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45087.72916666666</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1607,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13">
         <v>3.2</v>
@@ -1675,16 +1678,16 @@
         <v>6695542</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1693,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>1.444</v>
@@ -1761,16 +1764,16 @@
         <v>6695544</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45087.91666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1779,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15">
         <v>1.95</v>
@@ -1847,16 +1850,16 @@
         <v>6745593</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45087.9375</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1865,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>1.363</v>
@@ -1933,16 +1936,16 @@
         <v>6695545</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45088.625</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1951,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17">
         <v>3.4</v>
@@ -2019,16 +2022,16 @@
         <v>6695547</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45088.72916666666</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2037,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2105,16 +2108,16 @@
         <v>6695548</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45088.83333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2123,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J19">
         <v>2.45</v>
@@ -2191,16 +2194,16 @@
         <v>6765455</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45099.70833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2209,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2277,16 +2280,16 @@
         <v>6765456</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45099.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -2295,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21">
         <v>1.363</v>
@@ -2363,16 +2366,16 @@
         <v>6765888</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45099.875</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2381,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22">
         <v>2.5</v>
@@ -2449,16 +2452,16 @@
         <v>6765457</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45100.91666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2467,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J23">
         <v>1.363</v>
@@ -2535,16 +2538,16 @@
         <v>6765458</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45101.72916666666</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2553,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J24">
         <v>1.571</v>
@@ -2621,16 +2624,16 @@
         <v>6765459</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45101.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2639,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J25">
         <v>1.95</v>
@@ -2707,16 +2710,16 @@
         <v>6767120</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45102.625</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2725,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J26">
         <v>1.615</v>
@@ -2793,16 +2796,16 @@
         <v>6765460</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45102.72916666666</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2811,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J27">
         <v>2.2</v>
@@ -2879,16 +2882,16 @@
         <v>6765461</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45103.72916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2897,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J28">
         <v>1.615</v>
@@ -2965,17 +2968,17 @@
         <v>6779407</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45107.72916666666</v>
       </c>
       <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
         <v>50</v>
       </c>
-      <c r="F29" t="s">
-        <v>49</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J29">
         <v>2.6</v>
@@ -3051,16 +3054,16 @@
         <v>6778791</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45108.72916666666</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3069,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3137,16 +3140,16 @@
         <v>6779502</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45108.83333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3155,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J31">
         <v>2.8</v>
@@ -3223,16 +3226,16 @@
         <v>6778792</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45108.9375</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3241,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J32">
         <v>7</v>
@@ -3309,16 +3312,16 @@
         <v>6778793</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45109.625</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3327,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J33">
         <v>1.285</v>
@@ -3395,16 +3398,16 @@
         <v>6778794</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3413,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J34">
         <v>1.444</v>
@@ -3481,16 +3484,16 @@
         <v>6778943</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45110.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3499,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J35">
         <v>1.95</v>
@@ -3567,16 +3570,16 @@
         <v>6778944</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45110.9375</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3585,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J36">
         <v>1.3</v>
@@ -3653,16 +3656,16 @@
         <v>6778795</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45111.72916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3671,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J37">
         <v>1.5</v>
@@ -3739,16 +3742,16 @@
         <v>6830814</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45114.70833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3757,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J38">
         <v>1.5</v>
@@ -3825,16 +3828,16 @@
         <v>6831296</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45114.91666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3843,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J39">
         <v>8</v>
@@ -3911,16 +3914,16 @@
         <v>6830815</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45115.625</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3929,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J40">
         <v>2.3</v>
@@ -3997,16 +4000,16 @@
         <v>6830816</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45115.72916666666</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4015,7 +4018,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J41">
         <v>1.6</v>
@@ -4083,16 +4086,16 @@
         <v>6833100</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45115.875</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4101,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -4169,16 +4172,16 @@
         <v>6830817</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45116.625</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4187,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4255,16 +4258,16 @@
         <v>6833133</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45116.89583333334</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4273,7 +4276,7 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J44">
         <v>2.05</v>
@@ -4341,16 +4344,16 @@
         <v>6830818</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45117.71875</v>
       </c>
       <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
         <v>49</v>
-      </c>
-      <c r="F45" t="s">
-        <v>48</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4359,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4427,16 +4430,16 @@
         <v>6863724</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45121.72916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4445,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4513,16 +4516,16 @@
         <v>6863007</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45121.95833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4531,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J47">
         <v>1.2</v>
@@ -4599,16 +4602,16 @@
         <v>6863725</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45122.625</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4617,7 +4620,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J48">
         <v>1.55</v>
@@ -4685,16 +4688,16 @@
         <v>6863726</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45122.71875</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4703,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <v>1.25</v>
@@ -4771,16 +4774,16 @@
         <v>6863008</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45122.875</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4789,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J50">
         <v>1.333</v>
@@ -4857,16 +4860,16 @@
         <v>6863727</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45123.625</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4875,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J51">
         <v>1.444</v>
@@ -4943,16 +4946,16 @@
         <v>6863729</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45123.70833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4961,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J52">
         <v>7.5</v>
@@ -5029,16 +5032,16 @@
         <v>6863728</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45123.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5047,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J53">
         <v>2.1</v>
@@ -5115,16 +5118,16 @@
         <v>6863730</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45124.70833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5133,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5201,16 +5204,16 @@
         <v>6905543</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45128.625</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5219,7 +5222,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J55">
         <v>3</v>
@@ -5287,16 +5290,16 @@
         <v>6905576</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45128.90625</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5305,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5373,16 +5376,16 @@
         <v>6905577</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45129.625</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5391,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>2.2</v>
@@ -5459,16 +5462,16 @@
         <v>6905564</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45129.9375</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5477,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J58">
         <v>2.2</v>
@@ -5545,16 +5548,16 @@
         <v>6905579</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45130.625</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5563,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J59">
         <v>2.1</v>
@@ -5631,16 +5634,16 @@
         <v>6905580</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5649,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5717,16 +5720,16 @@
         <v>6905578</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45130.72916666666</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5735,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J61">
         <v>1.75</v>
@@ -5803,16 +5806,16 @@
         <v>6905571</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45130.72916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5821,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J62">
         <v>2.1</v>
@@ -5889,16 +5892,16 @@
         <v>6905581</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45131.625</v>
       </c>
       <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
         <v>36</v>
-      </c>
-      <c r="F63" t="s">
-        <v>35</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -5907,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J63">
         <v>1.444</v>
@@ -5975,16 +5978,16 @@
         <v>6958820</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45134.70833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -5993,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J64">
         <v>1.2</v>
@@ -6061,16 +6064,16 @@
         <v>6958984</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45135.70833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6079,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J65">
         <v>1.285</v>
@@ -6147,16 +6150,16 @@
         <v>6958985</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45136.71875</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6165,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J66">
         <v>1.5</v>
@@ -6233,16 +6236,16 @@
         <v>6958821</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45136.9375</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6251,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J67">
         <v>2.7</v>
@@ -6319,16 +6322,16 @@
         <v>6958978</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45137.625</v>
       </c>
       <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s">
         <v>38</v>
-      </c>
-      <c r="F68" t="s">
-        <v>37</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6337,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6405,16 +6408,16 @@
         <v>6958822</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45138.625</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6423,7 +6426,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J69">
         <v>3.3</v>
@@ -6491,16 +6494,16 @@
         <v>6958986</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45138.71875</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6509,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J70">
         <v>1.363</v>
@@ -6577,16 +6580,16 @@
         <v>6958743</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45138.9375</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6595,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J71">
         <v>1.333</v>
@@ -6663,16 +6666,16 @@
         <v>6958987</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45139.70833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6681,7 +6684,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6749,16 +6752,16 @@
         <v>6970427</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45142.625</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6767,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J73">
         <v>2.375</v>
@@ -6835,16 +6838,16 @@
         <v>6970428</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45143.71527777778</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>4</v>
@@ -6853,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J74">
         <v>1.533</v>
@@ -6921,16 +6924,16 @@
         <v>6970388</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45143.91666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6939,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J75">
         <v>1.333</v>
@@ -7007,16 +7010,16 @@
         <v>6970429</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45144.625</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7025,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J76">
         <v>2.15</v>
@@ -7093,16 +7096,16 @@
         <v>6970430</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45144.70833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7111,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J77">
         <v>2.625</v>
@@ -7179,16 +7182,16 @@
         <v>6970389</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45144.71875</v>
       </c>
       <c r="E78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" t="s">
         <v>33</v>
-      </c>
-      <c r="F78" t="s">
-        <v>32</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7197,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J78">
         <v>2.75</v>
@@ -7265,16 +7268,16 @@
         <v>6970069</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7283,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J79">
         <v>2.05</v>
@@ -7351,16 +7354,16 @@
         <v>6970431</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45145.625</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7369,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J80">
         <v>3.4</v>
@@ -7437,16 +7440,16 @@
         <v>6970432</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45145.71875</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -7455,7 +7458,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J81">
         <v>1.4</v>
@@ -7523,16 +7526,16 @@
         <v>7006003</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45149.625</v>
       </c>
       <c r="E82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7541,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J82">
         <v>1.363</v>
@@ -7609,16 +7612,16 @@
         <v>7006004</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45149.71875</v>
       </c>
       <c r="E83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7627,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J83">
         <v>1.833</v>
@@ -7695,16 +7698,16 @@
         <v>7006111</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45149.91666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7713,7 +7716,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J84">
         <v>2.5</v>
@@ -7781,16 +7784,16 @@
         <v>7006007</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45150.625</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7799,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J85">
         <v>2.375</v>
@@ -7867,16 +7870,16 @@
         <v>7006005</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45150.71875</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7885,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J86">
         <v>1.3</v>
@@ -7953,16 +7956,16 @@
         <v>7006006</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45150.875</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7971,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J87">
         <v>1.181</v>
@@ -8039,16 +8042,16 @@
         <v>7006008</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45151.625</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8057,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J88">
         <v>1.363</v>
@@ -8125,16 +8128,16 @@
         <v>7006010</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45151.71875</v>
       </c>
       <c r="E89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8143,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J89">
         <v>2.9</v>
@@ -8211,17 +8214,17 @@
         <v>7006011</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45153.625</v>
       </c>
       <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
         <v>42</v>
       </c>
-      <c r="F90" t="s">
-        <v>41</v>
-      </c>
       <c r="G90">
         <v>2</v>
       </c>
@@ -8229,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8297,16 +8300,16 @@
         <v>7006012</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45153.71875</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8315,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J91">
         <v>2.45</v>
@@ -8383,16 +8386,16 @@
         <v>7006013</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45153.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8401,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J92">
         <v>1.333</v>
@@ -8469,16 +8472,16 @@
         <v>7006888</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45154.71875</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8487,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J93">
         <v>3.2</v>
@@ -8555,16 +8558,16 @@
         <v>7006014</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45154.8125</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8573,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J94">
         <v>2.1</v>
@@ -8641,16 +8644,16 @@
         <v>7006015</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45154.83333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8659,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J95">
         <v>1.571</v>
@@ -8727,16 +8730,16 @@
         <v>7006112</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45154.9375</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8745,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J96">
         <v>1.615</v>
@@ -8813,16 +8816,16 @@
         <v>7006017</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45155.70833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8831,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J97">
         <v>1.6</v>
@@ -8899,16 +8902,16 @@
         <v>7006016</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45155.71875</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8917,7 +8920,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J98">
         <v>3.3</v>
@@ -8985,16 +8988,16 @@
         <v>7006018</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45157.625</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9003,7 +9006,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J99">
         <v>1.8</v>
@@ -9071,16 +9074,16 @@
         <v>7006019</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45157.72916666666</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9089,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J100">
         <v>2.7</v>
@@ -9157,16 +9160,16 @@
         <v>7006020</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45157.82291666666</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9175,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9243,16 +9246,16 @@
         <v>7006021</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45157.89583333334</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9261,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J102">
         <v>1.444</v>
@@ -9329,16 +9332,16 @@
         <v>7006110</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45158.72916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9347,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J103">
         <v>1.2</v>
@@ -9415,16 +9418,16 @@
         <v>7006022</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45158.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9433,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J104">
         <v>2.2</v>
@@ -9501,16 +9504,16 @@
         <v>7006023</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45159.625</v>
       </c>
       <c r="E105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" t="s">
         <v>39</v>
-      </c>
-      <c r="F105" t="s">
-        <v>38</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9519,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J105">
         <v>2</v>
@@ -9587,16 +9590,16 @@
         <v>7006024</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45159.71875</v>
       </c>
       <c r="E106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9605,7 +9608,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J106">
         <v>1.75</v>
@@ -9673,16 +9676,16 @@
         <v>7006889</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45159.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9691,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J107">
         <v>1.8</v>
@@ -9759,16 +9762,16 @@
         <v>7047261</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45164.625</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9777,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J108">
         <v>1.909</v>
@@ -9845,16 +9848,16 @@
         <v>7046377</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45164.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9863,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J109">
         <v>2</v>
@@ -9931,16 +9934,16 @@
         <v>7046378</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9949,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J110">
         <v>1.727</v>
@@ -10017,16 +10020,16 @@
         <v>7046379</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45164.9375</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10035,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J111">
         <v>1.333</v>
@@ -10103,16 +10106,16 @@
         <v>7046702</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45165.625</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10121,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J112">
         <v>3.5</v>
@@ -10189,16 +10192,16 @@
         <v>7046380</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45165.70833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10207,7 +10210,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J113">
         <v>2.625</v>
@@ -10275,16 +10278,16 @@
         <v>7047262</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45165.72916666666</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10293,7 +10296,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J114">
         <v>1.5</v>
@@ -10361,16 +10364,16 @@
         <v>7046381</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45166.625</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10379,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J115">
         <v>1.615</v>
@@ -10447,16 +10450,16 @@
         <v>7046382</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45166.71875</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10465,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J116">
         <v>1.533</v>
@@ -10533,16 +10536,16 @@
         <v>7094995</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45171.625</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10551,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J117">
         <v>2.1</v>
@@ -10619,16 +10622,16 @@
         <v>7094996</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45171.71875</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10637,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J118">
         <v>1.8</v>
@@ -10705,16 +10708,16 @@
         <v>7094997</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45172.625</v>
       </c>
       <c r="E119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10723,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J119">
         <v>1.444</v>
@@ -10791,16 +10794,16 @@
         <v>7094998</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45172.71875</v>
       </c>
       <c r="E120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10809,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J120">
         <v>1.909</v>
@@ -10877,16 +10880,16 @@
         <v>7095201</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45173.71875</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G121">
         <v>5</v>
@@ -10895,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J121">
         <v>1.615</v>
@@ -10963,16 +10966,16 @@
         <v>7094999</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45178.70833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10981,7 +10984,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J122">
         <v>9</v>
@@ -11049,16 +11052,16 @@
         <v>7095202</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45178.875</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11067,7 +11070,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J123">
         <v>2.375</v>
@@ -11135,16 +11138,16 @@
         <v>7095203</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45179.70833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11153,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J124">
         <v>4.5</v>
@@ -11221,16 +11224,16 @@
         <v>7095000</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45179.875</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11239,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J125">
         <v>1.25</v>
@@ -11307,16 +11310,16 @@
         <v>7123772</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45184.625</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11325,7 +11328,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J126">
         <v>1.95</v>
@@ -11393,16 +11396,16 @@
         <v>7123773</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45184.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11411,7 +11414,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J127">
         <v>1.615</v>
@@ -11479,16 +11482,16 @@
         <v>7123358</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45184.72222222222</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11497,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J128">
         <v>1.25</v>
@@ -11565,16 +11568,16 @@
         <v>7123774</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45184.875</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11583,7 +11586,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J129">
         <v>1.909</v>
@@ -11651,16 +11654,16 @@
         <v>7123775</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45185.625</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11669,7 +11672,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J130">
         <v>4.5</v>
@@ -11737,16 +11740,16 @@
         <v>7123783</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45185.75</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11755,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J131">
         <v>1.8</v>
@@ -11823,16 +11826,16 @@
         <v>7123145</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45185.9375</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11841,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -11909,16 +11912,16 @@
         <v>7123776</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45186.70833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11927,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J133">
         <v>2.2</v>
@@ -11995,16 +11998,16 @@
         <v>7123777</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45186.85416666666</v>
       </c>
       <c r="E134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -12013,7 +12016,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J134">
         <v>1.2</v>
@@ -12081,16 +12084,16 @@
         <v>7123778</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45188.625</v>
       </c>
       <c r="E135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12099,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12167,16 +12170,16 @@
         <v>7123359</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45188.72222222222</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12185,7 +12188,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J136">
         <v>7</v>
@@ -12253,16 +12256,16 @@
         <v>7123779</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45189.625</v>
       </c>
       <c r="E137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12271,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12339,16 +12342,16 @@
         <v>7123780</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45189.72916666666</v>
       </c>
       <c r="E138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>5</v>
@@ -12357,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12425,16 +12428,16 @@
         <v>7123781</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45189.85416666666</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12443,7 +12446,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J139">
         <v>1.909</v>
@@ -12511,16 +12514,16 @@
         <v>7123146</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45189.9375</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12529,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J140">
         <v>1.25</v>
@@ -12597,16 +12600,16 @@
         <v>7123784</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45190.625</v>
       </c>
       <c r="E141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12615,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J141">
         <v>1.727</v>
@@ -12683,16 +12686,16 @@
         <v>7123782</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45190.72222222222</v>
       </c>
       <c r="E142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12701,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J142">
         <v>1.666</v>
@@ -12769,16 +12772,16 @@
         <v>7124242</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45190.91666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12787,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J143">
         <v>3.1</v>
@@ -12855,16 +12858,16 @@
         <v>7211634</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12873,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J144">
         <v>1.5</v>
@@ -12941,16 +12944,16 @@
         <v>7211635</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45193.625</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12959,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J145">
         <v>1.533</v>
@@ -13027,16 +13030,16 @@
         <v>7211636</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45193.70833333334</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13045,7 +13048,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J146">
         <v>2.4</v>
@@ -13113,16 +13116,16 @@
         <v>7211560</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45193.71875</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13131,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J147">
         <v>1.2</v>
@@ -13199,16 +13202,16 @@
         <v>7211561</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45193.80208333334</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13217,7 +13220,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J148">
         <v>4</v>
@@ -13285,16 +13288,16 @@
         <v>7211637</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45193.89583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13303,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J149">
         <v>2.05</v>
@@ -13371,16 +13374,16 @@
         <v>7211638</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45194.625</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13389,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J150">
         <v>3.5</v>
@@ -13457,16 +13460,16 @@
         <v>7227155</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45194.70833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13475,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13543,16 +13546,16 @@
         <v>7211562</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45194.91666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13561,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J152">
         <v>1.2</v>
@@ -13629,16 +13632,16 @@
         <v>7211639</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45197.625</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13647,7 +13650,7 @@
         <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13715,16 +13718,16 @@
         <v>7211873</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45197.83333333334</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13733,7 +13736,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13801,16 +13804,16 @@
         <v>7211563</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45197.9375</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13819,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J155">
         <v>1.8</v>
@@ -13887,16 +13890,16 @@
         <v>7211641</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45198.70833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13905,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J156">
         <v>1.125</v>
@@ -13973,16 +13976,16 @@
         <v>7211640</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45198.70833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13991,7 +13994,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J157">
         <v>1.615</v>
@@ -14059,16 +14062,16 @@
         <v>7211564</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45198.83333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14077,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J158">
         <v>2.625</v>
@@ -14145,16 +14148,16 @@
         <v>7211642</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45199.70833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14163,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J159">
         <v>1.5</v>
@@ -14231,16 +14234,16 @@
         <v>7211643</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45200.625</v>
       </c>
       <c r="E160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14249,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J160">
         <v>2.2</v>
@@ -14317,16 +14320,16 @@
         <v>7211644</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45200.72222222222</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14335,7 +14338,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J161">
         <v>4.5</v>
@@ -14403,16 +14406,16 @@
         <v>7228938</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45201.9375</v>
       </c>
       <c r="E162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14421,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J162">
         <v>1.5</v>
@@ -14489,16 +14492,16 @@
         <v>7229017</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45202.70833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14507,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J163">
         <v>1.571</v>
@@ -14575,16 +14578,16 @@
         <v>7229362</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45202.71875</v>
       </c>
       <c r="E164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14593,7 +14596,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J164">
         <v>2.2</v>
@@ -14661,16 +14664,16 @@
         <v>7229018</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>45202.83333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14679,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J165">
         <v>1.111</v>
@@ -14747,16 +14750,16 @@
         <v>7229019</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>45202.9375</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14765,7 +14768,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J166">
         <v>2.375</v>
@@ -14833,16 +14836,16 @@
         <v>7229363</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>45206.625</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>4</v>
@@ -14851,7 +14854,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J167">
         <v>3.2</v>
@@ -14919,16 +14922,16 @@
         <v>7229352</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>45206.70833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14937,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J168">
         <v>1.285</v>
@@ -15005,16 +15008,16 @@
         <v>7229353</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
         <v>45207.625</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15023,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J169">
         <v>2.1</v>
@@ -15091,16 +15094,16 @@
         <v>7229020</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
         <v>45207.72222222222</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15109,7 +15112,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J170">
         <v>1.4</v>
@@ -15177,16 +15180,16 @@
         <v>7302198</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D171" s="2">
         <v>45219.70833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15195,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J171">
         <v>2.1</v>
@@ -15263,16 +15266,16 @@
         <v>7302794</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D172" s="2">
         <v>45220.625</v>
       </c>
       <c r="E172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15281,7 +15284,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J172">
         <v>1.4</v>
@@ -15349,16 +15352,16 @@
         <v>7302199</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D173" s="2">
         <v>45220.75</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15367,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15435,16 +15438,16 @@
         <v>7302798</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D174" s="2">
         <v>45220.91666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15453,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J174">
         <v>3.5</v>
@@ -15518,85 +15521,85 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7302795</v>
+        <v>7302796</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D175" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J175">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K175">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L175">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="M175">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="N175">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P175">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S175">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T175">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V175">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA175">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15607,16 +15610,16 @@
         <v>7302200</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D176" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -15625,7 +15628,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J176">
         <v>2</v>
@@ -15690,85 +15693,85 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7302796</v>
+        <v>7302795</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D177" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E177" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G177">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J177">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="K177">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L177">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="M177">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="N177">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O177">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S177">
+        <v>2.75</v>
+      </c>
+      <c r="T177">
+        <v>1.825</v>
+      </c>
+      <c r="U177">
+        <v>1.975</v>
+      </c>
+      <c r="V177">
+        <v>-1</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
         <v>3</v>
       </c>
-      <c r="T177">
-        <v>1.875</v>
-      </c>
-      <c r="U177">
-        <v>1.925</v>
-      </c>
-      <c r="V177">
-        <v>0.25</v>
-      </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB177">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15779,16 +15782,16 @@
         <v>7302799</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D178" s="2">
         <v>45221.91666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15797,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J178">
         <v>2.2</v>
@@ -15865,16 +15868,16 @@
         <v>7302797</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D179" s="2">
         <v>45222.625</v>
       </c>
       <c r="E179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15883,7 +15886,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J179">
         <v>2.25</v>
@@ -15951,16 +15954,16 @@
         <v>7384622</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D180" s="2">
         <v>45227.71875</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15969,7 +15972,7 @@
         <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J180">
         <v>1.444</v>
@@ -16037,16 +16040,16 @@
         <v>7384623</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D181" s="2">
         <v>45227.71875</v>
       </c>
       <c r="E181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16055,7 +16058,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J181">
         <v>2</v>
@@ -16123,16 +16126,16 @@
         <v>7384624</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D182" s="2">
         <v>45227.71875</v>
       </c>
       <c r="E182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G182">
         <v>3</v>
@@ -16141,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J182">
         <v>2</v>
@@ -16206,64 +16209,64 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7384628</v>
+        <v>7384630</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D183" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
         <v>1</v>
       </c>
-      <c r="H183">
-        <v>2</v>
-      </c>
       <c r="I183" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J183">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K183">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L183">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="M183">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="N183">
         <v>3.6</v>
       </c>
       <c r="O183">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P183">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q183">
+        <v>2</v>
+      </c>
+      <c r="R183">
         <v>1.8</v>
       </c>
-      <c r="R183">
-        <v>2</v>
-      </c>
       <c r="S183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
         <v>-1</v>
@@ -16272,19 +16275,19 @@
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA183">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16292,85 +16295,85 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7384626</v>
+        <v>7384625</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D184" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E184" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J184">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K184">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L184">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M184">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="N184">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="O184">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="P184">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="Q184">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V184">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16381,16 +16384,16 @@
         <v>7384629</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D185" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16399,7 +16402,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J185">
         <v>2.625</v>
@@ -16464,10 +16467,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7384625</v>
+        <v>7384626</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D186" s="2">
         <v>45228.70833333334</v>
@@ -16476,10 +16479,10 @@
         <v>33</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -16488,61 +16491,61 @@
         <v>55</v>
       </c>
       <c r="J186">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="K186">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L186">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M186">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="N186">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="O186">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="P186">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="Q186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T186">
+        <v>2</v>
+      </c>
+      <c r="U186">
         <v>1.8</v>
       </c>
-      <c r="U186">
-        <v>2</v>
-      </c>
       <c r="V186">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W186">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16550,49 +16553,49 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7384627</v>
+        <v>7384628</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D187" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F187" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J187">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="K187">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L187">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="M187">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="N187">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O187">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P187">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q187">
         <v>1.8</v>
@@ -16604,31 +16607,31 @@
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V187">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y187">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
+        <v>1</v>
+      </c>
+      <c r="AA187">
+        <v>0.4875</v>
+      </c>
+      <c r="AB187">
         <v>-0.5</v>
-      </c>
-      <c r="AA187">
-        <v>-1</v>
-      </c>
-      <c r="AB187">
-        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16636,58 +16639,58 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7384630</v>
+        <v>7384627</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D188" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J188">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L188">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="M188">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="N188">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="P188">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q188">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T188">
         <v>1.85</v>
@@ -16696,19 +16699,19 @@
         <v>1.95</v>
       </c>
       <c r="V188">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z188">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
         <v>-1</v>
@@ -16725,16 +16728,16 @@
         <v>7413415</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D189" s="2">
         <v>45234.91666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16743,7 +16746,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J189">
         <v>2.1</v>
@@ -16811,16 +16814,16 @@
         <v>7413416</v>
       </c>
       <c r="C190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D190" s="2">
         <v>45238.91666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16829,7 +16832,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16897,16 +16900,16 @@
         <v>7700715</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D191" s="2">
         <v>45317.70833333334</v>
       </c>
       <c r="E191" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16915,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J191">
         <v>2.1</v>
@@ -16983,16 +16986,16 @@
         <v>7700719</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D192" s="2">
         <v>45317.875</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -17001,7 +17004,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J192">
         <v>1.55</v>
@@ -17069,16 +17072,16 @@
         <v>7700718</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D193" s="2">
         <v>45318.70833333334</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G193">
         <v>6</v>
@@ -17087,7 +17090,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J193">
         <v>1.333</v>
@@ -17155,16 +17158,16 @@
         <v>7700722</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D194" s="2">
         <v>45318.8125</v>
       </c>
       <c r="E194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17173,7 +17176,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J194">
         <v>1.55</v>
@@ -17241,16 +17244,16 @@
         <v>7700716</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D195" s="2">
         <v>45318.91666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F195" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17259,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J195">
         <v>1.4</v>
@@ -17327,16 +17330,16 @@
         <v>7700721</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D196" s="2">
         <v>45319.6875</v>
       </c>
       <c r="E196" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17345,7 +17348,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J196">
         <v>1.65</v>
@@ -17413,16 +17416,16 @@
         <v>7693926</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D197" s="2">
         <v>45319.79166666666</v>
       </c>
       <c r="E197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17431,7 +17434,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J197">
         <v>3.6</v>
@@ -17499,16 +17502,16 @@
         <v>7700720</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D198" s="2">
         <v>45319.91666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17517,7 +17520,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J198">
         <v>1.55</v>
@@ -17585,16 +17588,16 @@
         <v>7700717</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D199" s="2">
         <v>45320.70833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F199" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17603,7 +17606,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J199">
         <v>1.8</v>
@@ -17671,16 +17674,16 @@
         <v>7713941</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D200" s="2">
         <v>45324.70833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F200" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17689,7 +17692,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J200">
         <v>1.333</v>
@@ -17757,16 +17760,16 @@
         <v>7713942</v>
       </c>
       <c r="C201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D201" s="2">
         <v>45324.91666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G201">
         <v>3</v>
@@ -17775,7 +17778,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J201">
         <v>2.6</v>
@@ -17843,16 +17846,16 @@
         <v>7713943</v>
       </c>
       <c r="C202" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D202" s="2">
         <v>45325.70833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17861,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J202">
         <v>2.25</v>
@@ -17929,16 +17932,16 @@
         <v>7713944</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D203" s="2">
         <v>45325.72916666666</v>
       </c>
       <c r="E203" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17947,7 +17950,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J203">
         <v>1.727</v>
@@ -18015,16 +18018,16 @@
         <v>7714091</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D204" s="2">
         <v>45325.91666666666</v>
       </c>
       <c r="E204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18033,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J204">
         <v>1.181</v>
@@ -18101,17 +18104,17 @@
         <v>7713945</v>
       </c>
       <c r="C205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D205" s="2">
         <v>45326.66666666666</v>
       </c>
       <c r="E205" t="s">
+        <v>48</v>
+      </c>
+      <c r="F205" t="s">
         <v>47</v>
       </c>
-      <c r="F205" t="s">
-        <v>46</v>
-      </c>
       <c r="G205">
         <v>0</v>
       </c>
@@ -18119,7 +18122,7 @@
         <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J205">
         <v>3.5</v>
@@ -18187,16 +18190,16 @@
         <v>7713946</v>
       </c>
       <c r="C206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D206" s="2">
         <v>45326.75</v>
       </c>
       <c r="E206" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18205,7 +18208,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J206">
         <v>3.75</v>
@@ -18273,16 +18276,16 @@
         <v>7713947</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D207" s="2">
         <v>45326.875</v>
       </c>
       <c r="E207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18291,7 +18294,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J207">
         <v>2.1</v>
@@ -18359,16 +18362,16 @@
         <v>7713948</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D208" s="2">
         <v>45327.70833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F208" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18377,7 +18380,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J208">
         <v>1.95</v>
@@ -18445,16 +18448,16 @@
         <v>7745352</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D209" s="2">
         <v>45331.70833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G209">
         <v>4</v>
@@ -18463,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J209">
         <v>2.25</v>
@@ -18531,16 +18534,16 @@
         <v>7745353</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D210" s="2">
         <v>45331.875</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18549,7 +18552,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J210">
         <v>2.5</v>
@@ -18617,16 +18620,16 @@
         <v>7745354</v>
       </c>
       <c r="C211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D211" s="2">
         <v>45332.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18635,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J211">
         <v>1.166</v>
@@ -18703,16 +18706,16 @@
         <v>7745355</v>
       </c>
       <c r="C212" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D212" s="2">
         <v>45332.72916666666</v>
       </c>
       <c r="E212" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -18721,7 +18724,7 @@
         <v>3</v>
       </c>
       <c r="I212" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J212">
         <v>1.666</v>
@@ -18789,16 +18792,16 @@
         <v>7746457</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D213" s="2">
         <v>45332.91666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18807,7 +18810,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J213">
         <v>2.375</v>
@@ -18875,16 +18878,16 @@
         <v>7745356</v>
       </c>
       <c r="C214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D214" s="2">
         <v>45333.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18893,7 +18896,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J214">
         <v>2.375</v>
@@ -18961,16 +18964,16 @@
         <v>7745357</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D215" s="2">
         <v>45333.75</v>
       </c>
       <c r="E215" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18979,7 +18982,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J215">
         <v>2.1</v>
@@ -19047,17 +19050,17 @@
         <v>7745358</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D216" s="2">
         <v>45333.83333333334</v>
       </c>
       <c r="E216" t="s">
+        <v>50</v>
+      </c>
+      <c r="F216" t="s">
         <v>49</v>
       </c>
-      <c r="F216" t="s">
-        <v>48</v>
-      </c>
       <c r="G216">
         <v>2</v>
       </c>
@@ -19065,7 +19068,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J216">
         <v>1.615</v>
@@ -19133,16 +19136,16 @@
         <v>7745359</v>
       </c>
       <c r="C217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D217" s="2">
         <v>45334.6875</v>
       </c>
       <c r="E217" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F217" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19151,7 +19154,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J217">
         <v>2.1</v>
@@ -19219,16 +19222,16 @@
         <v>7818734</v>
       </c>
       <c r="C218" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D218" s="2">
         <v>45337.91666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F218" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G218">
         <v>4</v>
@@ -19237,7 +19240,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J218">
         <v>1.363</v>
@@ -19305,16 +19308,16 @@
         <v>7768160</v>
       </c>
       <c r="C219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D219" s="2">
         <v>45338.6875</v>
       </c>
       <c r="E219" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F219" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19323,7 +19326,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J219">
         <v>2.1</v>
@@ -19391,16 +19394,16 @@
         <v>7768161</v>
       </c>
       <c r="C220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D220" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G220">
         <v>4</v>
@@ -19409,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J220">
         <v>1.533</v>
@@ -19477,16 +19480,16 @@
         <v>7768167</v>
       </c>
       <c r="C221" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D221" s="2">
         <v>45339.83333333334</v>
       </c>
       <c r="E221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19495,7 +19498,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J221">
         <v>1.727</v>
@@ -19563,16 +19566,16 @@
         <v>7768162</v>
       </c>
       <c r="C222" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D222" s="2">
         <v>45339.91666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19581,7 +19584,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J222">
         <v>1.7</v>
@@ -19649,16 +19652,16 @@
         <v>7768163</v>
       </c>
       <c r="C223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D223" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19667,7 +19670,7 @@
         <v>3</v>
       </c>
       <c r="I223" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J223">
         <v>3.5</v>
@@ -19735,16 +19738,16 @@
         <v>7768164</v>
       </c>
       <c r="C224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D224" s="2">
         <v>45340.79166666666</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G224">
         <v>3</v>
@@ -19753,7 +19756,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J224">
         <v>1.444</v>
@@ -19821,16 +19824,16 @@
         <v>7768165</v>
       </c>
       <c r="C225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D225" s="2">
         <v>45340.89583333334</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19839,7 +19842,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J225">
         <v>1.833</v>
@@ -19907,16 +19910,16 @@
         <v>7768166</v>
       </c>
       <c r="C226" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D226" s="2">
         <v>45341.70833333334</v>
       </c>
       <c r="E226" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F226" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -19925,7 +19928,7 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J226">
         <v>2</v>
@@ -19993,16 +19996,16 @@
         <v>7818815</v>
       </c>
       <c r="C227" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D227" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G227">
         <v>4</v>
@@ -20011,7 +20014,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J227">
         <v>1.4</v>
@@ -20079,16 +20082,16 @@
         <v>7818817</v>
       </c>
       <c r="C228" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D228" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20097,7 +20100,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J228">
         <v>2.2</v>
@@ -20165,16 +20168,16 @@
         <v>7818816</v>
       </c>
       <c r="C229" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D229" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E229" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -20183,7 +20186,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J229">
         <v>3.3</v>
@@ -20251,16 +20254,16 @@
         <v>7818818</v>
       </c>
       <c r="C230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D230" s="2">
         <v>45346.8125</v>
       </c>
       <c r="E230" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -20269,7 +20272,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J230">
         <v>1.25</v>
@@ -20337,16 +20340,16 @@
         <v>7818819</v>
       </c>
       <c r="C231" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D231" s="2">
         <v>45346.84375</v>
       </c>
       <c r="E231" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20355,7 +20358,7 @@
         <v>4</v>
       </c>
       <c r="I231" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J231">
         <v>4.333</v>
@@ -20423,16 +20426,16 @@
         <v>7818820</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D232" s="2">
         <v>45347.65625</v>
       </c>
       <c r="E232" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -20441,7 +20444,7 @@
         <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J232">
         <v>1.533</v>
@@ -20509,16 +20512,16 @@
         <v>7818821</v>
       </c>
       <c r="C233" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D233" s="2">
         <v>45347.75</v>
       </c>
       <c r="E233" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F233" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G233">
         <v>5</v>
@@ -20527,7 +20530,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J233">
         <v>1.333</v>
@@ -20595,16 +20598,16 @@
         <v>7818822</v>
       </c>
       <c r="C234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D234" s="2">
         <v>45347.875</v>
       </c>
       <c r="E234" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20613,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J234">
         <v>1.909</v>
@@ -20681,16 +20684,16 @@
         <v>7818823</v>
       </c>
       <c r="C235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D235" s="2">
         <v>45348.70833333334</v>
       </c>
       <c r="E235" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20699,7 +20702,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J235">
         <v>2.375</v>
@@ -20767,16 +20770,16 @@
         <v>7850288</v>
       </c>
       <c r="C236" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D236" s="2">
         <v>45351.67708333334</v>
       </c>
       <c r="E236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -20785,7 +20788,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J236">
         <v>1.8</v>
@@ -20853,16 +20856,16 @@
         <v>7850289</v>
       </c>
       <c r="C237" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D237" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -20871,7 +20874,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J237">
         <v>3.25</v>
@@ -20939,16 +20942,16 @@
         <v>7850290</v>
       </c>
       <c r="C238" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D238" s="2">
         <v>45352.9375</v>
       </c>
       <c r="E238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F238" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -20957,7 +20960,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J238">
         <v>1.4</v>
@@ -21025,16 +21028,16 @@
         <v>7850291</v>
       </c>
       <c r="C239" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D239" s="2">
         <v>45353.63541666666</v>
       </c>
       <c r="E239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21043,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J239">
         <v>1.25</v>
@@ -21111,16 +21114,16 @@
         <v>7850292</v>
       </c>
       <c r="C240" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D240" s="2">
         <v>45353.73958333334</v>
       </c>
       <c r="E240" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21129,7 +21132,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J240">
         <v>2.9</v>
@@ -21197,16 +21200,16 @@
         <v>7850293</v>
       </c>
       <c r="C241" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D241" s="2">
         <v>45353.875</v>
       </c>
       <c r="E241" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F241" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21215,7 +21218,7 @@
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J241">
         <v>1.8</v>
@@ -21283,16 +21286,16 @@
         <v>7850294</v>
       </c>
       <c r="C242" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D242" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E242" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F242" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -21301,7 +21304,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J242">
         <v>1.909</v>
@@ -21369,16 +21372,16 @@
         <v>7850295</v>
       </c>
       <c r="C243" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D243" s="2">
         <v>45354.875</v>
       </c>
       <c r="E243" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F243" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21387,7 +21390,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J243">
         <v>1.3</v>
@@ -21455,16 +21458,16 @@
         <v>7850296</v>
       </c>
       <c r="C244" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D244" s="2">
         <v>45355.66666666666</v>
       </c>
       <c r="E244" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21473,7 +21476,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J244">
         <v>2.5</v>
@@ -21541,17 +21544,17 @@
         <v>7883363</v>
       </c>
       <c r="C245" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D245" s="2">
         <v>45358.70833333334</v>
       </c>
       <c r="E245" t="s">
+        <v>49</v>
+      </c>
+      <c r="F245" t="s">
         <v>48</v>
       </c>
-      <c r="F245" t="s">
-        <v>47</v>
-      </c>
       <c r="G245">
         <v>2</v>
       </c>
@@ -21559,7 +21562,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J245">
         <v>1.615</v>
@@ -21627,16 +21630,16 @@
         <v>7882749</v>
       </c>
       <c r="C246" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D246" s="2">
         <v>45359.70833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F246" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21645,7 +21648,7 @@
         <v>3</v>
       </c>
       <c r="I246" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J246">
         <v>2.05</v>
@@ -21713,16 +21716,16 @@
         <v>7883364</v>
       </c>
       <c r="C247" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D247" s="2">
         <v>45359.91666666666</v>
       </c>
       <c r="E247" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21731,7 +21734,7 @@
         <v>2</v>
       </c>
       <c r="I247" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J247">
         <v>3.5</v>
@@ -21799,16 +21802,16 @@
         <v>7883365</v>
       </c>
       <c r="C248" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D248" s="2">
         <v>45360.63541666666</v>
       </c>
       <c r="E248" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21817,7 +21820,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J248">
         <v>1.95</v>
@@ -21885,16 +21888,16 @@
         <v>7882750</v>
       </c>
       <c r="C249" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D249" s="2">
         <v>45360.72916666666</v>
       </c>
       <c r="E249" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -21903,7 +21906,7 @@
         <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J249">
         <v>1.533</v>
@@ -21971,16 +21974,16 @@
         <v>7883366</v>
       </c>
       <c r="C250" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D250" s="2">
         <v>45360.75</v>
       </c>
       <c r="E250" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F250" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -21989,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J250">
         <v>2.3</v>
@@ -22057,16 +22060,16 @@
         <v>7882751</v>
       </c>
       <c r="C251" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D251" s="2">
         <v>45360.91666666666</v>
       </c>
       <c r="E251" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22075,7 +22078,7 @@
         <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J251">
         <v>2.375</v>
@@ -22143,16 +22146,16 @@
         <v>7882752</v>
       </c>
       <c r="C252" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D252" s="2">
         <v>45361.70833333334</v>
       </c>
       <c r="E252" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F252" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -22161,7 +22164,7 @@
         <v>2</v>
       </c>
       <c r="I252" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J252">
         <v>1.3</v>
@@ -22229,16 +22232,16 @@
         <v>7883367</v>
       </c>
       <c r="C253" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D253" s="2">
         <v>45361.70833333334</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F253" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22247,7 +22250,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J253">
         <v>2.2</v>
@@ -22315,16 +22318,16 @@
         <v>7908663</v>
       </c>
       <c r="C254" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D254" s="2">
         <v>45363.9375</v>
       </c>
       <c r="E254" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F254" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -22333,7 +22336,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J254">
         <v>1.2</v>
@@ -22401,16 +22404,16 @@
         <v>7908664</v>
       </c>
       <c r="C255" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D255" s="2">
         <v>45364.85416666666</v>
       </c>
       <c r="E255" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F255" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -22419,7 +22422,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J255">
         <v>2.15</v>
@@ -22487,16 +22490,16 @@
         <v>7908670</v>
       </c>
       <c r="C256" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D256" s="2">
         <v>45364.95833333334</v>
       </c>
       <c r="E256" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22505,7 +22508,7 @@
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J256">
         <v>1.615</v>
@@ -22573,16 +22576,16 @@
         <v>7908665</v>
       </c>
       <c r="C257" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D257" s="2">
         <v>45365.64583333334</v>
       </c>
       <c r="E257" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F257" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22591,7 +22594,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J257">
         <v>2.15</v>
@@ -22659,16 +22662,16 @@
         <v>7908666</v>
       </c>
       <c r="C258" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D258" s="2">
         <v>45365.73958333334</v>
       </c>
       <c r="E258" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F258" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G258">
         <v>3</v>
@@ -22677,7 +22680,7 @@
         <v>2</v>
       </c>
       <c r="I258" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J258">
         <v>3.2</v>
@@ -22745,16 +22748,16 @@
         <v>7908667</v>
       </c>
       <c r="C259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D259" s="2">
         <v>45365.875</v>
       </c>
       <c r="E259" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F259" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22763,7 +22766,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J259">
         <v>2.2</v>
@@ -22831,16 +22834,16 @@
         <v>7908669</v>
       </c>
       <c r="C260" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D260" s="2">
         <v>45366.63541666666</v>
       </c>
       <c r="E260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F260" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22849,7 +22852,7 @@
         <v>4</v>
       </c>
       <c r="I260" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J260">
         <v>2.05</v>
@@ -22917,16 +22920,16 @@
         <v>7908671</v>
       </c>
       <c r="C261" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D261" s="2">
         <v>45366.72916666666</v>
       </c>
       <c r="E261" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F261" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22935,7 +22938,7 @@
         <v>1</v>
       </c>
       <c r="I261" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J261">
         <v>1.615</v>
@@ -23003,16 +23006,16 @@
         <v>7908668</v>
       </c>
       <c r="C262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D262" s="2">
         <v>45367.70833333334</v>
       </c>
       <c r="E262" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F262" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -23021,7 +23024,7 @@
         <v>1</v>
       </c>
       <c r="I262" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J262">
         <v>1.8</v>
@@ -23089,16 +23092,16 @@
         <v>7971186</v>
       </c>
       <c r="C263" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D263" s="2">
         <v>45379.70833333334</v>
       </c>
       <c r="E263" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F263" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23107,7 +23110,7 @@
         <v>2</v>
       </c>
       <c r="I263" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J263">
         <v>1.615</v>
@@ -23175,16 +23178,16 @@
         <v>7971187</v>
       </c>
       <c r="C264" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D264" s="2">
         <v>45379.91666666666</v>
       </c>
       <c r="E264" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F264" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G264">
         <v>3</v>
@@ -23193,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J264">
         <v>1.333</v>
@@ -23261,16 +23264,16 @@
         <v>7971188</v>
       </c>
       <c r="C265" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D265" s="2">
         <v>45380.875</v>
       </c>
       <c r="E265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F265" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -23279,7 +23282,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J265">
         <v>1.5</v>
@@ -23347,16 +23350,16 @@
         <v>7971189</v>
       </c>
       <c r="C266" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D266" s="2">
         <v>45381.67708333334</v>
       </c>
       <c r="E266" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F266" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G266">
         <v>3</v>
@@ -23365,7 +23368,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J266">
         <v>1.615</v>
@@ -23433,16 +23436,16 @@
         <v>7971190</v>
       </c>
       <c r="C267" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D267" s="2">
         <v>45381.78125</v>
       </c>
       <c r="E267" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G267">
         <v>2</v>
@@ -23451,7 +23454,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J267">
         <v>1.8</v>
@@ -23519,16 +23522,16 @@
         <v>7971191</v>
       </c>
       <c r="C268" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D268" s="2">
         <v>45381.91666666666</v>
       </c>
       <c r="E268" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F268" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -23537,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J268">
         <v>3.75</v>
@@ -23605,16 +23608,16 @@
         <v>7971192</v>
       </c>
       <c r="C269" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D269" s="2">
         <v>45382.625</v>
       </c>
       <c r="E269" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -23623,7 +23626,7 @@
         <v>2</v>
       </c>
       <c r="I269" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J269">
         <v>1.8</v>
@@ -23691,16 +23694,16 @@
         <v>7971193</v>
       </c>
       <c r="C270" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D270" s="2">
         <v>45382.70833333334</v>
       </c>
       <c r="E270" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F270" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -23709,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J270">
         <v>1.615</v>
@@ -23777,16 +23780,16 @@
         <v>7971194</v>
       </c>
       <c r="C271" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D271" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E271" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F271" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -23795,7 +23798,7 @@
         <v>2</v>
       </c>
       <c r="I271" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J271">
         <v>4.333</v>
@@ -23863,16 +23866,16 @@
         <v>8011505</v>
       </c>
       <c r="C272" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D272" s="2">
         <v>45387.6875</v>
       </c>
       <c r="E272" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -23881,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J272">
         <v>1.533</v>
@@ -23949,16 +23952,16 @@
         <v>8011506</v>
       </c>
       <c r="C273" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D273" s="2">
         <v>45387.9375</v>
       </c>
       <c r="E273" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F273" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -23967,7 +23970,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J273">
         <v>1.2</v>
@@ -24035,16 +24038,16 @@
         <v>8011507</v>
       </c>
       <c r="C274" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D274" s="2">
         <v>45388.625</v>
       </c>
       <c r="E274" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F274" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G274">
         <v>2</v>
@@ -24053,7 +24056,7 @@
         <v>2</v>
       </c>
       <c r="I274" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J274">
         <v>3</v>
@@ -24121,16 +24124,16 @@
         <v>8011508</v>
       </c>
       <c r="C275" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D275" s="2">
         <v>45388.72916666666</v>
       </c>
       <c r="E275" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F275" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G275">
         <v>2</v>
@@ -24139,7 +24142,7 @@
         <v>2</v>
       </c>
       <c r="I275" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J275">
         <v>2.2</v>
@@ -24207,16 +24210,16 @@
         <v>8012287</v>
       </c>
       <c r="C276" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D276" s="2">
         <v>45388.8125</v>
       </c>
       <c r="E276" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -24225,7 +24228,7 @@
         <v>4</v>
       </c>
       <c r="I276" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J276">
         <v>3.5</v>
@@ -24293,16 +24296,16 @@
         <v>8011509</v>
       </c>
       <c r="C277" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D277" s="2">
         <v>45388.89583333334</v>
       </c>
       <c r="E277" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F277" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -24311,7 +24314,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J277">
         <v>1.4</v>
@@ -24379,16 +24382,16 @@
         <v>8011510</v>
       </c>
       <c r="C278" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D278" s="2">
         <v>45389.625</v>
       </c>
       <c r="E278" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F278" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G278">
         <v>2</v>
@@ -24397,7 +24400,7 @@
         <v>2</v>
       </c>
       <c r="I278" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J278">
         <v>1.727</v>
@@ -24465,16 +24468,16 @@
         <v>8011511</v>
       </c>
       <c r="C279" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D279" s="2">
         <v>45389.72916666666</v>
       </c>
       <c r="E279" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F279" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G279">
         <v>4</v>
@@ -24483,7 +24486,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J279">
         <v>1.333</v>
@@ -24551,16 +24554,16 @@
         <v>8011512</v>
       </c>
       <c r="C280" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D280" s="2">
         <v>45390.70833333334</v>
       </c>
       <c r="E280" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F280" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -24569,7 +24572,7 @@
         <v>1</v>
       </c>
       <c r="I280" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J280">
         <v>2.1</v>
@@ -24637,16 +24640,16 @@
         <v>8042070</v>
       </c>
       <c r="C281" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D281" s="2">
         <v>45394.70833333334</v>
       </c>
       <c r="E281" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F281" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24655,7 +24658,7 @@
         <v>2</v>
       </c>
       <c r="I281" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J281">
         <v>1.8</v>
@@ -24723,16 +24726,16 @@
         <v>8042071</v>
       </c>
       <c r="C282" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D282" s="2">
         <v>45395.6875</v>
       </c>
       <c r="E282" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F282" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G282">
         <v>2</v>
@@ -24741,7 +24744,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J282">
         <v>1.727</v>
@@ -24809,16 +24812,16 @@
         <v>8042072</v>
       </c>
       <c r="C283" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D283" s="2">
         <v>45395.79166666666</v>
       </c>
       <c r="E283" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F283" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G283">
         <v>2</v>
@@ -24827,7 +24830,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J283">
         <v>1.25</v>
@@ -24895,16 +24898,16 @@
         <v>8071407</v>
       </c>
       <c r="C284" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D284" s="2">
         <v>45395.91666666666</v>
       </c>
       <c r="E284" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F284" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -24913,7 +24916,7 @@
         <v>2</v>
       </c>
       <c r="I284" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J284">
         <v>6</v>
@@ -24981,16 +24984,16 @@
         <v>8042215</v>
       </c>
       <c r="C285" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D285" s="2">
         <v>45396.625</v>
       </c>
       <c r="E285" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F285" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G285">
         <v>3</v>
@@ -24999,7 +25002,7 @@
         <v>1</v>
       </c>
       <c r="I285" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J285">
         <v>1.8</v>
@@ -25067,16 +25070,16 @@
         <v>8042073</v>
       </c>
       <c r="C286" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D286" s="2">
         <v>45396.79166666666</v>
       </c>
       <c r="E286" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F286" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G286">
         <v>3</v>
@@ -25085,7 +25088,7 @@
         <v>2</v>
       </c>
       <c r="I286" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J286">
         <v>1.909</v>
@@ -25153,16 +25156,16 @@
         <v>8042219</v>
       </c>
       <c r="C287" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D287" s="2">
         <v>45396.89583333334</v>
       </c>
       <c r="E287" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F287" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G287">
         <v>2</v>
@@ -25171,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J287">
         <v>1.363</v>
@@ -25239,16 +25242,16 @@
         <v>8042075</v>
       </c>
       <c r="C288" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D288" s="2">
         <v>45397.70833333334</v>
       </c>
       <c r="E288" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F288" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G288">
         <v>2</v>
@@ -25257,7 +25260,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J288">
         <v>1.909</v>
@@ -25325,16 +25328,16 @@
         <v>8071422</v>
       </c>
       <c r="C289" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D289" s="2">
         <v>45397.89583333334</v>
       </c>
       <c r="E289" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F289" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G289">
         <v>2</v>
@@ -25343,7 +25346,7 @@
         <v>3</v>
       </c>
       <c r="I289" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J289">
         <v>4</v>
@@ -25411,16 +25414,16 @@
         <v>8042076</v>
       </c>
       <c r="C290" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D290" s="2">
         <v>45400.91666666666</v>
       </c>
       <c r="E290" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F290" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G290">
         <v>3</v>
@@ -25429,7 +25432,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J290">
         <v>1.25</v>
@@ -25497,16 +25500,16 @@
         <v>8042077</v>
       </c>
       <c r="C291" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D291" s="2">
         <v>45401.70833333334</v>
       </c>
       <c r="E291" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -25515,7 +25518,7 @@
         <v>2</v>
       </c>
       <c r="I291" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J291">
         <v>5</v>
@@ -25583,16 +25586,16 @@
         <v>8042078</v>
       </c>
       <c r="C292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D292" s="2">
         <v>45401.91666666666</v>
       </c>
       <c r="E292" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F292" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -25601,7 +25604,7 @@
         <v>2</v>
       </c>
       <c r="I292" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J292">
         <v>1.727</v>
@@ -25669,16 +25672,16 @@
         <v>8042079</v>
       </c>
       <c r="C293" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D293" s="2">
         <v>45402.625</v>
       </c>
       <c r="E293" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F293" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G293">
         <v>6</v>
@@ -25687,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J293">
         <v>2.375</v>
@@ -25755,16 +25758,16 @@
         <v>8042080</v>
       </c>
       <c r="C294" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D294" s="2">
         <v>45402.72916666666</v>
       </c>
       <c r="E294" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F294" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G294">
         <v>2</v>
@@ -25773,7 +25776,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J294">
         <v>2.5</v>
@@ -25841,16 +25844,16 @@
         <v>8042081</v>
       </c>
       <c r="C295" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D295" s="2">
         <v>45402.72916666666</v>
       </c>
       <c r="E295" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F295" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -25859,7 +25862,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J295">
         <v>2.2</v>
@@ -25927,16 +25930,16 @@
         <v>8042275</v>
       </c>
       <c r="C296" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D296" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E296" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F296" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G296">
         <v>2</v>
@@ -25945,7 +25948,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J296">
         <v>1.4</v>
@@ -26013,16 +26016,16 @@
         <v>8042082</v>
       </c>
       <c r="C297" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D297" s="2">
         <v>45403.6875</v>
       </c>
       <c r="E297" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F297" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -26031,7 +26034,7 @@
         <v>2</v>
       </c>
       <c r="I297" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J297">
         <v>2.625</v>
@@ -26099,16 +26102,16 @@
         <v>8042276</v>
       </c>
       <c r="C298" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D298" s="2">
         <v>45405.70833333334</v>
       </c>
       <c r="E298" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F298" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -26117,7 +26120,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J298">
         <v>2.1</v>
@@ -26185,16 +26188,16 @@
         <v>8042083</v>
       </c>
       <c r="C299" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D299" s="2">
         <v>45408.70833333334</v>
       </c>
       <c r="E299" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F299" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -26203,7 +26206,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J299">
         <v>1.5</v>
@@ -26271,52 +26274,52 @@
         <v>27</v>
       </c>
       <c r="C300" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D300" s="2">
-        <v>45409.625</v>
+        <v>45410.6875</v>
       </c>
       <c r="E300" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F300" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="J300">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="K300">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L300">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M300">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="N300">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O300">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P300">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q300">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R300">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S300">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T300">
+        <v>1.9</v>
+      </c>
+      <c r="U300">
         <v>1.95</v>
-      </c>
-      <c r="U300">
-        <v>1.9</v>
       </c>
       <c r="V300">
         <v>0</v>
@@ -26336,43 +26339,43 @@
         <v>28</v>
       </c>
       <c r="C301" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D301" s="2">
-        <v>45409.70833333334</v>
+        <v>45410.8125</v>
       </c>
       <c r="E301" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F301" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J301">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K301">
         <v>3.4</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M301">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N301">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O301">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P301">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q301">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R301">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S301">
         <v>2.25</v>
@@ -26401,52 +26404,52 @@
         <v>29</v>
       </c>
       <c r="C302" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D302" s="2">
-        <v>45409.8125</v>
+        <v>45410.91666666666</v>
       </c>
       <c r="E302" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F302" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J302">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="K302">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="L302">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="M302">
-        <v>2.6</v>
+        <v>1.166</v>
       </c>
       <c r="N302">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O302">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="P302">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q302">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R302">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S302">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V302">
         <v>0</v>
@@ -26466,43 +26469,43 @@
         <v>30</v>
       </c>
       <c r="C303" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D303" s="2">
         <v>45410.91666666666</v>
       </c>
       <c r="E303" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F303" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J303">
-        <v>1.166</v>
+        <v>2</v>
       </c>
       <c r="K303">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="L303">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="M303">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="N303">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="O303">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="P303">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="Q303">
+        <v>2.025</v>
+      </c>
+      <c r="R303">
         <v>1.825</v>
-      </c>
-      <c r="R303">
-        <v>2.025</v>
       </c>
       <c r="S303">
         <v>2.75</v>
@@ -26520,6 +26523,71 @@
         <v>0</v>
       </c>
       <c r="X303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:28">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>31</v>
+      </c>
+      <c r="C304" t="s">
+        <v>32</v>
+      </c>
+      <c r="D304" s="2">
+        <v>45411.91666666666</v>
+      </c>
+      <c r="E304" t="s">
+        <v>41</v>
+      </c>
+      <c r="F304" t="s">
+        <v>33</v>
+      </c>
+      <c r="J304">
+        <v>3.75</v>
+      </c>
+      <c r="K304">
+        <v>3.5</v>
+      </c>
+      <c r="L304">
+        <v>1.95</v>
+      </c>
+      <c r="M304">
+        <v>3.5</v>
+      </c>
+      <c r="N304">
+        <v>3.5</v>
+      </c>
+      <c r="O304">
+        <v>2</v>
+      </c>
+      <c r="P304">
+        <v>0.5</v>
+      </c>
+      <c r="Q304">
+        <v>1.825</v>
+      </c>
+      <c r="R304">
+        <v>2.025</v>
+      </c>
+      <c r="S304">
+        <v>2.5</v>
+      </c>
+      <c r="T304">
+        <v>1.9</v>
+      </c>
+      <c r="U304">
+        <v>1.95</v>
+      </c>
+      <c r="V304">
+        <v>0</v>
+      </c>
+      <c r="W304">
+        <v>0</v>
+      </c>
+      <c r="X304">
         <v>0</v>
       </c>
     </row>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8085915</t>
+  </si>
+  <si>
+    <t>8129096</t>
+  </si>
+  <si>
+    <t>8085916</t>
+  </si>
+  <si>
+    <t>8086336</t>
+  </si>
+  <si>
+    <t>8086337</t>
+  </si>
+  <si>
+    <t>8086338</t>
   </si>
   <si>
     <t>Peru Liga 1</t>
@@ -534,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB306"/>
+  <dimension ref="A1:AB312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,16 +649,16 @@
         <v>6668354</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45078.91666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -649,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J2">
         <v>1.363</v>
@@ -717,16 +735,16 @@
         <v>6668355</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45079.91666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -735,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J3">
         <v>2.8</v>
@@ -803,16 +821,16 @@
         <v>6668356</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45079.9375</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -821,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J4">
         <v>1.363</v>
@@ -889,16 +907,16 @@
         <v>6668357</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -907,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J5">
         <v>1.8</v>
@@ -975,16 +993,16 @@
         <v>6668358</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -993,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J6">
         <v>1.4</v>
@@ -1061,16 +1079,16 @@
         <v>6668359</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45080.9375</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1079,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>1.444</v>
@@ -1147,16 +1165,16 @@
         <v>6668360</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45081.625</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1165,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J8">
         <v>1.3</v>
@@ -1233,16 +1251,16 @@
         <v>6668361</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45081.72916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1251,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J9">
         <v>2.875</v>
@@ -1319,16 +1337,16 @@
         <v>6667842</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45081.83333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1337,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J10">
         <v>1.4</v>
@@ -1405,16 +1423,16 @@
         <v>6695540</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45086.875</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1423,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J11">
         <v>1.285</v>
@@ -1491,16 +1509,16 @@
         <v>6695541</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45087.625</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1509,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J12">
         <v>2.375</v>
@@ -1577,16 +1595,16 @@
         <v>6695543</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45087.72916666666</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1595,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J13">
         <v>3.2</v>
@@ -1663,16 +1681,16 @@
         <v>6695542</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1681,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J14">
         <v>1.444</v>
@@ -1749,16 +1767,16 @@
         <v>6695544</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45087.91666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1767,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>1.95</v>
@@ -1835,16 +1853,16 @@
         <v>6745593</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45087.9375</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1853,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J16">
         <v>1.363</v>
@@ -1921,16 +1939,16 @@
         <v>6695545</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45088.625</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1939,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>3.4</v>
@@ -2007,16 +2025,16 @@
         <v>6695547</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45088.72916666666</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2025,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2093,16 +2111,16 @@
         <v>6695548</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45088.83333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2111,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J19">
         <v>2.45</v>
@@ -2179,16 +2197,16 @@
         <v>6765455</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45099.70833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2197,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2265,16 +2283,16 @@
         <v>6765456</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45099.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -2283,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J21">
         <v>1.363</v>
@@ -2351,16 +2369,16 @@
         <v>6765888</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45099.875</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2369,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J22">
         <v>2.5</v>
@@ -2437,16 +2455,16 @@
         <v>6765457</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45100.91666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2455,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J23">
         <v>1.363</v>
@@ -2523,16 +2541,16 @@
         <v>6765458</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45101.72916666666</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2541,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J24">
         <v>1.571</v>
@@ -2609,16 +2627,16 @@
         <v>6765459</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45101.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2627,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J25">
         <v>1.95</v>
@@ -2695,16 +2713,16 @@
         <v>6767120</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45102.625</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2713,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J26">
         <v>1.615</v>
@@ -2781,16 +2799,16 @@
         <v>6765460</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45102.72916666666</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2799,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J27">
         <v>2.2</v>
@@ -2867,16 +2885,16 @@
         <v>6765461</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45103.72916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2885,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J28">
         <v>1.615</v>
@@ -2953,16 +2971,16 @@
         <v>6779407</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45107.72916666666</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2971,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J29">
         <v>2.6</v>
@@ -3039,16 +3057,16 @@
         <v>6778791</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45108.72916666666</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3057,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3125,16 +3143,16 @@
         <v>6779502</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45108.83333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3143,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J31">
         <v>2.8</v>
@@ -3211,16 +3229,16 @@
         <v>6778792</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45108.9375</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3229,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J32">
         <v>7</v>
@@ -3297,16 +3315,16 @@
         <v>6778793</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45109.625</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3315,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J33">
         <v>1.285</v>
@@ -3383,16 +3401,16 @@
         <v>6778794</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3401,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J34">
         <v>1.444</v>
@@ -3469,16 +3487,16 @@
         <v>6778943</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45110.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3487,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J35">
         <v>1.95</v>
@@ -3555,16 +3573,16 @@
         <v>6778944</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45110.9375</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3573,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J36">
         <v>1.3</v>
@@ -3641,16 +3659,16 @@
         <v>6778795</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45111.72916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3659,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J37">
         <v>1.5</v>
@@ -3727,16 +3745,16 @@
         <v>6830814</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45114.70833333334</v>
       </c>
       <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
         <v>40</v>
-      </c>
-      <c r="F38" t="s">
-        <v>34</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3745,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J38">
         <v>1.5</v>
@@ -3813,16 +3831,16 @@
         <v>6831296</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45114.91666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3831,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J39">
         <v>8</v>
@@ -3899,16 +3917,16 @@
         <v>6830815</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45115.625</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3917,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J40">
         <v>2.3</v>
@@ -3985,16 +4003,16 @@
         <v>6830816</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45115.72916666666</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4003,7 +4021,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J41">
         <v>1.6</v>
@@ -4071,16 +4089,16 @@
         <v>6833100</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45115.875</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4089,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -4157,16 +4175,16 @@
         <v>6830817</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45116.625</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4175,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4243,16 +4261,16 @@
         <v>6833133</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45116.89583333334</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4261,7 +4279,7 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J44">
         <v>2.05</v>
@@ -4329,16 +4347,16 @@
         <v>6830818</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45117.71875</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4347,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4415,16 +4433,16 @@
         <v>6863724</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45121.72916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4433,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4501,16 +4519,16 @@
         <v>6863007</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45121.95833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4519,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J47">
         <v>1.2</v>
@@ -4587,16 +4605,16 @@
         <v>6863725</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45122.625</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4605,7 +4623,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J48">
         <v>1.55</v>
@@ -4673,16 +4691,16 @@
         <v>6863726</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45122.71875</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4691,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J49">
         <v>1.25</v>
@@ -4759,16 +4777,16 @@
         <v>6863008</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45122.875</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4777,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J50">
         <v>1.333</v>
@@ -4845,16 +4863,16 @@
         <v>6863727</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45123.625</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4863,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J51">
         <v>1.444</v>
@@ -4931,16 +4949,16 @@
         <v>6863729</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45123.70833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4949,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J52">
         <v>7.5</v>
@@ -5017,16 +5035,16 @@
         <v>6863728</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45123.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5035,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J53">
         <v>2.1</v>
@@ -5103,16 +5121,16 @@
         <v>6863730</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45124.70833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5121,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5189,16 +5207,16 @@
         <v>6905543</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45128.625</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5207,7 +5225,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J55">
         <v>3</v>
@@ -5275,16 +5293,16 @@
         <v>6905576</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45128.90625</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5293,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5361,16 +5379,16 @@
         <v>6905577</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45129.625</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5379,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J57">
         <v>2.2</v>
@@ -5447,16 +5465,16 @@
         <v>6905564</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45129.9375</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5465,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J58">
         <v>2.2</v>
@@ -5533,16 +5551,16 @@
         <v>6905579</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45130.625</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5551,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J59">
         <v>2.1</v>
@@ -5619,17 +5637,17 @@
         <v>6905580</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" t="s">
         <v>41</v>
       </c>
-      <c r="F60" t="s">
-        <v>35</v>
-      </c>
       <c r="G60">
         <v>0</v>
       </c>
@@ -5637,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5705,16 +5723,16 @@
         <v>6905578</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45130.72916666666</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5723,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J61">
         <v>1.75</v>
@@ -5791,16 +5809,16 @@
         <v>6905571</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45130.72916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5809,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J62">
         <v>2.1</v>
@@ -5877,16 +5895,16 @@
         <v>6905581</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45131.625</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -5895,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J63">
         <v>1.444</v>
@@ -5963,16 +5981,16 @@
         <v>6958820</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45134.70833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -5981,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J64">
         <v>1.2</v>
@@ -6049,16 +6067,16 @@
         <v>6958984</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45135.70833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6067,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J65">
         <v>1.285</v>
@@ -6135,16 +6153,16 @@
         <v>6958985</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45136.71875</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6153,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J66">
         <v>1.5</v>
@@ -6221,16 +6239,16 @@
         <v>6958821</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45136.9375</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6239,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J67">
         <v>2.7</v>
@@ -6307,16 +6325,16 @@
         <v>6958978</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45137.625</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6325,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6393,16 +6411,16 @@
         <v>6958822</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45138.625</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6411,7 +6429,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J69">
         <v>3.3</v>
@@ -6479,16 +6497,16 @@
         <v>6958986</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45138.71875</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6497,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J70">
         <v>1.363</v>
@@ -6565,16 +6583,16 @@
         <v>6958743</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45138.9375</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6583,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J71">
         <v>1.333</v>
@@ -6651,16 +6669,16 @@
         <v>6958987</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45139.70833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6669,7 +6687,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6737,16 +6755,16 @@
         <v>6970427</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45142.625</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6755,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J73">
         <v>2.375</v>
@@ -6823,16 +6841,16 @@
         <v>6970428</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45143.71527777778</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>4</v>
@@ -6841,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J74">
         <v>1.533</v>
@@ -6909,16 +6927,16 @@
         <v>6970388</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45143.91666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6927,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J75">
         <v>1.333</v>
@@ -6995,16 +7013,16 @@
         <v>6970429</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45144.625</v>
       </c>
       <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s">
         <v>43</v>
-      </c>
-      <c r="F76" t="s">
-        <v>37</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7013,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J76">
         <v>2.15</v>
@@ -7081,16 +7099,16 @@
         <v>6970430</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45144.70833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7099,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J77">
         <v>2.625</v>
@@ -7167,16 +7185,16 @@
         <v>6970389</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45144.71875</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7185,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J78">
         <v>2.75</v>
@@ -7253,16 +7271,16 @@
         <v>6970069</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7271,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J79">
         <v>2.05</v>
@@ -7339,16 +7357,16 @@
         <v>6970431</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45145.625</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7357,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J80">
         <v>3.4</v>
@@ -7425,16 +7443,16 @@
         <v>6970432</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45145.71875</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -7443,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J81">
         <v>1.4</v>
@@ -7511,16 +7529,16 @@
         <v>7006003</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45149.625</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7529,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J82">
         <v>1.363</v>
@@ -7597,16 +7615,16 @@
         <v>7006004</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45149.71875</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7615,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J83">
         <v>1.833</v>
@@ -7683,16 +7701,16 @@
         <v>7006111</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45149.91666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7701,7 +7719,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J84">
         <v>2.5</v>
@@ -7769,16 +7787,16 @@
         <v>7006007</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45150.625</v>
       </c>
       <c r="E85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s">
         <v>35</v>
-      </c>
-      <c r="F85" t="s">
-        <v>29</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7787,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J85">
         <v>2.375</v>
@@ -7855,16 +7873,16 @@
         <v>7006005</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45150.71875</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7873,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J86">
         <v>1.3</v>
@@ -7941,16 +7959,16 @@
         <v>7006006</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45150.875</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7959,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J87">
         <v>1.181</v>
@@ -8027,16 +8045,16 @@
         <v>7006008</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45151.625</v>
       </c>
       <c r="E88" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8045,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J88">
         <v>1.363</v>
@@ -8113,16 +8131,16 @@
         <v>7006010</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45151.71875</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8131,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J89">
         <v>2.9</v>
@@ -8199,16 +8217,16 @@
         <v>7006011</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45153.625</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8217,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8285,16 +8303,16 @@
         <v>7006012</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45153.71875</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8303,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J91">
         <v>2.45</v>
@@ -8371,16 +8389,16 @@
         <v>7006013</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45153.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8389,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J92">
         <v>1.333</v>
@@ -8457,16 +8475,16 @@
         <v>7006888</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45154.71875</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8475,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J93">
         <v>3.2</v>
@@ -8543,16 +8561,16 @@
         <v>7006014</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45154.8125</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8561,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J94">
         <v>2.1</v>
@@ -8629,16 +8647,16 @@
         <v>7006015</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45154.83333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8647,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J95">
         <v>1.571</v>
@@ -8715,16 +8733,16 @@
         <v>7006112</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45154.9375</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8733,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J96">
         <v>1.615</v>
@@ -8801,16 +8819,16 @@
         <v>7006017</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45155.70833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8819,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J97">
         <v>1.6</v>
@@ -8887,16 +8905,16 @@
         <v>7006016</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45155.71875</v>
       </c>
       <c r="E98" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" t="s">
         <v>34</v>
-      </c>
-      <c r="F98" t="s">
-        <v>28</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8905,7 +8923,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J98">
         <v>3.3</v>
@@ -8973,16 +8991,16 @@
         <v>7006018</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45157.625</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8991,7 +9009,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J99">
         <v>1.8</v>
@@ -9059,16 +9077,16 @@
         <v>7006019</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45157.72916666666</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9077,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J100">
         <v>2.7</v>
@@ -9145,16 +9163,16 @@
         <v>7006020</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45157.82291666666</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9163,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9231,16 +9249,16 @@
         <v>7006021</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45157.89583333334</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9249,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J102">
         <v>1.444</v>
@@ -9317,16 +9335,16 @@
         <v>7006110</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45158.72916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9335,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J103">
         <v>1.2</v>
@@ -9403,16 +9421,16 @@
         <v>7006022</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45158.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9421,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J104">
         <v>2.2</v>
@@ -9489,16 +9507,16 @@
         <v>7006023</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45159.625</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9507,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J105">
         <v>2</v>
@@ -9575,16 +9593,16 @@
         <v>7006024</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45159.71875</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9593,7 +9611,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J106">
         <v>1.75</v>
@@ -9661,16 +9679,16 @@
         <v>7006889</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45159.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9679,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J107">
         <v>1.8</v>
@@ -9747,16 +9765,16 @@
         <v>7047261</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45164.625</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9765,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J108">
         <v>1.909</v>
@@ -9833,16 +9851,16 @@
         <v>7046377</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45164.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9851,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J109">
         <v>2</v>
@@ -9919,16 +9937,16 @@
         <v>7046378</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9937,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J110">
         <v>1.727</v>
@@ -10005,16 +10023,16 @@
         <v>7046379</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45164.9375</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10023,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J111">
         <v>1.333</v>
@@ -10091,16 +10109,16 @@
         <v>7046702</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45165.625</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10109,7 +10127,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J112">
         <v>3.5</v>
@@ -10177,16 +10195,16 @@
         <v>7046380</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45165.70833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10195,7 +10213,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J113">
         <v>2.625</v>
@@ -10263,16 +10281,16 @@
         <v>7047262</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45165.72916666666</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10281,7 +10299,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J114">
         <v>1.5</v>
@@ -10349,16 +10367,16 @@
         <v>7046381</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45166.625</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10367,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J115">
         <v>1.615</v>
@@ -10435,16 +10453,16 @@
         <v>7046382</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45166.71875</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10453,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J116">
         <v>1.533</v>
@@ -10521,16 +10539,16 @@
         <v>7094995</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45171.625</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10539,7 +10557,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J117">
         <v>2.1</v>
@@ -10607,16 +10625,16 @@
         <v>7094996</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45171.71875</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10625,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J118">
         <v>1.8</v>
@@ -10693,16 +10711,16 @@
         <v>7094997</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45172.625</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10711,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J119">
         <v>1.444</v>
@@ -10779,16 +10797,16 @@
         <v>7094998</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45172.71875</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10797,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J120">
         <v>1.909</v>
@@ -10865,16 +10883,16 @@
         <v>7095201</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45173.71875</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>5</v>
@@ -10883,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J121">
         <v>1.615</v>
@@ -10951,16 +10969,16 @@
         <v>7094999</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45178.70833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10969,7 +10987,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J122">
         <v>9</v>
@@ -11037,16 +11055,16 @@
         <v>7095202</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45178.875</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11055,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J123">
         <v>2.375</v>
@@ -11123,16 +11141,16 @@
         <v>7095203</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45179.70833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11141,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J124">
         <v>4.5</v>
@@ -11209,16 +11227,16 @@
         <v>7095000</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45179.875</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11227,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J125">
         <v>1.25</v>
@@ -11295,16 +11313,16 @@
         <v>7123772</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45184.625</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11313,7 +11331,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J126">
         <v>1.95</v>
@@ -11381,16 +11399,16 @@
         <v>7123773</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45184.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11399,7 +11417,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J127">
         <v>1.615</v>
@@ -11467,16 +11485,16 @@
         <v>7123358</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45184.72222222222</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11485,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J128">
         <v>1.25</v>
@@ -11553,16 +11571,16 @@
         <v>7123774</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45184.875</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11571,7 +11589,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J129">
         <v>1.909</v>
@@ -11639,16 +11657,16 @@
         <v>7123775</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45185.625</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11657,7 +11675,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J130">
         <v>4.5</v>
@@ -11725,16 +11743,16 @@
         <v>7123783</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45185.75</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11743,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J131">
         <v>1.8</v>
@@ -11811,16 +11829,16 @@
         <v>7123145</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45185.9375</v>
       </c>
       <c r="E132" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11829,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -11897,16 +11915,16 @@
         <v>7123776</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45186.70833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11915,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J133">
         <v>2.2</v>
@@ -11983,16 +12001,16 @@
         <v>7123777</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45186.85416666666</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -12001,7 +12019,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J134">
         <v>1.2</v>
@@ -12069,16 +12087,16 @@
         <v>7123778</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45188.625</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12087,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12155,16 +12173,16 @@
         <v>7123359</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45188.72222222222</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12173,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J136">
         <v>7</v>
@@ -12241,16 +12259,16 @@
         <v>7123779</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45189.625</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12259,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12327,16 +12345,16 @@
         <v>7123780</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45189.72916666666</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>5</v>
@@ -12345,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12413,16 +12431,16 @@
         <v>7123781</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45189.85416666666</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12431,7 +12449,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J139">
         <v>1.909</v>
@@ -12499,16 +12517,16 @@
         <v>7123146</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45189.9375</v>
       </c>
       <c r="E140" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12517,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J140">
         <v>1.25</v>
@@ -12585,16 +12603,16 @@
         <v>7123784</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45190.625</v>
       </c>
       <c r="E141" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12603,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J141">
         <v>1.727</v>
@@ -12671,16 +12689,16 @@
         <v>7123782</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45190.72222222222</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12689,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J142">
         <v>1.666</v>
@@ -12757,16 +12775,16 @@
         <v>7124242</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45190.91666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12775,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J143">
         <v>3.1</v>
@@ -12843,16 +12861,16 @@
         <v>7211634</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12861,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J144">
         <v>1.5</v>
@@ -12929,16 +12947,16 @@
         <v>7211635</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45193.625</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12947,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J145">
         <v>1.533</v>
@@ -13015,16 +13033,16 @@
         <v>7211636</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45193.70833333334</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13033,7 +13051,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J146">
         <v>2.4</v>
@@ -13101,16 +13119,16 @@
         <v>7211560</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45193.71875</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13119,7 +13137,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J147">
         <v>1.2</v>
@@ -13187,16 +13205,16 @@
         <v>7211561</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45193.80208333334</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13205,7 +13223,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J148">
         <v>4</v>
@@ -13273,16 +13291,16 @@
         <v>7211637</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45193.89583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13291,7 +13309,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J149">
         <v>2.05</v>
@@ -13359,16 +13377,16 @@
         <v>7211638</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45194.625</v>
       </c>
       <c r="E150" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13377,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J150">
         <v>3.5</v>
@@ -13445,16 +13463,16 @@
         <v>7227155</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45194.70833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13463,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13531,16 +13549,16 @@
         <v>7211562</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45194.91666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13549,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J152">
         <v>1.2</v>
@@ -13617,17 +13635,17 @@
         <v>7211639</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45197.625</v>
       </c>
       <c r="E153" t="s">
+        <v>44</v>
+      </c>
+      <c r="F153" t="s">
         <v>38</v>
       </c>
-      <c r="F153" t="s">
-        <v>32</v>
-      </c>
       <c r="G153">
         <v>2</v>
       </c>
@@ -13635,7 +13653,7 @@
         <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13703,16 +13721,16 @@
         <v>7211873</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45197.83333333334</v>
       </c>
       <c r="E154" t="s">
+        <v>42</v>
+      </c>
+      <c r="F154" t="s">
         <v>36</v>
-      </c>
-      <c r="F154" t="s">
-        <v>30</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13721,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13789,16 +13807,16 @@
         <v>7211563</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45197.9375</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13807,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J155">
         <v>1.8</v>
@@ -13875,16 +13893,16 @@
         <v>7211640</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45198.70833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13893,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J156">
         <v>1.615</v>
@@ -13961,16 +13979,16 @@
         <v>7211641</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45198.70833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13979,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J157">
         <v>1.125</v>
@@ -14047,16 +14065,16 @@
         <v>7211564</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45198.83333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14065,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J158">
         <v>2.625</v>
@@ -14133,16 +14151,16 @@
         <v>7211642</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45199.70833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14151,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J159">
         <v>1.5</v>
@@ -14219,16 +14237,16 @@
         <v>7211643</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45200.625</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14237,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J160">
         <v>2.2</v>
@@ -14305,16 +14323,16 @@
         <v>7211644</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45200.72222222222</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14323,7 +14341,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J161">
         <v>4.5</v>
@@ -14391,16 +14409,16 @@
         <v>7228938</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45201.9375</v>
       </c>
       <c r="E162" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14409,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J162">
         <v>1.5</v>
@@ -14477,16 +14495,16 @@
         <v>7229017</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45202.70833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14495,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J163">
         <v>1.571</v>
@@ -14563,16 +14581,16 @@
         <v>7229362</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45202.71875</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14581,7 +14599,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J164">
         <v>2.2</v>
@@ -14649,16 +14667,16 @@
         <v>7229018</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45202.83333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14667,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J165">
         <v>1.111</v>
@@ -14735,16 +14753,16 @@
         <v>7229019</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45202.9375</v>
       </c>
       <c r="E166" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14753,7 +14771,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J166">
         <v>2.375</v>
@@ -14821,16 +14839,16 @@
         <v>7229363</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45206.625</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G167">
         <v>4</v>
@@ -14839,7 +14857,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J167">
         <v>3.2</v>
@@ -14907,16 +14925,16 @@
         <v>7229352</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45206.70833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14925,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J168">
         <v>1.285</v>
@@ -14993,16 +15011,16 @@
         <v>7229353</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45207.625</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15011,7 +15029,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J169">
         <v>2.1</v>
@@ -15079,16 +15097,16 @@
         <v>7229020</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45207.72222222222</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15097,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J170">
         <v>1.4</v>
@@ -15165,16 +15183,16 @@
         <v>7302198</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45219.70833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15183,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J171">
         <v>2.1</v>
@@ -15251,16 +15269,16 @@
         <v>7302794</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45220.625</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15269,7 +15287,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J172">
         <v>1.4</v>
@@ -15337,16 +15355,16 @@
         <v>7302199</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45220.75</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15355,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15423,16 +15441,16 @@
         <v>7302798</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>45220.91666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15441,7 +15459,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J174">
         <v>3.5</v>
@@ -15509,16 +15527,16 @@
         <v>7302795</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15527,7 +15545,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J175">
         <v>2.25</v>
@@ -15595,16 +15613,16 @@
         <v>7302796</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15613,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J176">
         <v>1.727</v>
@@ -15681,16 +15699,16 @@
         <v>7302200</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G177">
         <v>3</v>
@@ -15699,7 +15717,7 @@
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J177">
         <v>2</v>
@@ -15767,16 +15785,16 @@
         <v>7302799</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>45221.91666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F178" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15785,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J178">
         <v>2.2</v>
@@ -15853,16 +15871,16 @@
         <v>7302797</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D179" s="2">
         <v>45222.625</v>
       </c>
       <c r="E179" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15871,7 +15889,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J179">
         <v>2.25</v>
@@ -15939,16 +15957,16 @@
         <v>7384623</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
         <v>45227.71875</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15957,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J180">
         <v>2</v>
@@ -16025,16 +16043,16 @@
         <v>7384622</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2">
         <v>45227.71875</v>
       </c>
       <c r="E181" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16043,7 +16061,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J181">
         <v>1.444</v>
@@ -16111,16 +16129,16 @@
         <v>7384624</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D182" s="2">
         <v>45227.71875</v>
       </c>
       <c r="E182" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G182">
         <v>3</v>
@@ -16129,7 +16147,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J182">
         <v>2</v>
@@ -16197,16 +16215,16 @@
         <v>7384626</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E183" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16215,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J183">
         <v>1.3</v>
@@ -16283,16 +16301,16 @@
         <v>7384625</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E184" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -16301,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J184">
         <v>1.5</v>
@@ -16369,16 +16387,16 @@
         <v>7384629</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16387,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J185">
         <v>2.625</v>
@@ -16455,16 +16473,16 @@
         <v>7384630</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16473,7 +16491,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J186">
         <v>2.8</v>
@@ -16541,16 +16559,16 @@
         <v>7384628</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D187" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16559,7 +16577,7 @@
         <v>2</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J187">
         <v>2.75</v>
@@ -16627,16 +16645,16 @@
         <v>7384627</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D188" s="2">
         <v>45228.70833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16645,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J188">
         <v>1.25</v>
@@ -16713,16 +16731,16 @@
         <v>7413415</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D189" s="2">
         <v>45234.91666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16731,7 +16749,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J189">
         <v>2.1</v>
@@ -16799,16 +16817,16 @@
         <v>7413416</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D190" s="2">
         <v>45238.91666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16817,7 +16835,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16885,16 +16903,16 @@
         <v>7700715</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D191" s="2">
         <v>45317.70833333334</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16903,7 +16921,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J191">
         <v>2.1</v>
@@ -16971,16 +16989,16 @@
         <v>7700719</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D192" s="2">
         <v>45317.875</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16989,7 +17007,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J192">
         <v>1.55</v>
@@ -17057,16 +17075,16 @@
         <v>7700718</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D193" s="2">
         <v>45318.70833333334</v>
       </c>
       <c r="E193" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G193">
         <v>6</v>
@@ -17075,7 +17093,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J193">
         <v>1.333</v>
@@ -17143,16 +17161,16 @@
         <v>7700722</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D194" s="2">
         <v>45318.8125</v>
       </c>
       <c r="E194" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17161,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J194">
         <v>1.55</v>
@@ -17229,16 +17247,16 @@
         <v>7700716</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D195" s="2">
         <v>45318.91666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F195" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17247,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J195">
         <v>1.4</v>
@@ -17315,16 +17333,16 @@
         <v>7700721</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D196" s="2">
         <v>45319.6875</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17333,7 +17351,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J196">
         <v>1.65</v>
@@ -17401,16 +17419,16 @@
         <v>7693926</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D197" s="2">
         <v>45319.79166666666</v>
       </c>
       <c r="E197" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17419,7 +17437,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J197">
         <v>3.6</v>
@@ -17487,16 +17505,16 @@
         <v>7700720</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D198" s="2">
         <v>45319.91666666666</v>
       </c>
       <c r="E198" t="s">
+        <v>48</v>
+      </c>
+      <c r="F198" t="s">
         <v>42</v>
-      </c>
-      <c r="F198" t="s">
-        <v>36</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17505,7 +17523,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J198">
         <v>1.55</v>
@@ -17573,16 +17591,16 @@
         <v>7700717</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D199" s="2">
         <v>45320.70833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17591,7 +17609,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J199">
         <v>1.8</v>
@@ -17659,16 +17677,16 @@
         <v>7713941</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D200" s="2">
         <v>45324.70833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F200" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17677,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J200">
         <v>1.333</v>
@@ -17745,16 +17763,16 @@
         <v>7713942</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D201" s="2">
         <v>45324.91666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G201">
         <v>3</v>
@@ -17763,7 +17781,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J201">
         <v>2.6</v>
@@ -17831,16 +17849,16 @@
         <v>7713943</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D202" s="2">
         <v>45325.70833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17849,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J202">
         <v>2.25</v>
@@ -17917,16 +17935,16 @@
         <v>7713944</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D203" s="2">
         <v>45325.72916666666</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17935,7 +17953,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J203">
         <v>1.727</v>
@@ -18003,16 +18021,16 @@
         <v>7714091</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D204" s="2">
         <v>45325.91666666666</v>
       </c>
       <c r="E204" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18021,7 +18039,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J204">
         <v>1.181</v>
@@ -18089,16 +18107,16 @@
         <v>7713945</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D205" s="2">
         <v>45326.66666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18107,7 +18125,7 @@
         <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J205">
         <v>3.5</v>
@@ -18175,16 +18193,16 @@
         <v>7713946</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D206" s="2">
         <v>45326.75</v>
       </c>
       <c r="E206" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18193,7 +18211,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J206">
         <v>3.75</v>
@@ -18261,16 +18279,16 @@
         <v>7713947</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D207" s="2">
         <v>45326.875</v>
       </c>
       <c r="E207" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18279,7 +18297,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J207">
         <v>2.1</v>
@@ -18347,16 +18365,16 @@
         <v>7713948</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D208" s="2">
         <v>45327.70833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F208" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18365,7 +18383,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J208">
         <v>1.95</v>
@@ -18433,16 +18451,16 @@
         <v>7745352</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D209" s="2">
         <v>45331.70833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G209">
         <v>4</v>
@@ -18451,7 +18469,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J209">
         <v>2.25</v>
@@ -18519,16 +18537,16 @@
         <v>7745353</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D210" s="2">
         <v>45331.875</v>
       </c>
       <c r="E210" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F210" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18537,7 +18555,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J210">
         <v>2.5</v>
@@ -18605,16 +18623,16 @@
         <v>7745354</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D211" s="2">
         <v>45332.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18623,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J211">
         <v>1.166</v>
@@ -18691,16 +18709,16 @@
         <v>7745355</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D212" s="2">
         <v>45332.72916666666</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F212" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -18709,7 +18727,7 @@
         <v>3</v>
       </c>
       <c r="I212" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J212">
         <v>1.666</v>
@@ -18777,16 +18795,16 @@
         <v>7746457</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D213" s="2">
         <v>45332.91666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18795,7 +18813,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J213">
         <v>2.375</v>
@@ -18863,16 +18881,16 @@
         <v>7745356</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D214" s="2">
         <v>45333.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18881,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J214">
         <v>2.375</v>
@@ -18949,16 +18967,16 @@
         <v>7745357</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D215" s="2">
         <v>45333.75</v>
       </c>
       <c r="E215" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18967,7 +18985,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J215">
         <v>2.1</v>
@@ -19035,16 +19053,16 @@
         <v>7745358</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D216" s="2">
         <v>45333.83333333334</v>
       </c>
       <c r="E216" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -19053,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J216">
         <v>1.615</v>
@@ -19121,16 +19139,16 @@
         <v>7745359</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D217" s="2">
         <v>45334.6875</v>
       </c>
       <c r="E217" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F217" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19139,7 +19157,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J217">
         <v>2.1</v>
@@ -19207,16 +19225,16 @@
         <v>7818734</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D218" s="2">
         <v>45337.91666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F218" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G218">
         <v>4</v>
@@ -19225,7 +19243,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J218">
         <v>1.363</v>
@@ -19293,16 +19311,16 @@
         <v>7768160</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D219" s="2">
         <v>45338.6875</v>
       </c>
       <c r="E219" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19311,7 +19329,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J219">
         <v>2.1</v>
@@ -19379,16 +19397,16 @@
         <v>7768161</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D220" s="2">
         <v>45339.70833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G220">
         <v>4</v>
@@ -19397,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J220">
         <v>1.533</v>
@@ -19465,16 +19483,16 @@
         <v>7768167</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D221" s="2">
         <v>45339.83333333334</v>
       </c>
       <c r="E221" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19483,7 +19501,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J221">
         <v>1.727</v>
@@ -19551,16 +19569,16 @@
         <v>7768162</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D222" s="2">
         <v>45339.91666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19569,7 +19587,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J222">
         <v>1.7</v>
@@ -19637,16 +19655,16 @@
         <v>7768163</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D223" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E223" t="s">
+        <v>54</v>
+      </c>
+      <c r="F223" t="s">
         <v>48</v>
-      </c>
-      <c r="F223" t="s">
-        <v>42</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19655,7 +19673,7 @@
         <v>3</v>
       </c>
       <c r="I223" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J223">
         <v>3.5</v>
@@ -19723,16 +19741,16 @@
         <v>7768164</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D224" s="2">
         <v>45340.79166666666</v>
       </c>
       <c r="E224" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G224">
         <v>3</v>
@@ -19741,7 +19759,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J224">
         <v>1.444</v>
@@ -19809,16 +19827,16 @@
         <v>7768165</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D225" s="2">
         <v>45340.89583333334</v>
       </c>
       <c r="E225" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F225" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19827,7 +19845,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J225">
         <v>1.833</v>
@@ -19895,16 +19913,16 @@
         <v>7768166</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D226" s="2">
         <v>45341.70833333334</v>
       </c>
       <c r="E226" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -19913,7 +19931,7 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J226">
         <v>2</v>
@@ -19981,16 +19999,16 @@
         <v>7818815</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D227" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G227">
         <v>4</v>
@@ -19999,7 +20017,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J227">
         <v>1.4</v>
@@ -20067,16 +20085,16 @@
         <v>7818817</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D228" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E228" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F228" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20085,7 +20103,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J228">
         <v>2.2</v>
@@ -20153,16 +20171,16 @@
         <v>7818816</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D229" s="2">
         <v>45346.70833333334</v>
       </c>
       <c r="E229" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -20171,7 +20189,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J229">
         <v>3.3</v>
@@ -20239,16 +20257,16 @@
         <v>7818818</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D230" s="2">
         <v>45346.8125</v>
       </c>
       <c r="E230" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F230" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -20257,7 +20275,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J230">
         <v>1.25</v>
@@ -20325,16 +20343,16 @@
         <v>7818819</v>
       </c>
       <c r="C231" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D231" s="2">
         <v>45346.84375</v>
       </c>
       <c r="E231" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F231" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20343,7 +20361,7 @@
         <v>4</v>
       </c>
       <c r="I231" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J231">
         <v>4.333</v>
@@ -20411,16 +20429,16 @@
         <v>7818820</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D232" s="2">
         <v>45347.65625</v>
       </c>
       <c r="E232" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -20429,7 +20447,7 @@
         <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J232">
         <v>1.533</v>
@@ -20497,16 +20515,16 @@
         <v>7818821</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D233" s="2">
         <v>45347.75</v>
       </c>
       <c r="E233" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F233" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G233">
         <v>5</v>
@@ -20515,7 +20533,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J233">
         <v>1.333</v>
@@ -20583,16 +20601,16 @@
         <v>7818822</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D234" s="2">
         <v>45347.875</v>
       </c>
       <c r="E234" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20601,7 +20619,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J234">
         <v>1.909</v>
@@ -20669,16 +20687,16 @@
         <v>7818823</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D235" s="2">
         <v>45348.70833333334</v>
       </c>
       <c r="E235" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20687,7 +20705,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J235">
         <v>2.375</v>
@@ -20755,16 +20773,16 @@
         <v>7850288</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D236" s="2">
         <v>45351.67708333334</v>
       </c>
       <c r="E236" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -20773,7 +20791,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J236">
         <v>1.8</v>
@@ -20841,16 +20859,16 @@
         <v>7850289</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D237" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E237" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -20859,7 +20877,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J237">
         <v>3.25</v>
@@ -20927,16 +20945,16 @@
         <v>7850290</v>
       </c>
       <c r="C238" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D238" s="2">
         <v>45352.9375</v>
       </c>
       <c r="E238" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F238" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -20945,7 +20963,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J238">
         <v>1.4</v>
@@ -21013,16 +21031,16 @@
         <v>7850291</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D239" s="2">
         <v>45353.63541666666</v>
       </c>
       <c r="E239" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21031,7 +21049,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J239">
         <v>1.25</v>
@@ -21099,16 +21117,16 @@
         <v>7850292</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D240" s="2">
         <v>45353.73958333334</v>
       </c>
       <c r="E240" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21117,7 +21135,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J240">
         <v>2.9</v>
@@ -21185,16 +21203,16 @@
         <v>7850293</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D241" s="2">
         <v>45353.875</v>
       </c>
       <c r="E241" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F241" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21203,7 +21221,7 @@
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J241">
         <v>1.8</v>
@@ -21271,16 +21289,16 @@
         <v>7850294</v>
       </c>
       <c r="C242" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D242" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E242" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -21289,7 +21307,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J242">
         <v>1.909</v>
@@ -21357,16 +21375,16 @@
         <v>7850295</v>
       </c>
       <c r="C243" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D243" s="2">
         <v>45354.875</v>
       </c>
       <c r="E243" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21375,7 +21393,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J243">
         <v>1.3</v>
@@ -21443,16 +21461,16 @@
         <v>7850296</v>
       </c>
       <c r="C244" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D244" s="2">
         <v>45355.66666666666</v>
       </c>
       <c r="E244" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F244" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21461,7 +21479,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J244">
         <v>2.5</v>
@@ -21529,16 +21547,16 @@
         <v>7883363</v>
       </c>
       <c r="C245" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D245" s="2">
         <v>45358.70833333334</v>
       </c>
       <c r="E245" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -21547,7 +21565,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J245">
         <v>1.615</v>
@@ -21615,16 +21633,16 @@
         <v>7882749</v>
       </c>
       <c r="C246" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D246" s="2">
         <v>45359.70833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F246" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21633,7 +21651,7 @@
         <v>3</v>
       </c>
       <c r="I246" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J246">
         <v>2.05</v>
@@ -21701,16 +21719,16 @@
         <v>7883364</v>
       </c>
       <c r="C247" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D247" s="2">
         <v>45359.91666666666</v>
       </c>
       <c r="E247" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F247" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21719,7 +21737,7 @@
         <v>2</v>
       </c>
       <c r="I247" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J247">
         <v>3.5</v>
@@ -21787,16 +21805,16 @@
         <v>7883365</v>
       </c>
       <c r="C248" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D248" s="2">
         <v>45360.63541666666</v>
       </c>
       <c r="E248" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21805,7 +21823,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J248">
         <v>1.95</v>
@@ -21873,16 +21891,16 @@
         <v>7882750</v>
       </c>
       <c r="C249" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D249" s="2">
         <v>45360.72916666666</v>
       </c>
       <c r="E249" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F249" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -21891,7 +21909,7 @@
         <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J249">
         <v>1.533</v>
@@ -21959,16 +21977,16 @@
         <v>7883366</v>
       </c>
       <c r="C250" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D250" s="2">
         <v>45360.75</v>
       </c>
       <c r="E250" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F250" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -21977,7 +21995,7 @@
         <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J250">
         <v>2.3</v>
@@ -22045,16 +22063,16 @@
         <v>7882751</v>
       </c>
       <c r="C251" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D251" s="2">
         <v>45360.91666666666</v>
       </c>
       <c r="E251" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F251" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22063,7 +22081,7 @@
         <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J251">
         <v>2.375</v>
@@ -22131,16 +22149,16 @@
         <v>7883367</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D252" s="2">
         <v>45361.70833333334</v>
       </c>
       <c r="E252" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -22149,7 +22167,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J252">
         <v>2.2</v>
@@ -22217,16 +22235,16 @@
         <v>7882752</v>
       </c>
       <c r="C253" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D253" s="2">
         <v>45361.70833333334</v>
       </c>
       <c r="E253" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F253" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22235,7 +22253,7 @@
         <v>2</v>
       </c>
       <c r="I253" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J253">
         <v>1.3</v>
@@ -22303,16 +22321,16 @@
         <v>7908663</v>
       </c>
       <c r="C254" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D254" s="2">
         <v>45363.9375</v>
       </c>
       <c r="E254" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -22321,7 +22339,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J254">
         <v>1.2</v>
@@ -22389,16 +22407,16 @@
         <v>7908664</v>
       </c>
       <c r="C255" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D255" s="2">
         <v>45364.85416666666</v>
       </c>
       <c r="E255" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -22407,7 +22425,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J255">
         <v>2.15</v>
@@ -22475,16 +22493,16 @@
         <v>7908670</v>
       </c>
       <c r="C256" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D256" s="2">
         <v>45364.95833333334</v>
       </c>
       <c r="E256" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F256" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22493,7 +22511,7 @@
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J256">
         <v>1.615</v>
@@ -22561,16 +22579,16 @@
         <v>7908665</v>
       </c>
       <c r="C257" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D257" s="2">
         <v>45365.64583333334</v>
       </c>
       <c r="E257" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F257" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22579,7 +22597,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J257">
         <v>2.15</v>
@@ -22647,16 +22665,16 @@
         <v>7908666</v>
       </c>
       <c r="C258" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D258" s="2">
         <v>45365.73958333334</v>
       </c>
       <c r="E258" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F258" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G258">
         <v>3</v>
@@ -22665,7 +22683,7 @@
         <v>2</v>
       </c>
       <c r="I258" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J258">
         <v>3.2</v>
@@ -22733,16 +22751,16 @@
         <v>7908667</v>
       </c>
       <c r="C259" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D259" s="2">
         <v>45365.875</v>
       </c>
       <c r="E259" t="s">
+        <v>47</v>
+      </c>
+      <c r="F259" t="s">
         <v>41</v>
-      </c>
-      <c r="F259" t="s">
-        <v>35</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22751,7 +22769,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J259">
         <v>2.2</v>
@@ -22819,16 +22837,16 @@
         <v>7908669</v>
       </c>
       <c r="C260" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D260" s="2">
         <v>45366.63541666666</v>
       </c>
       <c r="E260" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F260" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22837,7 +22855,7 @@
         <v>4</v>
       </c>
       <c r="I260" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J260">
         <v>2.05</v>
@@ -22905,16 +22923,16 @@
         <v>7908671</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D261" s="2">
         <v>45366.72916666666</v>
       </c>
       <c r="E261" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F261" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22923,7 +22941,7 @@
         <v>1</v>
       </c>
       <c r="I261" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J261">
         <v>1.615</v>
@@ -22991,16 +23009,16 @@
         <v>7908668</v>
       </c>
       <c r="C262" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D262" s="2">
         <v>45367.70833333334</v>
       </c>
       <c r="E262" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F262" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -23009,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="I262" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J262">
         <v>1.8</v>
@@ -23077,16 +23095,16 @@
         <v>7971186</v>
       </c>
       <c r="C263" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D263" s="2">
         <v>45379.70833333334</v>
       </c>
       <c r="E263" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F263" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23095,7 +23113,7 @@
         <v>2</v>
       </c>
       <c r="I263" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J263">
         <v>1.615</v>
@@ -23163,16 +23181,16 @@
         <v>7971187</v>
       </c>
       <c r="C264" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D264" s="2">
         <v>45379.91666666666</v>
       </c>
       <c r="E264" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F264" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G264">
         <v>3</v>
@@ -23181,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J264">
         <v>1.333</v>
@@ -23249,16 +23267,16 @@
         <v>7971188</v>
       </c>
       <c r="C265" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D265" s="2">
         <v>45380.875</v>
       </c>
       <c r="E265" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F265" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -23267,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J265">
         <v>1.5</v>
@@ -23335,16 +23353,16 @@
         <v>7971189</v>
       </c>
       <c r="C266" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D266" s="2">
         <v>45381.67708333334</v>
       </c>
       <c r="E266" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F266" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G266">
         <v>3</v>
@@ -23353,7 +23371,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J266">
         <v>1.615</v>
@@ -23421,16 +23439,16 @@
         <v>7971190</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D267" s="2">
         <v>45381.78125</v>
       </c>
       <c r="E267" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F267" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G267">
         <v>2</v>
@@ -23439,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J267">
         <v>1.8</v>
@@ -23507,17 +23525,17 @@
         <v>7971191</v>
       </c>
       <c r="C268" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D268" s="2">
         <v>45381.91666666666</v>
       </c>
       <c r="E268" t="s">
+        <v>42</v>
+      </c>
+      <c r="F268" t="s">
         <v>36</v>
       </c>
-      <c r="F268" t="s">
-        <v>30</v>
-      </c>
       <c r="G268">
         <v>0</v>
       </c>
@@ -23525,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J268">
         <v>3.75</v>
@@ -23593,16 +23611,16 @@
         <v>7971192</v>
       </c>
       <c r="C269" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D269" s="2">
         <v>45382.625</v>
       </c>
       <c r="E269" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F269" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -23611,7 +23629,7 @@
         <v>2</v>
       </c>
       <c r="I269" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J269">
         <v>1.8</v>
@@ -23679,16 +23697,16 @@
         <v>7971193</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D270" s="2">
         <v>45382.70833333334</v>
       </c>
       <c r="E270" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F270" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -23697,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J270">
         <v>1.615</v>
@@ -23765,16 +23783,16 @@
         <v>7971194</v>
       </c>
       <c r="C271" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D271" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E271" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F271" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -23783,7 +23801,7 @@
         <v>2</v>
       </c>
       <c r="I271" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J271">
         <v>4.333</v>
@@ -23851,16 +23869,16 @@
         <v>8011505</v>
       </c>
       <c r="C272" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D272" s="2">
         <v>45387.6875</v>
       </c>
       <c r="E272" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F272" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -23869,7 +23887,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J272">
         <v>1.533</v>
@@ -23937,16 +23955,16 @@
         <v>8011506</v>
       </c>
       <c r="C273" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D273" s="2">
         <v>45387.9375</v>
       </c>
       <c r="E273" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F273" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -23955,7 +23973,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J273">
         <v>1.2</v>
@@ -24023,16 +24041,16 @@
         <v>8011507</v>
       </c>
       <c r="C274" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D274" s="2">
         <v>45388.625</v>
       </c>
       <c r="E274" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G274">
         <v>2</v>
@@ -24041,7 +24059,7 @@
         <v>2</v>
       </c>
       <c r="I274" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J274">
         <v>3</v>
@@ -24109,16 +24127,16 @@
         <v>8011508</v>
       </c>
       <c r="C275" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D275" s="2">
         <v>45388.72916666666</v>
       </c>
       <c r="E275" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G275">
         <v>2</v>
@@ -24127,7 +24145,7 @@
         <v>2</v>
       </c>
       <c r="I275" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J275">
         <v>2.2</v>
@@ -24195,16 +24213,16 @@
         <v>8012287</v>
       </c>
       <c r="C276" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D276" s="2">
         <v>45388.8125</v>
       </c>
       <c r="E276" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F276" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -24213,7 +24231,7 @@
         <v>4</v>
       </c>
       <c r="I276" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J276">
         <v>3.5</v>
@@ -24281,16 +24299,16 @@
         <v>8011509</v>
       </c>
       <c r="C277" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D277" s="2">
         <v>45388.89583333334</v>
       </c>
       <c r="E277" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F277" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -24299,7 +24317,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J277">
         <v>1.4</v>
@@ -24367,16 +24385,16 @@
         <v>8011510</v>
       </c>
       <c r="C278" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D278" s="2">
         <v>45389.625</v>
       </c>
       <c r="E278" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F278" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G278">
         <v>2</v>
@@ -24385,7 +24403,7 @@
         <v>2</v>
       </c>
       <c r="I278" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J278">
         <v>1.727</v>
@@ -24453,16 +24471,16 @@
         <v>8011511</v>
       </c>
       <c r="C279" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D279" s="2">
         <v>45389.72916666666</v>
       </c>
       <c r="E279" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G279">
         <v>4</v>
@@ -24471,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J279">
         <v>1.333</v>
@@ -24539,16 +24557,16 @@
         <v>8011512</v>
       </c>
       <c r="C280" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D280" s="2">
         <v>45390.70833333334</v>
       </c>
       <c r="E280" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F280" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -24557,7 +24575,7 @@
         <v>1</v>
       </c>
       <c r="I280" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J280">
         <v>2.1</v>
@@ -24625,16 +24643,16 @@
         <v>8042070</v>
       </c>
       <c r="C281" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D281" s="2">
         <v>45394.70833333334</v>
       </c>
       <c r="E281" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F281" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24643,7 +24661,7 @@
         <v>2</v>
       </c>
       <c r="I281" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J281">
         <v>1.8</v>
@@ -24711,16 +24729,16 @@
         <v>8042071</v>
       </c>
       <c r="C282" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D282" s="2">
         <v>45395.6875</v>
       </c>
       <c r="E282" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F282" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G282">
         <v>2</v>
@@ -24729,7 +24747,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J282">
         <v>1.727</v>
@@ -24797,16 +24815,16 @@
         <v>8042072</v>
       </c>
       <c r="C283" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D283" s="2">
         <v>45395.79166666666</v>
       </c>
       <c r="E283" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G283">
         <v>2</v>
@@ -24815,7 +24833,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J283">
         <v>1.25</v>
@@ -24883,16 +24901,16 @@
         <v>8071407</v>
       </c>
       <c r="C284" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D284" s="2">
         <v>45395.91666666666</v>
       </c>
       <c r="E284" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F284" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -24901,7 +24919,7 @@
         <v>2</v>
       </c>
       <c r="I284" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J284">
         <v>6</v>
@@ -24969,16 +24987,16 @@
         <v>8042215</v>
       </c>
       <c r="C285" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D285" s="2">
         <v>45396.625</v>
       </c>
       <c r="E285" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F285" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G285">
         <v>3</v>
@@ -24987,7 +25005,7 @@
         <v>1</v>
       </c>
       <c r="I285" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J285">
         <v>1.8</v>
@@ -25055,16 +25073,16 @@
         <v>8042073</v>
       </c>
       <c r="C286" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D286" s="2">
         <v>45396.79166666666</v>
       </c>
       <c r="E286" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F286" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G286">
         <v>3</v>
@@ -25073,7 +25091,7 @@
         <v>2</v>
       </c>
       <c r="I286" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J286">
         <v>1.909</v>
@@ -25141,16 +25159,16 @@
         <v>8042219</v>
       </c>
       <c r="C287" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D287" s="2">
         <v>45396.89583333334</v>
       </c>
       <c r="E287" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F287" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G287">
         <v>2</v>
@@ -25159,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J287">
         <v>1.363</v>
@@ -25227,16 +25245,16 @@
         <v>8042075</v>
       </c>
       <c r="C288" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D288" s="2">
         <v>45397.70833333334</v>
       </c>
       <c r="E288" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F288" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G288">
         <v>2</v>
@@ -25245,7 +25263,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J288">
         <v>1.909</v>
@@ -25313,16 +25331,16 @@
         <v>8071422</v>
       </c>
       <c r="C289" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D289" s="2">
         <v>45397.89583333334</v>
       </c>
       <c r="E289" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F289" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G289">
         <v>2</v>
@@ -25331,7 +25349,7 @@
         <v>3</v>
       </c>
       <c r="I289" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J289">
         <v>4</v>
@@ -25399,16 +25417,16 @@
         <v>8042076</v>
       </c>
       <c r="C290" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D290" s="2">
         <v>45400.91666666666</v>
       </c>
       <c r="E290" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G290">
         <v>3</v>
@@ -25417,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J290">
         <v>1.25</v>
@@ -25485,16 +25503,16 @@
         <v>8042077</v>
       </c>
       <c r="C291" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D291" s="2">
         <v>45401.70833333334</v>
       </c>
       <c r="E291" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -25503,7 +25521,7 @@
         <v>2</v>
       </c>
       <c r="I291" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J291">
         <v>5</v>
@@ -25571,16 +25589,16 @@
         <v>8042078</v>
       </c>
       <c r="C292" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D292" s="2">
         <v>45401.91666666666</v>
       </c>
       <c r="E292" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F292" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -25589,7 +25607,7 @@
         <v>2</v>
       </c>
       <c r="I292" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J292">
         <v>1.727</v>
@@ -25657,16 +25675,16 @@
         <v>8042079</v>
       </c>
       <c r="C293" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D293" s="2">
         <v>45402.625</v>
       </c>
       <c r="E293" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F293" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G293">
         <v>6</v>
@@ -25675,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J293">
         <v>2.375</v>
@@ -25743,16 +25761,16 @@
         <v>8042080</v>
       </c>
       <c r="C294" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D294" s="2">
         <v>45402.72916666666</v>
       </c>
       <c r="E294" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F294" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G294">
         <v>2</v>
@@ -25761,7 +25779,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J294">
         <v>2.5</v>
@@ -25829,16 +25847,16 @@
         <v>8042081</v>
       </c>
       <c r="C295" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D295" s="2">
         <v>45402.72916666666</v>
       </c>
       <c r="E295" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F295" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -25847,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J295">
         <v>2.2</v>
@@ -25915,16 +25933,16 @@
         <v>8042275</v>
       </c>
       <c r="C296" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D296" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E296" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F296" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G296">
         <v>2</v>
@@ -25933,7 +25951,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J296">
         <v>1.4</v>
@@ -26001,16 +26019,16 @@
         <v>8042082</v>
       </c>
       <c r="C297" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D297" s="2">
         <v>45403.6875</v>
       </c>
       <c r="E297" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -26019,7 +26037,7 @@
         <v>2</v>
       </c>
       <c r="I297" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J297">
         <v>2.625</v>
@@ -26087,17 +26105,17 @@
         <v>8042276</v>
       </c>
       <c r="C298" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D298" s="2">
         <v>45405.70833333334</v>
       </c>
       <c r="E298" t="s">
+        <v>55</v>
+      </c>
+      <c r="F298" t="s">
         <v>49</v>
       </c>
-      <c r="F298" t="s">
-        <v>43</v>
-      </c>
       <c r="G298">
         <v>0</v>
       </c>
@@ -26105,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J298">
         <v>2.1</v>
@@ -26173,16 +26191,16 @@
         <v>8042083</v>
       </c>
       <c r="C299" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D299" s="2">
         <v>45408.70833333334</v>
       </c>
       <c r="E299" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F299" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -26191,7 +26209,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J299">
         <v>1.5</v>
@@ -26259,16 +26277,16 @@
         <v>8042084</v>
       </c>
       <c r="C300" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D300" s="2">
         <v>45409.625</v>
       </c>
       <c r="E300" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F300" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -26277,7 +26295,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J300">
         <v>1.615</v>
@@ -26345,16 +26363,16 @@
         <v>8042085</v>
       </c>
       <c r="C301" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D301" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E301" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F301" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G301">
         <v>3</v>
@@ -26363,7 +26381,7 @@
         <v>2</v>
       </c>
       <c r="I301" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J301">
         <v>1.95</v>
@@ -26431,16 +26449,16 @@
         <v>8042086</v>
       </c>
       <c r="C302" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D302" s="2">
         <v>45409.8125</v>
       </c>
       <c r="E302" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F302" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G302">
         <v>2</v>
@@ -26449,7 +26467,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J302">
         <v>2.2</v>
@@ -26517,16 +26535,16 @@
         <v>8042087</v>
       </c>
       <c r="C303" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D303" s="2">
         <v>45410.6875</v>
       </c>
       <c r="E303" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F303" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G303">
         <v>1</v>
@@ -26535,7 +26553,7 @@
         <v>2</v>
       </c>
       <c r="I303" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J303">
         <v>2.2</v>
@@ -26603,16 +26621,16 @@
         <v>8042088</v>
       </c>
       <c r="C304" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D304" s="2">
         <v>45410.8125</v>
       </c>
       <c r="E304" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -26621,7 +26639,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J304">
         <v>2.05</v>
@@ -26689,16 +26707,16 @@
         <v>8132794</v>
       </c>
       <c r="C305" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D305" s="2">
         <v>45410.91666666666</v>
       </c>
       <c r="E305" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F305" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G305">
         <v>6</v>
@@ -26707,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J305">
         <v>1.166</v>
@@ -26775,16 +26793,16 @@
         <v>8042217</v>
       </c>
       <c r="C306" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D306" s="2">
         <v>45410.91666666666</v>
       </c>
       <c r="E306" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F306" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -26793,7 +26811,7 @@
         <v>1</v>
       </c>
       <c r="I306" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J306">
         <v>2</v>
@@ -26851,6 +26869,396 @@
       </c>
       <c r="AB306">
         <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:28">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>27</v>
+      </c>
+      <c r="C307" t="s">
+        <v>33</v>
+      </c>
+      <c r="D307" s="2">
+        <v>45415.70833333334</v>
+      </c>
+      <c r="E307" t="s">
+        <v>35</v>
+      </c>
+      <c r="F307" t="s">
+        <v>36</v>
+      </c>
+      <c r="J307">
+        <v>3.2</v>
+      </c>
+      <c r="K307">
+        <v>3.2</v>
+      </c>
+      <c r="L307">
+        <v>2.2</v>
+      </c>
+      <c r="M307">
+        <v>2.55</v>
+      </c>
+      <c r="N307">
+        <v>3.1</v>
+      </c>
+      <c r="O307">
+        <v>2.75</v>
+      </c>
+      <c r="P307">
+        <v>0</v>
+      </c>
+      <c r="Q307">
+        <v>1.85</v>
+      </c>
+      <c r="R307">
+        <v>2</v>
+      </c>
+      <c r="S307">
+        <v>2.25</v>
+      </c>
+      <c r="T307">
+        <v>1.975</v>
+      </c>
+      <c r="U307">
+        <v>1.875</v>
+      </c>
+      <c r="V307">
+        <v>0</v>
+      </c>
+      <c r="W307">
+        <v>0</v>
+      </c>
+      <c r="X307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:28">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>28</v>
+      </c>
+      <c r="C308" t="s">
+        <v>33</v>
+      </c>
+      <c r="D308" s="2">
+        <v>45415.83333333334</v>
+      </c>
+      <c r="E308" t="s">
+        <v>43</v>
+      </c>
+      <c r="F308" t="s">
+        <v>42</v>
+      </c>
+      <c r="J308">
+        <v>1.615</v>
+      </c>
+      <c r="K308">
+        <v>4</v>
+      </c>
+      <c r="L308">
+        <v>5</v>
+      </c>
+      <c r="M308">
+        <v>1.8</v>
+      </c>
+      <c r="N308">
+        <v>3.8</v>
+      </c>
+      <c r="O308">
+        <v>4.2</v>
+      </c>
+      <c r="P308">
+        <v>-0.5</v>
+      </c>
+      <c r="Q308">
+        <v>1.825</v>
+      </c>
+      <c r="R308">
+        <v>2.025</v>
+      </c>
+      <c r="S308">
+        <v>2.5</v>
+      </c>
+      <c r="T308">
+        <v>1.95</v>
+      </c>
+      <c r="U308">
+        <v>1.9</v>
+      </c>
+      <c r="V308">
+        <v>0</v>
+      </c>
+      <c r="W308">
+        <v>0</v>
+      </c>
+      <c r="X308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:28">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>29</v>
+      </c>
+      <c r="C309" t="s">
+        <v>33</v>
+      </c>
+      <c r="D309" s="2">
+        <v>45415.9375</v>
+      </c>
+      <c r="E309" t="s">
+        <v>48</v>
+      </c>
+      <c r="F309" t="s">
+        <v>52</v>
+      </c>
+      <c r="J309">
+        <v>1.25</v>
+      </c>
+      <c r="K309">
+        <v>5.5</v>
+      </c>
+      <c r="L309">
+        <v>12</v>
+      </c>
+      <c r="M309">
+        <v>1.285</v>
+      </c>
+      <c r="N309">
+        <v>5.25</v>
+      </c>
+      <c r="O309">
+        <v>10</v>
+      </c>
+      <c r="P309">
+        <v>-1.5</v>
+      </c>
+      <c r="Q309">
+        <v>1.925</v>
+      </c>
+      <c r="R309">
+        <v>1.925</v>
+      </c>
+      <c r="S309">
+        <v>2.75</v>
+      </c>
+      <c r="T309">
+        <v>1.975</v>
+      </c>
+      <c r="U309">
+        <v>1.875</v>
+      </c>
+      <c r="V309">
+        <v>0</v>
+      </c>
+      <c r="W309">
+        <v>0</v>
+      </c>
+      <c r="X309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:28">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>30</v>
+      </c>
+      <c r="C310" t="s">
+        <v>33</v>
+      </c>
+      <c r="D310" s="2">
+        <v>45416.625</v>
+      </c>
+      <c r="E310" t="s">
+        <v>53</v>
+      </c>
+      <c r="F310" t="s">
+        <v>50</v>
+      </c>
+      <c r="J310">
+        <v>2.2</v>
+      </c>
+      <c r="K310">
+        <v>3.3</v>
+      </c>
+      <c r="L310">
+        <v>3.2</v>
+      </c>
+      <c r="M310">
+        <v>1.95</v>
+      </c>
+      <c r="N310">
+        <v>3.25</v>
+      </c>
+      <c r="O310">
+        <v>3.5</v>
+      </c>
+      <c r="P310">
+        <v>-0.5</v>
+      </c>
+      <c r="Q310">
+        <v>2.025</v>
+      </c>
+      <c r="R310">
+        <v>1.825</v>
+      </c>
+      <c r="S310">
+        <v>2.5</v>
+      </c>
+      <c r="T310">
+        <v>1.85</v>
+      </c>
+      <c r="U310">
+        <v>2</v>
+      </c>
+      <c r="V310">
+        <v>0</v>
+      </c>
+      <c r="W310">
+        <v>0</v>
+      </c>
+      <c r="X310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:28">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>31</v>
+      </c>
+      <c r="C311" t="s">
+        <v>33</v>
+      </c>
+      <c r="D311" s="2">
+        <v>45416.72916666666</v>
+      </c>
+      <c r="E311" t="s">
+        <v>55</v>
+      </c>
+      <c r="F311" t="s">
+        <v>54</v>
+      </c>
+      <c r="J311">
+        <v>1.615</v>
+      </c>
+      <c r="K311">
+        <v>3.75</v>
+      </c>
+      <c r="L311">
+        <v>5.5</v>
+      </c>
+      <c r="M311">
+        <v>1.8</v>
+      </c>
+      <c r="N311">
+        <v>3.5</v>
+      </c>
+      <c r="O311">
+        <v>4.5</v>
+      </c>
+      <c r="P311">
+        <v>-0.75</v>
+      </c>
+      <c r="Q311">
+        <v>2.05</v>
+      </c>
+      <c r="R311">
+        <v>1.8</v>
+      </c>
+      <c r="S311">
+        <v>2.5</v>
+      </c>
+      <c r="T311">
+        <v>2</v>
+      </c>
+      <c r="U311">
+        <v>1.85</v>
+      </c>
+      <c r="V311">
+        <v>0</v>
+      </c>
+      <c r="W311">
+        <v>0</v>
+      </c>
+      <c r="X311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:28">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>32</v>
+      </c>
+      <c r="C312" t="s">
+        <v>33</v>
+      </c>
+      <c r="D312" s="2">
+        <v>45417.54166666666</v>
+      </c>
+      <c r="E312" t="s">
+        <v>34</v>
+      </c>
+      <c r="F312" t="s">
+        <v>49</v>
+      </c>
+      <c r="J312">
+        <v>1.09</v>
+      </c>
+      <c r="K312">
+        <v>8</v>
+      </c>
+      <c r="L312">
+        <v>23</v>
+      </c>
+      <c r="M312">
+        <v>1.142</v>
+      </c>
+      <c r="N312">
+        <v>9.5</v>
+      </c>
+      <c r="O312">
+        <v>13</v>
+      </c>
+      <c r="P312">
+        <v>-2.25</v>
+      </c>
+      <c r="Q312">
+        <v>2</v>
+      </c>
+      <c r="R312">
+        <v>1.85</v>
+      </c>
+      <c r="S312">
+        <v>3.25</v>
+      </c>
+      <c r="T312">
+        <v>1.975</v>
+      </c>
+      <c r="U312">
+        <v>1.875</v>
+      </c>
+      <c r="V312">
+        <v>0</v>
+      </c>
+      <c r="W312">
+        <v>0</v>
+      </c>
+      <c r="X312">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Peru Liga 1/Peru Liga 1.xlsx
+++ b/Peru Liga 1/Peru Liga 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -97,22 +97,25 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8085915</t>
-  </si>
-  <si>
-    <t>8129096</t>
-  </si>
-  <si>
     <t>8085916</t>
   </si>
   <si>
     <t>8086336</t>
   </si>
   <si>
+    <t>8086253</t>
+  </si>
+  <si>
     <t>8086337</t>
   </si>
   <si>
     <t>8086338</t>
+  </si>
+  <si>
+    <t>8086339</t>
+  </si>
+  <si>
+    <t>8086340</t>
   </si>
   <si>
     <t>Peru Liga 1</t>
@@ -552,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB312"/>
+  <dimension ref="A1:AB313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,16 +652,16 @@
         <v>6668354</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45078.91666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -667,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>1.363</v>
@@ -735,16 +738,16 @@
         <v>6668355</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45079.91666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -753,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3">
         <v>2.8</v>
@@ -821,16 +824,16 @@
         <v>6668356</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45079.9375</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -839,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4">
         <v>1.363</v>
@@ -907,16 +910,16 @@
         <v>6668357</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -925,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>1.8</v>
@@ -993,16 +996,16 @@
         <v>6668358</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1011,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <v>1.4</v>
@@ -1079,16 +1082,16 @@
         <v>6668359</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45080.9375</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1097,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7">
         <v>1.444</v>
@@ -1165,16 +1168,16 @@
         <v>6668360</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45081.625</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1183,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>1.3</v>
@@ -1251,16 +1254,16 @@
         <v>6668361</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45081.72916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1269,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>2.875</v>
@@ -1337,16 +1340,16 @@
         <v>6667842</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45081.83333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1355,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10">
         <v>1.4</v>
@@ -1423,16 +1426,16 @@
         <v>6695540</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45086.875</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1441,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11">
         <v>1.285</v>
@@ -1509,16 +1512,16 @@
         <v>6695541</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45087.625</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1527,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J12">
         <v>2.375</v>
@@ -1595,16 +1598,16 @@
         <v>6695543</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45087.72916666666</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1613,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J13">
         <v>3.2</v>
@@ -1681,16 +1684,16 @@
         <v>6695542</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1699,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14">
         <v>1.444</v>
@@ -1767,16 +1770,16 @@
         <v>6695544</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45087.91666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1785,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15">
         <v>1.95</v>
@@ -1853,16 +1856,16 @@
         <v>6745593</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45087.9375</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1871,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16">
         <v>1.363</v>
@@ -1939,16 +1942,16 @@
         <v>6695545</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45088.625</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1957,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J17">
         <v>3.4</v>
@@ -2025,16 +2028,16 @@
         <v>6695547</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45088.72916666666</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2043,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2111,16 +2114,16 @@
         <v>6695548</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45088.83333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2129,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>2.45</v>
@@ -2197,16 +2200,16 @@
         <v>6765455</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45099.70833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2215,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2283,16 +2286,16 @@
         <v>6765456</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45099.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -2301,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J21">
         <v>1.363</v>
@@ -2369,16 +2372,16 @@
         <v>6765888</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45099.875</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2387,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J22">
         <v>2.5</v>
@@ -2455,16 +2458,16 @@
         <v>6765457</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45100.91666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2473,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J23">
         <v>1.363</v>
@@ -2541,16 +2544,16 @@
         <v>6765458</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45101.72916666666</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2559,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J24">
         <v>1.571</v>
@@ -2627,16 +2630,16 @@
         <v>6765459</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45101.91666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2645,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J25">
         <v>1.95</v>
@@ -2713,16 +2716,16 @@
         <v>6767120</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45102.625</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2731,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J26">
         <v>1.615</v>
@@ -2799,16 +2802,16 @@
         <v>6765460</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45102.72916666666</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2817,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J27">
         <v>2.2</v>
@@ -2885,16 +2888,16 @@
         <v>6765461</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45103.72916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2903,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J28">
         <v>1.615</v>
@@ -2971,17 +2974,17 @@
         <v>6779407</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45107.72916666666</v>
       </c>
       <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
         <v>52</v>
       </c>
-      <c r="F29" t="s">
-        <v>51</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J29">
         <v>2.6</v>
@@ -3057,16 +3060,16 @@
         <v>6778791</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45108.72916666666</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3075,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J30">
         <v>1.95</v>
@@ -3143,16 +3146,16 @@
         <v>6779502</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45108.83333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3161,7 +3164,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J31">
         <v>2.8</v>
@@ -3229,16 +3232,16 @@
         <v>6778792</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45108.9375</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3247,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J32">
         <v>7</v>
@@ -3315,16 +3318,16 @@
         <v>6778793</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45109.625</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3333,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J33">
         <v>1.285</v>
@@ -3401,16 +3404,16 @@
         <v>6778794</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45109.72916666666</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3419,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J34">
         <v>1.444</v>
@@ -3487,16 +3490,16 @@
         <v>6778943</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45110.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3505,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J35">
         <v>1.95</v>
@@ -3573,16 +3576,16 @@
         <v>6778944</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45110.9375</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3591,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J36">
         <v>1.3</v>
@@ -3659,16 +3662,16 @@
         <v>6778795</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45111.72916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3677,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J37">
         <v>1.5</v>
@@ -3745,16 +3748,16 @@
         <v>6830814</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45114.70833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3763,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J38">
         <v>1.5</v>
@@ -3831,16 +3834,16 @@
         <v>6831296</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45114.91666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3849,7 +3852,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J39">
         <v>8</v>
@@ -3917,16 +3920,16 @@
         <v>6830815</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45115.625</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3935,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J40">
         <v>2.3</v>
@@ -4003,16 +4006,16 @@
         <v>6830816</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45115.72916666666</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4021,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J41">
         <v>1.6</v>
@@ -4089,16 +4092,16 @@
         <v>6833100</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45115.875</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4107,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -4175,16 +4178,16 @@
         <v>6830817</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45116.625</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4193,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4261,16 +4264,16 @@
         <v>6833133</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45116.89583333334</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4279,7 +4282,7 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J44">
         <v>2.05</v>
@@ -4347,16 +4350,16 @@
         <v>6830818</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45117.71875</v>
       </c>
       <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
         <v>51</v>
-      </c>
-      <c r="F45" t="s">
-        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4365,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4433,16 +4436,16 @@
         <v>6863724</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45121.72916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4451,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4519,16 +4522,16 @@
         <v>6863007</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45121.95833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4537,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J47">
         <v>1.2</v>
@@ -4605,16 +4608,16 @@
         <v>6863725</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45122.625</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4623,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J48">
         <v>1.55</v>
@@ -4691,16 +4694,16 @@
         <v>6863726</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45122.71875</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4709,7 +4712,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J49">
         <v>1.25</v>
@@ -4777,16 +4780,16 @@
         <v>6863008</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45122.875</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4795,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J50">
         <v>1.333</v>
@@ -4863,16 +4866,16 @@
         <v>6863727</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45123.625</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4881,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J51">
         <v>1.444</v>
@@ -4949,16 +4952,16 @@
         <v>6863729</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45123.70833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4967,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J52">
         <v>7.5</v>
@@ -5035,16 +5038,16 @@
         <v>6863728</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45123.79166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5053,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J53">
         <v>2.1</v>
@@ -5121,16 +5124,16 @@
         <v>6863730</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45124.70833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5139,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -5207,16 +5210,16 @@
         <v>6905543</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45128.625</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5225,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J55">
         <v>3</v>
@@ -5293,16 +5296,16 @@
         <v>6905576</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45128.90625</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5311,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5379,16 +5382,16 @@
         <v>6905577</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45129.625</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5397,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J57">
         <v>2.2</v>
@@ -5465,16 +5468,16 @@
         <v>6905564</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45129.9375</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5483,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J58">
         <v>2.2</v>
@@ -5551,16 +5554,16 @@
         <v>6905579</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45130.625</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5569,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J59">
         <v>2.1</v>
@@ -5637,16 +5640,16 @@
         <v>6905580</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5655,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5723,16 +5726,16 @@
         <v>6905578</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45130.72916666666</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5741,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J61">
         <v>1.75</v>
@@ -5809,16 +5812,16 @@
         <v>6905571</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45130.72916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5827,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J62">
         <v>2.1</v>
@@ -5895,16 +5898,16 @@
         <v>6905581</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45131.625</v>
       </c>
       <c r="E63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" t="s">
         <v>38</v>
-      </c>
-      <c r="F63" t="s">
-        <v>37</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -5913,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J63">
         <v>1.444</v>
@@ -5981,16 +5984,16 @@
         <v>6958820</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45134.70833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -5999,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J64">
         <v>1.2</v>
@@ -6067,16 +6070,16 @@
         <v>6958984</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45135.70833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6085,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J65">
         <v>1.285</v>
@@ -6153,16 +6156,16 @@
         <v>6958985</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45136.71875</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6171,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J66">
         <v>1.5</v>
@@ -6239,16 +6242,16 @@
         <v>6958821</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45136.9375</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6257,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J67">
         <v>2.7</v>
@@ -6325,16 +6328,16 @@
         <v>6958978</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45137.625</v>
       </c>
       <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s">
         <v>40</v>
-      </c>
-      <c r="F68" t="s">
-        <v>39</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6343,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J68">
         <v>1.833</v>
@@ -6411,16 +6414,16 @@
         <v>6958822</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45138.625</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6429,7 +6432,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J69">
         <v>3.3</v>
@@ -6497,16 +6500,16 @@
         <v>6958986</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45138.71875</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6515,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J70">
         <v>1.363</v>
@@ -6583,16 +6586,16 @@
         <v>6958743</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45138.9375</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6601,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J71">
         <v>1.333</v>
@@ -6669,16 +6672,16 @@
         <v>6958987</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45139.70833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6687,7 +6690,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6755,16 +6758,16 @@
         <v>6970427</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45142.625</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6773,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J73">
         <v>2.375</v>
@@ -6841,16 +6844,16 @@
         <v>6970428</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45143.71527777778</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74">
         <v>4</v>
@@ -6859,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J74">
         <v>1.533</v>
@@ -6927,16 +6930,16 @@
         <v>6970388</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45143.91666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6945,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J75">
         <v>1.333</v>
@@ -7013,16 +7016,16 @@
         <v>6970429</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45144.625</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7031,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J76">
         <v>2.15</v>
@@ -7099,16 +7102,16 @@
         <v>6970430</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45144.70833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7117,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J77">
         <v>2.625</v>
@@ -7185,16 +7188,16 @@
         <v>6970389</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45144.71875</v>
       </c>
       <c r="E78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" t="s">
         <v>35</v>
-      </c>
-      <c r="F78" t="s">
-        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7203,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J78">
         <v>2.75</v>
@@ -7271,16 +7274,16 @@
         <v>6970069</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7289,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J79">
         <v>2.05</v>
@@ -7357,16 +7360,16 @@
         <v>6970431</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45145.625</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7375,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J80">
         <v>3.4</v>
@@ -7443,16 +7446,16 @@
         <v>6970432</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45145.71875</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -7461,7 +7464,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J81">
         <v>1.4</v>
@@ -7529,16 +7532,16 @@
         <v>7006003</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45149.625</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7547,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J82">
         <v>1.363</v>
@@ -7615,16 +7618,16 @@
         <v>7006004</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45149.71875</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7633,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J83">
         <v>1.833</v>
@@ -7701,16 +7704,16 @@
         <v>7006111</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45149.91666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7719,7 +7722,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J84">
         <v>2.5</v>
@@ -7787,16 +7790,16 @@
         <v>7006007</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45150.625</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7805,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J85">
         <v>2.375</v>
@@ -7873,16 +7876,16 @@
         <v>7006005</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45150.71875</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7891,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J86">
         <v>1.3</v>
@@ -7959,16 +7962,16 @@
         <v>7006006</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45150.875</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7977,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J87">
         <v>1.181</v>
@@ -8045,16 +8048,16 @@
         <v>7006008</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45151.625</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8063,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J88">
         <v>1.363</v>
@@ -8131,16 +8134,16 @@
         <v>7006010</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45151.71875</v>
       </c>
       <c r="E89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8149,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J89">
         <v>2.9</v>
@@ -8217,17 +8220,17 @@
         <v>7006011</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45153.625</v>
       </c>
       <c r="E90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" t="s">
         <v>44</v>
       </c>
-      <c r="F90" t="s">
-        <v>43</v>
-      </c>
       <c r="G90">
         <v>2</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J90">
         <v>2.375</v>
@@ -8303,16 +8306,16 @@
         <v>7006012</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45153.71875</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8321,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J91">
         <v>2.45</v>
@@ -8389,16 +8392,16 @@
         <v>7006013</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45153.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8407,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J92">
         <v>1.333</v>
@@ -8475,16 +8478,16 @@
         <v>7006888</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45154.71875</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8493,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J93">
         <v>3.2</v>
@@ -8561,16 +8564,16 @@
         <v>7006014</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45154.8125</v>
       </c>
       <c r="E94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8579,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J94">
         <v>2.1</v>
@@ -8647,16 +8650,16 @@
         <v>7006015</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45154.83333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8665,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J95">
         <v>1.571</v>
@@ -8733,16 +8736,16 @@
         <v>7006112</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45154.9375</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8751,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J96">
         <v>1.615</v>
@@ -8819,16 +8822,16 @@
         <v>7006017</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45155.70833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8837,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J97">
         <v>1.6</v>
@@ -8905,16 +8908,16 @@
         <v>7006016</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45155.71875</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8923,7 +8926,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J98">
         <v>3.3</v>
@@ -8991,16 +8994,16 @@
         <v>7006018</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45157.625</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9009,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J99">
         <v>1.8</v>
@@ -9077,16 +9080,16 @@
         <v>7006019</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45157.72916666666</v>
       </c>
       <c r="E100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9095,7 +9098,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J100">
         <v>2.7</v>
@@ -9163,16 +9166,16 @@
         <v>7006020</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45157.82291666666</v>
       </c>
       <c r="E101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9181,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9249,16 +9252,16 @@
         <v>7006021</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45157.89583333334</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9267,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J102">
         <v>1.444</v>
@@ -9335,16 +9338,16 @@
         <v>7006110</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45158.72916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9353,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J103">
         <v>1.2</v>
@@ -9421,16 +9424,16 @@
         <v>7006022</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45158.83333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9439,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J104">
         <v>2.2</v>
@@ -9507,16 +9510,16 @@
         <v>7006023</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45159.625</v>
       </c>
       <c r="E105" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" t="s">
         <v>41</v>
-      </c>
-      <c r="F105" t="s">
-        <v>40</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9525,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J105">
         <v>2</v>
@@ -9593,16 +9596,16 @@
         <v>7006024</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45159.71875</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9611,7 +9614,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J106">
         <v>1.75</v>
@@ -9679,16 +9682,16 @@
         <v>7006889</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45159.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9697,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J107">
         <v>1.8</v>
@@ -9765,16 +9768,16 @@
         <v>7047261</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45164.625</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9783,7 +9786,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J108">
         <v>1.909</v>
@@ -9851,16 +9854,16 @@
         <v>7046377</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45164.70833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9869,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J109">
         <v>2</v>
@@ -9937,16 +9940,16 @@
         <v>7046378</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9955,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J110">
         <v>1.727</v>
@@ -10023,16 +10026,16 @@
         <v>7046379</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45164.9375</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10041,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J111">
         <v>1.333</v>
@@ -10109,16 +10112,16 @@
         <v>7046702</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45165.625</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10127,7 +10130,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J112">
         <v>3.5</v>
@@ -10195,16 +10198,16 @@
         <v>7046380</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45165.70833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10213,7 +10216,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J113">
         <v>2.625</v>
@@ -10281,16 +10284,16 @@
         <v>7047262</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45165.72916666666</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10299,7 +10302,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J114">
         <v>1.5</v>
@@ -10367,16 +10370,16 @@
         <v>7046381</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45166.625</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10385,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J115">
         <v>1.615</v>
@@ -10453,16 +10456,16 @@
         <v>7046382</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45166.71875</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10471,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J116">
         <v>1.533</v>
@@ -10539,16 +10542,16 @@
         <v>7094995</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45171.625</v>
       </c>
       <c r="E117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10557,7 +10560,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J117">
         <v>2.1</v>
@@ -10625,16 +10628,16 @@
         <v>7094996</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45171.71875</v>
       </c>
       <c r="E118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10643,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J118">
         <v>1.8</v>
@@ -10711,16 +10714,16 @@
         <v>7094997</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45172.625</v>
       </c>
       <c r="E119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10729,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J119">
         <v>1.444</v>
@@ -10797,16 +10800,16 @@
         <v>7094998</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45172.71875</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10815,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J120">
         <v>1.909</v>
@@ -10883,16 +10886,16 @@
         <v>7095201</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45173.71875</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G121">
         <v>5</v>
@@ -10901,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J121">
         <v>1.615</v>
@@ -10969,16 +10972,16 @@
         <v>7094999</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45178.70833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10987,7 +10990,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J122">
         <v>9</v>
@@ -11055,16 +11058,16 @@
         <v>7095202</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45178.875</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11073,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J123">
         <v>2.375</v>
@@ -11141,16 +11144,16 @@
         <v>7095203</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45179.70833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11159,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J124">
         <v>4.5</v>
@@ -11227,16 +11230,16 @@
         <v>7095000</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45179.875</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11245,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J125">
         <v>1.25</v>
@@ -11313,16 +11316,16 @@
         <v>7123772</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45184.625</v>
       </c>
       <c r="E126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11331,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J126">
         <v>1.95</v>
@@ -11399,16 +11402,16 @@
         <v>7123773</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45184.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11417,7 +11420,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J127">
         <v>1.615</v>
@@ -11485,16 +11488,16 @@
         <v>7123358</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45184.72222222222</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11503,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J128">
         <v>1.25</v>
@@ -11571,16 +11574,16 @@
         <v>7123774</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45184.875</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11589,7 +11592,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J129">
         <v>1.909</v>
@@ -11657,16 +11660,16 @@
         <v>7123775</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45185.625</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11675,7 +11678,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J130">
         <v>4.5</v>
@@ -11743,16 +11746,16 @@
         <v>7123783</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45185.75</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11761,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J131">
         <v>1.8</v>
@@ -11829,16 +11832,16 @@
         <v>7123145</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45185.9375</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11847,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -11915,16 +11918,16 @@
         <v>7123776</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45186.70833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11933,7 +11936,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J133">
         <v>2.2</v>
@@ -12001,16 +12004,16 @@
         <v>7123777</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45186.85416666666</v>
       </c>
       <c r="E134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -12019,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J134">
         <v>1.2</v>
@@ -12087,16 +12090,16 @@
         <v>7123778</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45188.625</v>
       </c>
       <c r="E135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12105,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12173,16 +12176,16 @@
         <v>7123359</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45188.72222222222</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12191,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J136">
         <v>7</v>
@@ -12259,16 +12262,16 @@
         <v>7123779</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45189.625</v>
       </c>
       <c r="E137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12277,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12345,16 +12348,16 @@
         <v>7123780</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45189.72916666666</v>
       </c>
       <c r="E138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>5</v>
@@ -12363,7 +12366,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12431,16 +12434,16 @@
         <v>7123781</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45189.85416666666</v>
       </c>
       <c r="E139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12449,7 +12452,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J139">
         <v>1.909</v>
@@ -12517,16 +12520,16 @@
         <v>7123146</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45189.9375</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12535,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J140">
         <v>1.25</v>
@@ -12603,16 +12606,16 @@
         <v>7123784</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45190.625</v>
       </c>
       <c r="E141" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12621,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J141">
         <v>1.727</v>
@@ -12689,16 +12692,16 @@
         <v>7123782</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45190.72222222222</v>
       </c>
       <c r="E142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12707,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J142">
         <v>1.666</v>
@@ -12775,16 +12778,16 @@
         <v>7124242</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45190.91666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12793,7 +12796,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J143">
         <v>3.1</v>
@@ -12861,16 +12864,16 @@
         <v>7211634</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45192.70833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12879,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J144">
         <v>1.5</v>
@@ -12947,16 +12950,16 @@
         <v>7211635</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45193.625</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12965,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J145">
         <v>1.533</v>
@@ -13033,16 +13036,16 @@
         <v>7211636</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45193.70833333334</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13051,7 +13054,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J146">
         <v>2.4</v>
@@ -13119,16 +13122,16 @@
         <v>7211560</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45193.71875</v>
       </c>
       <c r="E147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13137,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J147">
         <v>1.2</v>
@@ -13205,16 +13208,16 @@
         <v>7211561</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45193.80208333334</v>
       </c>
       <c r="E148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13223,7 +13226,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J148">
         <v>4</v>
@@ -13291,16 +13294,16 @@
         <v>7211637</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45193.89583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13309,7 +13312,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J149">
         <v>2.05</v>
@@ -13377,16 +13380,16 @@
         <v>7211638</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45194.625</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13395,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J150">
         <v>3.5</v>
@@ -13463,16 +13466,16 @@
         <v>7227155</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45194.70833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13481,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13549,16 +13552,16 @@
         <v>7211562</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45194.91666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13567,7 +13570,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J152">
         <v>1.2</v>
@@ -13635,16 +13638,16 @@
         <v>7211639</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45197.625</v>
       </c>
       <c r="E153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13653,7 +13656,7 @@
         <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13721,16 +13724,16 @@
         <v>7211873</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45197.83333333334</v>
       </c>
       <c r="E154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13739,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J154">
         <v>2.75</v>
@@ -13807,16 +13810,16 @@
         <v>7211563</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45197.9375</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13825,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J155">
         <v>1.8</v>
@@ -13893,16 +13896,16 @@
         <v>7211640</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45198.70833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13911,7 +13914,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J156">
         <v>1.615</v>
@@ -13979,16 +13982,16 @@
         <v>7211641</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45198.70833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13997,7 +14000,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J157">
         <v>1.125</v>
@@ -14065,16 +14068,16 @@
         <v>7211564</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45198.83333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14083,7 +14086,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J158">
         <v>2.625</v>
@@ -14151,16 +14154,16 @@
         <v>7211642</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45199.70833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14169,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J159">
         <v>1.5</v>
@@ -14237,16 +14240,16 @@
         <v>7211643</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45200.625</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14255,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J160">
         <v>2.2</v>
@@ -14323,16 +14326,16 @@
         <v>7211644</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45200.72222222222</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14341,7 +14344,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J161">
         <v>4.5</v>
@@ -14409,16 +14412,16 @@
         <v>7228938</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45201.9375</v>
       </c>
       <c r="E162" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14427,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J162">
         <v>1.5</v>
@@ -14495,16 +14498,16 @@
         <v>7229017</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45202.70833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14513,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J163">
         <v>1.571</v>
@@ -14581,16 +14584,16 @@
         <v>7229362</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45202.71875</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14599,7 +14602,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J164">
         <v>2.2</v>
@@ -14667,16 +14670,16 @@
         <v>7229018</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45202.83333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14685,7 +14688,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J165">
         <v>1.111</v>
@@ -14753,16 +14756,16 @@
         <v>7229019</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45202.9375</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14771,7 +14774,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J166">
         <v>2.375</v>
@@ -14839,16 +14842,16 @@
         <v>7229363</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45206.625</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G167">
         <v>4</v>
@@ -14857,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J167">
         <v>3.2</v>
@@ -14925,16 +14928,16 @@
         <v>7229352</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45206.70833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14943,7 +14946,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J168">
         <v>1.285</v>
@@ -15011,16 +15014,16 @@
         <v>7229353</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45207.625</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15029,7 +15032,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J169">
         <v>2.1</v>
@@ -15097,16 +15100,16 @@
         <v>7229020</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45207.72222222222</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15115,7 +15118,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J170">
         <v>1.4</v>
@@ -15183,16 +15186,16 @@
         <v>7302198</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45219.70833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15201,7 +15204,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J171">
         <v>2.1</v>
@@ -15269,16 +15272,16 @@
         <v>7302794</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45220.625</v>
       </c>
       <c r="E172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15287,7 +15290,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J172">
         <v>1.4</v>
@@ -15355,16 +15358,16 @@
         <v>7302199</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45220.75</v>
       </c>
       <c r="E173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15373,7 +15376,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15441,16 +15444,16 @@
         <v>7302798</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45220.91666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15459,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J174">
         <v>3.5</v>
@@ -15527,16 +15530,16 @@
         <v>7302795</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+   